--- a/TraysFastUpdate/wwwroot/Trays.xlsx
+++ b/TraysFastUpdate/wwwroot/Trays.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Trays" sheetId="1" r:id="R2807d9a52f12492d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Trays" sheetId="1" r:id="R00e26a0dcbfe4fbe"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -68,7 +68,7 @@
       <x:c r="F2" t="n">
         <x:v>7838.070</x:v>
       </x:c>
-      <x:c r="G2" t="n">
+      <x:c r="G2" t="str">
         <x:v>75.67</x:v>
       </x:c>
     </x:row>
@@ -91,7 +91,7 @@
       <x:c r="F3" t="n">
         <x:v>23600.619</x:v>
       </x:c>
-      <x:c r="G3" t="n">
+      <x:c r="G3" t="str">
         <x:v>63.60</x:v>
       </x:c>
     </x:row>
@@ -114,7 +114,7 @@
       <x:c r="F4" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G4" t="n">
+      <x:c r="G4" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -137,7 +137,7 @@
       <x:c r="F5" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G5" t="n">
+      <x:c r="G5" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -160,7 +160,7 @@
       <x:c r="F6" t="n">
         <x:v>1700.619</x:v>
       </x:c>
-      <x:c r="G6" t="n">
+      <x:c r="G6" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -183,7 +183,7 @@
       <x:c r="F7" t="n">
         <x:v>1700.619</x:v>
       </x:c>
-      <x:c r="G7" t="n">
+      <x:c r="G7" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -206,7 +206,7 @@
       <x:c r="F8" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G8" t="n">
+      <x:c r="G8" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -229,7 +229,7 @@
       <x:c r="F9" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G9" t="n">
+      <x:c r="G9" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -252,7 +252,7 @@
       <x:c r="F10" t="n">
         <x:v>6325.284</x:v>
       </x:c>
-      <x:c r="G10" t="n">
+      <x:c r="G10" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -275,7 +275,7 @@
       <x:c r="F11" t="n">
         <x:v>6325.284</x:v>
       </x:c>
-      <x:c r="G11" t="n">
+      <x:c r="G11" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -298,7 +298,7 @@
       <x:c r="F12" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G12" t="n">
+      <x:c r="G12" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -321,7 +321,7 @@
       <x:c r="F13" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G13" t="n">
+      <x:c r="G13" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -344,7 +344,7 @@
       <x:c r="F14" t="n">
         <x:v>5764.057</x:v>
       </x:c>
-      <x:c r="G14" t="n">
+      <x:c r="G14" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -367,7 +367,7 @@
       <x:c r="F15" t="n">
         <x:v>3000.000</x:v>
       </x:c>
-      <x:c r="G15" t="n">
+      <x:c r="G15" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -390,7 +390,7 @@
       <x:c r="F16" t="n">
         <x:v>3000.000</x:v>
       </x:c>
-      <x:c r="G16" t="n">
+      <x:c r="G16" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -413,7 +413,7 @@
       <x:c r="F17" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G17" t="n">
+      <x:c r="G17" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -436,7 +436,7 @@
       <x:c r="F18" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G18" t="n">
+      <x:c r="G18" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -459,7 +459,7 @@
       <x:c r="F19" t="n">
         <x:v>1300.619</x:v>
       </x:c>
-      <x:c r="G19" t="n">
+      <x:c r="G19" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -482,7 +482,7 @@
       <x:c r="F20" t="n">
         <x:v>1300.619</x:v>
       </x:c>
-      <x:c r="G20" t="n">
+      <x:c r="G20" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -505,7 +505,7 @@
       <x:c r="F21" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G21" t="n">
+      <x:c r="G21" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -528,7 +528,7 @@
       <x:c r="F22" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G22" t="n">
+      <x:c r="G22" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -551,7 +551,7 @@
       <x:c r="F23" t="n">
         <x:v>11439.220</x:v>
       </x:c>
-      <x:c r="G23" t="n">
+      <x:c r="G23" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -574,7 +574,7 @@
       <x:c r="F24" t="n">
         <x:v>11439.220</x:v>
       </x:c>
-      <x:c r="G24" t="n">
+      <x:c r="G24" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -597,7 +597,7 @@
       <x:c r="F25" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G25" t="n">
+      <x:c r="G25" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -620,7 +620,7 @@
       <x:c r="F26" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G26" t="n">
+      <x:c r="G26" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -643,7 +643,7 @@
       <x:c r="F27" t="n">
         <x:v>5642.599</x:v>
       </x:c>
-      <x:c r="G27" t="n">
+      <x:c r="G27" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -666,7 +666,7 @@
       <x:c r="F28" t="n">
         <x:v>5643.821</x:v>
       </x:c>
-      <x:c r="G28" t="n">
+      <x:c r="G28" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -689,7 +689,7 @@
       <x:c r="F29" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G29" t="n">
+      <x:c r="G29" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -712,7 +712,7 @@
       <x:c r="F30" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G30" t="n">
+      <x:c r="G30" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -735,7 +735,7 @@
       <x:c r="F31" t="n">
         <x:v>1800.000</x:v>
       </x:c>
-      <x:c r="G31" t="n">
+      <x:c r="G31" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -758,7 +758,7 @@
       <x:c r="F32" t="n">
         <x:v>1800.000</x:v>
       </x:c>
-      <x:c r="G32" t="n">
+      <x:c r="G32" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -781,7 +781,7 @@
       <x:c r="F33" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G33" t="n">
+      <x:c r="G33" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -804,7 +804,7 @@
       <x:c r="F34" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G34" t="n">
+      <x:c r="G34" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -827,7 +827,7 @@
       <x:c r="F35" t="n">
         <x:v>5830.812</x:v>
       </x:c>
-      <x:c r="G35" t="n">
+      <x:c r="G35" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -850,7 +850,7 @@
       <x:c r="F36" t="n">
         <x:v>5830.812</x:v>
       </x:c>
-      <x:c r="G36" t="n">
+      <x:c r="G36" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -873,7 +873,7 @@
       <x:c r="F37" t="n">
         <x:v>4970.900</x:v>
       </x:c>
-      <x:c r="G37" t="n">
+      <x:c r="G37" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -896,7 +896,7 @@
       <x:c r="F38" t="n">
         <x:v>11174.950</x:v>
       </x:c>
-      <x:c r="G38" t="n">
+      <x:c r="G38" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -919,7 +919,7 @@
       <x:c r="F39" t="n">
         <x:v>10327.774</x:v>
       </x:c>
-      <x:c r="G39" t="n">
+      <x:c r="G39" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -942,7 +942,7 @@
       <x:c r="F40" t="n">
         <x:v>25905.369</x:v>
       </x:c>
-      <x:c r="G40" t="n">
+      <x:c r="G40" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -965,7 +965,7 @@
       <x:c r="F41" t="n">
         <x:v>25105.369</x:v>
       </x:c>
-      <x:c r="G41" t="n">
+      <x:c r="G41" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -988,7 +988,7 @@
       <x:c r="F42" t="n">
         <x:v>10326.481</x:v>
       </x:c>
-      <x:c r="G42" t="n">
+      <x:c r="G42" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1011,7 +1011,7 @@
       <x:c r="F43" t="n">
         <x:v>11174.424</x:v>
       </x:c>
-      <x:c r="G43" t="n">
+      <x:c r="G43" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1034,7 +1034,7 @@
       <x:c r="F44" t="n">
         <x:v>4218.868</x:v>
       </x:c>
-      <x:c r="G44" t="n">
+      <x:c r="G44" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1057,7 +1057,7 @@
       <x:c r="F45" t="n">
         <x:v>5764.057</x:v>
       </x:c>
-      <x:c r="G45" t="n">
+      <x:c r="G45" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1080,7 +1080,7 @@
       <x:c r="F46" t="n">
         <x:v>5642.620</x:v>
       </x:c>
-      <x:c r="G46" t="n">
+      <x:c r="G46" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1103,7 +1103,7 @@
       <x:c r="F47" t="n">
         <x:v>5642.620</x:v>
       </x:c>
-      <x:c r="G47" t="n">
+      <x:c r="G47" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1126,7 +1126,7 @@
       <x:c r="F48" t="n">
         <x:v>7736.447</x:v>
       </x:c>
-      <x:c r="G48" t="n">
+      <x:c r="G48" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1149,7 +1149,7 @@
       <x:c r="F49" t="n">
         <x:v>7736.447</x:v>
       </x:c>
-      <x:c r="G49" t="n">
+      <x:c r="G49" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1172,7 +1172,7 @@
       <x:c r="F50" t="n">
         <x:v>10433.601</x:v>
       </x:c>
-      <x:c r="G50" t="n">
+      <x:c r="G50" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1195,7 +1195,7 @@
       <x:c r="F51" t="n">
         <x:v>10433.601</x:v>
       </x:c>
-      <x:c r="G51" t="n">
+      <x:c r="G51" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1218,7 +1218,7 @@
       <x:c r="F52" t="n">
         <x:v>6912.929</x:v>
       </x:c>
-      <x:c r="G52" t="n">
+      <x:c r="G52" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1241,7 +1241,7 @@
       <x:c r="F53" t="n">
         <x:v>7062.451</x:v>
       </x:c>
-      <x:c r="G53" t="n">
+      <x:c r="G53" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1264,7 +1264,7 @@
       <x:c r="F54" t="n">
         <x:v>6912.929</x:v>
       </x:c>
-      <x:c r="G54" t="n">
+      <x:c r="G54" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1287,7 +1287,7 @@
       <x:c r="F55" t="n">
         <x:v>6968.311</x:v>
       </x:c>
-      <x:c r="G55" t="n">
+      <x:c r="G55" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1310,7 +1310,7 @@
       <x:c r="F56" t="n">
         <x:v>5725.000</x:v>
       </x:c>
-      <x:c r="G56" t="n">
+      <x:c r="G56" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1333,7 +1333,7 @@
       <x:c r="F57" t="n">
         <x:v>4725.000</x:v>
       </x:c>
-      <x:c r="G57" t="n">
+      <x:c r="G57" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1356,7 +1356,7 @@
       <x:c r="F58" t="n">
         <x:v>3600.000</x:v>
       </x:c>
-      <x:c r="G58" t="n">
+      <x:c r="G58" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1379,7 +1379,7 @@
       <x:c r="F59" t="n">
         <x:v>3600.000</x:v>
       </x:c>
-      <x:c r="G59" t="n">
+      <x:c r="G59" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1402,7 +1402,7 @@
       <x:c r="F60" t="n">
         <x:v>5725.000</x:v>
       </x:c>
-      <x:c r="G60" t="n">
+      <x:c r="G60" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1425,7 +1425,7 @@
       <x:c r="F61" t="n">
         <x:v>5025.000</x:v>
       </x:c>
-      <x:c r="G61" t="n">
+      <x:c r="G61" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1448,7 +1448,7 @@
       <x:c r="F62" t="n">
         <x:v>3600.000</x:v>
       </x:c>
-      <x:c r="G62" t="n">
+      <x:c r="G62" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1471,7 +1471,7 @@
       <x:c r="F63" t="n">
         <x:v>3600.000</x:v>
       </x:c>
-      <x:c r="G63" t="n">
+      <x:c r="G63" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1494,7 +1494,7 @@
       <x:c r="F64" t="n">
         <x:v>6894.960</x:v>
       </x:c>
-      <x:c r="G64" t="n">
+      <x:c r="G64" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1517,7 +1517,7 @@
       <x:c r="F65" t="n">
         <x:v>7084.929</x:v>
       </x:c>
-      <x:c r="G65" t="n">
+      <x:c r="G65" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1540,7 +1540,7 @@
       <x:c r="F66" t="n">
         <x:v>6962.449</x:v>
       </x:c>
-      <x:c r="G66" t="n">
+      <x:c r="G66" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1563,7 +1563,7 @@
       <x:c r="F67" t="n">
         <x:v>7084.929</x:v>
       </x:c>
-      <x:c r="G67" t="n">
+      <x:c r="G67" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1586,7 +1586,7 @@
       <x:c r="F68" t="n">
         <x:v>5725.000</x:v>
       </x:c>
-      <x:c r="G68" t="n">
+      <x:c r="G68" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1609,7 +1609,7 @@
       <x:c r="F69" t="n">
         <x:v>5025.000</x:v>
       </x:c>
-      <x:c r="G69" t="n">
+      <x:c r="G69" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1632,7 +1632,7 @@
       <x:c r="F70" t="n">
         <x:v>3600.000</x:v>
       </x:c>
-      <x:c r="G70" t="n">
+      <x:c r="G70" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1655,7 +1655,7 @@
       <x:c r="F71" t="n">
         <x:v>3600.000</x:v>
       </x:c>
-      <x:c r="G71" t="n">
+      <x:c r="G71" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1678,7 +1678,7 @@
       <x:c r="F72" t="n">
         <x:v>5725.000</x:v>
       </x:c>
-      <x:c r="G72" t="n">
+      <x:c r="G72" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1701,7 +1701,7 @@
       <x:c r="F73" t="n">
         <x:v>5125.000</x:v>
       </x:c>
-      <x:c r="G73" t="n">
+      <x:c r="G73" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1724,7 +1724,7 @@
       <x:c r="F74" t="n">
         <x:v>2700.000</x:v>
       </x:c>
-      <x:c r="G74" t="n">
+      <x:c r="G74" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1747,7 +1747,7 @@
       <x:c r="F75" t="n">
         <x:v>2700.000</x:v>
       </x:c>
-      <x:c r="G75" t="n">
+      <x:c r="G75" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1770,7 +1770,7 @@
       <x:c r="F76" t="n">
         <x:v>21256.580</x:v>
       </x:c>
-      <x:c r="G76" t="n">
+      <x:c r="G76" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1793,7 +1793,7 @@
       <x:c r="F77" t="n">
         <x:v>20637.837</x:v>
       </x:c>
-      <x:c r="G77" t="n">
+      <x:c r="G77" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1816,7 +1816,7 @@
       <x:c r="F78" t="n">
         <x:v>22200.718</x:v>
       </x:c>
-      <x:c r="G78" t="n">
+      <x:c r="G78" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1839,7 +1839,7 @@
       <x:c r="F79" t="n">
         <x:v>21286.580</x:v>
       </x:c>
-      <x:c r="G79" t="n">
+      <x:c r="G79" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1862,7 +1862,7 @@
       <x:c r="F80" t="n">
         <x:v>6000.000</x:v>
       </x:c>
-      <x:c r="G80" t="n">
+      <x:c r="G80" t="str">
         <x:v>38.65</x:v>
       </x:c>
     </x:row>
@@ -1885,7 +1885,7 @@
       <x:c r="F81" t="n">
         <x:v>6000.000</x:v>
       </x:c>
-      <x:c r="G81" t="n">
+      <x:c r="G81" t="str">
         <x:v>63.47</x:v>
       </x:c>
     </x:row>
@@ -1908,7 +1908,7 @@
       <x:c r="F82" t="n">
         <x:v>7159.229</x:v>
       </x:c>
-      <x:c r="G82" t="n">
+      <x:c r="G82" t="str">
         <x:v>72.53</x:v>
       </x:c>
     </x:row>
@@ -1931,7 +1931,7 @@
       <x:c r="F83" t="n">
         <x:v>3250.000</x:v>
       </x:c>
-      <x:c r="G83" t="n">
+      <x:c r="G83" t="str">
         <x:v>82.33</x:v>
       </x:c>
     </x:row>
@@ -1954,7 +1954,7 @@
       <x:c r="F84" t="n">
         <x:v>1900.000</x:v>
       </x:c>
-      <x:c r="G84" t="n">
+      <x:c r="G84" t="str">
         <x:v>82.33</x:v>
       </x:c>
     </x:row>
@@ -1977,7 +1977,7 @@
       <x:c r="F85" t="n">
         <x:v>6000.000</x:v>
       </x:c>
-      <x:c r="G85" t="n">
+      <x:c r="G85" t="str">
         <x:v>100.00</x:v>
       </x:c>
     </x:row>
@@ -2000,7 +2000,7 @@
       <x:c r="F86" t="n">
         <x:v>3606.000</x:v>
       </x:c>
-      <x:c r="G86" t="n">
+      <x:c r="G86" t="str">
         <x:v>34.87</x:v>
       </x:c>
     </x:row>
@@ -2023,7 +2023,7 @@
       <x:c r="F87" t="n">
         <x:v>8778.319</x:v>
       </x:c>
-      <x:c r="G87" t="n">
+      <x:c r="G87" t="str">
         <x:v>67.07</x:v>
       </x:c>
     </x:row>
@@ -2046,7 +2046,7 @@
       <x:c r="F88" t="n">
         <x:v>1300.619</x:v>
       </x:c>
-      <x:c r="G88" t="n">
+      <x:c r="G88" t="str">
         <x:v>89.85</x:v>
       </x:c>
     </x:row>
@@ -2069,7 +2069,7 @@
       <x:c r="F89" t="n">
         <x:v>3032.809</x:v>
       </x:c>
-      <x:c r="G89" t="n">
+      <x:c r="G89" t="str">
         <x:v>37.40</x:v>
       </x:c>
     </x:row>
@@ -2092,7 +2092,7 @@
       <x:c r="F90" t="n">
         <x:v>6501.881</x:v>
       </x:c>
-      <x:c r="G90" t="n">
+      <x:c r="G90" t="str">
         <x:v>51.33</x:v>
       </x:c>
     </x:row>
@@ -2115,7 +2115,7 @@
       <x:c r="F91" t="n">
         <x:v>1196.290</x:v>
       </x:c>
-      <x:c r="G91" t="n">
+      <x:c r="G91" t="str">
         <x:v>43.13</x:v>
       </x:c>
     </x:row>
@@ -2138,7 +2138,7 @@
       <x:c r="F92" t="n">
         <x:v>1879.028</x:v>
       </x:c>
-      <x:c r="G92" t="n">
+      <x:c r="G92" t="str">
         <x:v>67.95</x:v>
       </x:c>
     </x:row>
@@ -2161,7 +2161,7 @@
       <x:c r="F93" t="n">
         <x:v>6013.366</x:v>
       </x:c>
-      <x:c r="G93" t="n">
+      <x:c r="G93" t="str">
         <x:v>49.80</x:v>
       </x:c>
     </x:row>
@@ -2184,7 +2184,7 @@
       <x:c r="F94" t="n">
         <x:v>1999.000</x:v>
       </x:c>
-      <x:c r="G94" t="n">
+      <x:c r="G94" t="str">
         <x:v>57.73</x:v>
       </x:c>
     </x:row>
@@ -2207,7 +2207,7 @@
       <x:c r="F95" t="n">
         <x:v>7909.844</x:v>
       </x:c>
-      <x:c r="G95" t="n">
+      <x:c r="G95" t="str">
         <x:v>62.22</x:v>
       </x:c>
     </x:row>
@@ -2230,7 +2230,7 @@
       <x:c r="F96" t="n">
         <x:v>1926.448</x:v>
       </x:c>
-      <x:c r="G96" t="n">
+      <x:c r="G96" t="str">
         <x:v>72.32</x:v>
       </x:c>
     </x:row>
@@ -2253,7 +2253,7 @@
       <x:c r="F97" t="n">
         <x:v>1932.039</x:v>
       </x:c>
-      <x:c r="G97" t="n">
+      <x:c r="G97" t="str">
         <x:v>72.32</x:v>
       </x:c>
     </x:row>
@@ -2276,7 +2276,7 @@
       <x:c r="F98" t="n">
         <x:v>4872.000</x:v>
       </x:c>
-      <x:c r="G98" t="n">
+      <x:c r="G98" t="str">
         <x:v>76.80</x:v>
       </x:c>
     </x:row>
@@ -2299,7 +2299,7 @@
       <x:c r="F99" t="n">
         <x:v>9001.937</x:v>
       </x:c>
-      <x:c r="G99" t="n">
+      <x:c r="G99" t="str">
         <x:v>81.80</x:v>
       </x:c>
     </x:row>
@@ -2322,7 +2322,7 @@
       <x:c r="F100" t="n">
         <x:v>8951.937</x:v>
       </x:c>
-      <x:c r="G100" t="n">
+      <x:c r="G100" t="str">
         <x:v>81.80</x:v>
       </x:c>
     </x:row>
@@ -2345,7 +2345,7 @@
       <x:c r="F101" t="n">
         <x:v>7926.000</x:v>
       </x:c>
-      <x:c r="G101" t="n">
+      <x:c r="G101" t="str">
         <x:v>81.80</x:v>
       </x:c>
     </x:row>
@@ -2368,7 +2368,7 @@
       <x:c r="F102" t="n">
         <x:v>12000.000</x:v>
       </x:c>
-      <x:c r="G102" t="n">
+      <x:c r="G102" t="str">
         <x:v>75.05</x:v>
       </x:c>
     </x:row>
@@ -2391,7 +2391,7 @@
       <x:c r="F103" t="n">
         <x:v>5638.090</x:v>
       </x:c>
-      <x:c r="G103" t="n">
+      <x:c r="G103" t="str">
         <x:v>82.33</x:v>
       </x:c>
     </x:row>
@@ -2414,7 +2414,7 @@
       <x:c r="F104" t="n">
         <x:v>10013.554</x:v>
       </x:c>
-      <x:c r="G104" t="n">
+      <x:c r="G104" t="str">
         <x:v>73.42</x:v>
       </x:c>
     </x:row>
@@ -2437,7 +2437,7 @@
       <x:c r="F105" t="n">
         <x:v>12056.603</x:v>
       </x:c>
-      <x:c r="G105" t="n">
+      <x:c r="G105" t="str">
         <x:v>76.97</x:v>
       </x:c>
     </x:row>
@@ -2460,7 +2460,7 @@
       <x:c r="F106" t="n">
         <x:v>10013.554</x:v>
       </x:c>
-      <x:c r="G106" t="n">
+      <x:c r="G106" t="str">
         <x:v>72.70</x:v>
       </x:c>
     </x:row>
@@ -2483,7 +2483,7 @@
       <x:c r="F107" t="n">
         <x:v>12056.603</x:v>
       </x:c>
-      <x:c r="G107" t="n">
+      <x:c r="G107" t="str">
         <x:v>76.25</x:v>
       </x:c>
     </x:row>
@@ -2506,7 +2506,7 @@
       <x:c r="F108" t="n">
         <x:v>10013.554</x:v>
       </x:c>
-      <x:c r="G108" t="n">
+      <x:c r="G108" t="str">
         <x:v>72.70</x:v>
       </x:c>
     </x:row>
@@ -2529,7 +2529,7 @@
       <x:c r="F109" t="n">
         <x:v>12056.603</x:v>
       </x:c>
-      <x:c r="G109" t="n">
+      <x:c r="G109" t="str">
         <x:v>76.25</x:v>
       </x:c>
     </x:row>
@@ -2552,7 +2552,7 @@
       <x:c r="F110" t="n">
         <x:v>10013.554</x:v>
       </x:c>
-      <x:c r="G110" t="n">
+      <x:c r="G110" t="str">
         <x:v>72.70</x:v>
       </x:c>
     </x:row>
@@ -2575,7 +2575,7 @@
       <x:c r="F111" t="n">
         <x:v>4251.206</x:v>
       </x:c>
-      <x:c r="G111" t="n">
+      <x:c r="G111" t="str">
         <x:v>57.27</x:v>
       </x:c>
     </x:row>
@@ -2598,7 +2598,7 @@
       <x:c r="F112" t="n">
         <x:v>12056.603</x:v>
       </x:c>
-      <x:c r="G112" t="n">
+      <x:c r="G112" t="str">
         <x:v>76.25</x:v>
       </x:c>
     </x:row>
@@ -2621,7 +2621,7 @@
       <x:c r="F113" t="n">
         <x:v>3706.090</x:v>
       </x:c>
-      <x:c r="G113" t="n">
+      <x:c r="G113" t="str">
         <x:v>62.92</x:v>
       </x:c>
     </x:row>
@@ -2644,7 +2644,7 @@
       <x:c r="F114" t="n">
         <x:v>6013.366</x:v>
       </x:c>
-      <x:c r="G114" t="n">
+      <x:c r="G114" t="str">
         <x:v>62.92</x:v>
       </x:c>
     </x:row>
@@ -2667,7 +2667,7 @@
       <x:c r="F115" t="n">
         <x:v>1999.000</x:v>
       </x:c>
-      <x:c r="G115" t="n">
+      <x:c r="G115" t="str">
         <x:v>62.92</x:v>
       </x:c>
     </x:row>
@@ -2690,7 +2690,7 @@
       <x:c r="F116" t="n">
         <x:v>7909.844</x:v>
       </x:c>
-      <x:c r="G116" t="n">
+      <x:c r="G116" t="str">
         <x:v>62.92</x:v>
       </x:c>
     </x:row>
@@ -2713,7 +2713,7 @@
       <x:c r="F117" t="n">
         <x:v>1926.448</x:v>
       </x:c>
-      <x:c r="G117" t="n">
+      <x:c r="G117" t="str">
         <x:v>62.92</x:v>
       </x:c>
     </x:row>
@@ -2736,7 +2736,7 @@
       <x:c r="F118" t="n">
         <x:v>1932.039</x:v>
       </x:c>
-      <x:c r="G118" t="n">
+      <x:c r="G118" t="str">
         <x:v>100.00</x:v>
       </x:c>
     </x:row>
@@ -2759,7 +2759,7 @@
       <x:c r="F119" t="n">
         <x:v>4067.961</x:v>
       </x:c>
-      <x:c r="G119" t="n">
+      <x:c r="G119" t="str">
         <x:v>100.00</x:v>
       </x:c>
     </x:row>
@@ -2782,7 +2782,7 @@
       <x:c r="F120" t="n">
         <x:v>1537.693</x:v>
       </x:c>
-      <x:c r="G120" t="n">
+      <x:c r="G120" t="str">
         <x:v>60.58</x:v>
       </x:c>
     </x:row>
@@ -2805,7 +2805,7 @@
       <x:c r="F121" t="n">
         <x:v>6678.620</x:v>
       </x:c>
-      <x:c r="G121" t="n">
+      <x:c r="G121" t="str">
         <x:v>62.92</x:v>
       </x:c>
     </x:row>
@@ -2828,7 +2828,7 @@
       <x:c r="F122" t="n">
         <x:v>13117.566</x:v>
       </x:c>
-      <x:c r="G122" t="n">
+      <x:c r="G122" t="str">
         <x:v>57.13</x:v>
       </x:c>
     </x:row>
@@ -2851,7 +2851,7 @@
       <x:c r="F123" t="n">
         <x:v>14559.495</x:v>
       </x:c>
-      <x:c r="G123" t="n">
+      <x:c r="G123" t="str">
         <x:v>79.38</x:v>
       </x:c>
     </x:row>
@@ -2874,7 +2874,7 @@
       <x:c r="F124" t="n">
         <x:v>4919.273</x:v>
       </x:c>
-      <x:c r="G124" t="n">
+      <x:c r="G124" t="str">
         <x:v>82.83</x:v>
       </x:c>
     </x:row>
@@ -2897,7 +2897,7 @@
       <x:c r="F125" t="n">
         <x:v>3890.930</x:v>
       </x:c>
-      <x:c r="G125" t="n">
+      <x:c r="G125" t="str">
         <x:v>82.83</x:v>
       </x:c>
     </x:row>
@@ -2920,7 +2920,7 @@
       <x:c r="F126" t="n">
         <x:v>2807.996</x:v>
       </x:c>
-      <x:c r="G126" t="n">
+      <x:c r="G126" t="str">
         <x:v>82.83</x:v>
       </x:c>
     </x:row>
@@ -2943,7 +2943,7 @@
       <x:c r="F127" t="n">
         <x:v>4100.000</x:v>
       </x:c>
-      <x:c r="G127" t="n">
+      <x:c r="G127" t="str">
         <x:v>61.80</x:v>
       </x:c>
     </x:row>
@@ -2966,7 +2966,7 @@
       <x:c r="F128" t="n">
         <x:v>6465.000</x:v>
       </x:c>
-      <x:c r="G128" t="n">
+      <x:c r="G128" t="str">
         <x:v>59.37</x:v>
       </x:c>
     </x:row>
@@ -2989,7 +2989,7 @@
       <x:c r="F129" t="n">
         <x:v>9500.000</x:v>
       </x:c>
-      <x:c r="G129" t="n">
+      <x:c r="G129" t="str">
         <x:v>57.40</x:v>
       </x:c>
     </x:row>
@@ -3012,7 +3012,7 @@
       <x:c r="F130" t="n">
         <x:v>4400.000</x:v>
       </x:c>
-      <x:c r="G130" t="n">
+      <x:c r="G130" t="str">
         <x:v>57.40</x:v>
       </x:c>
     </x:row>
@@ -3035,7 +3035,7 @@
       <x:c r="F131" t="n">
         <x:v>4703.319</x:v>
       </x:c>
-      <x:c r="G131" t="n">
+      <x:c r="G131" t="str">
         <x:v>87.43</x:v>
       </x:c>
     </x:row>
@@ -3058,7 +3058,7 @@
       <x:c r="F132" t="n">
         <x:v>4375.000</x:v>
       </x:c>
-      <x:c r="G132" t="n">
+      <x:c r="G132" t="str">
         <x:v>61.85</x:v>
       </x:c>
     </x:row>
@@ -3081,7 +3081,7 @@
       <x:c r="F133" t="n">
         <x:v>12016.902</x:v>
       </x:c>
-      <x:c r="G133" t="n">
+      <x:c r="G133" t="str">
         <x:v>93.30</x:v>
       </x:c>
     </x:row>
@@ -3104,7 +3104,7 @@
       <x:c r="F134" t="n">
         <x:v>6719.875</x:v>
       </x:c>
-      <x:c r="G134" t="n">
+      <x:c r="G134" t="str">
         <x:v>64.70</x:v>
       </x:c>
     </x:row>
@@ -3127,7 +3127,7 @@
       <x:c r="F135" t="n">
         <x:v>2915.000</x:v>
       </x:c>
-      <x:c r="G135" t="n">
+      <x:c r="G135" t="str">
         <x:v>64.70</x:v>
       </x:c>
     </x:row>
@@ -3150,7 +3150,7 @@
       <x:c r="F136" t="n">
         <x:v>3000.000</x:v>
       </x:c>
-      <x:c r="G136" t="n">
+      <x:c r="G136" t="str">
         <x:v>72.40</x:v>
       </x:c>
     </x:row>
@@ -3173,7 +3173,7 @@
       <x:c r="F137" t="n">
         <x:v>4157.061</x:v>
       </x:c>
-      <x:c r="G137" t="n">
+      <x:c r="G137" t="str">
         <x:v>77.20</x:v>
       </x:c>
     </x:row>
@@ -3196,7 +3196,7 @@
       <x:c r="F138" t="n">
         <x:v>2100.000</x:v>
       </x:c>
-      <x:c r="G138" t="n">
+      <x:c r="G138" t="str">
         <x:v>62.33</x:v>
       </x:c>
     </x:row>
@@ -3219,7 +3219,7 @@
       <x:c r="F139" t="n">
         <x:v>4768.319</x:v>
       </x:c>
-      <x:c r="G139" t="n">
+      <x:c r="G139" t="str">
         <x:v>53.63</x:v>
       </x:c>
     </x:row>
@@ -3242,7 +3242,7 @@
       <x:c r="F140" t="n">
         <x:v>6897.001</x:v>
       </x:c>
-      <x:c r="G140" t="n">
+      <x:c r="G140" t="str">
         <x:v>76.17</x:v>
       </x:c>
     </x:row>
@@ -3265,7 +3265,7 @@
       <x:c r="F141" t="n">
         <x:v>6897.001</x:v>
       </x:c>
-      <x:c r="G141" t="n">
+      <x:c r="G141" t="str">
         <x:v>76.17</x:v>
       </x:c>
     </x:row>
@@ -3288,7 +3288,7 @@
       <x:c r="F142" t="n">
         <x:v>5709.616</x:v>
       </x:c>
-      <x:c r="G142" t="n">
+      <x:c r="G142" t="str">
         <x:v>62.33</x:v>
       </x:c>
     </x:row>
@@ -3311,7 +3311,7 @@
       <x:c r="F143" t="n">
         <x:v>4953.004</x:v>
       </x:c>
-      <x:c r="G143" t="n">
+      <x:c r="G143" t="str">
         <x:v>70.90</x:v>
       </x:c>
     </x:row>
@@ -3334,7 +3334,7 @@
       <x:c r="F144" t="n">
         <x:v>6976.506</x:v>
       </x:c>
-      <x:c r="G144" t="n">
+      <x:c r="G144" t="str">
         <x:v>62.33</x:v>
       </x:c>
     </x:row>
@@ -3357,7 +3357,7 @@
       <x:c r="F145" t="n">
         <x:v>4953.004</x:v>
       </x:c>
-      <x:c r="G145" t="n">
+      <x:c r="G145" t="str">
         <x:v>70.90</x:v>
       </x:c>
     </x:row>
@@ -3380,7 +3380,7 @@
       <x:c r="F146" t="n">
         <x:v>2100.000</x:v>
       </x:c>
-      <x:c r="G146" t="n">
+      <x:c r="G146" t="str">
         <x:v>62.33</x:v>
       </x:c>
     </x:row>
@@ -3403,7 +3403,7 @@
       <x:c r="F147" t="n">
         <x:v>11830.897</x:v>
       </x:c>
-      <x:c r="G147" t="n">
+      <x:c r="G147" t="str">
         <x:v>71.45</x:v>
       </x:c>
     </x:row>
@@ -3426,7 +3426,7 @@
       <x:c r="F148" t="n">
         <x:v>8464.870</x:v>
       </x:c>
-      <x:c r="G148" t="n">
+      <x:c r="G148" t="str">
         <x:v>81.92</x:v>
       </x:c>
     </x:row>
@@ -3449,7 +3449,7 @@
       <x:c r="F149" t="n">
         <x:v>4750.000</x:v>
       </x:c>
-      <x:c r="G149" t="n">
+      <x:c r="G149" t="str">
         <x:v>87.70</x:v>
       </x:c>
     </x:row>
@@ -3472,7 +3472,7 @@
       <x:c r="F150" t="n">
         <x:v>3307.715</x:v>
       </x:c>
-      <x:c r="G150" t="n">
+      <x:c r="G150" t="str">
         <x:v>90.87</x:v>
       </x:c>
     </x:row>
@@ -3495,7 +3495,7 @@
       <x:c r="F151" t="n">
         <x:v>5472.466</x:v>
       </x:c>
-      <x:c r="G151" t="n">
+      <x:c r="G151" t="str">
         <x:v>69.47</x:v>
       </x:c>
     </x:row>
@@ -3518,7 +3518,7 @@
       <x:c r="F152" t="n">
         <x:v>7241.491</x:v>
       </x:c>
-      <x:c r="G152" t="n">
+      <x:c r="G152" t="str">
         <x:v>81.33</x:v>
       </x:c>
     </x:row>
@@ -3541,7 +3541,7 @@
       <x:c r="F153" t="n">
         <x:v>3007.715</x:v>
       </x:c>
-      <x:c r="G153" t="n">
+      <x:c r="G153" t="str">
         <x:v>90.87</x:v>
       </x:c>
     </x:row>
@@ -3564,7 +3564,7 @@
       <x:c r="F154" t="n">
         <x:v>5120.505</x:v>
       </x:c>
-      <x:c r="G154" t="n">
+      <x:c r="G154" t="str">
         <x:v>69.47</x:v>
       </x:c>
     </x:row>
@@ -3587,7 +3587,7 @@
       <x:c r="F155" t="n">
         <x:v>7884.910</x:v>
       </x:c>
-      <x:c r="G155" t="n">
+      <x:c r="G155" t="str">
         <x:v>81.33</x:v>
       </x:c>
     </x:row>
@@ -3610,7 +3610,7 @@
       <x:c r="F156" t="n">
         <x:v>18778.629</x:v>
       </x:c>
-      <x:c r="G156" t="n">
+      <x:c r="G156" t="str">
         <x:v>77.72</x:v>
       </x:c>
     </x:row>
@@ -3633,7 +3633,7 @@
       <x:c r="F157" t="n">
         <x:v>5597.386</x:v>
       </x:c>
-      <x:c r="G157" t="n">
+      <x:c r="G157" t="str">
         <x:v>70.18</x:v>
       </x:c>
     </x:row>
@@ -3656,7 +3656,7 @@
       <x:c r="F158" t="n">
         <x:v>2947.000</x:v>
       </x:c>
-      <x:c r="G158" t="n">
+      <x:c r="G158" t="str">
         <x:v>72.65</x:v>
       </x:c>
     </x:row>
@@ -3679,7 +3679,7 @@
       <x:c r="F159" t="n">
         <x:v>8465.296</x:v>
       </x:c>
-      <x:c r="G159" t="n">
+      <x:c r="G159" t="str">
         <x:v>77.97</x:v>
       </x:c>
     </x:row>
@@ -3702,7 +3702,7 @@
       <x:c r="F160" t="n">
         <x:v>3212.544</x:v>
       </x:c>
-      <x:c r="G160" t="n">
+      <x:c r="G160" t="str">
         <x:v>82.52</x:v>
       </x:c>
     </x:row>
@@ -3725,7 +3725,7 @@
       <x:c r="F161" t="n">
         <x:v>6974.645</x:v>
       </x:c>
-      <x:c r="G161" t="n">
+      <x:c r="G161" t="str">
         <x:v>79.08</x:v>
       </x:c>
     </x:row>
@@ -3748,7 +3748,7 @@
       <x:c r="F162" t="n">
         <x:v>1328.360</x:v>
       </x:c>
-      <x:c r="G162" t="n">
+      <x:c r="G162" t="str">
         <x:v>88.65</x:v>
       </x:c>
     </x:row>
@@ -3771,7 +3771,7 @@
       <x:c r="F163" t="n">
         <x:v>7555.360</x:v>
       </x:c>
-      <x:c r="G163" t="n">
+      <x:c r="G163" t="str">
         <x:v>84.50</x:v>
       </x:c>
     </x:row>
@@ -3794,7 +3794,7 @@
       <x:c r="F164" t="n">
         <x:v>6000.000</x:v>
       </x:c>
-      <x:c r="G164" t="n">
+      <x:c r="G164" t="str">
         <x:v>62.92</x:v>
       </x:c>
     </x:row>
@@ -3817,7 +3817,7 @@
       <x:c r="F165" t="n">
         <x:v>5597.386</x:v>
       </x:c>
-      <x:c r="G165" t="n">
+      <x:c r="G165" t="str">
         <x:v>70.18</x:v>
       </x:c>
     </x:row>
@@ -3840,7 +3840,7 @@
       <x:c r="F166" t="n">
         <x:v>2947.000</x:v>
       </x:c>
-      <x:c r="G166" t="n">
+      <x:c r="G166" t="str">
         <x:v>72.07</x:v>
       </x:c>
     </x:row>
@@ -3863,7 +3863,7 @@
       <x:c r="F167" t="n">
         <x:v>8465.297</x:v>
       </x:c>
-      <x:c r="G167" t="n">
+      <x:c r="G167" t="str">
         <x:v>77.25</x:v>
       </x:c>
     </x:row>
@@ -3886,7 +3886,7 @@
       <x:c r="F168" t="n">
         <x:v>3212.544</x:v>
       </x:c>
-      <x:c r="G168" t="n">
+      <x:c r="G168" t="str">
         <x:v>79.30</x:v>
       </x:c>
     </x:row>
@@ -3909,7 +3909,7 @@
       <x:c r="F169" t="n">
         <x:v>6974.644</x:v>
       </x:c>
-      <x:c r="G169" t="n">
+      <x:c r="G169" t="str">
         <x:v>78.50</x:v>
       </x:c>
     </x:row>
@@ -3932,7 +3932,7 @@
       <x:c r="F170" t="n">
         <x:v>1328.360</x:v>
       </x:c>
-      <x:c r="G170" t="n">
+      <x:c r="G170" t="str">
         <x:v>88.65</x:v>
       </x:c>
     </x:row>
@@ -3955,7 +3955,7 @@
       <x:c r="F171" t="n">
         <x:v>7555.360</x:v>
       </x:c>
-      <x:c r="G171" t="n">
+      <x:c r="G171" t="str">
         <x:v>84.50</x:v>
       </x:c>
     </x:row>
@@ -3978,7 +3978,7 @@
       <x:c r="F172" t="n">
         <x:v>3400.000</x:v>
       </x:c>
-      <x:c r="G172" t="n">
+      <x:c r="G172" t="str">
         <x:v>73.05</x:v>
       </x:c>
     </x:row>
@@ -4001,7 +4001,7 @@
       <x:c r="F173" t="n">
         <x:v>5597.386</x:v>
       </x:c>
-      <x:c r="G173" t="n">
+      <x:c r="G173" t="str">
         <x:v>70.18</x:v>
       </x:c>
     </x:row>
@@ -4024,7 +4024,7 @@
       <x:c r="F174" t="n">
         <x:v>2947.000</x:v>
       </x:c>
-      <x:c r="G174" t="n">
+      <x:c r="G174" t="str">
         <x:v>72.07</x:v>
       </x:c>
     </x:row>
@@ -4047,7 +4047,7 @@
       <x:c r="F175" t="n">
         <x:v>8465.296</x:v>
       </x:c>
-      <x:c r="G175" t="n">
+      <x:c r="G175" t="str">
         <x:v>77.25</x:v>
       </x:c>
     </x:row>
@@ -4070,7 +4070,7 @@
       <x:c r="F176" t="n">
         <x:v>3212.544</x:v>
       </x:c>
-      <x:c r="G176" t="n">
+      <x:c r="G176" t="str">
         <x:v>79.30</x:v>
       </x:c>
     </x:row>
@@ -4093,7 +4093,7 @@
       <x:c r="F177" t="n">
         <x:v>6974.645</x:v>
       </x:c>
-      <x:c r="G177" t="n">
+      <x:c r="G177" t="str">
         <x:v>78.50</x:v>
       </x:c>
     </x:row>
@@ -4116,7 +4116,7 @@
       <x:c r="F178" t="n">
         <x:v>1328.360</x:v>
       </x:c>
-      <x:c r="G178" t="n">
+      <x:c r="G178" t="str">
         <x:v>88.65</x:v>
       </x:c>
     </x:row>
@@ -4139,7 +4139,7 @@
       <x:c r="F179" t="n">
         <x:v>7555.360</x:v>
       </x:c>
-      <x:c r="G179" t="n">
+      <x:c r="G179" t="str">
         <x:v>84.50</x:v>
       </x:c>
     </x:row>
@@ -4162,7 +4162,7 @@
       <x:c r="F180" t="n">
         <x:v>3400.000</x:v>
       </x:c>
-      <x:c r="G180" t="n">
+      <x:c r="G180" t="str">
         <x:v>73.05</x:v>
       </x:c>
     </x:row>
@@ -4185,7 +4185,7 @@
       <x:c r="F181" t="n">
         <x:v>5597.386</x:v>
       </x:c>
-      <x:c r="G181" t="n">
+      <x:c r="G181" t="str">
         <x:v>70.18</x:v>
       </x:c>
     </x:row>
@@ -4208,7 +4208,7 @@
       <x:c r="F182" t="n">
         <x:v>2947.000</x:v>
       </x:c>
-      <x:c r="G182" t="n">
+      <x:c r="G182" t="str">
         <x:v>72.07</x:v>
       </x:c>
     </x:row>
@@ -4231,7 +4231,7 @@
       <x:c r="F183" t="n">
         <x:v>8465.296</x:v>
       </x:c>
-      <x:c r="G183" t="n">
+      <x:c r="G183" t="str">
         <x:v>77.25</x:v>
       </x:c>
     </x:row>
@@ -4254,7 +4254,7 @@
       <x:c r="F184" t="n">
         <x:v>3212.544</x:v>
       </x:c>
-      <x:c r="G184" t="n">
+      <x:c r="G184" t="str">
         <x:v>79.30</x:v>
       </x:c>
     </x:row>
@@ -4277,7 +4277,7 @@
       <x:c r="F185" t="n">
         <x:v>6974.645</x:v>
       </x:c>
-      <x:c r="G185" t="n">
+      <x:c r="G185" t="str">
         <x:v>78.50</x:v>
       </x:c>
     </x:row>
@@ -4300,7 +4300,7 @@
       <x:c r="F186" t="n">
         <x:v>1328.360</x:v>
       </x:c>
-      <x:c r="G186" t="n">
+      <x:c r="G186" t="str">
         <x:v>88.65</x:v>
       </x:c>
     </x:row>
@@ -4323,7 +4323,7 @@
       <x:c r="F187" t="n">
         <x:v>7555.360</x:v>
       </x:c>
-      <x:c r="G187" t="n">
+      <x:c r="G187" t="str">
         <x:v>84.50</x:v>
       </x:c>
     </x:row>
@@ -4346,7 +4346,7 @@
       <x:c r="F188" t="n">
         <x:v>6000.000</x:v>
       </x:c>
-      <x:c r="G188" t="n">
+      <x:c r="G188" t="str">
         <x:v>50.62</x:v>
       </x:c>
     </x:row>
@@ -4369,7 +4369,7 @@
       <x:c r="F189" t="n">
         <x:v>4800.000</x:v>
       </x:c>
-      <x:c r="G189" t="n">
+      <x:c r="G189" t="str">
         <x:v>61.70</x:v>
       </x:c>
     </x:row>
@@ -4392,7 +4392,7 @@
       <x:c r="F190" t="n">
         <x:v>5853.750</x:v>
       </x:c>
-      <x:c r="G190" t="n">
+      <x:c r="G190" t="str">
         <x:v>71.77</x:v>
       </x:c>
     </x:row>
@@ -4415,7 +4415,7 @@
       <x:c r="F191" t="n">
         <x:v>4956.000</x:v>
       </x:c>
-      <x:c r="G191" t="n">
+      <x:c r="G191" t="str">
         <x:v>76.70</x:v>
       </x:c>
     </x:row>
@@ -4438,7 +4438,7 @@
       <x:c r="F192" t="n">
         <x:v>5424.940</x:v>
       </x:c>
-      <x:c r="G192" t="n">
+      <x:c r="G192" t="str">
         <x:v>47.08</x:v>
       </x:c>
     </x:row>
@@ -4461,7 +4461,7 @@
       <x:c r="F193" t="n">
         <x:v>4500.000</x:v>
       </x:c>
-      <x:c r="G193" t="n">
+      <x:c r="G193" t="str">
         <x:v>74.80</x:v>
       </x:c>
     </x:row>
@@ -4484,7 +4484,7 @@
       <x:c r="F194" t="n">
         <x:v>4500.000</x:v>
       </x:c>
-      <x:c r="G194" t="n">
+      <x:c r="G194" t="str">
         <x:v>74.83</x:v>
       </x:c>
     </x:row>
@@ -4507,7 +4507,7 @@
       <x:c r="F195" t="n">
         <x:v>3500.000</x:v>
       </x:c>
-      <x:c r="G195" t="n">
+      <x:c r="G195" t="str">
         <x:v>84.37</x:v>
       </x:c>
     </x:row>
@@ -4530,7 +4530,7 @@
       <x:c r="F196" t="n">
         <x:v>3500.000</x:v>
       </x:c>
-      <x:c r="G196" t="n">
+      <x:c r="G196" t="str">
         <x:v>82.13</x:v>
       </x:c>
     </x:row>
@@ -4553,7 +4553,7 @@
       <x:c r="F197" t="n">
         <x:v>3400.000</x:v>
       </x:c>
-      <x:c r="G197" t="n">
+      <x:c r="G197" t="str">
         <x:v>73.05</x:v>
       </x:c>
     </x:row>
@@ -4576,7 +4576,7 @@
       <x:c r="F198" t="n">
         <x:v>6000.000</x:v>
       </x:c>
-      <x:c r="G198" t="n">
+      <x:c r="G198" t="str">
         <x:v>77.72</x:v>
       </x:c>
     </x:row>
@@ -4599,7 +4599,7 @@
       <x:c r="F199" t="n">
         <x:v>6000.000</x:v>
       </x:c>
-      <x:c r="G199" t="n">
+      <x:c r="G199" t="str">
         <x:v>54.95</x:v>
       </x:c>
     </x:row>
@@ -4622,7 +4622,7 @@
       <x:c r="F200" t="n">
         <x:v>4043.000</x:v>
       </x:c>
-      <x:c r="G200" t="n">
+      <x:c r="G200" t="str">
         <x:v>52.30</x:v>
       </x:c>
     </x:row>
@@ -4645,7 +4645,7 @@
       <x:c r="F201" t="n">
         <x:v>11850.000</x:v>
       </x:c>
-      <x:c r="G201" t="n">
+      <x:c r="G201" t="str">
         <x:v>58.90</x:v>
       </x:c>
     </x:row>
@@ -4668,7 +4668,7 @@
       <x:c r="F202" t="n">
         <x:v>11447.317</x:v>
       </x:c>
-      <x:c r="G202" t="n">
+      <x:c r="G202" t="str">
         <x:v>81.57</x:v>
       </x:c>
     </x:row>
@@ -4691,7 +4691,7 @@
       <x:c r="F203" t="n">
         <x:v>7159.229</x:v>
       </x:c>
-      <x:c r="G203" t="n">
+      <x:c r="G203" t="str">
         <x:v>93.37</x:v>
       </x:c>
     </x:row>
@@ -4714,7 +4714,7 @@
       <x:c r="F204" t="n">
         <x:v>18778.629</x:v>
       </x:c>
-      <x:c r="G204" t="n">
+      <x:c r="G204" t="str">
         <x:v>91.18</x:v>
       </x:c>
     </x:row>
@@ -4737,7 +4737,7 @@
       <x:c r="F205" t="n">
         <x:v>3100.000</x:v>
       </x:c>
-      <x:c r="G205" t="n">
+      <x:c r="G205" t="str">
         <x:v>78.00</x:v>
       </x:c>
     </x:row>
@@ -4760,7 +4760,7 @@
       <x:c r="F206" t="n">
         <x:v>2100.000</x:v>
       </x:c>
-      <x:c r="G206" t="n">
+      <x:c r="G206" t="str">
         <x:v>79.68</x:v>
       </x:c>
     </x:row>
@@ -4783,7 +4783,7 @@
       <x:c r="F207" t="n">
         <x:v>4135.930</x:v>
       </x:c>
-      <x:c r="G207" t="n">
+      <x:c r="G207" t="str">
         <x:v>63.63</x:v>
       </x:c>
     </x:row>
@@ -4806,7 +4806,7 @@
       <x:c r="F208" t="n">
         <x:v>3606.000</x:v>
       </x:c>
-      <x:c r="G208" t="n">
+      <x:c r="G208" t="str">
         <x:v>75.05</x:v>
       </x:c>
     </x:row>
@@ -4829,7 +4829,7 @@
       <x:c r="F209" t="n">
         <x:v>11228.319</x:v>
       </x:c>
-      <x:c r="G209" t="n">
+      <x:c r="G209" t="str">
         <x:v>77.78</x:v>
       </x:c>
     </x:row>
@@ -4852,7 +4852,7 @@
       <x:c r="F210" t="n">
         <x:v>8266.000</x:v>
       </x:c>
-      <x:c r="G210" t="n">
+      <x:c r="G210" t="str">
         <x:v>79.33</x:v>
       </x:c>
     </x:row>
@@ -4875,7 +4875,7 @@
       <x:c r="F211" t="n">
         <x:v>9577.269</x:v>
       </x:c>
-      <x:c r="G211" t="n">
+      <x:c r="G211" t="str">
         <x:v>78.90</x:v>
       </x:c>
     </x:row>
@@ -4898,7 +4898,7 @@
       <x:c r="F212" t="n">
         <x:v>3400.000</x:v>
       </x:c>
-      <x:c r="G212" t="n">
+      <x:c r="G212" t="str">
         <x:v>72.50</x:v>
       </x:c>
     </x:row>
@@ -4921,7 +4921,7 @@
       <x:c r="F213" t="n">
         <x:v>3032.809</x:v>
       </x:c>
-      <x:c r="G213" t="n">
+      <x:c r="G213" t="str">
         <x:v>48.28</x:v>
       </x:c>
     </x:row>
@@ -4944,7 +4944,7 @@
       <x:c r="F214" t="n">
         <x:v>6013.366</x:v>
       </x:c>
-      <x:c r="G214" t="n">
+      <x:c r="G214" t="str">
         <x:v>57.85</x:v>
       </x:c>
     </x:row>
@@ -4967,7 +4967,7 @@
       <x:c r="F215" t="n">
         <x:v>1999.000</x:v>
       </x:c>
-      <x:c r="G215" t="n">
+      <x:c r="G215" t="str">
         <x:v>50.33</x:v>
       </x:c>
     </x:row>
@@ -4990,7 +4990,7 @@
       <x:c r="F216" t="n">
         <x:v>7959.844</x:v>
       </x:c>
-      <x:c r="G216" t="n">
+      <x:c r="G216" t="str">
         <x:v>49.57</x:v>
       </x:c>
     </x:row>
@@ -5013,7 +5013,7 @@
       <x:c r="F217" t="n">
         <x:v>1876.448</x:v>
       </x:c>
-      <x:c r="G217" t="n">
+      <x:c r="G217" t="str">
         <x:v>55.58</x:v>
       </x:c>
     </x:row>
@@ -5036,7 +5036,7 @@
       <x:c r="F218" t="n">
         <x:v>6913.550</x:v>
       </x:c>
-      <x:c r="G218" t="n">
+      <x:c r="G218" t="str">
         <x:v>72.50</x:v>
       </x:c>
     </x:row>
@@ -5059,7 +5059,7 @@
       <x:c r="F219" t="n">
         <x:v>1932.039</x:v>
       </x:c>
-      <x:c r="G219" t="n">
+      <x:c r="G219" t="str">
         <x:v>65.22</x:v>
       </x:c>
     </x:row>
@@ -5082,7 +5082,7 @@
       <x:c r="F220" t="n">
         <x:v>4067.961</x:v>
       </x:c>
-      <x:c r="G220" t="n">
+      <x:c r="G220" t="str">
         <x:v>71.78</x:v>
       </x:c>
     </x:row>
@@ -5105,7 +5105,7 @@
       <x:c r="F221" t="n">
         <x:v>8649.557</x:v>
       </x:c>
-      <x:c r="G221" t="n">
+      <x:c r="G221" t="str">
         <x:v>67.80</x:v>
       </x:c>
     </x:row>
@@ -5128,7 +5128,7 @@
       <x:c r="F222" t="n">
         <x:v>8649.557</x:v>
       </x:c>
-      <x:c r="G222" t="n">
+      <x:c r="G222" t="str">
         <x:v>70.63</x:v>
       </x:c>
     </x:row>
@@ -5151,7 +5151,7 @@
       <x:c r="F223" t="n">
         <x:v>23663.000</x:v>
       </x:c>
-      <x:c r="G223" t="n">
+      <x:c r="G223" t="str">
         <x:v>68.13</x:v>
       </x:c>
     </x:row>
@@ -5174,7 +5174,7 @@
       <x:c r="F224" t="n">
         <x:v>5779.193</x:v>
       </x:c>
-      <x:c r="G224" t="n">
+      <x:c r="G224" t="str">
         <x:v>77.42</x:v>
       </x:c>
     </x:row>
@@ -5197,7 +5197,7 @@
       <x:c r="F225" t="n">
         <x:v>3400.000</x:v>
       </x:c>
-      <x:c r="G225" t="n">
+      <x:c r="G225" t="str">
         <x:v>67.45</x:v>
       </x:c>
     </x:row>
@@ -5220,7 +5220,7 @@
       <x:c r="F226" t="n">
         <x:v>6913.550</x:v>
       </x:c>
-      <x:c r="G226" t="n">
+      <x:c r="G226" t="str">
         <x:v>70.32</x:v>
       </x:c>
     </x:row>
@@ -5243,7 +5243,7 @@
       <x:c r="F227" t="n">
         <x:v>1006.000</x:v>
       </x:c>
-      <x:c r="G227" t="n">
+      <x:c r="G227" t="str">
         <x:v>54.05</x:v>
       </x:c>
     </x:row>
@@ -5266,7 +5266,7 @@
       <x:c r="F228" t="n">
         <x:v>3103.004</x:v>
       </x:c>
-      <x:c r="G228" t="n">
+      <x:c r="G228" t="str">
         <x:v>62.68</x:v>
       </x:c>
     </x:row>
@@ -5289,7 +5289,7 @@
       <x:c r="F229" t="n">
         <x:v>5703.603</x:v>
       </x:c>
-      <x:c r="G229" t="n">
+      <x:c r="G229" t="str">
         <x:v>68.75</x:v>
       </x:c>
     </x:row>
@@ -5312,7 +5312,7 @@
       <x:c r="F230" t="n">
         <x:v>3278.000</x:v>
       </x:c>
-      <x:c r="G230" t="n">
+      <x:c r="G230" t="str">
         <x:v>61.28</x:v>
       </x:c>
     </x:row>
@@ -5335,7 +5335,7 @@
       <x:c r="F231" t="n">
         <x:v>3400.000</x:v>
       </x:c>
-      <x:c r="G231" t="n">
+      <x:c r="G231" t="str">
         <x:v>72.50</x:v>
       </x:c>
     </x:row>
@@ -5358,7 +5358,7 @@
       <x:c r="F232" t="n">
         <x:v>6913.550</x:v>
       </x:c>
-      <x:c r="G232" t="n">
+      <x:c r="G232" t="str">
         <x:v>72.50</x:v>
       </x:c>
     </x:row>
@@ -5381,7 +5381,7 @@
       <x:c r="F233" t="n">
         <x:v>3103.004</x:v>
       </x:c>
-      <x:c r="G233" t="n">
+      <x:c r="G233" t="str">
         <x:v>62.83</x:v>
       </x:c>
     </x:row>
@@ -5404,7 +5404,7 @@
       <x:c r="F234" t="n">
         <x:v>5703.603</x:v>
       </x:c>
-      <x:c r="G234" t="n">
+      <x:c r="G234" t="str">
         <x:v>68.75</x:v>
       </x:c>
     </x:row>
@@ -5427,7 +5427,7 @@
       <x:c r="F235" t="n">
         <x:v>3278.000</x:v>
       </x:c>
-      <x:c r="G235" t="n">
+      <x:c r="G235" t="str">
         <x:v>61.28</x:v>
       </x:c>
     </x:row>
@@ -5450,7 +5450,7 @@
       <x:c r="F236" t="n">
         <x:v>3103.004</x:v>
       </x:c>
-      <x:c r="G236" t="n">
+      <x:c r="G236" t="str">
         <x:v>62.83</x:v>
       </x:c>
     </x:row>
@@ -5473,7 +5473,7 @@
       <x:c r="F237" t="n">
         <x:v>5703.603</x:v>
       </x:c>
-      <x:c r="G237" t="n">
+      <x:c r="G237" t="str">
         <x:v>68.75</x:v>
       </x:c>
     </x:row>
@@ -5496,7 +5496,7 @@
       <x:c r="F238" t="n">
         <x:v>3278.000</x:v>
       </x:c>
-      <x:c r="G238" t="n">
+      <x:c r="G238" t="str">
         <x:v>61.28</x:v>
       </x:c>
     </x:row>
@@ -5519,7 +5519,7 @@
       <x:c r="F239" t="n">
         <x:v>3400.000</x:v>
       </x:c>
-      <x:c r="G239" t="n">
+      <x:c r="G239" t="str">
         <x:v>72.50</x:v>
       </x:c>
     </x:row>
@@ -5542,7 +5542,7 @@
       <x:c r="F240" t="n">
         <x:v>6913.550</x:v>
       </x:c>
-      <x:c r="G240" t="n">
+      <x:c r="G240" t="str">
         <x:v>72.50</x:v>
       </x:c>
     </x:row>
@@ -5565,7 +5565,7 @@
       <x:c r="F241" t="n">
         <x:v>3103.004</x:v>
       </x:c>
-      <x:c r="G241" t="n">
+      <x:c r="G241" t="str">
         <x:v>62.83</x:v>
       </x:c>
     </x:row>
@@ -5588,7 +5588,7 @@
       <x:c r="F242" t="n">
         <x:v>5703.603</x:v>
       </x:c>
-      <x:c r="G242" t="n">
+      <x:c r="G242" t="str">
         <x:v>68.75</x:v>
       </x:c>
     </x:row>
@@ -5611,7 +5611,7 @@
       <x:c r="F243" t="n">
         <x:v>3278.000</x:v>
       </x:c>
-      <x:c r="G243" t="n">
+      <x:c r="G243" t="str">
         <x:v>61.28</x:v>
       </x:c>
     </x:row>
@@ -5634,7 +5634,7 @@
       <x:c r="F244" t="n">
         <x:v>1037.693</x:v>
       </x:c>
-      <x:c r="G244" t="n">
+      <x:c r="G244" t="str">
         <x:v>61.67</x:v>
       </x:c>
     </x:row>
@@ -5657,7 +5657,7 @@
       <x:c r="F245" t="n">
         <x:v>7243.000</x:v>
       </x:c>
-      <x:c r="G245" t="n">
+      <x:c r="G245" t="str">
         <x:v>77.87</x:v>
       </x:c>
     </x:row>
@@ -5680,7 +5680,7 @@
       <x:c r="F246" t="n">
         <x:v>13334.725</x:v>
       </x:c>
-      <x:c r="G246" t="n">
+      <x:c r="G246" t="str">
         <x:v>77.87</x:v>
       </x:c>
     </x:row>
@@ -5703,7 +5703,7 @@
       <x:c r="F247" t="n">
         <x:v>14867.031</x:v>
       </x:c>
-      <x:c r="G247" t="n">
+      <x:c r="G247" t="str">
         <x:v>90.17</x:v>
       </x:c>
     </x:row>
@@ -5726,7 +5726,7 @@
       <x:c r="F248" t="n">
         <x:v>3479.273</x:v>
       </x:c>
-      <x:c r="G248" t="n">
+      <x:c r="G248" t="str">
         <x:v>63.43</x:v>
       </x:c>
     </x:row>
@@ -5749,7 +5749,7 @@
       <x:c r="F249" t="n">
         <x:v>2807.996</x:v>
       </x:c>
-      <x:c r="G249" t="n">
+      <x:c r="G249" t="str">
         <x:v>92.03</x:v>
       </x:c>
     </x:row>
@@ -5772,7 +5772,7 @@
       <x:c r="F250" t="n">
         <x:v>1706.000</x:v>
       </x:c>
-      <x:c r="G250" t="n">
+      <x:c r="G250" t="str">
         <x:v>48.78</x:v>
       </x:c>
     </x:row>
@@ -5795,7 +5795,7 @@
       <x:c r="F251" t="n">
         <x:v>1206.000</x:v>
       </x:c>
-      <x:c r="G251" t="n">
+      <x:c r="G251" t="str">
         <x:v>40.02</x:v>
       </x:c>
     </x:row>
@@ -5818,7 +5818,7 @@
       <x:c r="F252" t="n">
         <x:v>1206.000</x:v>
       </x:c>
-      <x:c r="G252" t="n">
+      <x:c r="G252" t="str">
         <x:v>28.45</x:v>
       </x:c>
     </x:row>
@@ -5841,7 +5841,7 @@
       <x:c r="F253" t="n">
         <x:v>1206.000</x:v>
       </x:c>
-      <x:c r="G253" t="n">
+      <x:c r="G253" t="str">
         <x:v>28.45</x:v>
       </x:c>
     </x:row>
@@ -5864,7 +5864,7 @@
       <x:c r="F254" t="n">
         <x:v>1206.000</x:v>
       </x:c>
-      <x:c r="G254" t="n">
+      <x:c r="G254" t="str">
         <x:v>28.45</x:v>
       </x:c>
     </x:row>
@@ -5887,7 +5887,7 @@
       <x:c r="F255" t="n">
         <x:v>1206.000</x:v>
       </x:c>
-      <x:c r="G255" t="n">
+      <x:c r="G255" t="str">
         <x:v>33.33</x:v>
       </x:c>
     </x:row>
@@ -5910,7 +5910,7 @@
       <x:c r="F256" t="n">
         <x:v>2006.000</x:v>
       </x:c>
-      <x:c r="G256" t="n">
+      <x:c r="G256" t="str">
         <x:v>33.33</x:v>
       </x:c>
     </x:row>
@@ -5933,7 +5933,7 @@
       <x:c r="F257" t="n">
         <x:v>906.000</x:v>
       </x:c>
-      <x:c r="G257" t="n">
+      <x:c r="G257" t="str">
         <x:v>28.60</x:v>
       </x:c>
     </x:row>
@@ -5956,7 +5956,7 @@
       <x:c r="F258" t="n">
         <x:v>1206.000</x:v>
       </x:c>
-      <x:c r="G258" t="n">
+      <x:c r="G258" t="str">
         <x:v>37.68</x:v>
       </x:c>
     </x:row>
@@ -5979,7 +5979,7 @@
       <x:c r="F259" t="n">
         <x:v>1556.000</x:v>
       </x:c>
-      <x:c r="G259" t="n">
+      <x:c r="G259" t="str">
         <x:v>54.53</x:v>
       </x:c>
     </x:row>
@@ -6002,7 +6002,7 @@
       <x:c r="F260" t="n">
         <x:v>1917.000</x:v>
       </x:c>
-      <x:c r="G260" t="n">
+      <x:c r="G260" t="str">
         <x:v>50.92</x:v>
       </x:c>
     </x:row>
@@ -6025,7 +6025,7 @@
       <x:c r="F261" t="n">
         <x:v>6726.984</x:v>
       </x:c>
-      <x:c r="G261" t="n">
+      <x:c r="G261" t="str">
         <x:v>61.32</x:v>
       </x:c>
     </x:row>
@@ -6048,7 +6048,7 @@
       <x:c r="F262" t="n">
         <x:v>3147.000</x:v>
       </x:c>
-      <x:c r="G262" t="n">
+      <x:c r="G262" t="str">
         <x:v>53.27</x:v>
       </x:c>
     </x:row>
@@ -6071,7 +6071,7 @@
       <x:c r="F263" t="n">
         <x:v>3518.192</x:v>
       </x:c>
-      <x:c r="G263" t="n">
+      <x:c r="G263" t="str">
         <x:v>55.25</x:v>
       </x:c>
     </x:row>
@@ -6094,7 +6094,7 @@
       <x:c r="F264" t="n">
         <x:v>3800.000</x:v>
       </x:c>
-      <x:c r="G264" t="n">
+      <x:c r="G264" t="str">
         <x:v>53.37</x:v>
       </x:c>
     </x:row>
@@ -6117,7 +6117,7 @@
       <x:c r="F265" t="n">
         <x:v>3800.000</x:v>
       </x:c>
-      <x:c r="G265" t="n">
+      <x:c r="G265" t="str">
         <x:v>96.03</x:v>
       </x:c>
     </x:row>
@@ -6140,7 +6140,7 @@
       <x:c r="F266" t="n">
         <x:v>3800.000</x:v>
       </x:c>
-      <x:c r="G266" t="n">
+      <x:c r="G266" t="str">
         <x:v>96.03</x:v>
       </x:c>
     </x:row>
@@ -6163,7 +6163,7 @@
       <x:c r="F267" t="n">
         <x:v>3800.000</x:v>
       </x:c>
-      <x:c r="G267" t="n">
+      <x:c r="G267" t="str">
         <x:v>96.03</x:v>
       </x:c>
     </x:row>
@@ -6186,7 +6186,7 @@
       <x:c r="F268" t="n">
         <x:v>3800.000</x:v>
       </x:c>
-      <x:c r="G268" t="n">
+      <x:c r="G268" t="str">
         <x:v>96.03</x:v>
       </x:c>
     </x:row>
@@ -6209,7 +6209,7 @@
       <x:c r="F269" t="n">
         <x:v>3800.000</x:v>
       </x:c>
-      <x:c r="G269" t="n">
+      <x:c r="G269" t="str">
         <x:v>96.03</x:v>
       </x:c>
     </x:row>
@@ -6232,7 +6232,7 @@
       <x:c r="F270" t="n">
         <x:v>2350.000</x:v>
       </x:c>
-      <x:c r="G270" t="n">
+      <x:c r="G270" t="str">
         <x:v>94.37</x:v>
       </x:c>
     </x:row>
@@ -6255,7 +6255,7 @@
       <x:c r="F271" t="n">
         <x:v>2350.000</x:v>
       </x:c>
-      <x:c r="G271" t="n">
+      <x:c r="G271" t="str">
         <x:v>94.37</x:v>
       </x:c>
     </x:row>
@@ -6278,7 +6278,7 @@
       <x:c r="F272" t="n">
         <x:v>3000.000</x:v>
       </x:c>
-      <x:c r="G272" t="n">
+      <x:c r="G272" t="str">
         <x:v>96.03</x:v>
       </x:c>
     </x:row>
@@ -6301,7 +6301,7 @@
       <x:c r="F273" t="n">
         <x:v>3956.000</x:v>
       </x:c>
-      <x:c r="G273" t="n">
+      <x:c r="G273" t="str">
         <x:v>65.27</x:v>
       </x:c>
     </x:row>
@@ -6324,7 +6324,7 @@
       <x:c r="F274" t="n">
         <x:v>1600.000</x:v>
       </x:c>
-      <x:c r="G274" t="n">
+      <x:c r="G274" t="str">
         <x:v>88.10</x:v>
       </x:c>
     </x:row>
@@ -6347,7 +6347,7 @@
       <x:c r="F275" t="n">
         <x:v>2200.000</x:v>
       </x:c>
-      <x:c r="G275" t="n">
+      <x:c r="G275" t="str">
         <x:v>81.20</x:v>
       </x:c>
     </x:row>
@@ -6370,7 +6370,7 @@
       <x:c r="F276" t="n">
         <x:v>2200.000</x:v>
       </x:c>
-      <x:c r="G276" t="n">
+      <x:c r="G276" t="str">
         <x:v>66.37</x:v>
       </x:c>
     </x:row>
@@ -6393,7 +6393,7 @@
       <x:c r="F277" t="n">
         <x:v>2413.000</x:v>
       </x:c>
-      <x:c r="G277" t="n">
+      <x:c r="G277" t="str">
         <x:v>58.95</x:v>
       </x:c>
     </x:row>
@@ -6416,7 +6416,7 @@
       <x:c r="F278" t="n">
         <x:v>6102.344</x:v>
       </x:c>
-      <x:c r="G278" t="n">
+      <x:c r="G278" t="str">
         <x:v>60.93</x:v>
       </x:c>
     </x:row>
@@ -6439,7 +6439,7 @@
       <x:c r="F279" t="n">
         <x:v>3150.000</x:v>
       </x:c>
-      <x:c r="G279" t="n">
+      <x:c r="G279" t="str">
         <x:v>97.85</x:v>
       </x:c>
     </x:row>
@@ -6462,7 +6462,7 @@
       <x:c r="F280" t="n">
         <x:v>2870.619</x:v>
       </x:c>
-      <x:c r="G280" t="n">
+      <x:c r="G280" t="str">
         <x:v>100.00</x:v>
       </x:c>
     </x:row>
@@ -6485,7 +6485,7 @@
       <x:c r="F281" t="n">
         <x:v>3603.210</x:v>
       </x:c>
-      <x:c r="G281" t="n">
+      <x:c r="G281" t="str">
         <x:v>68.88</x:v>
       </x:c>
     </x:row>
@@ -6508,7 +6508,7 @@
       <x:c r="F282" t="n">
         <x:v>900.000</x:v>
       </x:c>
-      <x:c r="G282" t="n">
+      <x:c r="G282" t="str">
         <x:v>84.17</x:v>
       </x:c>
     </x:row>
@@ -6531,7 +6531,7 @@
       <x:c r="F283" t="n">
         <x:v>900.000</x:v>
       </x:c>
-      <x:c r="G283" t="n">
+      <x:c r="G283" t="str">
         <x:v>84.17</x:v>
       </x:c>
     </x:row>
@@ -6554,7 +6554,7 @@
       <x:c r="F284" t="n">
         <x:v>4953.210</x:v>
       </x:c>
-      <x:c r="G284" t="n">
+      <x:c r="G284" t="str">
         <x:v>65.77</x:v>
       </x:c>
     </x:row>
@@ -6577,7 +6577,7 @@
       <x:c r="F285" t="n">
         <x:v>900.000</x:v>
       </x:c>
-      <x:c r="G285" t="n">
+      <x:c r="G285" t="str">
         <x:v>84.17</x:v>
       </x:c>
     </x:row>
@@ -6600,7 +6600,7 @@
       <x:c r="F286" t="n">
         <x:v>900.000</x:v>
       </x:c>
-      <x:c r="G286" t="n">
+      <x:c r="G286" t="str">
         <x:v>84.17</x:v>
       </x:c>
     </x:row>
@@ -6623,7 +6623,7 @@
       <x:c r="F287" t="n">
         <x:v>3753.210</x:v>
       </x:c>
-      <x:c r="G287" t="n">
+      <x:c r="G287" t="str">
         <x:v>41.15</x:v>
       </x:c>
     </x:row>
@@ -6646,7 +6646,7 @@
       <x:c r="F288" t="n">
         <x:v>1700.000</x:v>
       </x:c>
-      <x:c r="G288" t="n">
+      <x:c r="G288" t="str">
         <x:v>64.83</x:v>
       </x:c>
     </x:row>
@@ -6669,7 +6669,7 @@
       <x:c r="F289" t="n">
         <x:v>1650.000</x:v>
       </x:c>
-      <x:c r="G289" t="n">
+      <x:c r="G289" t="str">
         <x:v>91.90</x:v>
       </x:c>
     </x:row>
@@ -6692,7 +6692,7 @@
       <x:c r="F290" t="n">
         <x:v>3000.000</x:v>
       </x:c>
-      <x:c r="G290" t="n">
+      <x:c r="G290" t="str">
         <x:v>58.23</x:v>
       </x:c>
     </x:row>
@@ -6715,7 +6715,7 @@
       <x:c r="F291" t="n">
         <x:v>1750.000</x:v>
       </x:c>
-      <x:c r="G291" t="n">
+      <x:c r="G291" t="str">
         <x:v>84.00</x:v>
       </x:c>
     </x:row>
@@ -6738,7 +6738,7 @@
       <x:c r="F292" t="n">
         <x:v>2153.210</x:v>
       </x:c>
-      <x:c r="G292" t="n">
+      <x:c r="G292" t="str">
         <x:v>77.33</x:v>
       </x:c>
     </x:row>
@@ -6761,7 +6761,7 @@
       <x:c r="F293" t="n">
         <x:v>6600.000</x:v>
       </x:c>
-      <x:c r="G293" t="n">
+      <x:c r="G293" t="str">
         <x:v>73.52</x:v>
       </x:c>
     </x:row>
@@ -6784,7 +6784,7 @@
       <x:c r="F294" t="n">
         <x:v>1530.000</x:v>
       </x:c>
-      <x:c r="G294" t="n">
+      <x:c r="G294" t="str">
         <x:v>96.77</x:v>
       </x:c>
     </x:row>
@@ -6807,7 +6807,7 @@
       <x:c r="F295" t="n">
         <x:v>930.000</x:v>
       </x:c>
-      <x:c r="G295" t="n">
+      <x:c r="G295" t="str">
         <x:v>88.07</x:v>
       </x:c>
     </x:row>
@@ -6830,7 +6830,7 @@
       <x:c r="F296" t="n">
         <x:v>6000.000</x:v>
       </x:c>
-      <x:c r="G296" t="n">
+      <x:c r="G296" t="str">
         <x:v>84.13</x:v>
       </x:c>
     </x:row>
@@ -6853,7 +6853,7 @@
       <x:c r="F297" t="n">
         <x:v>3560.000</x:v>
       </x:c>
-      <x:c r="G297" t="n">
+      <x:c r="G297" t="str">
         <x:v>80.90</x:v>
       </x:c>
     </x:row>
@@ -6876,7 +6876,7 @@
       <x:c r="F298" t="n">
         <x:v>2403.772</x:v>
       </x:c>
-      <x:c r="G298" t="n">
+      <x:c r="G298" t="str">
         <x:v>77.00</x:v>
       </x:c>
     </x:row>
@@ -6899,7 +6899,7 @@
       <x:c r="F299" t="n">
         <x:v>4394.246</x:v>
       </x:c>
-      <x:c r="G299" t="n">
+      <x:c r="G299" t="str">
         <x:v>77.00</x:v>
       </x:c>
     </x:row>
@@ -6922,7 +6922,7 @@
       <x:c r="F300" t="n">
         <x:v>3855.754</x:v>
       </x:c>
-      <x:c r="G300" t="n">
+      <x:c r="G300" t="str">
         <x:v>91.60</x:v>
       </x:c>
     </x:row>
@@ -6945,7 +6945,7 @@
       <x:c r="F301" t="n">
         <x:v>2800.000</x:v>
       </x:c>
-      <x:c r="G301" t="n">
+      <x:c r="G301" t="str">
         <x:v>73.27</x:v>
       </x:c>
     </x:row>
@@ -6968,7 +6968,7 @@
       <x:c r="F302" t="n">
         <x:v>3744.215</x:v>
       </x:c>
-      <x:c r="G302" t="n">
+      <x:c r="G302" t="str">
         <x:v>77.17</x:v>
       </x:c>
     </x:row>
@@ -6991,7 +6991,7 @@
       <x:c r="F303" t="n">
         <x:v>1687.000</x:v>
       </x:c>
-      <x:c r="G303" t="n">
+      <x:c r="G303" t="str">
         <x:v>84.73</x:v>
       </x:c>
     </x:row>
@@ -7014,7 +7014,7 @@
       <x:c r="F304" t="n">
         <x:v>2200.000</x:v>
       </x:c>
-      <x:c r="G304" t="n">
+      <x:c r="G304" t="str">
         <x:v>69.47</x:v>
       </x:c>
     </x:row>
@@ -7037,7 +7037,7 @@
       <x:c r="F305" t="n">
         <x:v>8151.985</x:v>
       </x:c>
-      <x:c r="G305" t="n">
+      <x:c r="G305" t="str">
         <x:v>57.18</x:v>
       </x:c>
     </x:row>
@@ -7060,7 +7060,7 @@
       <x:c r="F306" t="n">
         <x:v>3475.911</x:v>
       </x:c>
-      <x:c r="G306" t="n">
+      <x:c r="G306" t="str">
         <x:v>53.25</x:v>
       </x:c>
     </x:row>
@@ -7083,7 +7083,7 @@
       <x:c r="F307" t="n">
         <x:v>14620.000</x:v>
       </x:c>
-      <x:c r="G307" t="n">
+      <x:c r="G307" t="str">
         <x:v>82.83</x:v>
       </x:c>
     </x:row>
@@ -7106,7 +7106,7 @@
       <x:c r="F308" t="n">
         <x:v>2150.000</x:v>
       </x:c>
-      <x:c r="G308" t="n">
+      <x:c r="G308" t="str">
         <x:v>82.83</x:v>
       </x:c>
     </x:row>
@@ -7129,7 +7129,7 @@
       <x:c r="F309" t="n">
         <x:v>5101.000</x:v>
       </x:c>
-      <x:c r="G309" t="n">
+      <x:c r="G309" t="str">
         <x:v>62.92</x:v>
       </x:c>
     </x:row>
@@ -7152,7 +7152,7 @@
       <x:c r="F310" t="n">
         <x:v>6665.979</x:v>
       </x:c>
-      <x:c r="G310" t="n">
+      <x:c r="G310" t="str">
         <x:v>62.92</x:v>
       </x:c>
     </x:row>
@@ -7175,7 +7175,7 @@
       <x:c r="F311" t="n">
         <x:v>5305.587</x:v>
       </x:c>
-      <x:c r="G311" t="n">
+      <x:c r="G311" t="str">
         <x:v>100.00</x:v>
       </x:c>
     </x:row>
@@ -7198,7 +7198,7 @@
       <x:c r="F312" t="n">
         <x:v>5333.466</x:v>
       </x:c>
-      <x:c r="G312" t="n">
+      <x:c r="G312" t="str">
         <x:v>61.83</x:v>
       </x:c>
     </x:row>
@@ -7221,7 +7221,7 @@
       <x:c r="F313" t="n">
         <x:v>2787.000</x:v>
       </x:c>
-      <x:c r="G313" t="n">
+      <x:c r="G313" t="str">
         <x:v>61.83</x:v>
       </x:c>
     </x:row>
@@ -7244,7 +7244,7 @@
       <x:c r="F314" t="n">
         <x:v>3000.000</x:v>
       </x:c>
-      <x:c r="G314" t="n">
+      <x:c r="G314" t="str">
         <x:v>69.47</x:v>
       </x:c>
     </x:row>
@@ -7267,7 +7267,7 @@
       <x:c r="F315" t="n">
         <x:v>4384.000</x:v>
       </x:c>
-      <x:c r="G315" t="n">
+      <x:c r="G315" t="str">
         <x:v>84.73</x:v>
       </x:c>
     </x:row>
@@ -7290,7 +7290,7 @@
       <x:c r="F316" t="n">
         <x:v>4500.000</x:v>
       </x:c>
-      <x:c r="G316" t="n">
+      <x:c r="G316" t="str">
         <x:v>53.25</x:v>
       </x:c>
     </x:row>
@@ -7313,7 +7313,7 @@
       <x:c r="F317" t="n">
         <x:v>8462.000</x:v>
       </x:c>
-      <x:c r="G317" t="n">
+      <x:c r="G317" t="str">
         <x:v>53.25</x:v>
       </x:c>
     </x:row>
@@ -7336,7 +7336,7 @@
       <x:c r="F318" t="n">
         <x:v>8196.993</x:v>
       </x:c>
-      <x:c r="G318" t="n">
+      <x:c r="G318" t="str">
         <x:v>53.25</x:v>
       </x:c>
     </x:row>
@@ -7359,7 +7359,7 @@
       <x:c r="F319" t="n">
         <x:v>6511.970</x:v>
       </x:c>
-      <x:c r="G319" t="n">
+      <x:c r="G319" t="str">
         <x:v>53.25</x:v>
       </x:c>
     </x:row>
@@ -7382,13 +7382,13 @@
       <x:c r="F320" t="n">
         <x:v>6997.239</x:v>
       </x:c>
-      <x:c r="G320" t="n">
+      <x:c r="G320" t="str">
         <x:v>61.83</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:tableParts>
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc0765e58034e49a7"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R44510aa9eabf489f"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/TraysFastUpdate/wwwroot/Trays.xlsx
+++ b/TraysFastUpdate/wwwroot/Trays.xlsx
@@ -2,21 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Trays" sheetId="1" r:id="R00e26a0dcbfe4fbe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Trays" sheetId="1" r:id="Rf10bc3a73ae74ba3"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Trays" displayName="Trays" ref="A1:G320">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Trays" displayName="Trays" ref="A1:H320">
   <x:autoFilter ref="A1:G320"/>
-  <x:tableColumns count="7">
+  <x:tableColumns count="8">
     <x:tableColumn id="1" name="Name"/>
     <x:tableColumn id="2" name="Type"/>
     <x:tableColumn id="3" name="Purpose"/>
     <x:tableColumn id="4" name="Width [mm]"/>
     <x:tableColumn id="5" name="Height [mm]"/>
     <x:tableColumn id="6" name="Length [mm]"/>
+    <x:tableColumn id="7" name="Cables on tray [pcs.]"/>
     <x:tableColumn id="8" name="Available space [%]"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -46,6 +47,9 @@
         <x:v>Length [mm]</x:v>
       </x:c>
       <x:c r="G1" t="str">
+        <x:v>Cables on tray [pcs.]</x:v>
+      </x:c>
+      <x:c r="H1" t="str">
         <x:v>Available space [%]</x:v>
       </x:c>
     </x:row>
@@ -60,7 +64,7 @@
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D2" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E2" t="n">
         <x:v>100</x:v>
@@ -68,8 +72,11 @@
       <x:c r="F2" t="n">
         <x:v>7838.070</x:v>
       </x:c>
-      <x:c r="G2" t="str">
-        <x:v>75.67</x:v>
+      <x:c r="G2" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H2" t="str">
+        <x:v>51.33</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
@@ -91,7 +98,10 @@
       <x:c r="F3" t="n">
         <x:v>23600.619</x:v>
       </x:c>
-      <x:c r="G3" t="str">
+      <x:c r="G3" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H3" t="str">
         <x:v>63.60</x:v>
       </x:c>
     </x:row>
@@ -114,7 +124,10 @@
       <x:c r="F4" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G4" t="str">
+      <x:c r="G4" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H4" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -137,7 +150,10 @@
       <x:c r="F5" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G5" t="str">
+      <x:c r="G5" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H5" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -160,7 +176,10 @@
       <x:c r="F6" t="n">
         <x:v>1700.619</x:v>
       </x:c>
-      <x:c r="G6" t="str">
+      <x:c r="G6" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H6" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -183,7 +202,10 @@
       <x:c r="F7" t="n">
         <x:v>1700.619</x:v>
       </x:c>
-      <x:c r="G7" t="str">
+      <x:c r="G7" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H7" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -206,7 +228,10 @@
       <x:c r="F8" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G8" t="str">
+      <x:c r="G8" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H8" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -229,7 +254,10 @@
       <x:c r="F9" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G9" t="str">
+      <x:c r="G9" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H9" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -252,7 +280,10 @@
       <x:c r="F10" t="n">
         <x:v>6325.284</x:v>
       </x:c>
-      <x:c r="G10" t="str">
+      <x:c r="G10" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H10" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -275,7 +306,10 @@
       <x:c r="F11" t="n">
         <x:v>6325.284</x:v>
       </x:c>
-      <x:c r="G11" t="str">
+      <x:c r="G11" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H11" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -298,7 +332,10 @@
       <x:c r="F12" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G12" t="str">
+      <x:c r="G12" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H12" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -321,7 +358,10 @@
       <x:c r="F13" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G13" t="str">
+      <x:c r="G13" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H13" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -344,7 +384,10 @@
       <x:c r="F14" t="n">
         <x:v>5764.057</x:v>
       </x:c>
-      <x:c r="G14" t="str">
+      <x:c r="G14" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H14" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -367,7 +410,10 @@
       <x:c r="F15" t="n">
         <x:v>3000.000</x:v>
       </x:c>
-      <x:c r="G15" t="str">
+      <x:c r="G15" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H15" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -390,7 +436,10 @@
       <x:c r="F16" t="n">
         <x:v>3000.000</x:v>
       </x:c>
-      <x:c r="G16" t="str">
+      <x:c r="G16" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H16" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -413,7 +462,10 @@
       <x:c r="F17" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G17" t="str">
+      <x:c r="G17" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H17" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -436,7 +488,10 @@
       <x:c r="F18" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G18" t="str">
+      <x:c r="G18" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H18" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -459,7 +514,10 @@
       <x:c r="F19" t="n">
         <x:v>1300.619</x:v>
       </x:c>
-      <x:c r="G19" t="str">
+      <x:c r="G19" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H19" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -482,7 +540,10 @@
       <x:c r="F20" t="n">
         <x:v>1300.619</x:v>
       </x:c>
-      <x:c r="G20" t="str">
+      <x:c r="G20" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H20" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -505,7 +566,10 @@
       <x:c r="F21" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G21" t="str">
+      <x:c r="G21" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H21" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -528,7 +592,10 @@
       <x:c r="F22" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G22" t="str">
+      <x:c r="G22" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H22" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -551,7 +618,10 @@
       <x:c r="F23" t="n">
         <x:v>11439.220</x:v>
       </x:c>
-      <x:c r="G23" t="str">
+      <x:c r="G23" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H23" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -574,7 +644,10 @@
       <x:c r="F24" t="n">
         <x:v>11439.220</x:v>
       </x:c>
-      <x:c r="G24" t="str">
+      <x:c r="G24" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H24" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -597,7 +670,10 @@
       <x:c r="F25" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G25" t="str">
+      <x:c r="G25" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H25" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -620,7 +696,10 @@
       <x:c r="F26" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G26" t="str">
+      <x:c r="G26" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H26" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -643,7 +722,10 @@
       <x:c r="F27" t="n">
         <x:v>5642.599</x:v>
       </x:c>
-      <x:c r="G27" t="str">
+      <x:c r="G27" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H27" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -666,7 +748,10 @@
       <x:c r="F28" t="n">
         <x:v>5643.821</x:v>
       </x:c>
-      <x:c r="G28" t="str">
+      <x:c r="G28" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H28" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -689,7 +774,10 @@
       <x:c r="F29" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G29" t="str">
+      <x:c r="G29" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H29" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -712,7 +800,10 @@
       <x:c r="F30" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G30" t="str">
+      <x:c r="G30" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H30" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -735,7 +826,10 @@
       <x:c r="F31" t="n">
         <x:v>1800.000</x:v>
       </x:c>
-      <x:c r="G31" t="str">
+      <x:c r="G31" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H31" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -758,7 +852,10 @@
       <x:c r="F32" t="n">
         <x:v>1800.000</x:v>
       </x:c>
-      <x:c r="G32" t="str">
+      <x:c r="G32" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H32" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -781,7 +878,10 @@
       <x:c r="F33" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G33" t="str">
+      <x:c r="G33" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H33" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -804,7 +904,10 @@
       <x:c r="F34" t="n">
         <x:v>1274.601</x:v>
       </x:c>
-      <x:c r="G34" t="str">
+      <x:c r="G34" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H34" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -827,7 +930,10 @@
       <x:c r="F35" t="n">
         <x:v>5830.812</x:v>
       </x:c>
-      <x:c r="G35" t="str">
+      <x:c r="G35" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H35" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -850,7 +956,10 @@
       <x:c r="F36" t="n">
         <x:v>5830.812</x:v>
       </x:c>
-      <x:c r="G36" t="str">
+      <x:c r="G36" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H36" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -873,7 +982,10 @@
       <x:c r="F37" t="n">
         <x:v>4970.900</x:v>
       </x:c>
-      <x:c r="G37" t="str">
+      <x:c r="G37" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H37" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -896,7 +1008,10 @@
       <x:c r="F38" t="n">
         <x:v>11174.950</x:v>
       </x:c>
-      <x:c r="G38" t="str">
+      <x:c r="G38" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H38" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -919,7 +1034,10 @@
       <x:c r="F39" t="n">
         <x:v>10327.774</x:v>
       </x:c>
-      <x:c r="G39" t="str">
+      <x:c r="G39" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H39" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -942,7 +1060,10 @@
       <x:c r="F40" t="n">
         <x:v>25905.369</x:v>
       </x:c>
-      <x:c r="G40" t="str">
+      <x:c r="G40" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H40" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -965,7 +1086,10 @@
       <x:c r="F41" t="n">
         <x:v>25105.369</x:v>
       </x:c>
-      <x:c r="G41" t="str">
+      <x:c r="G41" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H41" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -988,7 +1112,10 @@
       <x:c r="F42" t="n">
         <x:v>10326.481</x:v>
       </x:c>
-      <x:c r="G42" t="str">
+      <x:c r="G42" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H42" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1011,7 +1138,10 @@
       <x:c r="F43" t="n">
         <x:v>11174.424</x:v>
       </x:c>
-      <x:c r="G43" t="str">
+      <x:c r="G43" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H43" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1034,7 +1164,10 @@
       <x:c r="F44" t="n">
         <x:v>4218.868</x:v>
       </x:c>
-      <x:c r="G44" t="str">
+      <x:c r="G44" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H44" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1057,7 +1190,10 @@
       <x:c r="F45" t="n">
         <x:v>5764.057</x:v>
       </x:c>
-      <x:c r="G45" t="str">
+      <x:c r="G45" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H45" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1080,7 +1216,10 @@
       <x:c r="F46" t="n">
         <x:v>5642.620</x:v>
       </x:c>
-      <x:c r="G46" t="str">
+      <x:c r="G46" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H46" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1103,7 +1242,10 @@
       <x:c r="F47" t="n">
         <x:v>5642.620</x:v>
       </x:c>
-      <x:c r="G47" t="str">
+      <x:c r="G47" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H47" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1126,7 +1268,10 @@
       <x:c r="F48" t="n">
         <x:v>7736.447</x:v>
       </x:c>
-      <x:c r="G48" t="str">
+      <x:c r="G48" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H48" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1149,7 +1294,10 @@
       <x:c r="F49" t="n">
         <x:v>7736.447</x:v>
       </x:c>
-      <x:c r="G49" t="str">
+      <x:c r="G49" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H49" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1172,7 +1320,10 @@
       <x:c r="F50" t="n">
         <x:v>10433.601</x:v>
       </x:c>
-      <x:c r="G50" t="str">
+      <x:c r="G50" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H50" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1195,7 +1346,10 @@
       <x:c r="F51" t="n">
         <x:v>10433.601</x:v>
       </x:c>
-      <x:c r="G51" t="str">
+      <x:c r="G51" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H51" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1218,7 +1372,10 @@
       <x:c r="F52" t="n">
         <x:v>6912.929</x:v>
       </x:c>
-      <x:c r="G52" t="str">
+      <x:c r="G52" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H52" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1241,7 +1398,10 @@
       <x:c r="F53" t="n">
         <x:v>7062.451</x:v>
       </x:c>
-      <x:c r="G53" t="str">
+      <x:c r="G53" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H53" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1264,7 +1424,10 @@
       <x:c r="F54" t="n">
         <x:v>6912.929</x:v>
       </x:c>
-      <x:c r="G54" t="str">
+      <x:c r="G54" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H54" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1287,7 +1450,10 @@
       <x:c r="F55" t="n">
         <x:v>6968.311</x:v>
       </x:c>
-      <x:c r="G55" t="str">
+      <x:c r="G55" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H55" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1310,7 +1476,10 @@
       <x:c r="F56" t="n">
         <x:v>5725.000</x:v>
       </x:c>
-      <x:c r="G56" t="str">
+      <x:c r="G56" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H56" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1333,7 +1502,10 @@
       <x:c r="F57" t="n">
         <x:v>4725.000</x:v>
       </x:c>
-      <x:c r="G57" t="str">
+      <x:c r="G57" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H57" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1356,7 +1528,10 @@
       <x:c r="F58" t="n">
         <x:v>3600.000</x:v>
       </x:c>
-      <x:c r="G58" t="str">
+      <x:c r="G58" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H58" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1379,7 +1554,10 @@
       <x:c r="F59" t="n">
         <x:v>3600.000</x:v>
       </x:c>
-      <x:c r="G59" t="str">
+      <x:c r="G59" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H59" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1402,7 +1580,10 @@
       <x:c r="F60" t="n">
         <x:v>5725.000</x:v>
       </x:c>
-      <x:c r="G60" t="str">
+      <x:c r="G60" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H60" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1425,7 +1606,10 @@
       <x:c r="F61" t="n">
         <x:v>5025.000</x:v>
       </x:c>
-      <x:c r="G61" t="str">
+      <x:c r="G61" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H61" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1448,7 +1632,10 @@
       <x:c r="F62" t="n">
         <x:v>3600.000</x:v>
       </x:c>
-      <x:c r="G62" t="str">
+      <x:c r="G62" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H62" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1471,7 +1658,10 @@
       <x:c r="F63" t="n">
         <x:v>3600.000</x:v>
       </x:c>
-      <x:c r="G63" t="str">
+      <x:c r="G63" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H63" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1494,7 +1684,10 @@
       <x:c r="F64" t="n">
         <x:v>6894.960</x:v>
       </x:c>
-      <x:c r="G64" t="str">
+      <x:c r="G64" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H64" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1517,7 +1710,10 @@
       <x:c r="F65" t="n">
         <x:v>7084.929</x:v>
       </x:c>
-      <x:c r="G65" t="str">
+      <x:c r="G65" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H65" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1540,7 +1736,10 @@
       <x:c r="F66" t="n">
         <x:v>6962.449</x:v>
       </x:c>
-      <x:c r="G66" t="str">
+      <x:c r="G66" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H66" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1563,7 +1762,10 @@
       <x:c r="F67" t="n">
         <x:v>7084.929</x:v>
       </x:c>
-      <x:c r="G67" t="str">
+      <x:c r="G67" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H67" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1586,7 +1788,10 @@
       <x:c r="F68" t="n">
         <x:v>5725.000</x:v>
       </x:c>
-      <x:c r="G68" t="str">
+      <x:c r="G68" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H68" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1609,7 +1814,10 @@
       <x:c r="F69" t="n">
         <x:v>5025.000</x:v>
       </x:c>
-      <x:c r="G69" t="str">
+      <x:c r="G69" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H69" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1632,7 +1840,10 @@
       <x:c r="F70" t="n">
         <x:v>3600.000</x:v>
       </x:c>
-      <x:c r="G70" t="str">
+      <x:c r="G70" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H70" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1655,7 +1866,10 @@
       <x:c r="F71" t="n">
         <x:v>3600.000</x:v>
       </x:c>
-      <x:c r="G71" t="str">
+      <x:c r="G71" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H71" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1678,7 +1892,10 @@
       <x:c r="F72" t="n">
         <x:v>5725.000</x:v>
       </x:c>
-      <x:c r="G72" t="str">
+      <x:c r="G72" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H72" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1701,7 +1918,10 @@
       <x:c r="F73" t="n">
         <x:v>5125.000</x:v>
       </x:c>
-      <x:c r="G73" t="str">
+      <x:c r="G73" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H73" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1724,7 +1944,10 @@
       <x:c r="F74" t="n">
         <x:v>2700.000</x:v>
       </x:c>
-      <x:c r="G74" t="str">
+      <x:c r="G74" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H74" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1747,7 +1970,10 @@
       <x:c r="F75" t="n">
         <x:v>2700.000</x:v>
       </x:c>
-      <x:c r="G75" t="str">
+      <x:c r="G75" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H75" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1770,7 +1996,10 @@
       <x:c r="F76" t="n">
         <x:v>21256.580</x:v>
       </x:c>
-      <x:c r="G76" t="str">
+      <x:c r="G76" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H76" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1793,7 +2022,10 @@
       <x:c r="F77" t="n">
         <x:v>20637.837</x:v>
       </x:c>
-      <x:c r="G77" t="str">
+      <x:c r="G77" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H77" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1816,7 +2048,10 @@
       <x:c r="F78" t="n">
         <x:v>22200.718</x:v>
       </x:c>
-      <x:c r="G78" t="str">
+      <x:c r="G78" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H78" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1839,7 +2074,10 @@
       <x:c r="F79" t="n">
         <x:v>21286.580</x:v>
       </x:c>
-      <x:c r="G79" t="str">
+      <x:c r="G79" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H79" t="str">
         <x:v>N/A</x:v>
       </x:c>
     </x:row>
@@ -1862,7 +2100,10 @@
       <x:c r="F80" t="n">
         <x:v>6000.000</x:v>
       </x:c>
-      <x:c r="G80" t="str">
+      <x:c r="G80" t="n">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H80" t="str">
         <x:v>38.65</x:v>
       </x:c>
     </x:row>
@@ -1885,7 +2126,10 @@
       <x:c r="F81" t="n">
         <x:v>6000.000</x:v>
       </x:c>
-      <x:c r="G81" t="str">
+      <x:c r="G81" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H81" t="str">
         <x:v>63.47</x:v>
       </x:c>
     </x:row>
@@ -1908,7 +2152,10 @@
       <x:c r="F82" t="n">
         <x:v>7159.229</x:v>
       </x:c>
-      <x:c r="G82" t="str">
+      <x:c r="G82" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H82" t="str">
         <x:v>72.53</x:v>
       </x:c>
     </x:row>
@@ -1931,7 +2178,10 @@
       <x:c r="F83" t="n">
         <x:v>3250.000</x:v>
       </x:c>
-      <x:c r="G83" t="str">
+      <x:c r="G83" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H83" t="str">
         <x:v>82.33</x:v>
       </x:c>
     </x:row>
@@ -1954,13 +2204,16 @@
       <x:c r="F84" t="n">
         <x:v>1900.000</x:v>
       </x:c>
-      <x:c r="G84" t="str">
+      <x:c r="G84" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H84" t="str">
         <x:v>82.33</x:v>
       </x:c>
     </x:row>
     <x:row r="85">
       <x:c r="A85" t="str">
-        <x:v>B007</x:v>
+        <x:v>B101</x:v>
       </x:c>
       <x:c r="B85" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -1975,18 +2228,21 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F85" t="n">
-        <x:v>6000.000</x:v>
-      </x:c>
-      <x:c r="G85" t="str">
-        <x:v>100.00</x:v>
+        <x:v>3606.000</x:v>
+      </x:c>
+      <x:c r="G85" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H85" t="str">
+        <x:v>34.87</x:v>
       </x:c>
     </x:row>
     <x:row r="86">
       <x:c r="A86" t="str">
-        <x:v>B101</x:v>
+        <x:v>B102</x:v>
       </x:c>
       <x:c r="B86" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.600 F</x:v>
       </x:c>
       <x:c r="C86" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
@@ -1995,21 +2251,24 @@
         <x:v>600</x:v>
       </x:c>
       <x:c r="E86" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F86" t="n">
-        <x:v>3606.000</x:v>
-      </x:c>
-      <x:c r="G86" t="str">
-        <x:v>34.87</x:v>
+        <x:v>8778.319</x:v>
+      </x:c>
+      <x:c r="G86" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H86" t="str">
+        <x:v>67.07</x:v>
       </x:c>
     </x:row>
     <x:row r="87">
       <x:c r="A87" t="str">
-        <x:v>B102</x:v>
+        <x:v>B107-1</x:v>
       </x:c>
       <x:c r="B87" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C87" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
@@ -2018,13 +2277,16 @@
         <x:v>600</x:v>
       </x:c>
       <x:c r="E87" t="n">
-        <x:v>105</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F87" t="n">
-        <x:v>8778.319</x:v>
-      </x:c>
-      <x:c r="G87" t="str">
-        <x:v>67.07</x:v>
+        <x:v>3032.809</x:v>
+      </x:c>
+      <x:c r="G87" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H87" t="str">
+        <x:v>37.40</x:v>
       </x:c>
     </x:row>
     <x:row r="88">
@@ -2038,7 +2300,7 @@
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D88" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E88" t="n">
         <x:v>100</x:v>
@@ -2046,13 +2308,16 @@
       <x:c r="F88" t="n">
         <x:v>1300.619</x:v>
       </x:c>
-      <x:c r="G88" t="str">
+      <x:c r="G88" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H88" t="str">
         <x:v>89.85</x:v>
       </x:c>
     </x:row>
     <x:row r="89">
       <x:c r="A89" t="str">
-        <x:v>B107-1</x:v>
+        <x:v>B105-1</x:v>
       </x:c>
       <x:c r="B89" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2061,21 +2326,24 @@
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D89" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E89" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F89" t="n">
-        <x:v>3032.809</x:v>
-      </x:c>
-      <x:c r="G89" t="str">
-        <x:v>37.40</x:v>
+        <x:v>6501.881</x:v>
+      </x:c>
+      <x:c r="G89" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H89" t="str">
+        <x:v>51.33</x:v>
       </x:c>
     </x:row>
     <x:row r="90">
       <x:c r="A90" t="str">
-        <x:v>B105-1</x:v>
+        <x:v>B105-2</x:v>
       </x:c>
       <x:c r="B90" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2090,15 +2358,18 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F90" t="n">
-        <x:v>6501.881</x:v>
-      </x:c>
-      <x:c r="G90" t="str">
-        <x:v>51.33</x:v>
+        <x:v>1196.290</x:v>
+      </x:c>
+      <x:c r="G90" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H90" t="str">
+        <x:v>43.13</x:v>
       </x:c>
     </x:row>
     <x:row r="91">
       <x:c r="A91" t="str">
-        <x:v>B105-2</x:v>
+        <x:v>B105-3</x:v>
       </x:c>
       <x:c r="B91" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2113,15 +2384,18 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F91" t="n">
-        <x:v>1196.290</x:v>
-      </x:c>
-      <x:c r="G91" t="str">
-        <x:v>43.13</x:v>
+        <x:v>1879.028</x:v>
+      </x:c>
+      <x:c r="G91" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H91" t="str">
+        <x:v>67.95</x:v>
       </x:c>
     </x:row>
     <x:row r="92">
       <x:c r="A92" t="str">
-        <x:v>B105-3</x:v>
+        <x:v>B007</x:v>
       </x:c>
       <x:c r="B92" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2130,16 +2404,19 @@
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D92" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E92" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F92" t="n">
-        <x:v>1879.028</x:v>
-      </x:c>
-      <x:c r="G92" t="str">
-        <x:v>67.95</x:v>
+        <x:v>6000.000</x:v>
+      </x:c>
+      <x:c r="G92" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H92" t="str">
+        <x:v>100.00</x:v>
       </x:c>
     </x:row>
     <x:row r="93">
@@ -2161,7 +2438,10 @@
       <x:c r="F93" t="n">
         <x:v>6013.366</x:v>
       </x:c>
-      <x:c r="G93" t="str">
+      <x:c r="G93" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H93" t="str">
         <x:v>49.80</x:v>
       </x:c>
     </x:row>
@@ -2184,7 +2464,10 @@
       <x:c r="F94" t="n">
         <x:v>1999.000</x:v>
       </x:c>
-      <x:c r="G94" t="str">
+      <x:c r="G94" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H94" t="str">
         <x:v>57.73</x:v>
       </x:c>
     </x:row>
@@ -2207,7 +2490,10 @@
       <x:c r="F95" t="n">
         <x:v>7909.844</x:v>
       </x:c>
-      <x:c r="G95" t="str">
+      <x:c r="G95" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H95" t="str">
         <x:v>62.22</x:v>
       </x:c>
     </x:row>
@@ -2230,7 +2516,10 @@
       <x:c r="F96" t="n">
         <x:v>1926.448</x:v>
       </x:c>
-      <x:c r="G96" t="str">
+      <x:c r="G96" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H96" t="str">
         <x:v>72.32</x:v>
       </x:c>
     </x:row>
@@ -2253,7 +2542,10 @@
       <x:c r="F97" t="n">
         <x:v>1932.039</x:v>
       </x:c>
-      <x:c r="G97" t="str">
+      <x:c r="G97" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H97" t="str">
         <x:v>72.32</x:v>
       </x:c>
     </x:row>
@@ -2276,7 +2568,10 @@
       <x:c r="F98" t="n">
         <x:v>4872.000</x:v>
       </x:c>
-      <x:c r="G98" t="str">
+      <x:c r="G98" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H98" t="str">
         <x:v>76.80</x:v>
       </x:c>
     </x:row>
@@ -2299,7 +2594,10 @@
       <x:c r="F99" t="n">
         <x:v>9001.937</x:v>
       </x:c>
-      <x:c r="G99" t="str">
+      <x:c r="G99" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H99" t="str">
         <x:v>81.80</x:v>
       </x:c>
     </x:row>
@@ -2322,7 +2620,10 @@
       <x:c r="F100" t="n">
         <x:v>8951.937</x:v>
       </x:c>
-      <x:c r="G100" t="str">
+      <x:c r="G100" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H100" t="str">
         <x:v>81.80</x:v>
       </x:c>
     </x:row>
@@ -2345,7 +2646,10 @@
       <x:c r="F101" t="n">
         <x:v>7926.000</x:v>
       </x:c>
-      <x:c r="G101" t="str">
+      <x:c r="G101" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H101" t="str">
         <x:v>81.80</x:v>
       </x:c>
     </x:row>
@@ -2368,7 +2672,10 @@
       <x:c r="F102" t="n">
         <x:v>12000.000</x:v>
       </x:c>
-      <x:c r="G102" t="str">
+      <x:c r="G102" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H102" t="str">
         <x:v>75.05</x:v>
       </x:c>
     </x:row>
@@ -2391,7 +2698,10 @@
       <x:c r="F103" t="n">
         <x:v>5638.090</x:v>
       </x:c>
-      <x:c r="G103" t="str">
+      <x:c r="G103" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H103" t="str">
         <x:v>82.33</x:v>
       </x:c>
     </x:row>
@@ -2414,7 +2724,10 @@
       <x:c r="F104" t="n">
         <x:v>10013.554</x:v>
       </x:c>
-      <x:c r="G104" t="str">
+      <x:c r="G104" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H104" t="str">
         <x:v>73.42</x:v>
       </x:c>
     </x:row>
@@ -2437,7 +2750,10 @@
       <x:c r="F105" t="n">
         <x:v>12056.603</x:v>
       </x:c>
-      <x:c r="G105" t="str">
+      <x:c r="G105" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H105" t="str">
         <x:v>76.97</x:v>
       </x:c>
     </x:row>
@@ -2460,7 +2776,10 @@
       <x:c r="F106" t="n">
         <x:v>10013.554</x:v>
       </x:c>
-      <x:c r="G106" t="str">
+      <x:c r="G106" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H106" t="str">
         <x:v>72.70</x:v>
       </x:c>
     </x:row>
@@ -2483,7 +2802,10 @@
       <x:c r="F107" t="n">
         <x:v>12056.603</x:v>
       </x:c>
-      <x:c r="G107" t="str">
+      <x:c r="G107" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H107" t="str">
         <x:v>76.25</x:v>
       </x:c>
     </x:row>
@@ -2506,7 +2828,10 @@
       <x:c r="F108" t="n">
         <x:v>10013.554</x:v>
       </x:c>
-      <x:c r="G108" t="str">
+      <x:c r="G108" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H108" t="str">
         <x:v>72.70</x:v>
       </x:c>
     </x:row>
@@ -2529,7 +2854,10 @@
       <x:c r="F109" t="n">
         <x:v>12056.603</x:v>
       </x:c>
-      <x:c r="G109" t="str">
+      <x:c r="G109" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H109" t="str">
         <x:v>76.25</x:v>
       </x:c>
     </x:row>
@@ -2552,7 +2880,10 @@
       <x:c r="F110" t="n">
         <x:v>10013.554</x:v>
       </x:c>
-      <x:c r="G110" t="str">
+      <x:c r="G110" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H110" t="str">
         <x:v>72.70</x:v>
       </x:c>
     </x:row>
@@ -2575,7 +2906,10 @@
       <x:c r="F111" t="n">
         <x:v>4251.206</x:v>
       </x:c>
-      <x:c r="G111" t="str">
+      <x:c r="G111" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H111" t="str">
         <x:v>57.27</x:v>
       </x:c>
     </x:row>
@@ -2598,7 +2932,10 @@
       <x:c r="F112" t="n">
         <x:v>12056.603</x:v>
       </x:c>
-      <x:c r="G112" t="str">
+      <x:c r="G112" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H112" t="str">
         <x:v>76.25</x:v>
       </x:c>
     </x:row>
@@ -2621,7 +2958,10 @@
       <x:c r="F113" t="n">
         <x:v>3706.090</x:v>
       </x:c>
-      <x:c r="G113" t="str">
+      <x:c r="G113" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H113" t="str">
         <x:v>62.92</x:v>
       </x:c>
     </x:row>
@@ -2644,7 +2984,10 @@
       <x:c r="F114" t="n">
         <x:v>6013.366</x:v>
       </x:c>
-      <x:c r="G114" t="str">
+      <x:c r="G114" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H114" t="str">
         <x:v>62.92</x:v>
       </x:c>
     </x:row>
@@ -2667,7 +3010,10 @@
       <x:c r="F115" t="n">
         <x:v>1999.000</x:v>
       </x:c>
-      <x:c r="G115" t="str">
+      <x:c r="G115" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H115" t="str">
         <x:v>62.92</x:v>
       </x:c>
     </x:row>
@@ -2690,7 +3036,10 @@
       <x:c r="F116" t="n">
         <x:v>7909.844</x:v>
       </x:c>
-      <x:c r="G116" t="str">
+      <x:c r="G116" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H116" t="str">
         <x:v>62.92</x:v>
       </x:c>
     </x:row>
@@ -2713,7 +3062,10 @@
       <x:c r="F117" t="n">
         <x:v>1926.448</x:v>
       </x:c>
-      <x:c r="G117" t="str">
+      <x:c r="G117" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H117" t="str">
         <x:v>62.92</x:v>
       </x:c>
     </x:row>
@@ -2736,7 +3088,10 @@
       <x:c r="F118" t="n">
         <x:v>1932.039</x:v>
       </x:c>
-      <x:c r="G118" t="str">
+      <x:c r="G118" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H118" t="str">
         <x:v>100.00</x:v>
       </x:c>
     </x:row>
@@ -2759,7 +3114,10 @@
       <x:c r="F119" t="n">
         <x:v>4067.961</x:v>
       </x:c>
-      <x:c r="G119" t="str">
+      <x:c r="G119" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H119" t="str">
         <x:v>100.00</x:v>
       </x:c>
     </x:row>
@@ -2782,7 +3140,10 @@
       <x:c r="F120" t="n">
         <x:v>1537.693</x:v>
       </x:c>
-      <x:c r="G120" t="str">
+      <x:c r="G120" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H120" t="str">
         <x:v>60.58</x:v>
       </x:c>
     </x:row>
@@ -2805,7 +3166,10 @@
       <x:c r="F121" t="n">
         <x:v>6678.620</x:v>
       </x:c>
-      <x:c r="G121" t="str">
+      <x:c r="G121" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H121" t="str">
         <x:v>62.92</x:v>
       </x:c>
     </x:row>
@@ -2828,7 +3192,10 @@
       <x:c r="F122" t="n">
         <x:v>13117.566</x:v>
       </x:c>
-      <x:c r="G122" t="str">
+      <x:c r="G122" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H122" t="str">
         <x:v>57.13</x:v>
       </x:c>
     </x:row>
@@ -2851,7 +3218,10 @@
       <x:c r="F123" t="n">
         <x:v>14559.495</x:v>
       </x:c>
-      <x:c r="G123" t="str">
+      <x:c r="G123" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H123" t="str">
         <x:v>79.38</x:v>
       </x:c>
     </x:row>
@@ -2874,7 +3244,10 @@
       <x:c r="F124" t="n">
         <x:v>4919.273</x:v>
       </x:c>
-      <x:c r="G124" t="str">
+      <x:c r="G124" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H124" t="str">
         <x:v>82.83</x:v>
       </x:c>
     </x:row>
@@ -2897,7 +3270,10 @@
       <x:c r="F125" t="n">
         <x:v>3890.930</x:v>
       </x:c>
-      <x:c r="G125" t="str">
+      <x:c r="G125" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H125" t="str">
         <x:v>82.83</x:v>
       </x:c>
     </x:row>
@@ -2920,7 +3296,10 @@
       <x:c r="F126" t="n">
         <x:v>2807.996</x:v>
       </x:c>
-      <x:c r="G126" t="str">
+      <x:c r="G126" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H126" t="str">
         <x:v>82.83</x:v>
       </x:c>
     </x:row>
@@ -2943,7 +3322,10 @@
       <x:c r="F127" t="n">
         <x:v>4100.000</x:v>
       </x:c>
-      <x:c r="G127" t="str">
+      <x:c r="G127" t="n">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H127" t="str">
         <x:v>61.80</x:v>
       </x:c>
     </x:row>
@@ -2966,7 +3348,10 @@
       <x:c r="F128" t="n">
         <x:v>6465.000</x:v>
       </x:c>
-      <x:c r="G128" t="str">
+      <x:c r="G128" t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H128" t="str">
         <x:v>59.37</x:v>
       </x:c>
     </x:row>
@@ -2989,7 +3374,10 @@
       <x:c r="F129" t="n">
         <x:v>9500.000</x:v>
       </x:c>
-      <x:c r="G129" t="str">
+      <x:c r="G129" t="n">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="H129" t="str">
         <x:v>57.40</x:v>
       </x:c>
     </x:row>
@@ -3012,7 +3400,10 @@
       <x:c r="F130" t="n">
         <x:v>4400.000</x:v>
       </x:c>
-      <x:c r="G130" t="str">
+      <x:c r="G130" t="n">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="H130" t="str">
         <x:v>57.40</x:v>
       </x:c>
     </x:row>
@@ -3035,7 +3426,10 @@
       <x:c r="F131" t="n">
         <x:v>4703.319</x:v>
       </x:c>
-      <x:c r="G131" t="str">
+      <x:c r="G131" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H131" t="str">
         <x:v>87.43</x:v>
       </x:c>
     </x:row>
@@ -3058,7 +3452,10 @@
       <x:c r="F132" t="n">
         <x:v>4375.000</x:v>
       </x:c>
-      <x:c r="G132" t="str">
+      <x:c r="G132" t="n">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H132" t="str">
         <x:v>61.85</x:v>
       </x:c>
     </x:row>
@@ -3081,7 +3478,10 @@
       <x:c r="F133" t="n">
         <x:v>12016.902</x:v>
       </x:c>
-      <x:c r="G133" t="str">
+      <x:c r="G133" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H133" t="str">
         <x:v>93.30</x:v>
       </x:c>
     </x:row>
@@ -3104,7 +3504,10 @@
       <x:c r="F134" t="n">
         <x:v>6719.875</x:v>
       </x:c>
-      <x:c r="G134" t="str">
+      <x:c r="G134" t="n">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="H134" t="str">
         <x:v>64.70</x:v>
       </x:c>
     </x:row>
@@ -3127,7 +3530,10 @@
       <x:c r="F135" t="n">
         <x:v>2915.000</x:v>
       </x:c>
-      <x:c r="G135" t="str">
+      <x:c r="G135" t="n">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H135" t="str">
         <x:v>64.70</x:v>
       </x:c>
     </x:row>
@@ -3150,7 +3556,10 @@
       <x:c r="F136" t="n">
         <x:v>3000.000</x:v>
       </x:c>
-      <x:c r="G136" t="str">
+      <x:c r="G136" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H136" t="str">
         <x:v>72.40</x:v>
       </x:c>
     </x:row>
@@ -3173,7 +3582,10 @@
       <x:c r="F137" t="n">
         <x:v>4157.061</x:v>
       </x:c>
-      <x:c r="G137" t="str">
+      <x:c r="G137" t="n">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H137" t="str">
         <x:v>77.20</x:v>
       </x:c>
     </x:row>
@@ -3196,7 +3608,10 @@
       <x:c r="F138" t="n">
         <x:v>2100.000</x:v>
       </x:c>
-      <x:c r="G138" t="str">
+      <x:c r="G138" t="n">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H138" t="str">
         <x:v>62.33</x:v>
       </x:c>
     </x:row>
@@ -3219,7 +3634,10 @@
       <x:c r="F139" t="n">
         <x:v>4768.319</x:v>
       </x:c>
-      <x:c r="G139" t="str">
+      <x:c r="G139" t="n">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="H139" t="str">
         <x:v>53.63</x:v>
       </x:c>
     </x:row>
@@ -3242,7 +3660,10 @@
       <x:c r="F140" t="n">
         <x:v>6897.001</x:v>
       </x:c>
-      <x:c r="G140" t="str">
+      <x:c r="G140" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H140" t="str">
         <x:v>76.17</x:v>
       </x:c>
     </x:row>
@@ -3265,7 +3686,10 @@
       <x:c r="F141" t="n">
         <x:v>6897.001</x:v>
       </x:c>
-      <x:c r="G141" t="str">
+      <x:c r="G141" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H141" t="str">
         <x:v>76.17</x:v>
       </x:c>
     </x:row>
@@ -3288,7 +3712,10 @@
       <x:c r="F142" t="n">
         <x:v>5709.616</x:v>
       </x:c>
-      <x:c r="G142" t="str">
+      <x:c r="G142" t="n">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H142" t="str">
         <x:v>62.33</x:v>
       </x:c>
     </x:row>
@@ -3311,7 +3738,10 @@
       <x:c r="F143" t="n">
         <x:v>4953.004</x:v>
       </x:c>
-      <x:c r="G143" t="str">
+      <x:c r="G143" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H143" t="str">
         <x:v>70.90</x:v>
       </x:c>
     </x:row>
@@ -3334,7 +3764,10 @@
       <x:c r="F144" t="n">
         <x:v>6976.506</x:v>
       </x:c>
-      <x:c r="G144" t="str">
+      <x:c r="G144" t="n">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H144" t="str">
         <x:v>62.33</x:v>
       </x:c>
     </x:row>
@@ -3357,7 +3790,10 @@
       <x:c r="F145" t="n">
         <x:v>4953.004</x:v>
       </x:c>
-      <x:c r="G145" t="str">
+      <x:c r="G145" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H145" t="str">
         <x:v>70.90</x:v>
       </x:c>
     </x:row>
@@ -3380,7 +3816,10 @@
       <x:c r="F146" t="n">
         <x:v>2100.000</x:v>
       </x:c>
-      <x:c r="G146" t="str">
+      <x:c r="G146" t="n">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H146" t="str">
         <x:v>62.33</x:v>
       </x:c>
     </x:row>
@@ -3403,7 +3842,10 @@
       <x:c r="F147" t="n">
         <x:v>11830.897</x:v>
       </x:c>
-      <x:c r="G147" t="str">
+      <x:c r="G147" t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H147" t="str">
         <x:v>71.45</x:v>
       </x:c>
     </x:row>
@@ -3426,7 +3868,10 @@
       <x:c r="F148" t="n">
         <x:v>8464.870</x:v>
       </x:c>
-      <x:c r="G148" t="str">
+      <x:c r="G148" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H148" t="str">
         <x:v>81.92</x:v>
       </x:c>
     </x:row>
@@ -3449,7 +3894,10 @@
       <x:c r="F149" t="n">
         <x:v>4750.000</x:v>
       </x:c>
-      <x:c r="G149" t="str">
+      <x:c r="G149" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H149" t="str">
         <x:v>87.70</x:v>
       </x:c>
     </x:row>
@@ -3472,7 +3920,10 @@
       <x:c r="F150" t="n">
         <x:v>3307.715</x:v>
       </x:c>
-      <x:c r="G150" t="str">
+      <x:c r="G150" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H150" t="str">
         <x:v>90.87</x:v>
       </x:c>
     </x:row>
@@ -3495,7 +3946,10 @@
       <x:c r="F151" t="n">
         <x:v>5472.466</x:v>
       </x:c>
-      <x:c r="G151" t="str">
+      <x:c r="G151" t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H151" t="str">
         <x:v>69.47</x:v>
       </x:c>
     </x:row>
@@ -3518,7 +3972,10 @@
       <x:c r="F152" t="n">
         <x:v>7241.491</x:v>
       </x:c>
-      <x:c r="G152" t="str">
+      <x:c r="G152" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H152" t="str">
         <x:v>81.33</x:v>
       </x:c>
     </x:row>
@@ -3541,7 +3998,10 @@
       <x:c r="F153" t="n">
         <x:v>3007.715</x:v>
       </x:c>
-      <x:c r="G153" t="str">
+      <x:c r="G153" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H153" t="str">
         <x:v>90.87</x:v>
       </x:c>
     </x:row>
@@ -3564,7 +4024,10 @@
       <x:c r="F154" t="n">
         <x:v>5120.505</x:v>
       </x:c>
-      <x:c r="G154" t="str">
+      <x:c r="G154" t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H154" t="str">
         <x:v>69.47</x:v>
       </x:c>
     </x:row>
@@ -3587,7 +4050,10 @@
       <x:c r="F155" t="n">
         <x:v>7884.910</x:v>
       </x:c>
-      <x:c r="G155" t="str">
+      <x:c r="G155" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H155" t="str">
         <x:v>81.33</x:v>
       </x:c>
     </x:row>
@@ -3610,7 +4076,10 @@
       <x:c r="F156" t="n">
         <x:v>18778.629</x:v>
       </x:c>
-      <x:c r="G156" t="str">
+      <x:c r="G156" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H156" t="str">
         <x:v>77.72</x:v>
       </x:c>
     </x:row>
@@ -3633,7 +4102,10 @@
       <x:c r="F157" t="n">
         <x:v>5597.386</x:v>
       </x:c>
-      <x:c r="G157" t="str">
+      <x:c r="G157" t="n">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H157" t="str">
         <x:v>70.18</x:v>
       </x:c>
     </x:row>
@@ -3656,7 +4128,10 @@
       <x:c r="F158" t="n">
         <x:v>2947.000</x:v>
       </x:c>
-      <x:c r="G158" t="str">
+      <x:c r="G158" t="n">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H158" t="str">
         <x:v>72.65</x:v>
       </x:c>
     </x:row>
@@ -3679,7 +4154,10 @@
       <x:c r="F159" t="n">
         <x:v>8465.296</x:v>
       </x:c>
-      <x:c r="G159" t="str">
+      <x:c r="G159" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H159" t="str">
         <x:v>77.97</x:v>
       </x:c>
     </x:row>
@@ -3702,7 +4180,10 @@
       <x:c r="F160" t="n">
         <x:v>3212.544</x:v>
       </x:c>
-      <x:c r="G160" t="str">
+      <x:c r="G160" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H160" t="str">
         <x:v>82.52</x:v>
       </x:c>
     </x:row>
@@ -3725,7 +4206,10 @@
       <x:c r="F161" t="n">
         <x:v>6974.645</x:v>
       </x:c>
-      <x:c r="G161" t="str">
+      <x:c r="G161" t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H161" t="str">
         <x:v>79.08</x:v>
       </x:c>
     </x:row>
@@ -3748,7 +4232,10 @@
       <x:c r="F162" t="n">
         <x:v>1328.360</x:v>
       </x:c>
-      <x:c r="G162" t="str">
+      <x:c r="G162" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H162" t="str">
         <x:v>88.65</x:v>
       </x:c>
     </x:row>
@@ -3771,7 +4258,10 @@
       <x:c r="F163" t="n">
         <x:v>7555.360</x:v>
       </x:c>
-      <x:c r="G163" t="str">
+      <x:c r="G163" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H163" t="str">
         <x:v>84.50</x:v>
       </x:c>
     </x:row>
@@ -3794,7 +4284,10 @@
       <x:c r="F164" t="n">
         <x:v>6000.000</x:v>
       </x:c>
-      <x:c r="G164" t="str">
+      <x:c r="G164" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H164" t="str">
         <x:v>62.92</x:v>
       </x:c>
     </x:row>
@@ -3817,7 +4310,10 @@
       <x:c r="F165" t="n">
         <x:v>5597.386</x:v>
       </x:c>
-      <x:c r="G165" t="str">
+      <x:c r="G165" t="n">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H165" t="str">
         <x:v>70.18</x:v>
       </x:c>
     </x:row>
@@ -3840,7 +4336,10 @@
       <x:c r="F166" t="n">
         <x:v>2947.000</x:v>
       </x:c>
-      <x:c r="G166" t="str">
+      <x:c r="G166" t="n">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="H166" t="str">
         <x:v>72.07</x:v>
       </x:c>
     </x:row>
@@ -3863,7 +4362,10 @@
       <x:c r="F167" t="n">
         <x:v>8465.297</x:v>
       </x:c>
-      <x:c r="G167" t="str">
+      <x:c r="G167" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H167" t="str">
         <x:v>77.25</x:v>
       </x:c>
     </x:row>
@@ -3886,7 +4388,10 @@
       <x:c r="F168" t="n">
         <x:v>3212.544</x:v>
       </x:c>
-      <x:c r="G168" t="str">
+      <x:c r="G168" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H168" t="str">
         <x:v>79.30</x:v>
       </x:c>
     </x:row>
@@ -3909,7 +4414,10 @@
       <x:c r="F169" t="n">
         <x:v>6974.644</x:v>
       </x:c>
-      <x:c r="G169" t="str">
+      <x:c r="G169" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H169" t="str">
         <x:v>78.50</x:v>
       </x:c>
     </x:row>
@@ -3932,7 +4440,10 @@
       <x:c r="F170" t="n">
         <x:v>1328.360</x:v>
       </x:c>
-      <x:c r="G170" t="str">
+      <x:c r="G170" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H170" t="str">
         <x:v>88.65</x:v>
       </x:c>
     </x:row>
@@ -3955,7 +4466,10 @@
       <x:c r="F171" t="n">
         <x:v>7555.360</x:v>
       </x:c>
-      <x:c r="G171" t="str">
+      <x:c r="G171" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H171" t="str">
         <x:v>84.50</x:v>
       </x:c>
     </x:row>
@@ -3978,7 +4492,10 @@
       <x:c r="F172" t="n">
         <x:v>3400.000</x:v>
       </x:c>
-      <x:c r="G172" t="str">
+      <x:c r="G172" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H172" t="str">
         <x:v>73.05</x:v>
       </x:c>
     </x:row>
@@ -4001,7 +4518,10 @@
       <x:c r="F173" t="n">
         <x:v>5597.386</x:v>
       </x:c>
-      <x:c r="G173" t="str">
+      <x:c r="G173" t="n">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H173" t="str">
         <x:v>70.18</x:v>
       </x:c>
     </x:row>
@@ -4024,7 +4544,10 @@
       <x:c r="F174" t="n">
         <x:v>2947.000</x:v>
       </x:c>
-      <x:c r="G174" t="str">
+      <x:c r="G174" t="n">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="H174" t="str">
         <x:v>72.07</x:v>
       </x:c>
     </x:row>
@@ -4047,7 +4570,10 @@
       <x:c r="F175" t="n">
         <x:v>8465.296</x:v>
       </x:c>
-      <x:c r="G175" t="str">
+      <x:c r="G175" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H175" t="str">
         <x:v>77.25</x:v>
       </x:c>
     </x:row>
@@ -4070,7 +4596,10 @@
       <x:c r="F176" t="n">
         <x:v>3212.544</x:v>
       </x:c>
-      <x:c r="G176" t="str">
+      <x:c r="G176" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H176" t="str">
         <x:v>79.30</x:v>
       </x:c>
     </x:row>
@@ -4093,7 +4622,10 @@
       <x:c r="F177" t="n">
         <x:v>6974.645</x:v>
       </x:c>
-      <x:c r="G177" t="str">
+      <x:c r="G177" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H177" t="str">
         <x:v>78.50</x:v>
       </x:c>
     </x:row>
@@ -4116,7 +4648,10 @@
       <x:c r="F178" t="n">
         <x:v>1328.360</x:v>
       </x:c>
-      <x:c r="G178" t="str">
+      <x:c r="G178" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H178" t="str">
         <x:v>88.65</x:v>
       </x:c>
     </x:row>
@@ -4139,7 +4674,10 @@
       <x:c r="F179" t="n">
         <x:v>7555.360</x:v>
       </x:c>
-      <x:c r="G179" t="str">
+      <x:c r="G179" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H179" t="str">
         <x:v>84.50</x:v>
       </x:c>
     </x:row>
@@ -4162,7 +4700,10 @@
       <x:c r="F180" t="n">
         <x:v>3400.000</x:v>
       </x:c>
-      <x:c r="G180" t="str">
+      <x:c r="G180" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H180" t="str">
         <x:v>73.05</x:v>
       </x:c>
     </x:row>
@@ -4185,7 +4726,10 @@
       <x:c r="F181" t="n">
         <x:v>5597.386</x:v>
       </x:c>
-      <x:c r="G181" t="str">
+      <x:c r="G181" t="n">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H181" t="str">
         <x:v>70.18</x:v>
       </x:c>
     </x:row>
@@ -4208,7 +4752,10 @@
       <x:c r="F182" t="n">
         <x:v>2947.000</x:v>
       </x:c>
-      <x:c r="G182" t="str">
+      <x:c r="G182" t="n">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="H182" t="str">
         <x:v>72.07</x:v>
       </x:c>
     </x:row>
@@ -4231,7 +4778,10 @@
       <x:c r="F183" t="n">
         <x:v>8465.296</x:v>
       </x:c>
-      <x:c r="G183" t="str">
+      <x:c r="G183" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H183" t="str">
         <x:v>77.25</x:v>
       </x:c>
     </x:row>
@@ -4254,7 +4804,10 @@
       <x:c r="F184" t="n">
         <x:v>3212.544</x:v>
       </x:c>
-      <x:c r="G184" t="str">
+      <x:c r="G184" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H184" t="str">
         <x:v>79.30</x:v>
       </x:c>
     </x:row>
@@ -4277,7 +4830,10 @@
       <x:c r="F185" t="n">
         <x:v>6974.645</x:v>
       </x:c>
-      <x:c r="G185" t="str">
+      <x:c r="G185" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H185" t="str">
         <x:v>78.50</x:v>
       </x:c>
     </x:row>
@@ -4300,7 +4856,10 @@
       <x:c r="F186" t="n">
         <x:v>1328.360</x:v>
       </x:c>
-      <x:c r="G186" t="str">
+      <x:c r="G186" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H186" t="str">
         <x:v>88.65</x:v>
       </x:c>
     </x:row>
@@ -4323,7 +4882,10 @@
       <x:c r="F187" t="n">
         <x:v>7555.360</x:v>
       </x:c>
-      <x:c r="G187" t="str">
+      <x:c r="G187" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H187" t="str">
         <x:v>84.50</x:v>
       </x:c>
     </x:row>
@@ -4346,7 +4908,10 @@
       <x:c r="F188" t="n">
         <x:v>6000.000</x:v>
       </x:c>
-      <x:c r="G188" t="str">
+      <x:c r="G188" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H188" t="str">
         <x:v>50.62</x:v>
       </x:c>
     </x:row>
@@ -4369,7 +4934,10 @@
       <x:c r="F189" t="n">
         <x:v>4800.000</x:v>
       </x:c>
-      <x:c r="G189" t="str">
+      <x:c r="G189" t="n">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="H189" t="str">
         <x:v>61.70</x:v>
       </x:c>
     </x:row>
@@ -4392,7 +4960,10 @@
       <x:c r="F190" t="n">
         <x:v>5853.750</x:v>
       </x:c>
-      <x:c r="G190" t="str">
+      <x:c r="G190" t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H190" t="str">
         <x:v>71.77</x:v>
       </x:c>
     </x:row>
@@ -4415,7 +4986,10 @@
       <x:c r="F191" t="n">
         <x:v>4956.000</x:v>
       </x:c>
-      <x:c r="G191" t="str">
+      <x:c r="G191" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H191" t="str">
         <x:v>76.70</x:v>
       </x:c>
     </x:row>
@@ -4438,7 +5012,10 @@
       <x:c r="F192" t="n">
         <x:v>5424.940</x:v>
       </x:c>
-      <x:c r="G192" t="str">
+      <x:c r="G192" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="H192" t="str">
         <x:v>47.08</x:v>
       </x:c>
     </x:row>
@@ -4461,7 +5038,10 @@
       <x:c r="F193" t="n">
         <x:v>4500.000</x:v>
       </x:c>
-      <x:c r="G193" t="str">
+      <x:c r="G193" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H193" t="str">
         <x:v>74.80</x:v>
       </x:c>
     </x:row>
@@ -4484,7 +5064,10 @@
       <x:c r="F194" t="n">
         <x:v>4500.000</x:v>
       </x:c>
-      <x:c r="G194" t="str">
+      <x:c r="G194" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H194" t="str">
         <x:v>74.83</x:v>
       </x:c>
     </x:row>
@@ -4507,7 +5090,10 @@
       <x:c r="F195" t="n">
         <x:v>3500.000</x:v>
       </x:c>
-      <x:c r="G195" t="str">
+      <x:c r="G195" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H195" t="str">
         <x:v>84.37</x:v>
       </x:c>
     </x:row>
@@ -4530,7 +5116,10 @@
       <x:c r="F196" t="n">
         <x:v>3500.000</x:v>
       </x:c>
-      <x:c r="G196" t="str">
+      <x:c r="G196" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H196" t="str">
         <x:v>82.13</x:v>
       </x:c>
     </x:row>
@@ -4553,7 +5142,10 @@
       <x:c r="F197" t="n">
         <x:v>3400.000</x:v>
       </x:c>
-      <x:c r="G197" t="str">
+      <x:c r="G197" t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H197" t="str">
         <x:v>73.05</x:v>
       </x:c>
     </x:row>
@@ -4576,7 +5168,10 @@
       <x:c r="F198" t="n">
         <x:v>6000.000</x:v>
       </x:c>
-      <x:c r="G198" t="str">
+      <x:c r="G198" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H198" t="str">
         <x:v>77.72</x:v>
       </x:c>
     </x:row>
@@ -4599,7 +5194,10 @@
       <x:c r="F199" t="n">
         <x:v>6000.000</x:v>
       </x:c>
-      <x:c r="G199" t="str">
+      <x:c r="G199" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H199" t="str">
         <x:v>54.95</x:v>
       </x:c>
     </x:row>
@@ -4622,7 +5220,10 @@
       <x:c r="F200" t="n">
         <x:v>4043.000</x:v>
       </x:c>
-      <x:c r="G200" t="str">
+      <x:c r="G200" t="n">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="H200" t="str">
         <x:v>52.30</x:v>
       </x:c>
     </x:row>
@@ -4645,7 +5246,10 @@
       <x:c r="F201" t="n">
         <x:v>11850.000</x:v>
       </x:c>
-      <x:c r="G201" t="str">
+      <x:c r="G201" t="n">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="H201" t="str">
         <x:v>58.90</x:v>
       </x:c>
     </x:row>
@@ -4668,7 +5272,10 @@
       <x:c r="F202" t="n">
         <x:v>11447.317</x:v>
       </x:c>
-      <x:c r="G202" t="str">
+      <x:c r="G202" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H202" t="str">
         <x:v>81.57</x:v>
       </x:c>
     </x:row>
@@ -4691,7 +5298,10 @@
       <x:c r="F203" t="n">
         <x:v>7159.229</x:v>
       </x:c>
-      <x:c r="G203" t="str">
+      <x:c r="G203" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H203" t="str">
         <x:v>93.37</x:v>
       </x:c>
     </x:row>
@@ -4714,7 +5324,10 @@
       <x:c r="F204" t="n">
         <x:v>18778.629</x:v>
       </x:c>
-      <x:c r="G204" t="str">
+      <x:c r="G204" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H204" t="str">
         <x:v>91.18</x:v>
       </x:c>
     </x:row>
@@ -4737,7 +5350,10 @@
       <x:c r="F205" t="n">
         <x:v>3100.000</x:v>
       </x:c>
-      <x:c r="G205" t="str">
+      <x:c r="G205" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H205" t="str">
         <x:v>78.00</x:v>
       </x:c>
     </x:row>
@@ -4760,7 +5376,10 @@
       <x:c r="F206" t="n">
         <x:v>2100.000</x:v>
       </x:c>
-      <x:c r="G206" t="str">
+      <x:c r="G206" t="n">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H206" t="str">
         <x:v>79.68</x:v>
       </x:c>
     </x:row>
@@ -4783,7 +5402,10 @@
       <x:c r="F207" t="n">
         <x:v>4135.930</x:v>
       </x:c>
-      <x:c r="G207" t="str">
+      <x:c r="G207" t="n">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="H207" t="str">
         <x:v>63.63</x:v>
       </x:c>
     </x:row>
@@ -4806,7 +5428,10 @@
       <x:c r="F208" t="n">
         <x:v>3606.000</x:v>
       </x:c>
-      <x:c r="G208" t="str">
+      <x:c r="G208" t="n">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H208" t="str">
         <x:v>75.05</x:v>
       </x:c>
     </x:row>
@@ -4829,7 +5454,10 @@
       <x:c r="F209" t="n">
         <x:v>11228.319</x:v>
       </x:c>
-      <x:c r="G209" t="str">
+      <x:c r="G209" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H209" t="str">
         <x:v>77.78</x:v>
       </x:c>
     </x:row>
@@ -4852,7 +5480,10 @@
       <x:c r="F210" t="n">
         <x:v>8266.000</x:v>
       </x:c>
-      <x:c r="G210" t="str">
+      <x:c r="G210" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H210" t="str">
         <x:v>79.33</x:v>
       </x:c>
     </x:row>
@@ -4875,7 +5506,10 @@
       <x:c r="F211" t="n">
         <x:v>9577.269</x:v>
       </x:c>
-      <x:c r="G211" t="str">
+      <x:c r="G211" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H211" t="str">
         <x:v>78.90</x:v>
       </x:c>
     </x:row>
@@ -4898,7 +5532,10 @@
       <x:c r="F212" t="n">
         <x:v>3400.000</x:v>
       </x:c>
-      <x:c r="G212" t="str">
+      <x:c r="G212" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H212" t="str">
         <x:v>72.50</x:v>
       </x:c>
     </x:row>
@@ -4921,7 +5558,10 @@
       <x:c r="F213" t="n">
         <x:v>3032.809</x:v>
       </x:c>
-      <x:c r="G213" t="str">
+      <x:c r="G213" t="n">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="H213" t="str">
         <x:v>48.28</x:v>
       </x:c>
     </x:row>
@@ -4944,7 +5584,10 @@
       <x:c r="F214" t="n">
         <x:v>6013.366</x:v>
       </x:c>
-      <x:c r="G214" t="str">
+      <x:c r="G214" t="n">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H214" t="str">
         <x:v>57.85</x:v>
       </x:c>
     </x:row>
@@ -4967,7 +5610,10 @@
       <x:c r="F215" t="n">
         <x:v>1999.000</x:v>
       </x:c>
-      <x:c r="G215" t="str">
+      <x:c r="G215" t="n">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="H215" t="str">
         <x:v>50.33</x:v>
       </x:c>
     </x:row>
@@ -4990,7 +5636,10 @@
       <x:c r="F216" t="n">
         <x:v>7959.844</x:v>
       </x:c>
-      <x:c r="G216" t="str">
+      <x:c r="G216" t="n">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="H216" t="str">
         <x:v>49.57</x:v>
       </x:c>
     </x:row>
@@ -5013,7 +5662,10 @@
       <x:c r="F217" t="n">
         <x:v>1876.448</x:v>
       </x:c>
-      <x:c r="G217" t="str">
+      <x:c r="G217" t="n">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="H217" t="str">
         <x:v>55.58</x:v>
       </x:c>
     </x:row>
@@ -5036,7 +5688,10 @@
       <x:c r="F218" t="n">
         <x:v>6913.550</x:v>
       </x:c>
-      <x:c r="G218" t="str">
+      <x:c r="G218" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H218" t="str">
         <x:v>72.50</x:v>
       </x:c>
     </x:row>
@@ -5059,7 +5714,10 @@
       <x:c r="F219" t="n">
         <x:v>1932.039</x:v>
       </x:c>
-      <x:c r="G219" t="str">
+      <x:c r="G219" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H219" t="str">
         <x:v>65.22</x:v>
       </x:c>
     </x:row>
@@ -5082,7 +5740,10 @@
       <x:c r="F220" t="n">
         <x:v>4067.961</x:v>
       </x:c>
-      <x:c r="G220" t="str">
+      <x:c r="G220" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H220" t="str">
         <x:v>71.78</x:v>
       </x:c>
     </x:row>
@@ -5105,7 +5766,10 @@
       <x:c r="F221" t="n">
         <x:v>8649.557</x:v>
       </x:c>
-      <x:c r="G221" t="str">
+      <x:c r="G221" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H221" t="str">
         <x:v>67.80</x:v>
       </x:c>
     </x:row>
@@ -5128,7 +5792,10 @@
       <x:c r="F222" t="n">
         <x:v>8649.557</x:v>
       </x:c>
-      <x:c r="G222" t="str">
+      <x:c r="G222" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H222" t="str">
         <x:v>70.63</x:v>
       </x:c>
     </x:row>
@@ -5151,7 +5818,10 @@
       <x:c r="F223" t="n">
         <x:v>23663.000</x:v>
       </x:c>
-      <x:c r="G223" t="str">
+      <x:c r="G223" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H223" t="str">
         <x:v>68.13</x:v>
       </x:c>
     </x:row>
@@ -5174,7 +5844,10 @@
       <x:c r="F224" t="n">
         <x:v>5779.193</x:v>
       </x:c>
-      <x:c r="G224" t="str">
+      <x:c r="G224" t="n">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H224" t="str">
         <x:v>77.42</x:v>
       </x:c>
     </x:row>
@@ -5197,7 +5870,10 @@
       <x:c r="F225" t="n">
         <x:v>3400.000</x:v>
       </x:c>
-      <x:c r="G225" t="str">
+      <x:c r="G225" t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H225" t="str">
         <x:v>67.45</x:v>
       </x:c>
     </x:row>
@@ -5220,7 +5896,10 @@
       <x:c r="F226" t="n">
         <x:v>6913.550</x:v>
       </x:c>
-      <x:c r="G226" t="str">
+      <x:c r="G226" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H226" t="str">
         <x:v>70.32</x:v>
       </x:c>
     </x:row>
@@ -5243,7 +5922,10 @@
       <x:c r="F227" t="n">
         <x:v>1006.000</x:v>
       </x:c>
-      <x:c r="G227" t="str">
+      <x:c r="G227" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H227" t="str">
         <x:v>54.05</x:v>
       </x:c>
     </x:row>
@@ -5266,7 +5948,10 @@
       <x:c r="F228" t="n">
         <x:v>3103.004</x:v>
       </x:c>
-      <x:c r="G228" t="str">
+      <x:c r="G228" t="n">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="H228" t="str">
         <x:v>62.68</x:v>
       </x:c>
     </x:row>
@@ -5289,7 +5974,10 @@
       <x:c r="F229" t="n">
         <x:v>5703.603</x:v>
       </x:c>
-      <x:c r="G229" t="str">
+      <x:c r="G229" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H229" t="str">
         <x:v>68.75</x:v>
       </x:c>
     </x:row>
@@ -5312,7 +6000,10 @@
       <x:c r="F230" t="n">
         <x:v>3278.000</x:v>
       </x:c>
-      <x:c r="G230" t="str">
+      <x:c r="G230" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H230" t="str">
         <x:v>61.28</x:v>
       </x:c>
     </x:row>
@@ -5335,7 +6026,10 @@
       <x:c r="F231" t="n">
         <x:v>3400.000</x:v>
       </x:c>
-      <x:c r="G231" t="str">
+      <x:c r="G231" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H231" t="str">
         <x:v>72.50</x:v>
       </x:c>
     </x:row>
@@ -5358,7 +6052,10 @@
       <x:c r="F232" t="n">
         <x:v>6913.550</x:v>
       </x:c>
-      <x:c r="G232" t="str">
+      <x:c r="G232" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H232" t="str">
         <x:v>72.50</x:v>
       </x:c>
     </x:row>
@@ -5381,7 +6078,10 @@
       <x:c r="F233" t="n">
         <x:v>3103.004</x:v>
       </x:c>
-      <x:c r="G233" t="str">
+      <x:c r="G233" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H233" t="str">
         <x:v>62.83</x:v>
       </x:c>
     </x:row>
@@ -5404,7 +6104,10 @@
       <x:c r="F234" t="n">
         <x:v>5703.603</x:v>
       </x:c>
-      <x:c r="G234" t="str">
+      <x:c r="G234" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H234" t="str">
         <x:v>68.75</x:v>
       </x:c>
     </x:row>
@@ -5427,7 +6130,10 @@
       <x:c r="F235" t="n">
         <x:v>3278.000</x:v>
       </x:c>
-      <x:c r="G235" t="str">
+      <x:c r="G235" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H235" t="str">
         <x:v>61.28</x:v>
       </x:c>
     </x:row>
@@ -5450,7 +6156,10 @@
       <x:c r="F236" t="n">
         <x:v>3103.004</x:v>
       </x:c>
-      <x:c r="G236" t="str">
+      <x:c r="G236" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H236" t="str">
         <x:v>62.83</x:v>
       </x:c>
     </x:row>
@@ -5473,7 +6182,10 @@
       <x:c r="F237" t="n">
         <x:v>5703.603</x:v>
       </x:c>
-      <x:c r="G237" t="str">
+      <x:c r="G237" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H237" t="str">
         <x:v>68.75</x:v>
       </x:c>
     </x:row>
@@ -5496,7 +6208,10 @@
       <x:c r="F238" t="n">
         <x:v>3278.000</x:v>
       </x:c>
-      <x:c r="G238" t="str">
+      <x:c r="G238" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H238" t="str">
         <x:v>61.28</x:v>
       </x:c>
     </x:row>
@@ -5519,7 +6234,10 @@
       <x:c r="F239" t="n">
         <x:v>3400.000</x:v>
       </x:c>
-      <x:c r="G239" t="str">
+      <x:c r="G239" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H239" t="str">
         <x:v>72.50</x:v>
       </x:c>
     </x:row>
@@ -5542,7 +6260,10 @@
       <x:c r="F240" t="n">
         <x:v>6913.550</x:v>
       </x:c>
-      <x:c r="G240" t="str">
+      <x:c r="G240" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H240" t="str">
         <x:v>72.50</x:v>
       </x:c>
     </x:row>
@@ -5565,7 +6286,10 @@
       <x:c r="F241" t="n">
         <x:v>3103.004</x:v>
       </x:c>
-      <x:c r="G241" t="str">
+      <x:c r="G241" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H241" t="str">
         <x:v>62.83</x:v>
       </x:c>
     </x:row>
@@ -5588,7 +6312,10 @@
       <x:c r="F242" t="n">
         <x:v>5703.603</x:v>
       </x:c>
-      <x:c r="G242" t="str">
+      <x:c r="G242" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H242" t="str">
         <x:v>68.75</x:v>
       </x:c>
     </x:row>
@@ -5611,7 +6338,10 @@
       <x:c r="F243" t="n">
         <x:v>3278.000</x:v>
       </x:c>
-      <x:c r="G243" t="str">
+      <x:c r="G243" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H243" t="str">
         <x:v>61.28</x:v>
       </x:c>
     </x:row>
@@ -5634,7 +6364,10 @@
       <x:c r="F244" t="n">
         <x:v>1037.693</x:v>
       </x:c>
-      <x:c r="G244" t="str">
+      <x:c r="G244" t="n">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="H244" t="str">
         <x:v>61.67</x:v>
       </x:c>
     </x:row>
@@ -5657,7 +6390,10 @@
       <x:c r="F245" t="n">
         <x:v>7243.000</x:v>
       </x:c>
-      <x:c r="G245" t="str">
+      <x:c r="G245" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H245" t="str">
         <x:v>77.87</x:v>
       </x:c>
     </x:row>
@@ -5680,7 +6416,10 @@
       <x:c r="F246" t="n">
         <x:v>13334.725</x:v>
       </x:c>
-      <x:c r="G246" t="str">
+      <x:c r="G246" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H246" t="str">
         <x:v>77.87</x:v>
       </x:c>
     </x:row>
@@ -5703,7 +6442,10 @@
       <x:c r="F247" t="n">
         <x:v>14867.031</x:v>
       </x:c>
-      <x:c r="G247" t="str">
+      <x:c r="G247" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H247" t="str">
         <x:v>90.17</x:v>
       </x:c>
     </x:row>
@@ -5726,7 +6468,10 @@
       <x:c r="F248" t="n">
         <x:v>3479.273</x:v>
       </x:c>
-      <x:c r="G248" t="str">
+      <x:c r="G248" t="n">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="H248" t="str">
         <x:v>63.43</x:v>
       </x:c>
     </x:row>
@@ -5749,7 +6494,10 @@
       <x:c r="F249" t="n">
         <x:v>2807.996</x:v>
       </x:c>
-      <x:c r="G249" t="str">
+      <x:c r="G249" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H249" t="str">
         <x:v>92.03</x:v>
       </x:c>
     </x:row>
@@ -5772,7 +6520,10 @@
       <x:c r="F250" t="n">
         <x:v>1706.000</x:v>
       </x:c>
-      <x:c r="G250" t="str">
+      <x:c r="G250" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H250" t="str">
         <x:v>48.78</x:v>
       </x:c>
     </x:row>
@@ -5795,7 +6546,10 @@
       <x:c r="F251" t="n">
         <x:v>1206.000</x:v>
       </x:c>
-      <x:c r="G251" t="str">
+      <x:c r="G251" t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H251" t="str">
         <x:v>40.02</x:v>
       </x:c>
     </x:row>
@@ -5818,7 +6572,10 @@
       <x:c r="F252" t="n">
         <x:v>1206.000</x:v>
       </x:c>
-      <x:c r="G252" t="str">
+      <x:c r="G252" t="n">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H252" t="str">
         <x:v>28.45</x:v>
       </x:c>
     </x:row>
@@ -5841,7 +6598,10 @@
       <x:c r="F253" t="n">
         <x:v>1206.000</x:v>
       </x:c>
-      <x:c r="G253" t="str">
+      <x:c r="G253" t="n">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H253" t="str">
         <x:v>28.45</x:v>
       </x:c>
     </x:row>
@@ -5864,7 +6624,10 @@
       <x:c r="F254" t="n">
         <x:v>1206.000</x:v>
       </x:c>
-      <x:c r="G254" t="str">
+      <x:c r="G254" t="n">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H254" t="str">
         <x:v>28.45</x:v>
       </x:c>
     </x:row>
@@ -5887,7 +6650,10 @@
       <x:c r="F255" t="n">
         <x:v>1206.000</x:v>
       </x:c>
-      <x:c r="G255" t="str">
+      <x:c r="G255" t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H255" t="str">
         <x:v>33.33</x:v>
       </x:c>
     </x:row>
@@ -5910,7 +6676,10 @@
       <x:c r="F256" t="n">
         <x:v>2006.000</x:v>
       </x:c>
-      <x:c r="G256" t="str">
+      <x:c r="G256" t="n">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H256" t="str">
         <x:v>33.33</x:v>
       </x:c>
     </x:row>
@@ -5933,7 +6702,10 @@
       <x:c r="F257" t="n">
         <x:v>906.000</x:v>
       </x:c>
-      <x:c r="G257" t="str">
+      <x:c r="G257" t="n">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H257" t="str">
         <x:v>28.60</x:v>
       </x:c>
     </x:row>
@@ -5956,7 +6728,10 @@
       <x:c r="F258" t="n">
         <x:v>1206.000</x:v>
       </x:c>
-      <x:c r="G258" t="str">
+      <x:c r="G258" t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H258" t="str">
         <x:v>37.68</x:v>
       </x:c>
     </x:row>
@@ -5979,7 +6754,10 @@
       <x:c r="F259" t="n">
         <x:v>1556.000</x:v>
       </x:c>
-      <x:c r="G259" t="str">
+      <x:c r="G259" t="n">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H259" t="str">
         <x:v>54.53</x:v>
       </x:c>
     </x:row>
@@ -6002,7 +6780,10 @@
       <x:c r="F260" t="n">
         <x:v>1917.000</x:v>
       </x:c>
-      <x:c r="G260" t="str">
+      <x:c r="G260" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H260" t="str">
         <x:v>50.92</x:v>
       </x:c>
     </x:row>
@@ -6025,7 +6806,10 @@
       <x:c r="F261" t="n">
         <x:v>6726.984</x:v>
       </x:c>
-      <x:c r="G261" t="str">
+      <x:c r="G261" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H261" t="str">
         <x:v>61.32</x:v>
       </x:c>
     </x:row>
@@ -6048,7 +6832,10 @@
       <x:c r="F262" t="n">
         <x:v>3147.000</x:v>
       </x:c>
-      <x:c r="G262" t="str">
+      <x:c r="G262" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H262" t="str">
         <x:v>53.27</x:v>
       </x:c>
     </x:row>
@@ -6071,7 +6858,10 @@
       <x:c r="F263" t="n">
         <x:v>3518.192</x:v>
       </x:c>
-      <x:c r="G263" t="str">
+      <x:c r="G263" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H263" t="str">
         <x:v>55.25</x:v>
       </x:c>
     </x:row>
@@ -6094,7 +6884,10 @@
       <x:c r="F264" t="n">
         <x:v>3800.000</x:v>
       </x:c>
-      <x:c r="G264" t="str">
+      <x:c r="G264" t="n">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H264" t="str">
         <x:v>53.37</x:v>
       </x:c>
     </x:row>
@@ -6117,7 +6910,10 @@
       <x:c r="F265" t="n">
         <x:v>3800.000</x:v>
       </x:c>
-      <x:c r="G265" t="str">
+      <x:c r="G265" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H265" t="str">
         <x:v>96.03</x:v>
       </x:c>
     </x:row>
@@ -6140,7 +6936,10 @@
       <x:c r="F266" t="n">
         <x:v>3800.000</x:v>
       </x:c>
-      <x:c r="G266" t="str">
+      <x:c r="G266" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H266" t="str">
         <x:v>96.03</x:v>
       </x:c>
     </x:row>
@@ -6163,7 +6962,10 @@
       <x:c r="F267" t="n">
         <x:v>3800.000</x:v>
       </x:c>
-      <x:c r="G267" t="str">
+      <x:c r="G267" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H267" t="str">
         <x:v>96.03</x:v>
       </x:c>
     </x:row>
@@ -6186,7 +6988,10 @@
       <x:c r="F268" t="n">
         <x:v>3800.000</x:v>
       </x:c>
-      <x:c r="G268" t="str">
+      <x:c r="G268" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H268" t="str">
         <x:v>96.03</x:v>
       </x:c>
     </x:row>
@@ -6209,7 +7014,10 @@
       <x:c r="F269" t="n">
         <x:v>3800.000</x:v>
       </x:c>
-      <x:c r="G269" t="str">
+      <x:c r="G269" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H269" t="str">
         <x:v>96.03</x:v>
       </x:c>
     </x:row>
@@ -6232,7 +7040,10 @@
       <x:c r="F270" t="n">
         <x:v>2350.000</x:v>
       </x:c>
-      <x:c r="G270" t="str">
+      <x:c r="G270" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H270" t="str">
         <x:v>94.37</x:v>
       </x:c>
     </x:row>
@@ -6255,7 +7066,10 @@
       <x:c r="F271" t="n">
         <x:v>2350.000</x:v>
       </x:c>
-      <x:c r="G271" t="str">
+      <x:c r="G271" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H271" t="str">
         <x:v>94.37</x:v>
       </x:c>
     </x:row>
@@ -6278,7 +7092,10 @@
       <x:c r="F272" t="n">
         <x:v>3000.000</x:v>
       </x:c>
-      <x:c r="G272" t="str">
+      <x:c r="G272" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H272" t="str">
         <x:v>96.03</x:v>
       </x:c>
     </x:row>
@@ -6301,7 +7118,10 @@
       <x:c r="F273" t="n">
         <x:v>3956.000</x:v>
       </x:c>
-      <x:c r="G273" t="str">
+      <x:c r="G273" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H273" t="str">
         <x:v>65.27</x:v>
       </x:c>
     </x:row>
@@ -6324,7 +7144,10 @@
       <x:c r="F274" t="n">
         <x:v>1600.000</x:v>
       </x:c>
-      <x:c r="G274" t="str">
+      <x:c r="G274" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H274" t="str">
         <x:v>88.10</x:v>
       </x:c>
     </x:row>
@@ -6347,7 +7170,10 @@
       <x:c r="F275" t="n">
         <x:v>2200.000</x:v>
       </x:c>
-      <x:c r="G275" t="str">
+      <x:c r="G275" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H275" t="str">
         <x:v>81.20</x:v>
       </x:c>
     </x:row>
@@ -6370,7 +7196,10 @@
       <x:c r="F276" t="n">
         <x:v>2200.000</x:v>
       </x:c>
-      <x:c r="G276" t="str">
+      <x:c r="G276" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H276" t="str">
         <x:v>66.37</x:v>
       </x:c>
     </x:row>
@@ -6393,7 +7222,10 @@
       <x:c r="F277" t="n">
         <x:v>2413.000</x:v>
       </x:c>
-      <x:c r="G277" t="str">
+      <x:c r="G277" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H277" t="str">
         <x:v>58.95</x:v>
       </x:c>
     </x:row>
@@ -6416,7 +7248,10 @@
       <x:c r="F278" t="n">
         <x:v>6102.344</x:v>
       </x:c>
-      <x:c r="G278" t="str">
+      <x:c r="G278" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H278" t="str">
         <x:v>60.93</x:v>
       </x:c>
     </x:row>
@@ -6439,7 +7274,10 @@
       <x:c r="F279" t="n">
         <x:v>3150.000</x:v>
       </x:c>
-      <x:c r="G279" t="str">
+      <x:c r="G279" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H279" t="str">
         <x:v>97.85</x:v>
       </x:c>
     </x:row>
@@ -6462,7 +7300,10 @@
       <x:c r="F280" t="n">
         <x:v>2870.619</x:v>
       </x:c>
-      <x:c r="G280" t="str">
+      <x:c r="G280" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H280" t="str">
         <x:v>100.00</x:v>
       </x:c>
     </x:row>
@@ -6485,7 +7326,10 @@
       <x:c r="F281" t="n">
         <x:v>3603.210</x:v>
       </x:c>
-      <x:c r="G281" t="str">
+      <x:c r="G281" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H281" t="str">
         <x:v>68.88</x:v>
       </x:c>
     </x:row>
@@ -6508,7 +7352,10 @@
       <x:c r="F282" t="n">
         <x:v>900.000</x:v>
       </x:c>
-      <x:c r="G282" t="str">
+      <x:c r="G282" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H282" t="str">
         <x:v>84.17</x:v>
       </x:c>
     </x:row>
@@ -6531,7 +7378,10 @@
       <x:c r="F283" t="n">
         <x:v>900.000</x:v>
       </x:c>
-      <x:c r="G283" t="str">
+      <x:c r="G283" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H283" t="str">
         <x:v>84.17</x:v>
       </x:c>
     </x:row>
@@ -6554,7 +7404,10 @@
       <x:c r="F284" t="n">
         <x:v>4953.210</x:v>
       </x:c>
-      <x:c r="G284" t="str">
+      <x:c r="G284" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H284" t="str">
         <x:v>65.77</x:v>
       </x:c>
     </x:row>
@@ -6577,7 +7430,10 @@
       <x:c r="F285" t="n">
         <x:v>900.000</x:v>
       </x:c>
-      <x:c r="G285" t="str">
+      <x:c r="G285" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H285" t="str">
         <x:v>84.17</x:v>
       </x:c>
     </x:row>
@@ -6600,7 +7456,10 @@
       <x:c r="F286" t="n">
         <x:v>900.000</x:v>
       </x:c>
-      <x:c r="G286" t="str">
+      <x:c r="G286" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H286" t="str">
         <x:v>84.17</x:v>
       </x:c>
     </x:row>
@@ -6623,7 +7482,10 @@
       <x:c r="F287" t="n">
         <x:v>3753.210</x:v>
       </x:c>
-      <x:c r="G287" t="str">
+      <x:c r="G287" t="n">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H287" t="str">
         <x:v>41.15</x:v>
       </x:c>
     </x:row>
@@ -6646,7 +7508,10 @@
       <x:c r="F288" t="n">
         <x:v>1700.000</x:v>
       </x:c>
-      <x:c r="G288" t="str">
+      <x:c r="G288" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H288" t="str">
         <x:v>64.83</x:v>
       </x:c>
     </x:row>
@@ -6669,7 +7534,10 @@
       <x:c r="F289" t="n">
         <x:v>1650.000</x:v>
       </x:c>
-      <x:c r="G289" t="str">
+      <x:c r="G289" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H289" t="str">
         <x:v>91.90</x:v>
       </x:c>
     </x:row>
@@ -6692,7 +7560,10 @@
       <x:c r="F290" t="n">
         <x:v>3000.000</x:v>
       </x:c>
-      <x:c r="G290" t="str">
+      <x:c r="G290" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H290" t="str">
         <x:v>58.23</x:v>
       </x:c>
     </x:row>
@@ -6715,7 +7586,10 @@
       <x:c r="F291" t="n">
         <x:v>1750.000</x:v>
       </x:c>
-      <x:c r="G291" t="str">
+      <x:c r="G291" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H291" t="str">
         <x:v>84.00</x:v>
       </x:c>
     </x:row>
@@ -6738,7 +7612,10 @@
       <x:c r="F292" t="n">
         <x:v>2153.210</x:v>
       </x:c>
-      <x:c r="G292" t="str">
+      <x:c r="G292" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H292" t="str">
         <x:v>77.33</x:v>
       </x:c>
     </x:row>
@@ -6761,7 +7638,10 @@
       <x:c r="F293" t="n">
         <x:v>6600.000</x:v>
       </x:c>
-      <x:c r="G293" t="str">
+      <x:c r="G293" t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H293" t="str">
         <x:v>73.52</x:v>
       </x:c>
     </x:row>
@@ -6784,7 +7664,10 @@
       <x:c r="F294" t="n">
         <x:v>1530.000</x:v>
       </x:c>
-      <x:c r="G294" t="str">
+      <x:c r="G294" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H294" t="str">
         <x:v>96.77</x:v>
       </x:c>
     </x:row>
@@ -6807,7 +7690,10 @@
       <x:c r="F295" t="n">
         <x:v>930.000</x:v>
       </x:c>
-      <x:c r="G295" t="str">
+      <x:c r="G295" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H295" t="str">
         <x:v>88.07</x:v>
       </x:c>
     </x:row>
@@ -6830,7 +7716,10 @@
       <x:c r="F296" t="n">
         <x:v>6000.000</x:v>
       </x:c>
-      <x:c r="G296" t="str">
+      <x:c r="G296" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H296" t="str">
         <x:v>84.13</x:v>
       </x:c>
     </x:row>
@@ -6853,7 +7742,10 @@
       <x:c r="F297" t="n">
         <x:v>3560.000</x:v>
       </x:c>
-      <x:c r="G297" t="str">
+      <x:c r="G297" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H297" t="str">
         <x:v>80.90</x:v>
       </x:c>
     </x:row>
@@ -6876,7 +7768,10 @@
       <x:c r="F298" t="n">
         <x:v>2403.772</x:v>
       </x:c>
-      <x:c r="G298" t="str">
+      <x:c r="G298" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H298" t="str">
         <x:v>77.00</x:v>
       </x:c>
     </x:row>
@@ -6899,7 +7794,10 @@
       <x:c r="F299" t="n">
         <x:v>4394.246</x:v>
       </x:c>
-      <x:c r="G299" t="str">
+      <x:c r="G299" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H299" t="str">
         <x:v>77.00</x:v>
       </x:c>
     </x:row>
@@ -6922,7 +7820,10 @@
       <x:c r="F300" t="n">
         <x:v>3855.754</x:v>
       </x:c>
-      <x:c r="G300" t="str">
+      <x:c r="G300" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H300" t="str">
         <x:v>91.60</x:v>
       </x:c>
     </x:row>
@@ -6945,7 +7846,10 @@
       <x:c r="F301" t="n">
         <x:v>2800.000</x:v>
       </x:c>
-      <x:c r="G301" t="str">
+      <x:c r="G301" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H301" t="str">
         <x:v>73.27</x:v>
       </x:c>
     </x:row>
@@ -6968,7 +7872,10 @@
       <x:c r="F302" t="n">
         <x:v>3744.215</x:v>
       </x:c>
-      <x:c r="G302" t="str">
+      <x:c r="G302" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H302" t="str">
         <x:v>77.17</x:v>
       </x:c>
     </x:row>
@@ -6991,7 +7898,10 @@
       <x:c r="F303" t="n">
         <x:v>1687.000</x:v>
       </x:c>
-      <x:c r="G303" t="str">
+      <x:c r="G303" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H303" t="str">
         <x:v>84.73</x:v>
       </x:c>
     </x:row>
@@ -7014,7 +7924,10 @@
       <x:c r="F304" t="n">
         <x:v>2200.000</x:v>
       </x:c>
-      <x:c r="G304" t="str">
+      <x:c r="G304" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H304" t="str">
         <x:v>69.47</x:v>
       </x:c>
     </x:row>
@@ -7037,7 +7950,10 @@
       <x:c r="F305" t="n">
         <x:v>8151.985</x:v>
       </x:c>
-      <x:c r="G305" t="str">
+      <x:c r="G305" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H305" t="str">
         <x:v>57.18</x:v>
       </x:c>
     </x:row>
@@ -7060,7 +7976,10 @@
       <x:c r="F306" t="n">
         <x:v>3475.911</x:v>
       </x:c>
-      <x:c r="G306" t="str">
+      <x:c r="G306" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H306" t="str">
         <x:v>53.25</x:v>
       </x:c>
     </x:row>
@@ -7083,7 +8002,10 @@
       <x:c r="F307" t="n">
         <x:v>14620.000</x:v>
       </x:c>
-      <x:c r="G307" t="str">
+      <x:c r="G307" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H307" t="str">
         <x:v>82.83</x:v>
       </x:c>
     </x:row>
@@ -7106,7 +8028,10 @@
       <x:c r="F308" t="n">
         <x:v>2150.000</x:v>
       </x:c>
-      <x:c r="G308" t="str">
+      <x:c r="G308" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H308" t="str">
         <x:v>82.83</x:v>
       </x:c>
     </x:row>
@@ -7129,7 +8054,10 @@
       <x:c r="F309" t="n">
         <x:v>5101.000</x:v>
       </x:c>
-      <x:c r="G309" t="str">
+      <x:c r="G309" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H309" t="str">
         <x:v>62.92</x:v>
       </x:c>
     </x:row>
@@ -7152,7 +8080,10 @@
       <x:c r="F310" t="n">
         <x:v>6665.979</x:v>
       </x:c>
-      <x:c r="G310" t="str">
+      <x:c r="G310" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H310" t="str">
         <x:v>62.92</x:v>
       </x:c>
     </x:row>
@@ -7175,7 +8106,10 @@
       <x:c r="F311" t="n">
         <x:v>5305.587</x:v>
       </x:c>
-      <x:c r="G311" t="str">
+      <x:c r="G311" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H311" t="str">
         <x:v>100.00</x:v>
       </x:c>
     </x:row>
@@ -7198,7 +8132,10 @@
       <x:c r="F312" t="n">
         <x:v>5333.466</x:v>
       </x:c>
-      <x:c r="G312" t="str">
+      <x:c r="G312" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H312" t="str">
         <x:v>61.83</x:v>
       </x:c>
     </x:row>
@@ -7221,7 +8158,10 @@
       <x:c r="F313" t="n">
         <x:v>2787.000</x:v>
       </x:c>
-      <x:c r="G313" t="str">
+      <x:c r="G313" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H313" t="str">
         <x:v>61.83</x:v>
       </x:c>
     </x:row>
@@ -7244,7 +8184,10 @@
       <x:c r="F314" t="n">
         <x:v>3000.000</x:v>
       </x:c>
-      <x:c r="G314" t="str">
+      <x:c r="G314" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H314" t="str">
         <x:v>69.47</x:v>
       </x:c>
     </x:row>
@@ -7267,7 +8210,10 @@
       <x:c r="F315" t="n">
         <x:v>4384.000</x:v>
       </x:c>
-      <x:c r="G315" t="str">
+      <x:c r="G315" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H315" t="str">
         <x:v>84.73</x:v>
       </x:c>
     </x:row>
@@ -7290,7 +8236,10 @@
       <x:c r="F316" t="n">
         <x:v>4500.000</x:v>
       </x:c>
-      <x:c r="G316" t="str">
+      <x:c r="G316" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H316" t="str">
         <x:v>53.25</x:v>
       </x:c>
     </x:row>
@@ -7313,7 +8262,10 @@
       <x:c r="F317" t="n">
         <x:v>8462.000</x:v>
       </x:c>
-      <x:c r="G317" t="str">
+      <x:c r="G317" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H317" t="str">
         <x:v>53.25</x:v>
       </x:c>
     </x:row>
@@ -7336,7 +8288,10 @@
       <x:c r="F318" t="n">
         <x:v>8196.993</x:v>
       </x:c>
-      <x:c r="G318" t="str">
+      <x:c r="G318" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H318" t="str">
         <x:v>53.25</x:v>
       </x:c>
     </x:row>
@@ -7359,7 +8314,10 @@
       <x:c r="F319" t="n">
         <x:v>6511.970</x:v>
       </x:c>
-      <x:c r="G319" t="str">
+      <x:c r="G319" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H319" t="str">
         <x:v>53.25</x:v>
       </x:c>
     </x:row>
@@ -7382,13 +8340,16 @@
       <x:c r="F320" t="n">
         <x:v>6997.239</x:v>
       </x:c>
-      <x:c r="G320" t="str">
+      <x:c r="G320" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H320" t="str">
         <x:v>61.83</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:tableParts>
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R44510aa9eabf489f"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf34cc0f2e7104504"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/TraysFastUpdate/wwwroot/Trays.xlsx
+++ b/TraysFastUpdate/wwwroot/Trays.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Trays" sheetId="1" r:id="Rf10bc3a73ae74ba3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Trays" sheetId="1" r:id="R561c715b561c4943"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -55,13 +55,13 @@
     </x:row>
     <x:row r="2">
       <x:c r="A2" t="str">
-        <x:v>B104-2</x:v>
+        <x:v>C122</x:v>
       </x:c>
       <x:c r="B2" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C2" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D2" t="n">
         <x:v>400</x:v>
@@ -70,128 +70,128 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F2" t="n">
-        <x:v>7838.070</x:v>
+        <x:v>3278.000</x:v>
       </x:c>
       <x:c r="G2" t="n">
-        <x:v>18</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H2" t="str">
-        <x:v>51.33</x:v>
+        <x:v>27.53</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
       <x:c r="A3" t="str">
-        <x:v>B114</x:v>
+        <x:v>B104-2</x:v>
       </x:c>
       <x:c r="B3" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C3" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D3" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E3" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F3" t="n">
-        <x:v>23600.619</x:v>
+        <x:v>7838.070</x:v>
       </x:c>
       <x:c r="G3" t="n">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H3" t="str">
-        <x:v>63.60</x:v>
+        <x:v>56.40</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
       <x:c r="A4" t="str">
-        <x:v>A001</x:v>
+        <x:v>C135</x:v>
       </x:c>
       <x:c r="B4" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C4" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D4" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E4" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F4" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>3103.004</x:v>
       </x:c>
       <x:c r="G4" t="n">
-        <x:v>12</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H4" t="str">
-        <x:v>N/A</x:v>
+        <x:v>31.90</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
       <x:c r="A5" t="str">
-        <x:v>A002</x:v>
+        <x:v>C138-1</x:v>
       </x:c>
       <x:c r="B5" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.503 F</x:v>
       </x:c>
       <x:c r="C5" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D5" t="n">
-        <x:v>600</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="E5" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F5" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>1037.693</x:v>
       </x:c>
       <x:c r="G5" t="n">
-        <x:v>12</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="H5" t="str">
-        <x:v>N/A</x:v>
+        <x:v>31.46</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
       <x:c r="A6" t="str">
-        <x:v>A003</x:v>
+        <x:v>B114</x:v>
       </x:c>
       <x:c r="B6" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C6" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D6" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E6" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F6" t="n">
-        <x:v>1700.619</x:v>
+        <x:v>23600.619</x:v>
       </x:c>
       <x:c r="G6" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H6" t="str">
-        <x:v>N/A</x:v>
+        <x:v>58.33</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
       <x:c r="A7" t="str">
-        <x:v>A004</x:v>
+        <x:v>B001</x:v>
       </x:c>
       <x:c r="B7" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C7" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D7" t="n">
         <x:v>600</x:v>
@@ -200,50 +200,50 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F7" t="n">
-        <x:v>1700.619</x:v>
+        <x:v>6000.000</x:v>
       </x:c>
       <x:c r="G7" t="n">
-        <x:v>13</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H7" t="str">
-        <x:v>N/A</x:v>
+        <x:v>22.18</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
       <x:c r="A8" t="str">
-        <x:v>A005</x:v>
+        <x:v>C141</x:v>
       </x:c>
       <x:c r="B8" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.503 F</x:v>
       </x:c>
       <x:c r="C8" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D8" t="n">
-        <x:v>600</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="E8" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F8" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>3479.273</x:v>
       </x:c>
       <x:c r="G8" t="n">
-        <x:v>13</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H8" t="str">
-        <x:v>N/A</x:v>
+        <x:v>35.84</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
       <x:c r="A9" t="str">
-        <x:v>A006</x:v>
+        <x:v>B101</x:v>
       </x:c>
       <x:c r="B9" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C9" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D9" t="n">
         <x:v>600</x:v>
@@ -252,50 +252,50 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F9" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>3606.000</x:v>
       </x:c>
       <x:c r="G9" t="n">
-        <x:v>13</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H9" t="str">
-        <x:v>N/A</x:v>
+        <x:v>18.40</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
       <x:c r="A10" t="str">
-        <x:v>A007</x:v>
+        <x:v>C142</x:v>
       </x:c>
       <x:c r="B10" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.503 F</x:v>
       </x:c>
       <x:c r="C10" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D10" t="n">
-        <x:v>600</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="E10" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F10" t="n">
-        <x:v>6325.284</x:v>
+        <x:v>2807.996</x:v>
       </x:c>
       <x:c r="G10" t="n">
-        <x:v>12</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H10" t="str">
-        <x:v>N/A</x:v>
+        <x:v>71.06</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
       <x:c r="A11" t="str">
-        <x:v>A008</x:v>
+        <x:v>B107-2</x:v>
       </x:c>
       <x:c r="B11" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C11" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D11" t="n">
         <x:v>600</x:v>
@@ -304,24 +304,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F11" t="n">
-        <x:v>6325.284</x:v>
+        <x:v>6013.366</x:v>
       </x:c>
       <x:c r="G11" t="n">
-        <x:v>13</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H11" t="str">
-        <x:v>N/A</x:v>
+        <x:v>36.73</x:v>
       </x:c>
     </x:row>
     <x:row r="12">
       <x:c r="A12" t="str">
-        <x:v>A009</x:v>
+        <x:v>BC166</x:v>
       </x:c>
       <x:c r="B12" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C12" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D12" t="n">
         <x:v>600</x:v>
@@ -330,50 +330,50 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F12" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>5424.940</x:v>
       </x:c>
       <x:c r="G12" t="n">
-        <x:v>12</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="H12" t="str">
-        <x:v>N/A</x:v>
+        <x:v>3.12</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
       <x:c r="A13" t="str">
-        <x:v>A010</x:v>
+        <x:v>B125</x:v>
       </x:c>
       <x:c r="B13" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C13" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D13" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E13" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F13" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>12056.603</x:v>
       </x:c>
       <x:c r="G13" t="n">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H13" t="str">
-        <x:v>N/A</x:v>
+        <x:v>68.33</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
       <x:c r="A14" t="str">
-        <x:v>A041</x:v>
+        <x:v>DFC002</x:v>
       </x:c>
       <x:c r="B14" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C14" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D14" t="n">
         <x:v>600</x:v>
@@ -382,44 +382,44 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F14" t="n">
-        <x:v>5764.057</x:v>
+        <x:v>4953.210</x:v>
       </x:c>
       <x:c r="G14" t="n">
-        <x:v>0</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H14" t="str">
-        <x:v>N/A</x:v>
+        <x:v>35.78</x:v>
       </x:c>
     </x:row>
     <x:row r="15">
       <x:c r="A15" t="str">
-        <x:v>A011</x:v>
+        <x:v>B143</x:v>
       </x:c>
       <x:c r="B15" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C15" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D15" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E15" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F15" t="n">
-        <x:v>3000.000</x:v>
+        <x:v>4919.273</x:v>
       </x:c>
       <x:c r="G15" t="n">
-        <x:v>12</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H15" t="str">
-        <x:v>N/A</x:v>
+        <x:v>82.83</x:v>
       </x:c>
     </x:row>
     <x:row r="16">
       <x:c r="A16" t="str">
-        <x:v>A012</x:v>
+        <x:v>A001</x:v>
       </x:c>
       <x:c r="B16" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -434,10 +434,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F16" t="n">
-        <x:v>3000.000</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G16" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H16" t="str">
         <x:v>N/A</x:v>
@@ -445,117 +445,117 @@
     </x:row>
     <x:row r="17">
       <x:c r="A17" t="str">
-        <x:v>A013</x:v>
+        <x:v>BC001</x:v>
       </x:c>
       <x:c r="B17" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C17" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D17" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E17" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F17" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>4100.000</x:v>
       </x:c>
       <x:c r="G17" t="n">
-        <x:v>13</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H17" t="str">
-        <x:v>N/A</x:v>
+        <x:v>41.45</x:v>
       </x:c>
     </x:row>
     <x:row r="18">
       <x:c r="A18" t="str">
-        <x:v>A014</x:v>
+        <x:v>DFC009</x:v>
       </x:c>
       <x:c r="B18" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C18" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D18" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E18" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F18" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>2403.772</x:v>
       </x:c>
       <x:c r="G18" t="n">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H18" t="str">
-        <x:v>N/A</x:v>
+        <x:v>51.13</x:v>
       </x:c>
     </x:row>
     <x:row r="19">
       <x:c r="A19" t="str">
-        <x:v>A015</x:v>
+        <x:v>BC018</x:v>
       </x:c>
       <x:c r="B19" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.500 F</x:v>
       </x:c>
       <x:c r="C19" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D19" t="n">
-        <x:v>600</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="E19" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F19" t="n">
-        <x:v>1300.619</x:v>
+        <x:v>4157.061</x:v>
       </x:c>
       <x:c r="G19" t="n">
-        <x:v>12</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H19" t="str">
-        <x:v>N/A</x:v>
+        <x:v>67.90</x:v>
       </x:c>
     </x:row>
     <x:row r="20">
       <x:c r="A20" t="str">
-        <x:v>A016</x:v>
+        <x:v>BC012</x:v>
       </x:c>
       <x:c r="B20" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C20" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D20" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E20" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F20" t="n">
-        <x:v>1300.619</x:v>
+        <x:v>4375.000</x:v>
       </x:c>
       <x:c r="G20" t="n">
-        <x:v>13</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H20" t="str">
-        <x:v>N/A</x:v>
+        <x:v>16.88</x:v>
       </x:c>
     </x:row>
     <x:row r="21">
       <x:c r="A21" t="str">
-        <x:v>A017</x:v>
+        <x:v>BC019</x:v>
       </x:c>
       <x:c r="B21" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C21" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D21" t="n">
         <x:v>600</x:v>
@@ -564,24 +564,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F21" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>4768.319</x:v>
       </x:c>
       <x:c r="G21" t="n">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H21" t="str">
-        <x:v>N/A</x:v>
+        <x:v>38.25</x:v>
       </x:c>
     </x:row>
     <x:row r="22">
       <x:c r="A22" t="str">
-        <x:v>A018</x:v>
+        <x:v>C107-6</x:v>
       </x:c>
       <x:c r="B22" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C22" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D22" t="n">
         <x:v>600</x:v>
@@ -590,148 +590,148 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F22" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>1932.039</x:v>
       </x:c>
       <x:c r="G22" t="n">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H22" t="str">
-        <x:v>N/A</x:v>
+        <x:v>59.32</x:v>
       </x:c>
     </x:row>
     <x:row r="23">
       <x:c r="A23" t="str">
-        <x:v>A019</x:v>
+        <x:v>C127</x:v>
       </x:c>
       <x:c r="B23" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C23" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D23" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E23" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F23" t="n">
-        <x:v>11439.220</x:v>
+        <x:v>3278.000</x:v>
       </x:c>
       <x:c r="G23" t="n">
-        <x:v>12</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H23" t="str">
-        <x:v>N/A</x:v>
+        <x:v>27.53</x:v>
       </x:c>
     </x:row>
     <x:row r="24">
       <x:c r="A24" t="str">
-        <x:v>A020</x:v>
+        <x:v>BC027</x:v>
       </x:c>
       <x:c r="B24" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C24" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D24" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E24" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F24" t="n">
-        <x:v>11439.220</x:v>
+        <x:v>11830.897</x:v>
       </x:c>
       <x:c r="G24" t="n">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H24" t="str">
-        <x:v>N/A</x:v>
+        <x:v>53.83</x:v>
       </x:c>
     </x:row>
     <x:row r="25">
       <x:c r="A25" t="str">
-        <x:v>A021</x:v>
+        <x:v>BC028-1</x:v>
       </x:c>
       <x:c r="B25" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.200 F</x:v>
       </x:c>
       <x:c r="C25" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D25" t="n">
-        <x:v>600</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E25" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F25" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>8464.870</x:v>
       </x:c>
       <x:c r="G25" t="n">
-        <x:v>13</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H25" t="str">
-        <x:v>N/A</x:v>
+        <x:v>46.70</x:v>
       </x:c>
     </x:row>
     <x:row r="26">
       <x:c r="A26" t="str">
-        <x:v>A022</x:v>
+        <x:v>BC120</x:v>
       </x:c>
       <x:c r="B26" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C26" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D26" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E26" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F26" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>5597.386</x:v>
       </x:c>
       <x:c r="G26" t="n">
-        <x:v>13</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H26" t="str">
-        <x:v>N/A</x:v>
+        <x:v>35.15</x:v>
       </x:c>
     </x:row>
     <x:row r="27">
       <x:c r="A27" t="str">
-        <x:v>A023</x:v>
+        <x:v>BC106</x:v>
       </x:c>
       <x:c r="B27" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C27" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D27" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E27" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F27" t="n">
-        <x:v>5642.599</x:v>
+        <x:v>5597.386</x:v>
       </x:c>
       <x:c r="G27" t="n">
-        <x:v>12</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H27" t="str">
-        <x:v>N/A</x:v>
+        <x:v>35.15</x:v>
       </x:c>
     </x:row>
     <x:row r="28">
       <x:c r="A28" t="str">
-        <x:v>A024</x:v>
+        <x:v>A002</x:v>
       </x:c>
       <x:c r="B28" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -746,10 +746,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F28" t="n">
-        <x:v>5643.821</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G28" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H28" t="str">
         <x:v>N/A</x:v>
@@ -757,7 +757,7 @@
     </x:row>
     <x:row r="29">
       <x:c r="A29" t="str">
-        <x:v>A025</x:v>
+        <x:v>A003</x:v>
       </x:c>
       <x:c r="B29" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -772,7 +772,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F29" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>1700.619</x:v>
       </x:c>
       <x:c r="G29" t="n">
         <x:v>12</x:v>
@@ -783,91 +783,91 @@
     </x:row>
     <x:row r="30">
       <x:c r="A30" t="str">
-        <x:v>A026</x:v>
+        <x:v>BC134</x:v>
       </x:c>
       <x:c r="B30" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C30" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D30" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E30" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F30" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>5597.386</x:v>
       </x:c>
       <x:c r="G30" t="n">
-        <x:v>12</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H30" t="str">
-        <x:v>N/A</x:v>
+        <x:v>35.15</x:v>
       </x:c>
     </x:row>
     <x:row r="31">
       <x:c r="A31" t="str">
-        <x:v>A027</x:v>
+        <x:v>BC148</x:v>
       </x:c>
       <x:c r="B31" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C31" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D31" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E31" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F31" t="n">
-        <x:v>1800.000</x:v>
+        <x:v>5597.386</x:v>
       </x:c>
       <x:c r="G31" t="n">
-        <x:v>12</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H31" t="str">
-        <x:v>N/A</x:v>
+        <x:v>35.15</x:v>
       </x:c>
     </x:row>
     <x:row r="32">
       <x:c r="A32" t="str">
-        <x:v>A028</x:v>
+        <x:v>BC160</x:v>
       </x:c>
       <x:c r="B32" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C32" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D32" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E32" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F32" t="n">
-        <x:v>1800.000</x:v>
+        <x:v>4800.000</x:v>
       </x:c>
       <x:c r="G32" t="n">
-        <x:v>13</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H32" t="str">
-        <x:v>N/A</x:v>
+        <x:v>33.78</x:v>
       </x:c>
     </x:row>
     <x:row r="33">
       <x:c r="A33" t="str">
-        <x:v>A029</x:v>
+        <x:v>C005</x:v>
       </x:c>
       <x:c r="B33" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C33" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D33" t="n">
         <x:v>600</x:v>
@@ -876,70 +876,70 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F33" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>11850.000</x:v>
       </x:c>
       <x:c r="G33" t="n">
-        <x:v>13</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H33" t="str">
-        <x:v>N/A</x:v>
+        <x:v>41.43</x:v>
       </x:c>
     </x:row>
     <x:row r="34">
       <x:c r="A34" t="str">
-        <x:v>A030</x:v>
+        <x:v>BC173</x:v>
       </x:c>
       <x:c r="B34" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C34" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D34" t="n">
-        <x:v>600</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E34" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F34" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>3400.000</x:v>
       </x:c>
       <x:c r="G34" t="n">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H34" t="str">
-        <x:v>N/A</x:v>
+        <x:v>58.35</x:v>
       </x:c>
     </x:row>
     <x:row r="35">
       <x:c r="A35" t="str">
-        <x:v>A031</x:v>
+        <x:v>C009</x:v>
       </x:c>
       <x:c r="B35" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C35" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D35" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E35" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F35" t="n">
-        <x:v>5830.812</x:v>
+        <x:v>3100.000</x:v>
       </x:c>
       <x:c r="G35" t="n">
-        <x:v>12</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H35" t="str">
-        <x:v>N/A</x:v>
+        <x:v>44.95</x:v>
       </x:c>
     </x:row>
     <x:row r="36">
       <x:c r="A36" t="str">
-        <x:v>A032</x:v>
+        <x:v>A004</x:v>
       </x:c>
       <x:c r="B36" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -954,7 +954,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F36" t="n">
-        <x:v>5830.812</x:v>
+        <x:v>1700.619</x:v>
       </x:c>
       <x:c r="G36" t="n">
         <x:v>13</x:v>
@@ -965,59 +965,59 @@
     </x:row>
     <x:row r="37">
       <x:c r="A37" t="str">
-        <x:v>A033</x:v>
+        <x:v>C108</x:v>
       </x:c>
       <x:c r="B37" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.300 F</x:v>
       </x:c>
       <x:c r="C37" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D37" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E37" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F37" t="n">
-        <x:v>4970.900</x:v>
+        <x:v>8649.557</x:v>
       </x:c>
       <x:c r="G37" t="n">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H37" t="str">
-        <x:v>N/A</x:v>
+        <x:v>67.27</x:v>
       </x:c>
     </x:row>
     <x:row r="38">
       <x:c r="A38" t="str">
-        <x:v>A034</x:v>
+        <x:v>C111</x:v>
       </x:c>
       <x:c r="B38" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.300 F</x:v>
       </x:c>
       <x:c r="C38" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D38" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E38" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F38" t="n">
-        <x:v>11174.950</x:v>
+        <x:v>8649.557</x:v>
       </x:c>
       <x:c r="G38" t="n">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H38" t="str">
-        <x:v>N/A</x:v>
+        <x:v>49.67</x:v>
       </x:c>
     </x:row>
     <x:row r="39">
       <x:c r="A39" t="str">
-        <x:v>A035</x:v>
+        <x:v>A005</x:v>
       </x:c>
       <x:c r="B39" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -1032,10 +1032,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F39" t="n">
-        <x:v>10327.774</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G39" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H39" t="str">
         <x:v>N/A</x:v>
@@ -1043,13 +1043,13 @@
     </x:row>
     <x:row r="40">
       <x:c r="A40" t="str">
-        <x:v>A036</x:v>
+        <x:v>C107-1</x:v>
       </x:c>
       <x:c r="B40" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C40" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D40" t="n">
         <x:v>600</x:v>
@@ -1058,70 +1058,70 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F40" t="n">
-        <x:v>25905.369</x:v>
+        <x:v>3032.809</x:v>
       </x:c>
       <x:c r="G40" t="n">
-        <x:v>12</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H40" t="str">
-        <x:v>N/A</x:v>
+        <x:v>24.48</x:v>
       </x:c>
     </x:row>
     <x:row r="41">
       <x:c r="A41" t="str">
-        <x:v>A037</x:v>
+        <x:v>C116</x:v>
       </x:c>
       <x:c r="B41" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C41" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D41" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E41" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F41" t="n">
-        <x:v>25105.369</x:v>
+        <x:v>5779.193</x:v>
       </x:c>
       <x:c r="G41" t="n">
-        <x:v>12</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H41" t="str">
-        <x:v>N/A</x:v>
+        <x:v>37.35</x:v>
       </x:c>
     </x:row>
     <x:row r="42">
       <x:c r="A42" t="str">
-        <x:v>A038</x:v>
+        <x:v>C118</x:v>
       </x:c>
       <x:c r="B42" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C42" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D42" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E42" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F42" t="n">
-        <x:v>10326.481</x:v>
+        <x:v>3400.000</x:v>
       </x:c>
       <x:c r="G42" t="n">
-        <x:v>12</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H42" t="str">
-        <x:v>N/A</x:v>
+        <x:v>55.53</x:v>
       </x:c>
     </x:row>
     <x:row r="43">
       <x:c r="A43" t="str">
-        <x:v>A039</x:v>
+        <x:v>A006</x:v>
       </x:c>
       <x:c r="B43" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -1136,10 +1136,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F43" t="n">
-        <x:v>11174.424</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G43" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H43" t="str">
         <x:v>N/A</x:v>
@@ -1147,59 +1147,59 @@
     </x:row>
     <x:row r="44">
       <x:c r="A44" t="str">
-        <x:v>A040</x:v>
+        <x:v>C130</x:v>
       </x:c>
       <x:c r="B44" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C44" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D44" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E44" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F44" t="n">
-        <x:v>4218.868</x:v>
+        <x:v>3103.004</x:v>
       </x:c>
       <x:c r="G44" t="n">
-        <x:v>12</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H44" t="str">
-        <x:v>N/A</x:v>
+        <x:v>31.90</x:v>
       </x:c>
     </x:row>
     <x:row r="45">
       <x:c r="A45" t="str">
-        <x:v>A042</x:v>
+        <x:v>BC034</x:v>
       </x:c>
       <x:c r="B45" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C45" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D45" t="n">
-        <x:v>600</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E45" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F45" t="n">
-        <x:v>5764.057</x:v>
+        <x:v>5120.505</x:v>
       </x:c>
       <x:c r="G45" t="n">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H45" t="str">
-        <x:v>N/A</x:v>
+        <x:v>44.15</x:v>
       </x:c>
     </x:row>
     <x:row r="46">
       <x:c r="A46" t="str">
-        <x:v>A043</x:v>
+        <x:v>A007</x:v>
       </x:c>
       <x:c r="B46" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -1214,10 +1214,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F46" t="n">
-        <x:v>5642.620</x:v>
+        <x:v>6325.284</x:v>
       </x:c>
       <x:c r="G46" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H46" t="str">
         <x:v>N/A</x:v>
@@ -1225,7 +1225,7 @@
     </x:row>
     <x:row r="47">
       <x:c r="A47" t="str">
-        <x:v>A044</x:v>
+        <x:v>A008</x:v>
       </x:c>
       <x:c r="B47" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -1240,10 +1240,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F47" t="n">
-        <x:v>5642.620</x:v>
+        <x:v>6325.284</x:v>
       </x:c>
       <x:c r="G47" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H47" t="str">
         <x:v>N/A</x:v>
@@ -1251,39 +1251,39 @@
     </x:row>
     <x:row r="48">
       <x:c r="A48" t="str">
-        <x:v>A045</x:v>
+        <x:v>C137</x:v>
       </x:c>
       <x:c r="B48" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C48" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D48" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E48" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F48" t="n">
-        <x:v>7736.447</x:v>
+        <x:v>3278.000</x:v>
       </x:c>
       <x:c r="G48" t="n">
-        <x:v>0</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H48" t="str">
-        <x:v>N/A</x:v>
+        <x:v>27.53</x:v>
       </x:c>
     </x:row>
     <x:row r="49">
       <x:c r="A49" t="str">
-        <x:v>A046</x:v>
+        <x:v>C004</x:v>
       </x:c>
       <x:c r="B49" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C49" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D49" t="n">
         <x:v>600</x:v>
@@ -1292,50 +1292,50 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F49" t="n">
-        <x:v>7736.447</x:v>
+        <x:v>4043.000</x:v>
       </x:c>
       <x:c r="G49" t="n">
-        <x:v>0</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H49" t="str">
-        <x:v>N/A</x:v>
+        <x:v>32.27</x:v>
       </x:c>
     </x:row>
     <x:row r="50">
       <x:c r="A50" t="str">
-        <x:v>A047</x:v>
+        <x:v>DFB020</x:v>
       </x:c>
       <x:c r="B50" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C50" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D50" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E50" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F50" t="n">
-        <x:v>10433.601</x:v>
+        <x:v>3956.000</x:v>
       </x:c>
       <x:c r="G50" t="n">
-        <x:v>0</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H50" t="str">
-        <x:v>N/A</x:v>
+        <x:v>47.67</x:v>
       </x:c>
     </x:row>
     <x:row r="51">
       <x:c r="A51" t="str">
-        <x:v>A048</x:v>
+        <x:v>C107-5</x:v>
       </x:c>
       <x:c r="B51" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C51" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D51" t="n">
         <x:v>600</x:v>
@@ -1344,21 +1344,21 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F51" t="n">
-        <x:v>10433.601</x:v>
+        <x:v>1876.448</x:v>
       </x:c>
       <x:c r="G51" t="n">
-        <x:v>0</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H51" t="str">
-        <x:v>N/A</x:v>
+        <x:v>25.18</x:v>
       </x:c>
     </x:row>
     <x:row r="52">
       <x:c r="A52" t="str">
-        <x:v>A101</x:v>
+        <x:v>A009</x:v>
       </x:c>
       <x:c r="B52" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C52" t="str">
         <x:v>Type A (Pink color) for MV cables</x:v>
@@ -1367,10 +1367,10 @@
         <x:v>600</x:v>
       </x:c>
       <x:c r="E52" t="n">
-        <x:v>105</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F52" t="n">
-        <x:v>6912.929</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G52" t="n">
         <x:v>12</x:v>
@@ -1381,91 +1381,91 @@
     </x:row>
     <x:row r="53">
       <x:c r="A53" t="str">
-        <x:v>A102</x:v>
+        <x:v>C120</x:v>
       </x:c>
       <x:c r="B53" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C53" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D53" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E53" t="n">
-        <x:v>105</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F53" t="n">
-        <x:v>7062.451</x:v>
+        <x:v>3103.004</x:v>
       </x:c>
       <x:c r="G53" t="n">
-        <x:v>12</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H53" t="str">
-        <x:v>N/A</x:v>
+        <x:v>30.08</x:v>
       </x:c>
     </x:row>
     <x:row r="54">
       <x:c r="A54" t="str">
-        <x:v>A103</x:v>
+        <x:v>DFB011</x:v>
       </x:c>
       <x:c r="B54" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C54" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D54" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="E54" t="n">
-        <x:v>105</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F54" t="n">
-        <x:v>6912.929</x:v>
+        <x:v>1556.000</x:v>
       </x:c>
       <x:c r="G54" t="n">
-        <x:v>12</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H54" t="str">
-        <x:v>N/A</x:v>
+        <x:v>42.92</x:v>
       </x:c>
     </x:row>
     <x:row r="55">
       <x:c r="A55" t="str">
-        <x:v>A104</x:v>
+        <x:v>DFC006</x:v>
       </x:c>
       <x:c r="B55" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C55" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D55" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="E55" t="n">
-        <x:v>105</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F55" t="n">
-        <x:v>6968.311</x:v>
+        <x:v>6600.000</x:v>
       </x:c>
       <x:c r="G55" t="n">
-        <x:v>12</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H55" t="str">
-        <x:v>N/A</x:v>
+        <x:v>55.45</x:v>
       </x:c>
     </x:row>
     <x:row r="56">
       <x:c r="A56" t="str">
-        <x:v>A105</x:v>
+        <x:v>DFB003</x:v>
       </x:c>
       <x:c r="B56" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C56" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D56" t="n">
         <x:v>600</x:v>
@@ -1474,18 +1474,18 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F56" t="n">
-        <x:v>5725.000</x:v>
+        <x:v>1206.000</x:v>
       </x:c>
       <x:c r="G56" t="n">
-        <x:v>12</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H56" t="str">
-        <x:v>N/A</x:v>
+        <x:v>19.48</x:v>
       </x:c>
     </x:row>
     <x:row r="57">
       <x:c r="A57" t="str">
-        <x:v>A106</x:v>
+        <x:v>A010</x:v>
       </x:c>
       <x:c r="B57" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -1500,10 +1500,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F57" t="n">
-        <x:v>4725.000</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G57" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H57" t="str">
         <x:v>N/A</x:v>
@@ -1511,65 +1511,65 @@
     </x:row>
     <x:row r="58">
       <x:c r="A58" t="str">
-        <x:v>A107</x:v>
+        <x:v>DFB017-2</x:v>
       </x:c>
       <x:c r="B58" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C58" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D58" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E58" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F58" t="n">
-        <x:v>3600.000</x:v>
+        <x:v>3800.000</x:v>
       </x:c>
       <x:c r="G58" t="n">
-        <x:v>12</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H58" t="str">
-        <x:v>N/A</x:v>
+        <x:v>96.03</x:v>
       </x:c>
     </x:row>
     <x:row r="59">
       <x:c r="A59" t="str">
-        <x:v>A108</x:v>
+        <x:v>BC002</x:v>
       </x:c>
       <x:c r="B59" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C59" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D59" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E59" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F59" t="n">
-        <x:v>3600.000</x:v>
+        <x:v>6465.000</x:v>
       </x:c>
       <x:c r="G59" t="n">
-        <x:v>12</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H59" t="str">
-        <x:v>N/A</x:v>
+        <x:v>39.62</x:v>
       </x:c>
     </x:row>
     <x:row r="60">
       <x:c r="A60" t="str">
-        <x:v>A111</x:v>
+        <x:v>DFC001</x:v>
       </x:c>
       <x:c r="B60" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C60" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D60" t="n">
         <x:v>600</x:v>
@@ -1578,24 +1578,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F60" t="n">
-        <x:v>5725.000</x:v>
+        <x:v>3603.210</x:v>
       </x:c>
       <x:c r="G60" t="n">
-        <x:v>12</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H60" t="str">
-        <x:v>N/A</x:v>
+        <x:v>44.92</x:v>
       </x:c>
     </x:row>
     <x:row r="61">
       <x:c r="A61" t="str">
-        <x:v>A112</x:v>
+        <x:v>BC004</x:v>
       </x:c>
       <x:c r="B61" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C61" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D61" t="n">
         <x:v>600</x:v>
@@ -1604,18 +1604,18 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F61" t="n">
-        <x:v>5025.000</x:v>
+        <x:v>4400.000</x:v>
       </x:c>
       <x:c r="G61" t="n">
-        <x:v>12</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H61" t="str">
-        <x:v>N/A</x:v>
+        <x:v>28.55</x:v>
       </x:c>
     </x:row>
     <x:row r="62">
       <x:c r="A62" t="str">
-        <x:v>A113</x:v>
+        <x:v>A041</x:v>
       </x:c>
       <x:c r="B62" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -1630,10 +1630,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F62" t="n">
-        <x:v>3600.000</x:v>
+        <x:v>5764.057</x:v>
       </x:c>
       <x:c r="G62" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H62" t="str">
         <x:v>N/A</x:v>
@@ -1641,137 +1641,137 @@
     </x:row>
     <x:row r="63">
       <x:c r="A63" t="str">
-        <x:v>A114</x:v>
+        <x:v>DFC004-2</x:v>
       </x:c>
       <x:c r="B63" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C63" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D63" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E63" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F63" t="n">
-        <x:v>3600.000</x:v>
+        <x:v>1750.000</x:v>
       </x:c>
       <x:c r="G63" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H63" t="str">
-        <x:v>N/A</x:v>
+        <x:v>74.60</x:v>
       </x:c>
     </x:row>
     <x:row r="64">
       <x:c r="A64" t="str">
-        <x:v>A115</x:v>
+        <x:v>BC003</x:v>
       </x:c>
       <x:c r="B64" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C64" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D64" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="E64" t="n">
-        <x:v>105</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F64" t="n">
-        <x:v>6894.960</x:v>
+        <x:v>9500.000</x:v>
       </x:c>
       <x:c r="G64" t="n">
-        <x:v>12</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H64" t="str">
-        <x:v>N/A</x:v>
+        <x:v>28.55</x:v>
       </x:c>
     </x:row>
     <x:row r="65">
       <x:c r="A65" t="str">
-        <x:v>A116</x:v>
+        <x:v>DFC005</x:v>
       </x:c>
       <x:c r="B65" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C65" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D65" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="E65" t="n">
-        <x:v>105</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F65" t="n">
-        <x:v>7084.929</x:v>
+        <x:v>2153.210</x:v>
       </x:c>
       <x:c r="G65" t="n">
-        <x:v>12</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H65" t="str">
-        <x:v>N/A</x:v>
+        <x:v>64.38</x:v>
       </x:c>
     </x:row>
     <x:row r="66">
       <x:c r="A66" t="str">
-        <x:v>A117</x:v>
+        <x:v>DFC013</x:v>
       </x:c>
       <x:c r="B66" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C66" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D66" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E66" t="n">
-        <x:v>105</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F66" t="n">
-        <x:v>6962.449</x:v>
+        <x:v>2800.000</x:v>
       </x:c>
       <x:c r="G66" t="n">
-        <x:v>12</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H66" t="str">
-        <x:v>N/A</x:v>
+        <x:v>39.27</x:v>
       </x:c>
     </x:row>
     <x:row r="67">
       <x:c r="A67" t="str">
-        <x:v>A118</x:v>
+        <x:v>BC014</x:v>
       </x:c>
       <x:c r="B67" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 100.503 F</x:v>
       </x:c>
       <x:c r="C67" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D67" t="n">
-        <x:v>600</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="E67" t="n">
-        <x:v>105</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F67" t="n">
-        <x:v>7084.929</x:v>
+        <x:v>6719.875</x:v>
       </x:c>
       <x:c r="G67" t="n">
-        <x:v>12</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H67" t="str">
-        <x:v>N/A</x:v>
+        <x:v>42.48</x:v>
       </x:c>
     </x:row>
     <x:row r="68">
       <x:c r="A68" t="str">
-        <x:v>A119</x:v>
+        <x:v>A011</x:v>
       </x:c>
       <x:c r="B68" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -1786,7 +1786,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F68" t="n">
-        <x:v>5725.000</x:v>
+        <x:v>3000.000</x:v>
       </x:c>
       <x:c r="G68" t="n">
         <x:v>12</x:v>
@@ -1797,7 +1797,7 @@
     </x:row>
     <x:row r="69">
       <x:c r="A69" t="str">
-        <x:v>A120</x:v>
+        <x:v>A012</x:v>
       </x:c>
       <x:c r="B69" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -1812,10 +1812,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F69" t="n">
-        <x:v>5025.000</x:v>
+        <x:v>3000.000</x:v>
       </x:c>
       <x:c r="G69" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H69" t="str">
         <x:v>N/A</x:v>
@@ -1823,13 +1823,13 @@
     </x:row>
     <x:row r="70">
       <x:c r="A70" t="str">
-        <x:v>A121</x:v>
+        <x:v>C011</x:v>
       </x:c>
       <x:c r="B70" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C70" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D70" t="n">
         <x:v>600</x:v>
@@ -1838,24 +1838,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F70" t="n">
-        <x:v>3600.000</x:v>
+        <x:v>4135.930</x:v>
       </x:c>
       <x:c r="G70" t="n">
-        <x:v>12</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H70" t="str">
-        <x:v>N/A</x:v>
+        <x:v>47.75</x:v>
       </x:c>
     </x:row>
     <x:row r="71">
       <x:c r="A71" t="str">
-        <x:v>A122</x:v>
+        <x:v>C107-3</x:v>
       </x:c>
       <x:c r="B71" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C71" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D71" t="n">
         <x:v>600</x:v>
@@ -1864,18 +1864,18 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F71" t="n">
-        <x:v>3600.000</x:v>
+        <x:v>1999.000</x:v>
       </x:c>
       <x:c r="G71" t="n">
-        <x:v>12</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H71" t="str">
-        <x:v>N/A</x:v>
+        <x:v>17.53</x:v>
       </x:c>
     </x:row>
     <x:row r="72">
       <x:c r="A72" t="str">
-        <x:v>A123</x:v>
+        <x:v>A013</x:v>
       </x:c>
       <x:c r="B72" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -1890,10 +1890,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F72" t="n">
-        <x:v>5725.000</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G72" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H72" t="str">
         <x:v>N/A</x:v>
@@ -1901,7 +1901,7 @@
     </x:row>
     <x:row r="73">
       <x:c r="A73" t="str">
-        <x:v>A124</x:v>
+        <x:v>A014</x:v>
       </x:c>
       <x:c r="B73" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -1916,7 +1916,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F73" t="n">
-        <x:v>5125.000</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G73" t="n">
         <x:v>12</x:v>
@@ -1927,7 +1927,7 @@
     </x:row>
     <x:row r="74">
       <x:c r="A74" t="str">
-        <x:v>A125</x:v>
+        <x:v>A015</x:v>
       </x:c>
       <x:c r="B74" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -1942,7 +1942,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F74" t="n">
-        <x:v>2700.000</x:v>
+        <x:v>1300.619</x:v>
       </x:c>
       <x:c r="G74" t="n">
         <x:v>12</x:v>
@@ -1953,7 +1953,7 @@
     </x:row>
     <x:row r="75">
       <x:c r="A75" t="str">
-        <x:v>A126</x:v>
+        <x:v>A016</x:v>
       </x:c>
       <x:c r="B75" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -1968,10 +1968,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F75" t="n">
-        <x:v>2700.000</x:v>
+        <x:v>1300.619</x:v>
       </x:c>
       <x:c r="G75" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H75" t="str">
         <x:v>N/A</x:v>
@@ -1979,7 +1979,7 @@
     </x:row>
     <x:row r="76">
       <x:c r="A76" t="str">
-        <x:v>A127</x:v>
+        <x:v>A017</x:v>
       </x:c>
       <x:c r="B76" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -1994,7 +1994,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F76" t="n">
-        <x:v>21256.580</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G76" t="n">
         <x:v>12</x:v>
@@ -2005,7 +2005,7 @@
     </x:row>
     <x:row r="77">
       <x:c r="A77" t="str">
-        <x:v>A128</x:v>
+        <x:v>A018</x:v>
       </x:c>
       <x:c r="B77" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2020,7 +2020,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F77" t="n">
-        <x:v>20637.837</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G77" t="n">
         <x:v>12</x:v>
@@ -2031,7 +2031,7 @@
     </x:row>
     <x:row r="78">
       <x:c r="A78" t="str">
-        <x:v>A129</x:v>
+        <x:v>A019</x:v>
       </x:c>
       <x:c r="B78" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2046,7 +2046,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F78" t="n">
-        <x:v>22200.718</x:v>
+        <x:v>11439.220</x:v>
       </x:c>
       <x:c r="G78" t="n">
         <x:v>12</x:v>
@@ -2057,7 +2057,7 @@
     </x:row>
     <x:row r="79">
       <x:c r="A79" t="str">
-        <x:v>A130</x:v>
+        <x:v>A020</x:v>
       </x:c>
       <x:c r="B79" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2072,10 +2072,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F79" t="n">
-        <x:v>21286.580</x:v>
+        <x:v>11439.220</x:v>
       </x:c>
       <x:c r="G79" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H79" t="str">
         <x:v>N/A</x:v>
@@ -2083,13 +2083,13 @@
     </x:row>
     <x:row r="80">
       <x:c r="A80" t="str">
-        <x:v>B001</x:v>
+        <x:v>A021</x:v>
       </x:c>
       <x:c r="B80" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C80" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D80" t="n">
         <x:v>600</x:v>
@@ -2098,24 +2098,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F80" t="n">
-        <x:v>6000.000</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G80" t="n">
-        <x:v>47</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H80" t="str">
-        <x:v>38.65</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="81">
       <x:c r="A81" t="str">
-        <x:v>B002</x:v>
+        <x:v>A022</x:v>
       </x:c>
       <x:c r="B81" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C81" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D81" t="n">
         <x:v>600</x:v>
@@ -2124,102 +2124,102 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F81" t="n">
-        <x:v>6000.000</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G81" t="n">
-        <x:v>23</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H81" t="str">
-        <x:v>63.47</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="82">
       <x:c r="A82" t="str">
-        <x:v>B004</x:v>
+        <x:v>A023</x:v>
       </x:c>
       <x:c r="B82" t="str">
-        <x:v>WSL 105.300 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C82" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D82" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E82" t="n">
-        <x:v>105</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F82" t="n">
-        <x:v>7159.229</x:v>
+        <x:v>5642.599</x:v>
       </x:c>
       <x:c r="G82" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H82" t="str">
-        <x:v>72.53</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="83">
       <x:c r="A83" t="str">
-        <x:v>B005</x:v>
+        <x:v>A024</x:v>
       </x:c>
       <x:c r="B83" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C83" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D83" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E83" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F83" t="n">
-        <x:v>3250.000</x:v>
+        <x:v>5643.821</x:v>
       </x:c>
       <x:c r="G83" t="n">
-        <x:v>5</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H83" t="str">
-        <x:v>82.33</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="84">
       <x:c r="A84" t="str">
-        <x:v>B006</x:v>
+        <x:v>A025</x:v>
       </x:c>
       <x:c r="B84" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C84" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D84" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E84" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F84" t="n">
-        <x:v>1900.000</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G84" t="n">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H84" t="str">
-        <x:v>82.33</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="85">
       <x:c r="A85" t="str">
-        <x:v>B101</x:v>
+        <x:v>A026</x:v>
       </x:c>
       <x:c r="B85" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C85" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D85" t="n">
         <x:v>600</x:v>
@@ -2228,50 +2228,50 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F85" t="n">
-        <x:v>3606.000</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G85" t="n">
-        <x:v>50</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H85" t="str">
-        <x:v>34.87</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="86">
       <x:c r="A86" t="str">
-        <x:v>B102</x:v>
+        <x:v>A027</x:v>
       </x:c>
       <x:c r="B86" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C86" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D86" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="E86" t="n">
-        <x:v>105</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F86" t="n">
-        <x:v>8778.319</x:v>
+        <x:v>1800.000</x:v>
       </x:c>
       <x:c r="G86" t="n">
-        <x:v>29</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H86" t="str">
-        <x:v>67.07</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="87">
       <x:c r="A87" t="str">
-        <x:v>B107-1</x:v>
+        <x:v>A028</x:v>
       </x:c>
       <x:c r="B87" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C87" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D87" t="n">
         <x:v>600</x:v>
@@ -2280,128 +2280,128 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F87" t="n">
-        <x:v>3032.809</x:v>
+        <x:v>1800.000</x:v>
       </x:c>
       <x:c r="G87" t="n">
-        <x:v>50</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H87" t="str">
-        <x:v>37.40</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="88">
       <x:c r="A88" t="str">
-        <x:v>B104-1</x:v>
+        <x:v>A029</x:v>
       </x:c>
       <x:c r="B88" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C88" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D88" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E88" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F88" t="n">
-        <x:v>1300.619</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G88" t="n">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H88" t="str">
-        <x:v>89.85</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="89">
       <x:c r="A89" t="str">
-        <x:v>B105-1</x:v>
+        <x:v>A030</x:v>
       </x:c>
       <x:c r="B89" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C89" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D89" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E89" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F89" t="n">
-        <x:v>6501.881</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G89" t="n">
-        <x:v>18</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H89" t="str">
-        <x:v>51.33</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="90">
       <x:c r="A90" t="str">
-        <x:v>B105-2</x:v>
+        <x:v>A031</x:v>
       </x:c>
       <x:c r="B90" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C90" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D90" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E90" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F90" t="n">
-        <x:v>1196.290</x:v>
+        <x:v>5830.812</x:v>
       </x:c>
       <x:c r="G90" t="n">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H90" t="str">
-        <x:v>43.13</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="91">
       <x:c r="A91" t="str">
-        <x:v>B105-3</x:v>
+        <x:v>A032</x:v>
       </x:c>
       <x:c r="B91" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C91" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D91" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E91" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F91" t="n">
-        <x:v>1879.028</x:v>
+        <x:v>5830.812</x:v>
       </x:c>
       <x:c r="G91" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H91" t="str">
-        <x:v>67.95</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="92">
       <x:c r="A92" t="str">
-        <x:v>B007</x:v>
+        <x:v>A033</x:v>
       </x:c>
       <x:c r="B92" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C92" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D92" t="n">
         <x:v>600</x:v>
@@ -2410,24 +2410,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F92" t="n">
-        <x:v>6000.000</x:v>
+        <x:v>4970.900</x:v>
       </x:c>
       <x:c r="G92" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H92" t="str">
-        <x:v>100.00</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="93">
       <x:c r="A93" t="str">
-        <x:v>B107-2</x:v>
+        <x:v>A034</x:v>
       </x:c>
       <x:c r="B93" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C93" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D93" t="n">
         <x:v>600</x:v>
@@ -2436,24 +2436,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F93" t="n">
-        <x:v>6013.366</x:v>
+        <x:v>11174.950</x:v>
       </x:c>
       <x:c r="G93" t="n">
-        <x:v>39</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H93" t="str">
-        <x:v>49.80</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="94">
       <x:c r="A94" t="str">
-        <x:v>B107-3</x:v>
+        <x:v>A035</x:v>
       </x:c>
       <x:c r="B94" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C94" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D94" t="n">
         <x:v>600</x:v>
@@ -2462,24 +2462,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F94" t="n">
-        <x:v>1999.000</x:v>
+        <x:v>10327.774</x:v>
       </x:c>
       <x:c r="G94" t="n">
-        <x:v>33</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H94" t="str">
-        <x:v>57.73</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="95">
       <x:c r="A95" t="str">
-        <x:v>B107-4</x:v>
+        <x:v>A036</x:v>
       </x:c>
       <x:c r="B95" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C95" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D95" t="n">
         <x:v>600</x:v>
@@ -2488,24 +2488,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F95" t="n">
-        <x:v>7909.844</x:v>
+        <x:v>25905.369</x:v>
       </x:c>
       <x:c r="G95" t="n">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H95" t="str">
-        <x:v>62.22</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="96">
       <x:c r="A96" t="str">
-        <x:v>B107-5</x:v>
+        <x:v>A037</x:v>
       </x:c>
       <x:c r="B96" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C96" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D96" t="n">
         <x:v>600</x:v>
@@ -2514,24 +2514,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F96" t="n">
-        <x:v>1926.448</x:v>
+        <x:v>25105.369</x:v>
       </x:c>
       <x:c r="G96" t="n">
-        <x:v>25</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H96" t="str">
-        <x:v>72.32</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="97">
       <x:c r="A97" t="str">
-        <x:v>B107-6</x:v>
+        <x:v>A038</x:v>
       </x:c>
       <x:c r="B97" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C97" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D97" t="n">
         <x:v>600</x:v>
@@ -2540,24 +2540,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F97" t="n">
-        <x:v>1932.039</x:v>
+        <x:v>10326.481</x:v>
       </x:c>
       <x:c r="G97" t="n">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H97" t="str">
-        <x:v>72.32</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="98">
       <x:c r="A98" t="str">
-        <x:v>B107-7</x:v>
+        <x:v>A039</x:v>
       </x:c>
       <x:c r="B98" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C98" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D98" t="n">
         <x:v>600</x:v>
@@ -2566,388 +2566,388 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F98" t="n">
-        <x:v>4872.000</x:v>
+        <x:v>11174.424</x:v>
       </x:c>
       <x:c r="G98" t="n">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H98" t="str">
-        <x:v>76.80</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="99">
       <x:c r="A99" t="str">
-        <x:v>B108</x:v>
+        <x:v>A040</x:v>
       </x:c>
       <x:c r="B99" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C99" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D99" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="E99" t="n">
-        <x:v>105</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F99" t="n">
-        <x:v>9001.937</x:v>
+        <x:v>4218.868</x:v>
       </x:c>
       <x:c r="G99" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H99" t="str">
-        <x:v>81.80</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="100">
       <x:c r="A100" t="str">
-        <x:v>B111</x:v>
+        <x:v>A042</x:v>
       </x:c>
       <x:c r="B100" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C100" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D100" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="E100" t="n">
-        <x:v>105</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F100" t="n">
-        <x:v>8951.937</x:v>
+        <x:v>5764.057</x:v>
       </x:c>
       <x:c r="G100" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H100" t="str">
-        <x:v>81.80</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="101">
       <x:c r="A101" t="str">
-        <x:v>B112</x:v>
+        <x:v>A043</x:v>
       </x:c>
       <x:c r="B101" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C101" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D101" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="E101" t="n">
-        <x:v>105</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F101" t="n">
-        <x:v>7926.000</x:v>
+        <x:v>5642.620</x:v>
       </x:c>
       <x:c r="G101" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H101" t="str">
-        <x:v>81.80</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="102">
       <x:c r="A102" t="str">
-        <x:v>B116</x:v>
+        <x:v>A044</x:v>
       </x:c>
       <x:c r="B102" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C102" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D102" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E102" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F102" t="n">
-        <x:v>12000.000</x:v>
+        <x:v>5642.620</x:v>
       </x:c>
       <x:c r="G102" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H102" t="str">
-        <x:v>75.05</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="103">
       <x:c r="A103" t="str">
-        <x:v>B117</x:v>
+        <x:v>A045</x:v>
       </x:c>
       <x:c r="B103" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C103" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D103" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E103" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F103" t="n">
-        <x:v>5638.090</x:v>
+        <x:v>7736.447</x:v>
       </x:c>
       <x:c r="G103" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H103" t="str">
-        <x:v>82.33</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="104">
       <x:c r="A104" t="str">
-        <x:v>B118</x:v>
+        <x:v>A046</x:v>
       </x:c>
       <x:c r="B104" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C104" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D104" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E104" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F104" t="n">
-        <x:v>10013.554</x:v>
+        <x:v>7736.447</x:v>
       </x:c>
       <x:c r="G104" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H104" t="str">
-        <x:v>73.42</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="105">
       <x:c r="A105" t="str">
-        <x:v>B119</x:v>
+        <x:v>A047</x:v>
       </x:c>
       <x:c r="B105" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C105" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D105" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E105" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F105" t="n">
-        <x:v>12056.603</x:v>
+        <x:v>10433.601</x:v>
       </x:c>
       <x:c r="G105" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H105" t="str">
-        <x:v>76.97</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="106">
       <x:c r="A106" t="str">
-        <x:v>B120</x:v>
+        <x:v>A048</x:v>
       </x:c>
       <x:c r="B106" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C106" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D106" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E106" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F106" t="n">
-        <x:v>10013.554</x:v>
+        <x:v>10433.601</x:v>
       </x:c>
       <x:c r="G106" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H106" t="str">
-        <x:v>72.70</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="107">
       <x:c r="A107" t="str">
-        <x:v>B121</x:v>
+        <x:v>A101</x:v>
       </x:c>
       <x:c r="B107" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>WSL 105.600 F</x:v>
       </x:c>
       <x:c r="C107" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D107" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E107" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F107" t="n">
-        <x:v>12056.603</x:v>
+        <x:v>6912.929</x:v>
       </x:c>
       <x:c r="G107" t="n">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H107" t="str">
-        <x:v>76.25</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="108">
       <x:c r="A108" t="str">
-        <x:v>B122</x:v>
+        <x:v>A102</x:v>
       </x:c>
       <x:c r="B108" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>WSL 105.600 F</x:v>
       </x:c>
       <x:c r="C108" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D108" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E108" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F108" t="n">
-        <x:v>10013.554</x:v>
+        <x:v>7062.451</x:v>
       </x:c>
       <x:c r="G108" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H108" t="str">
-        <x:v>72.70</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="109">
       <x:c r="A109" t="str">
-        <x:v>B123</x:v>
+        <x:v>A103</x:v>
       </x:c>
       <x:c r="B109" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>WSL 105.600 F</x:v>
       </x:c>
       <x:c r="C109" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D109" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E109" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F109" t="n">
-        <x:v>12056.603</x:v>
+        <x:v>6912.929</x:v>
       </x:c>
       <x:c r="G109" t="n">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H109" t="str">
-        <x:v>76.25</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="110">
       <x:c r="A110" t="str">
-        <x:v>B124</x:v>
+        <x:v>A104</x:v>
       </x:c>
       <x:c r="B110" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>WSL 105.600 F</x:v>
       </x:c>
       <x:c r="C110" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D110" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E110" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F110" t="n">
-        <x:v>10013.554</x:v>
+        <x:v>6968.311</x:v>
       </x:c>
       <x:c r="G110" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H110" t="str">
-        <x:v>72.70</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="111">
       <x:c r="A111" t="str">
-        <x:v>B115</x:v>
+        <x:v>A105</x:v>
       </x:c>
       <x:c r="B111" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C111" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D111" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E111" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F111" t="n">
-        <x:v>4251.206</x:v>
+        <x:v>5725.000</x:v>
       </x:c>
       <x:c r="G111" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H111" t="str">
-        <x:v>57.27</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="112">
       <x:c r="A112" t="str">
-        <x:v>B125</x:v>
+        <x:v>A106</x:v>
       </x:c>
       <x:c r="B112" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C112" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D112" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E112" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F112" t="n">
-        <x:v>12056.603</x:v>
+        <x:v>4725.000</x:v>
       </x:c>
       <x:c r="G112" t="n">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H112" t="str">
-        <x:v>76.25</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="113">
       <x:c r="A113" t="str">
-        <x:v>B139-1</x:v>
+        <x:v>A107</x:v>
       </x:c>
       <x:c r="B113" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C113" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D113" t="n">
         <x:v>600</x:v>
@@ -2956,24 +2956,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F113" t="n">
-        <x:v>3706.090</x:v>
+        <x:v>3600.000</x:v>
       </x:c>
       <x:c r="G113" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H113" t="str">
-        <x:v>62.92</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="114">
       <x:c r="A114" t="str">
-        <x:v>B139-2</x:v>
+        <x:v>A108</x:v>
       </x:c>
       <x:c r="B114" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C114" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D114" t="n">
         <x:v>600</x:v>
@@ -2982,24 +2982,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F114" t="n">
-        <x:v>6013.366</x:v>
+        <x:v>3600.000</x:v>
       </x:c>
       <x:c r="G114" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H114" t="str">
-        <x:v>62.92</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="115">
       <x:c r="A115" t="str">
-        <x:v>B139-3</x:v>
+        <x:v>A111</x:v>
       </x:c>
       <x:c r="B115" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C115" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D115" t="n">
         <x:v>600</x:v>
@@ -3008,24 +3008,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F115" t="n">
-        <x:v>1999.000</x:v>
+        <x:v>5725.000</x:v>
       </x:c>
       <x:c r="G115" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H115" t="str">
-        <x:v>62.92</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="116">
       <x:c r="A116" t="str">
-        <x:v>B139-4</x:v>
+        <x:v>A112</x:v>
       </x:c>
       <x:c r="B116" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C116" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D116" t="n">
         <x:v>600</x:v>
@@ -3034,24 +3034,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F116" t="n">
-        <x:v>7909.844</x:v>
+        <x:v>5025.000</x:v>
       </x:c>
       <x:c r="G116" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H116" t="str">
-        <x:v>62.92</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="117">
       <x:c r="A117" t="str">
-        <x:v>B139-5</x:v>
+        <x:v>A113</x:v>
       </x:c>
       <x:c r="B117" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C117" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D117" t="n">
         <x:v>600</x:v>
@@ -3060,24 +3060,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F117" t="n">
-        <x:v>1926.448</x:v>
+        <x:v>3600.000</x:v>
       </x:c>
       <x:c r="G117" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H117" t="str">
-        <x:v>62.92</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="118">
       <x:c r="A118" t="str">
-        <x:v>B139-6</x:v>
+        <x:v>A114</x:v>
       </x:c>
       <x:c r="B118" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C118" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D118" t="n">
         <x:v>600</x:v>
@@ -3086,128 +3086,128 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F118" t="n">
-        <x:v>1932.039</x:v>
+        <x:v>3600.000</x:v>
       </x:c>
       <x:c r="G118" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H118" t="str">
-        <x:v>100.00</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="119">
       <x:c r="A119" t="str">
-        <x:v>B139-7</x:v>
+        <x:v>A115</x:v>
       </x:c>
       <x:c r="B119" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.600 F</x:v>
       </x:c>
       <x:c r="C119" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D119" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="E119" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F119" t="n">
-        <x:v>4067.961</x:v>
+        <x:v>6894.960</x:v>
       </x:c>
       <x:c r="G119" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H119" t="str">
-        <x:v>100.00</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="120">
       <x:c r="A120" t="str">
-        <x:v>B140-1</x:v>
+        <x:v>A116</x:v>
       </x:c>
       <x:c r="B120" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.600 F</x:v>
       </x:c>
       <x:c r="C120" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D120" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="E120" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F120" t="n">
-        <x:v>1537.693</x:v>
+        <x:v>7084.929</x:v>
       </x:c>
       <x:c r="G120" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H120" t="str">
-        <x:v>60.58</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="121">
       <x:c r="A121" t="str">
-        <x:v>B140-2</x:v>
+        <x:v>A117</x:v>
       </x:c>
       <x:c r="B121" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.600 F</x:v>
       </x:c>
       <x:c r="C121" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D121" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="E121" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F121" t="n">
-        <x:v>6678.620</x:v>
+        <x:v>6962.449</x:v>
       </x:c>
       <x:c r="G121" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H121" t="str">
-        <x:v>62.92</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="122">
       <x:c r="A122" t="str">
-        <x:v>B141</x:v>
+        <x:v>A118</x:v>
       </x:c>
       <x:c r="B122" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.600 F</x:v>
       </x:c>
       <x:c r="C122" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D122" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="E122" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F122" t="n">
-        <x:v>13117.566</x:v>
+        <x:v>7084.929</x:v>
       </x:c>
       <x:c r="G122" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H122" t="str">
-        <x:v>57.13</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="123">
       <x:c r="A123" t="str">
-        <x:v>B142</x:v>
+        <x:v>A119</x:v>
       </x:c>
       <x:c r="B123" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C123" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D123" t="n">
         <x:v>600</x:v>
@@ -3216,388 +3216,388 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F123" t="n">
-        <x:v>14559.495</x:v>
+        <x:v>5725.000</x:v>
       </x:c>
       <x:c r="G123" t="n">
-        <x:v>4</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H123" t="str">
-        <x:v>79.38</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="124">
       <x:c r="A124" t="str">
-        <x:v>B143</x:v>
+        <x:v>A120</x:v>
       </x:c>
       <x:c r="B124" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C124" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D124" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E124" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F124" t="n">
-        <x:v>4919.273</x:v>
+        <x:v>5025.000</x:v>
       </x:c>
       <x:c r="G124" t="n">
-        <x:v>4</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H124" t="str">
-        <x:v>82.83</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="125">
       <x:c r="A125" t="str">
-        <x:v>B144</x:v>
+        <x:v>A121</x:v>
       </x:c>
       <x:c r="B125" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C125" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D125" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E125" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F125" t="n">
-        <x:v>3890.930</x:v>
+        <x:v>3600.000</x:v>
       </x:c>
       <x:c r="G125" t="n">
-        <x:v>4</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H125" t="str">
-        <x:v>82.83</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="126">
       <x:c r="A126" t="str">
-        <x:v>B145</x:v>
+        <x:v>A122</x:v>
       </x:c>
       <x:c r="B126" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C126" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D126" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E126" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F126" t="n">
-        <x:v>2807.996</x:v>
+        <x:v>3600.000</x:v>
       </x:c>
       <x:c r="G126" t="n">
-        <x:v>3</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H126" t="str">
-        <x:v>82.83</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="127">
       <x:c r="A127" t="str">
-        <x:v>BC001</x:v>
+        <x:v>A123</x:v>
       </x:c>
       <x:c r="B127" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C127" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D127" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E127" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F127" t="n">
-        <x:v>4100.000</x:v>
+        <x:v>5725.000</x:v>
       </x:c>
       <x:c r="G127" t="n">
-        <x:v>43</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H127" t="str">
-        <x:v>61.80</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="128">
       <x:c r="A128" t="str">
-        <x:v>BC002</x:v>
+        <x:v>A124</x:v>
       </x:c>
       <x:c r="B128" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C128" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D128" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E128" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F128" t="n">
-        <x:v>6465.000</x:v>
+        <x:v>5125.000</x:v>
       </x:c>
       <x:c r="G128" t="n">
-        <x:v>45</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H128" t="str">
-        <x:v>59.37</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="129">
       <x:c r="A129" t="str">
-        <x:v>BC003</x:v>
+        <x:v>A125</x:v>
       </x:c>
       <x:c r="B129" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C129" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D129" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E129" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F129" t="n">
-        <x:v>9500.000</x:v>
+        <x:v>2700.000</x:v>
       </x:c>
       <x:c r="G129" t="n">
-        <x:v>102</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H129" t="str">
-        <x:v>57.40</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="130">
       <x:c r="A130" t="str">
-        <x:v>BC004</x:v>
+        <x:v>A126</x:v>
       </x:c>
       <x:c r="B130" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C130" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D130" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E130" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F130" t="n">
-        <x:v>4400.000</x:v>
+        <x:v>2700.000</x:v>
       </x:c>
       <x:c r="G130" t="n">
-        <x:v>102</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H130" t="str">
-        <x:v>57.40</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="131">
       <x:c r="A131" t="str">
-        <x:v>BC011</x:v>
+        <x:v>A127</x:v>
       </x:c>
       <x:c r="B131" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C131" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D131" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E131" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F131" t="n">
-        <x:v>4703.319</x:v>
+        <x:v>21256.580</x:v>
       </x:c>
       <x:c r="G131" t="n">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H131" t="str">
-        <x:v>87.43</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="132">
       <x:c r="A132" t="str">
-        <x:v>BC012</x:v>
+        <x:v>A128</x:v>
       </x:c>
       <x:c r="B132" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C132" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D132" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E132" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F132" t="n">
-        <x:v>4375.000</x:v>
+        <x:v>20637.837</x:v>
       </x:c>
       <x:c r="G132" t="n">
-        <x:v>74</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H132" t="str">
-        <x:v>61.85</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="133">
       <x:c r="A133" t="str">
-        <x:v>BC013</x:v>
+        <x:v>A129</x:v>
       </x:c>
       <x:c r="B133" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C133" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D133" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E133" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F133" t="n">
-        <x:v>12016.902</x:v>
+        <x:v>22200.718</x:v>
       </x:c>
       <x:c r="G133" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H133" t="str">
-        <x:v>93.30</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="134">
       <x:c r="A134" t="str">
-        <x:v>BC014</x:v>
+        <x:v>A130</x:v>
       </x:c>
       <x:c r="B134" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C134" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D134" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E134" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F134" t="n">
-        <x:v>6719.875</x:v>
+        <x:v>21286.580</x:v>
       </x:c>
       <x:c r="G134" t="n">
-        <x:v>68</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H134" t="str">
-        <x:v>64.70</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="135">
       <x:c r="A135" t="str">
-        <x:v>BC016</x:v>
+        <x:v>B002</x:v>
       </x:c>
       <x:c r="B135" t="str">
-        <x:v>WSL 105.400 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C135" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D135" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E135" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F135" t="n">
-        <x:v>2915.000</x:v>
+        <x:v>6000.000</x:v>
       </x:c>
       <x:c r="G135" t="n">
-        <x:v>66</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H135" t="str">
-        <x:v>64.70</x:v>
+        <x:v>59.12</x:v>
       </x:c>
     </x:row>
     <x:row r="136">
       <x:c r="A136" t="str">
-        <x:v>BC017</x:v>
+        <x:v>B004</x:v>
       </x:c>
       <x:c r="B136" t="str">
-        <x:v>WSL 105.400 F</x:v>
+        <x:v>WSL 105.300 F</x:v>
       </x:c>
       <x:c r="C136" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D136" t="n">
-        <x:v>400</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E136" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F136" t="n">
-        <x:v>3000.000</x:v>
+        <x:v>7159.229</x:v>
       </x:c>
       <x:c r="G136" t="n">
-        <x:v>50</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H136" t="str">
-        <x:v>72.40</x:v>
+        <x:v>67.37</x:v>
       </x:c>
     </x:row>
     <x:row r="137">
       <x:c r="A137" t="str">
-        <x:v>BC018</x:v>
+        <x:v>B005</x:v>
       </x:c>
       <x:c r="B137" t="str">
-        <x:v>WSL 105.400 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C137" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D137" t="n">
-        <x:v>400</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E137" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F137" t="n">
-        <x:v>4157.061</x:v>
+        <x:v>3250.000</x:v>
       </x:c>
       <x:c r="G137" t="n">
-        <x:v>37</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H137" t="str">
-        <x:v>77.20</x:v>
+        <x:v>82.33</x:v>
       </x:c>
     </x:row>
     <x:row r="138">
       <x:c r="A138" t="str">
-        <x:v>BC026</x:v>
+        <x:v>B006</x:v>
       </x:c>
       <x:c r="B138" t="str">
         <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C138" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D138" t="n">
         <x:v>300</x:v>
@@ -3606,414 +3606,414 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F138" t="n">
-        <x:v>2100.000</x:v>
+        <x:v>1900.000</x:v>
       </x:c>
       <x:c r="G138" t="n">
-        <x:v>46</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H138" t="str">
-        <x:v>62.33</x:v>
+        <x:v>82.33</x:v>
       </x:c>
     </x:row>
     <x:row r="139">
       <x:c r="A139" t="str">
-        <x:v>BC019</x:v>
+        <x:v>B105-2</x:v>
       </x:c>
       <x:c r="B139" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C139" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D139" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E139" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F139" t="n">
-        <x:v>4768.319</x:v>
+        <x:v>1196.290</x:v>
       </x:c>
       <x:c r="G139" t="n">
-        <x:v>96</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H139" t="str">
-        <x:v>53.63</x:v>
+        <x:v>43.53</x:v>
       </x:c>
     </x:row>
     <x:row r="140">
       <x:c r="A140" t="str">
-        <x:v>BC020</x:v>
+        <x:v>B007</x:v>
       </x:c>
       <x:c r="B140" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C140" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D140" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E140" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F140" t="n">
-        <x:v>6897.001</x:v>
+        <x:v>6000.000</x:v>
       </x:c>
       <x:c r="G140" t="n">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H140" t="str">
-        <x:v>76.17</x:v>
+        <x:v>77.30</x:v>
       </x:c>
     </x:row>
     <x:row r="141">
       <x:c r="A141" t="str">
-        <x:v>BC021</x:v>
+        <x:v>B107-1</x:v>
       </x:c>
       <x:c r="B141" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C141" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D141" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E141" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F141" t="n">
-        <x:v>6897.001</x:v>
+        <x:v>3032.809</x:v>
       </x:c>
       <x:c r="G141" t="n">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H141" t="str">
-        <x:v>76.17</x:v>
+        <x:v>36.73</x:v>
       </x:c>
     </x:row>
     <x:row r="142">
       <x:c r="A142" t="str">
-        <x:v>BC022-1</x:v>
+        <x:v>B105-3</x:v>
       </x:c>
       <x:c r="B142" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C142" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D142" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E142" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F142" t="n">
-        <x:v>5709.616</x:v>
+        <x:v>1879.028</x:v>
       </x:c>
       <x:c r="G142" t="n">
-        <x:v>46</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H142" t="str">
-        <x:v>62.33</x:v>
+        <x:v>67.95</x:v>
       </x:c>
     </x:row>
     <x:row r="143">
       <x:c r="A143" t="str">
-        <x:v>BC022-2</x:v>
+        <x:v>B102</x:v>
       </x:c>
       <x:c r="B143" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>WSL 105.400 F</x:v>
       </x:c>
       <x:c r="C143" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D143" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E143" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F143" t="n">
-        <x:v>4953.004</x:v>
+        <x:v>8778.319</x:v>
       </x:c>
       <x:c r="G143" t="n">
-        <x:v>22</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H143" t="str">
-        <x:v>70.90</x:v>
+        <x:v>37.03</x:v>
       </x:c>
     </x:row>
     <x:row r="144">
       <x:c r="A144" t="str">
-        <x:v>BC023-1</x:v>
+        <x:v>B104-1</x:v>
       </x:c>
       <x:c r="B144" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C144" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D144" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E144" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F144" t="n">
-        <x:v>6976.506</x:v>
+        <x:v>1300.619</x:v>
       </x:c>
       <x:c r="G144" t="n">
-        <x:v>46</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H144" t="str">
-        <x:v>62.33</x:v>
+        <x:v>81.55</x:v>
       </x:c>
     </x:row>
     <x:row r="145">
       <x:c r="A145" t="str">
-        <x:v>BC023-2</x:v>
+        <x:v>B105-1</x:v>
       </x:c>
       <x:c r="B145" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C145" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D145" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E145" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F145" t="n">
-        <x:v>4953.004</x:v>
+        <x:v>6501.881</x:v>
       </x:c>
       <x:c r="G145" t="n">
-        <x:v>22</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H145" t="str">
-        <x:v>70.90</x:v>
+        <x:v>56.40</x:v>
       </x:c>
     </x:row>
     <x:row r="146">
       <x:c r="A146" t="str">
-        <x:v>BC025</x:v>
+        <x:v>B111</x:v>
       </x:c>
       <x:c r="B146" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>WSL 105.300 F</x:v>
       </x:c>
       <x:c r="C146" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D146" t="n">
         <x:v>300</x:v>
       </x:c>
       <x:c r="E146" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F146" t="n">
-        <x:v>2100.000</x:v>
+        <x:v>8951.937</x:v>
       </x:c>
       <x:c r="G146" t="n">
-        <x:v>46</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H146" t="str">
-        <x:v>62.33</x:v>
+        <x:v>58.33</x:v>
       </x:c>
     </x:row>
     <x:row r="147">
       <x:c r="A147" t="str">
-        <x:v>BC027</x:v>
+        <x:v>B107-4</x:v>
       </x:c>
       <x:c r="B147" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C147" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D147" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E147" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F147" t="n">
-        <x:v>11830.897</x:v>
+        <x:v>7909.844</x:v>
       </x:c>
       <x:c r="G147" t="n">
-        <x:v>19</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H147" t="str">
-        <x:v>71.45</x:v>
+        <x:v>51.32</x:v>
       </x:c>
     </x:row>
     <x:row r="148">
       <x:c r="A148" t="str">
-        <x:v>BC028-1</x:v>
+        <x:v>B107-5</x:v>
       </x:c>
       <x:c r="B148" t="str">
-        <x:v>WSL 105.400 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C148" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D148" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E148" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F148" t="n">
-        <x:v>8464.870</x:v>
+        <x:v>1926.448</x:v>
       </x:c>
       <x:c r="G148" t="n">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H148" t="str">
-        <x:v>81.92</x:v>
+        <x:v>61.58</x:v>
       </x:c>
     </x:row>
     <x:row r="149">
       <x:c r="A149" t="str">
-        <x:v>BC028-2</x:v>
+        <x:v>B107-6</x:v>
       </x:c>
       <x:c r="B149" t="str">
-        <x:v>WSL 105.400 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C149" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D149" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E149" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F149" t="n">
-        <x:v>4750.000</x:v>
+        <x:v>1932.039</x:v>
       </x:c>
       <x:c r="G149" t="n">
-        <x:v>12</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H149" t="str">
-        <x:v>87.70</x:v>
+        <x:v>63.92</x:v>
       </x:c>
     </x:row>
     <x:row r="150">
       <x:c r="A150" t="str">
-        <x:v>BC029</x:v>
+        <x:v>B107-7</x:v>
       </x:c>
       <x:c r="B150" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C150" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D150" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E150" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F150" t="n">
-        <x:v>3307.715</x:v>
+        <x:v>4872.000</x:v>
       </x:c>
       <x:c r="G150" t="n">
-        <x:v>16</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H150" t="str">
-        <x:v>90.87</x:v>
+        <x:v>68.40</x:v>
       </x:c>
     </x:row>
     <x:row r="151">
       <x:c r="A151" t="str">
-        <x:v>BC030</x:v>
+        <x:v>B108</x:v>
       </x:c>
       <x:c r="B151" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>WSL 105.300 F</x:v>
       </x:c>
       <x:c r="C151" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D151" t="n">
         <x:v>300</x:v>
       </x:c>
       <x:c r="E151" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F151" t="n">
-        <x:v>5472.466</x:v>
+        <x:v>9001.937</x:v>
       </x:c>
       <x:c r="G151" t="n">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H151" t="str">
-        <x:v>69.47</x:v>
+        <x:v>58.33</x:v>
       </x:c>
     </x:row>
     <x:row r="152">
       <x:c r="A152" t="str">
-        <x:v>BC031</x:v>
+        <x:v>B112</x:v>
       </x:c>
       <x:c r="B152" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>WSL 105.300 F</x:v>
       </x:c>
       <x:c r="C152" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D152" t="n">
         <x:v>300</x:v>
       </x:c>
       <x:c r="E152" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F152" t="n">
-        <x:v>7241.491</x:v>
+        <x:v>7926.000</x:v>
       </x:c>
       <x:c r="G152" t="n">
-        <x:v>5</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H152" t="str">
-        <x:v>81.33</x:v>
+        <x:v>58.33</x:v>
       </x:c>
     </x:row>
     <x:row r="153">
       <x:c r="A153" t="str">
-        <x:v>BC033</x:v>
+        <x:v>B107-3</x:v>
       </x:c>
       <x:c r="B153" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C153" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D153" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E153" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F153" t="n">
-        <x:v>3007.715</x:v>
+        <x:v>1999.000</x:v>
       </x:c>
       <x:c r="G153" t="n">
-        <x:v>16</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H153" t="str">
-        <x:v>90.87</x:v>
+        <x:v>46.83</x:v>
       </x:c>
     </x:row>
     <x:row r="154">
       <x:c r="A154" t="str">
-        <x:v>BC034</x:v>
+        <x:v>B120</x:v>
       </x:c>
       <x:c r="B154" t="str">
         <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C154" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D154" t="n">
         <x:v>300</x:v>
@@ -4022,24 +4022,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F154" t="n">
-        <x:v>5120.505</x:v>
+        <x:v>10013.554</x:v>
       </x:c>
       <x:c r="G154" t="n">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H154" t="str">
-        <x:v>69.47</x:v>
+        <x:v>58.33</x:v>
       </x:c>
     </x:row>
     <x:row r="155">
       <x:c r="A155" t="str">
-        <x:v>BC035</x:v>
+        <x:v>B119</x:v>
       </x:c>
       <x:c r="B155" t="str">
         <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C155" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D155" t="n">
         <x:v>300</x:v>
@@ -4048,232 +4048,232 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F155" t="n">
-        <x:v>7884.910</x:v>
+        <x:v>12056.603</x:v>
       </x:c>
       <x:c r="G155" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H155" t="str">
-        <x:v>81.33</x:v>
+        <x:v>69.30</x:v>
       </x:c>
     </x:row>
     <x:row r="156">
       <x:c r="A156" t="str">
-        <x:v>BC158</x:v>
+        <x:v>B116</x:v>
       </x:c>
       <x:c r="B156" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C156" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D156" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E156" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F156" t="n">
-        <x:v>18778.629</x:v>
+        <x:v>12000.000</x:v>
       </x:c>
       <x:c r="G156" t="n">
-        <x:v>21</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H156" t="str">
-        <x:v>77.72</x:v>
+        <x:v>66.73</x:v>
       </x:c>
     </x:row>
     <x:row r="157">
       <x:c r="A157" t="str">
-        <x:v>BC106</x:v>
+        <x:v>B117</x:v>
       </x:c>
       <x:c r="B157" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C157" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D157" t="n">
-        <x:v>400</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E157" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F157" t="n">
-        <x:v>5597.386</x:v>
+        <x:v>5638.090</x:v>
       </x:c>
       <x:c r="G157" t="n">
-        <x:v>60</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H157" t="str">
-        <x:v>70.18</x:v>
+        <x:v>78.03</x:v>
       </x:c>
     </x:row>
     <x:row r="158">
       <x:c r="A158" t="str">
-        <x:v>BC107</x:v>
+        <x:v>B118</x:v>
       </x:c>
       <x:c r="B158" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C158" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D158" t="n">
-        <x:v>400</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E158" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F158" t="n">
-        <x:v>2947.000</x:v>
+        <x:v>10013.554</x:v>
       </x:c>
       <x:c r="G158" t="n">
-        <x:v>55</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H158" t="str">
-        <x:v>72.65</x:v>
+        <x:v>60.27</x:v>
       </x:c>
     </x:row>
     <x:row r="159">
       <x:c r="A159" t="str">
-        <x:v>BC108</x:v>
+        <x:v>B121</x:v>
       </x:c>
       <x:c r="B159" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C159" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D159" t="n">
-        <x:v>400</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E159" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F159" t="n">
-        <x:v>8465.296</x:v>
+        <x:v>12056.603</x:v>
       </x:c>
       <x:c r="G159" t="n">
-        <x:v>40</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H159" t="str">
-        <x:v>77.97</x:v>
+        <x:v>68.33</x:v>
       </x:c>
     </x:row>
     <x:row r="160">
       <x:c r="A160" t="str">
-        <x:v>BC109</x:v>
+        <x:v>B122</x:v>
       </x:c>
       <x:c r="B160" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C160" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D160" t="n">
-        <x:v>400</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E160" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F160" t="n">
-        <x:v>3212.544</x:v>
+        <x:v>10013.554</x:v>
       </x:c>
       <x:c r="G160" t="n">
-        <x:v>30</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H160" t="str">
-        <x:v>82.52</x:v>
+        <x:v>58.33</x:v>
       </x:c>
     </x:row>
     <x:row r="161">
       <x:c r="A161" t="str">
-        <x:v>BC110</x:v>
+        <x:v>B123</x:v>
       </x:c>
       <x:c r="B161" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C161" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D161" t="n">
-        <x:v>400</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E161" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F161" t="n">
-        <x:v>6974.645</x:v>
+        <x:v>12056.603</x:v>
       </x:c>
       <x:c r="G161" t="n">
-        <x:v>28</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H161" t="str">
-        <x:v>79.08</x:v>
+        <x:v>68.33</x:v>
       </x:c>
     </x:row>
     <x:row r="162">
       <x:c r="A162" t="str">
-        <x:v>BC113</x:v>
+        <x:v>B124</x:v>
       </x:c>
       <x:c r="B162" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C162" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D162" t="n">
-        <x:v>400</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E162" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F162" t="n">
-        <x:v>1328.360</x:v>
+        <x:v>10013.554</x:v>
       </x:c>
       <x:c r="G162" t="n">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H162" t="str">
-        <x:v>88.65</x:v>
+        <x:v>58.33</x:v>
       </x:c>
     </x:row>
     <x:row r="163">
       <x:c r="A163" t="str">
-        <x:v>BC114</x:v>
+        <x:v>B115</x:v>
       </x:c>
       <x:c r="B163" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C163" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D163" t="n">
-        <x:v>400</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E163" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F163" t="n">
-        <x:v>7555.360</x:v>
+        <x:v>4251.206</x:v>
       </x:c>
       <x:c r="G163" t="n">
-        <x:v>38</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H163" t="str">
-        <x:v>84.50</x:v>
+        <x:v>57.27</x:v>
       </x:c>
     </x:row>
     <x:row r="164">
       <x:c r="A164" t="str">
-        <x:v>BC159</x:v>
+        <x:v>B139-6</x:v>
       </x:c>
       <x:c r="B164" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C164" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D164" t="n">
         <x:v>600</x:v>
@@ -4282,258 +4282,258 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F164" t="n">
-        <x:v>6000.000</x:v>
+        <x:v>1932.039</x:v>
       </x:c>
       <x:c r="G164" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H164" t="str">
-        <x:v>62.92</x:v>
+        <x:v>100.00</x:v>
       </x:c>
     </x:row>
     <x:row r="165">
       <x:c r="A165" t="str">
-        <x:v>BC120</x:v>
+        <x:v>B139-7</x:v>
       </x:c>
       <x:c r="B165" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C165" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D165" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E165" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F165" t="n">
-        <x:v>5597.386</x:v>
+        <x:v>4067.961</x:v>
       </x:c>
       <x:c r="G165" t="n">
-        <x:v>60</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H165" t="str">
-        <x:v>70.18</x:v>
+        <x:v>100.00</x:v>
       </x:c>
     </x:row>
     <x:row r="166">
       <x:c r="A166" t="str">
-        <x:v>BC121</x:v>
+        <x:v>B139-1</x:v>
       </x:c>
       <x:c r="B166" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C166" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D166" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E166" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F166" t="n">
-        <x:v>2947.000</x:v>
+        <x:v>3706.090</x:v>
       </x:c>
       <x:c r="G166" t="n">
-        <x:v>54</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H166" t="str">
-        <x:v>72.07</x:v>
+        <x:v>42.08</x:v>
       </x:c>
     </x:row>
     <x:row r="167">
       <x:c r="A167" t="str">
-        <x:v>BC122</x:v>
+        <x:v>B139-2</x:v>
       </x:c>
       <x:c r="B167" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C167" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D167" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E167" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F167" t="n">
-        <x:v>8465.297</x:v>
+        <x:v>6013.366</x:v>
       </x:c>
       <x:c r="G167" t="n">
-        <x:v>39</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H167" t="str">
-        <x:v>77.25</x:v>
+        <x:v>62.92</x:v>
       </x:c>
     </x:row>
     <x:row r="168">
       <x:c r="A168" t="str">
-        <x:v>BC123</x:v>
+        <x:v>B139-3</x:v>
       </x:c>
       <x:c r="B168" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C168" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D168" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E168" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F168" t="n">
-        <x:v>3212.544</x:v>
+        <x:v>1999.000</x:v>
       </x:c>
       <x:c r="G168" t="n">
-        <x:v>30</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H168" t="str">
-        <x:v>79.30</x:v>
+        <x:v>62.92</x:v>
       </x:c>
     </x:row>
     <x:row r="169">
       <x:c r="A169" t="str">
-        <x:v>BC124</x:v>
+        <x:v>B139-4</x:v>
       </x:c>
       <x:c r="B169" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C169" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D169" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E169" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F169" t="n">
-        <x:v>6974.644</x:v>
+        <x:v>7909.844</x:v>
       </x:c>
       <x:c r="G169" t="n">
-        <x:v>26</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H169" t="str">
-        <x:v>78.50</x:v>
+        <x:v>62.92</x:v>
       </x:c>
     </x:row>
     <x:row r="170">
       <x:c r="A170" t="str">
-        <x:v>BC127</x:v>
+        <x:v>B139-5</x:v>
       </x:c>
       <x:c r="B170" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C170" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D170" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E170" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F170" t="n">
-        <x:v>1328.360</x:v>
+        <x:v>1926.448</x:v>
       </x:c>
       <x:c r="G170" t="n">
-        <x:v>16</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H170" t="str">
-        <x:v>88.65</x:v>
+        <x:v>62.92</x:v>
       </x:c>
     </x:row>
     <x:row r="171">
       <x:c r="A171" t="str">
-        <x:v>BC128</x:v>
+        <x:v>B140-1</x:v>
       </x:c>
       <x:c r="B171" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C171" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D171" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E171" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F171" t="n">
-        <x:v>7555.360</x:v>
+        <x:v>1537.693</x:v>
       </x:c>
       <x:c r="G171" t="n">
-        <x:v>38</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H171" t="str">
-        <x:v>84.50</x:v>
+        <x:v>60.58</x:v>
       </x:c>
     </x:row>
     <x:row r="172">
       <x:c r="A172" t="str">
-        <x:v>BC171</x:v>
+        <x:v>B140-2</x:v>
       </x:c>
       <x:c r="B172" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C172" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D172" t="n">
-        <x:v>200</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E172" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F172" t="n">
-        <x:v>3400.000</x:v>
+        <x:v>6678.620</x:v>
       </x:c>
       <x:c r="G172" t="n">
-        <x:v>17</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H172" t="str">
-        <x:v>73.05</x:v>
+        <x:v>62.92</x:v>
       </x:c>
     </x:row>
     <x:row r="173">
       <x:c r="A173" t="str">
-        <x:v>BC134</x:v>
+        <x:v>B141</x:v>
       </x:c>
       <x:c r="B173" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C173" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D173" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E173" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F173" t="n">
-        <x:v>5597.386</x:v>
+        <x:v>13117.566</x:v>
       </x:c>
       <x:c r="G173" t="n">
-        <x:v>60</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H173" t="str">
-        <x:v>70.18</x:v>
+        <x:v>57.13</x:v>
       </x:c>
     </x:row>
     <x:row r="174">
       <x:c r="A174" t="str">
-        <x:v>BC135</x:v>
+        <x:v>B142</x:v>
       </x:c>
       <x:c r="B174" t="str">
         <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C174" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D174" t="n">
         <x:v>400</x:v>
@@ -4542,122 +4542,122 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F174" t="n">
-        <x:v>2947.000</x:v>
+        <x:v>14559.495</x:v>
       </x:c>
       <x:c r="G174" t="n">
-        <x:v>54</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H174" t="str">
-        <x:v>72.07</x:v>
+        <x:v>69.07</x:v>
       </x:c>
     </x:row>
     <x:row r="175">
       <x:c r="A175" t="str">
-        <x:v>BC136</x:v>
+        <x:v>B144</x:v>
       </x:c>
       <x:c r="B175" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C175" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D175" t="n">
-        <x:v>400</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E175" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F175" t="n">
-        <x:v>8465.296</x:v>
+        <x:v>3890.930</x:v>
       </x:c>
       <x:c r="G175" t="n">
-        <x:v>39</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H175" t="str">
-        <x:v>77.25</x:v>
+        <x:v>82.83</x:v>
       </x:c>
     </x:row>
     <x:row r="176">
       <x:c r="A176" t="str">
-        <x:v>BC137</x:v>
+        <x:v>BC011</x:v>
       </x:c>
       <x:c r="B176" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C176" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D176" t="n">
-        <x:v>400</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E176" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F176" t="n">
-        <x:v>3212.544</x:v>
+        <x:v>4703.319</x:v>
       </x:c>
       <x:c r="G176" t="n">
-        <x:v>30</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H176" t="str">
-        <x:v>79.30</x:v>
+        <x:v>84.33</x:v>
       </x:c>
     </x:row>
     <x:row r="177">
       <x:c r="A177" t="str">
-        <x:v>BC138</x:v>
+        <x:v>B145</x:v>
       </x:c>
       <x:c r="B177" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C177" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D177" t="n">
-        <x:v>400</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E177" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F177" t="n">
-        <x:v>6974.645</x:v>
+        <x:v>2807.996</x:v>
       </x:c>
       <x:c r="G177" t="n">
-        <x:v>26</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H177" t="str">
-        <x:v>78.50</x:v>
+        <x:v>82.83</x:v>
       </x:c>
     </x:row>
     <x:row r="178">
       <x:c r="A178" t="str">
-        <x:v>BC141</x:v>
+        <x:v>BC016</x:v>
       </x:c>
       <x:c r="B178" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>WSL 105.500 F</x:v>
       </x:c>
       <x:c r="C178" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D178" t="n">
-        <x:v>400</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="E178" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F178" t="n">
-        <x:v>1328.360</x:v>
+        <x:v>2915.000</x:v>
       </x:c>
       <x:c r="G178" t="n">
-        <x:v>16</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H178" t="str">
-        <x:v>88.65</x:v>
+        <x:v>42.48</x:v>
       </x:c>
     </x:row>
     <x:row r="179">
       <x:c r="A179" t="str">
-        <x:v>BC142</x:v>
+        <x:v>BC026</x:v>
       </x:c>
       <x:c r="B179" t="str">
         <x:v>KL 100.403 F</x:v>
@@ -4672,70 +4672,70 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F179" t="n">
-        <x:v>7555.360</x:v>
+        <x:v>2100.000</x:v>
       </x:c>
       <x:c r="G179" t="n">
-        <x:v>38</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H179" t="str">
-        <x:v>84.50</x:v>
+        <x:v>43.08</x:v>
       </x:c>
     </x:row>
     <x:row r="180">
       <x:c r="A180" t="str">
-        <x:v>BC172</x:v>
+        <x:v>BC013</x:v>
       </x:c>
       <x:c r="B180" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C180" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D180" t="n">
-        <x:v>200</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E180" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F180" t="n">
-        <x:v>3400.000</x:v>
+        <x:v>12016.902</x:v>
       </x:c>
       <x:c r="G180" t="n">
-        <x:v>14</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H180" t="str">
-        <x:v>73.05</x:v>
+        <x:v>88.83</x:v>
       </x:c>
     </x:row>
     <x:row r="181">
       <x:c r="A181" t="str">
-        <x:v>BC148</x:v>
+        <x:v>BC017</x:v>
       </x:c>
       <x:c r="B181" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>WSL 105.500 F</x:v>
       </x:c>
       <x:c r="C181" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D181" t="n">
-        <x:v>400</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="E181" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F181" t="n">
-        <x:v>5597.386</x:v>
+        <x:v>3000.000</x:v>
       </x:c>
       <x:c r="G181" t="n">
-        <x:v>60</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H181" t="str">
-        <x:v>70.18</x:v>
+        <x:v>56.18</x:v>
       </x:c>
     </x:row>
     <x:row r="182">
       <x:c r="A182" t="str">
-        <x:v>BC149</x:v>
+        <x:v>BC022-1</x:v>
       </x:c>
       <x:c r="B182" t="str">
         <x:v>KL 100.403 F</x:v>
@@ -4750,96 +4750,96 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F182" t="n">
-        <x:v>2947.000</x:v>
+        <x:v>5709.616</x:v>
       </x:c>
       <x:c r="G182" t="n">
-        <x:v>54</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H182" t="str">
-        <x:v>72.07</x:v>
+        <x:v>43.08</x:v>
       </x:c>
     </x:row>
     <x:row r="183">
       <x:c r="A183" t="str">
-        <x:v>BC150</x:v>
+        <x:v>BC021</x:v>
       </x:c>
       <x:c r="B183" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C183" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D183" t="n">
-        <x:v>400</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E183" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F183" t="n">
-        <x:v>8465.296</x:v>
+        <x:v>6897.001</x:v>
       </x:c>
       <x:c r="G183" t="n">
-        <x:v>39</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H183" t="str">
-        <x:v>77.25</x:v>
+        <x:v>64.25</x:v>
       </x:c>
     </x:row>
     <x:row r="184">
       <x:c r="A184" t="str">
-        <x:v>BC151</x:v>
+        <x:v>BC020</x:v>
       </x:c>
       <x:c r="B184" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C184" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D184" t="n">
-        <x:v>400</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E184" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F184" t="n">
-        <x:v>3212.544</x:v>
+        <x:v>6897.001</x:v>
       </x:c>
       <x:c r="G184" t="n">
-        <x:v>30</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H184" t="str">
-        <x:v>79.30</x:v>
+        <x:v>64.25</x:v>
       </x:c>
     </x:row>
     <x:row r="185">
       <x:c r="A185" t="str">
-        <x:v>BC152</x:v>
+        <x:v>BC022-2</x:v>
       </x:c>
       <x:c r="B185" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C185" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D185" t="n">
-        <x:v>400</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E185" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F185" t="n">
-        <x:v>6974.645</x:v>
+        <x:v>4953.004</x:v>
       </x:c>
       <x:c r="G185" t="n">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H185" t="str">
-        <x:v>78.50</x:v>
+        <x:v>57.53</x:v>
       </x:c>
     </x:row>
     <x:row r="186">
       <x:c r="A186" t="str">
-        <x:v>BC155</x:v>
+        <x:v>BC023-1</x:v>
       </x:c>
       <x:c r="B186" t="str">
         <x:v>KL 100.403 F</x:v>
@@ -4854,492 +4854,492 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F186" t="n">
-        <x:v>1328.360</x:v>
+        <x:v>6976.506</x:v>
       </x:c>
       <x:c r="G186" t="n">
-        <x:v>16</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H186" t="str">
-        <x:v>88.65</x:v>
+        <x:v>43.08</x:v>
       </x:c>
     </x:row>
     <x:row r="187">
       <x:c r="A187" t="str">
-        <x:v>BC156</x:v>
+        <x:v>BC023-2</x:v>
       </x:c>
       <x:c r="B187" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C187" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D187" t="n">
-        <x:v>400</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E187" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F187" t="n">
-        <x:v>7555.360</x:v>
+        <x:v>4953.004</x:v>
       </x:c>
       <x:c r="G187" t="n">
-        <x:v>38</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H187" t="str">
-        <x:v>84.50</x:v>
+        <x:v>57.53</x:v>
       </x:c>
     </x:row>
     <x:row r="188">
       <x:c r="A188" t="str">
-        <x:v>BC157</x:v>
+        <x:v>BC025</x:v>
       </x:c>
       <x:c r="B188" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C188" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D188" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E188" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F188" t="n">
-        <x:v>6000.000</x:v>
+        <x:v>2100.000</x:v>
       </x:c>
       <x:c r="G188" t="n">
-        <x:v>14</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H188" t="str">
-        <x:v>50.62</x:v>
+        <x:v>43.08</x:v>
       </x:c>
     </x:row>
     <x:row r="189">
       <x:c r="A189" t="str">
-        <x:v>BC160</x:v>
+        <x:v>BC028-2</x:v>
       </x:c>
       <x:c r="B189" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>WSL 105.200 F</x:v>
       </x:c>
       <x:c r="C189" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D189" t="n">
-        <x:v>300</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E189" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F189" t="n">
-        <x:v>4800.000</x:v>
+        <x:v>4750.000</x:v>
       </x:c>
       <x:c r="G189" t="n">
-        <x:v>63</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H189" t="str">
-        <x:v>61.70</x:v>
+        <x:v>72.05</x:v>
       </x:c>
     </x:row>
     <x:row r="190">
       <x:c r="A190" t="str">
-        <x:v>BC161</x:v>
+        <x:v>BC029</x:v>
       </x:c>
       <x:c r="B190" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C190" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D190" t="n">
-        <x:v>300</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E190" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F190" t="n">
-        <x:v>5853.750</x:v>
+        <x:v>3307.715</x:v>
       </x:c>
       <x:c r="G190" t="n">
-        <x:v>41</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H190" t="str">
-        <x:v>71.77</x:v>
+        <x:v>72.60</x:v>
       </x:c>
     </x:row>
     <x:row r="191">
       <x:c r="A191" t="str">
-        <x:v>BC162</x:v>
+        <x:v>BC030</x:v>
       </x:c>
       <x:c r="B191" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C191" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D191" t="n">
-        <x:v>300</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E191" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F191" t="n">
-        <x:v>4956.000</x:v>
+        <x:v>5472.466</x:v>
       </x:c>
       <x:c r="G191" t="n">
-        <x:v>24</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H191" t="str">
-        <x:v>76.70</x:v>
+        <x:v>44.15</x:v>
       </x:c>
     </x:row>
     <x:row r="192">
       <x:c r="A192" t="str">
-        <x:v>BC166</x:v>
+        <x:v>BC031</x:v>
       </x:c>
       <x:c r="B192" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C192" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D192" t="n">
-        <x:v>400</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E192" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F192" t="n">
-        <x:v>5424.940</x:v>
+        <x:v>7241.491</x:v>
       </x:c>
       <x:c r="G192" t="n">
-        <x:v>144</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H192" t="str">
-        <x:v>47.08</x:v>
+        <x:v>72.00</x:v>
       </x:c>
     </x:row>
     <x:row r="193">
       <x:c r="A193" t="str">
-        <x:v>BC167</x:v>
+        <x:v>BC033</x:v>
       </x:c>
       <x:c r="B193" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C193" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D193" t="n">
-        <x:v>300</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E193" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F193" t="n">
-        <x:v>4500.000</x:v>
+        <x:v>3007.715</x:v>
       </x:c>
       <x:c r="G193" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H193" t="str">
-        <x:v>74.80</x:v>
+        <x:v>72.60</x:v>
       </x:c>
     </x:row>
     <x:row r="194">
       <x:c r="A194" t="str">
-        <x:v>BC168</x:v>
+        <x:v>BC158</x:v>
       </x:c>
       <x:c r="B194" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C194" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D194" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E194" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F194" t="n">
-        <x:v>4500.000</x:v>
+        <x:v>18778.629</x:v>
       </x:c>
       <x:c r="G194" t="n">
-        <x:v>7</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H194" t="str">
-        <x:v>74.83</x:v>
+        <x:v>70.47</x:v>
       </x:c>
     </x:row>
     <x:row r="195">
       <x:c r="A195" t="str">
-        <x:v>BC169</x:v>
+        <x:v>BC035</x:v>
       </x:c>
       <x:c r="B195" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C195" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D195" t="n">
-        <x:v>300</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E195" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F195" t="n">
-        <x:v>3500.000</x:v>
+        <x:v>7884.910</x:v>
       </x:c>
       <x:c r="G195" t="n">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H195" t="str">
-        <x:v>84.37</x:v>
+        <x:v>72.00</x:v>
       </x:c>
     </x:row>
     <x:row r="196">
       <x:c r="A196" t="str">
-        <x:v>BC170</x:v>
+        <x:v>BC110</x:v>
       </x:c>
       <x:c r="B196" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C196" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D196" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E196" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F196" t="n">
-        <x:v>3500.000</x:v>
+        <x:v>6974.645</x:v>
       </x:c>
       <x:c r="G196" t="n">
-        <x:v>11</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H196" t="str">
-        <x:v>82.13</x:v>
+        <x:v>67.28</x:v>
       </x:c>
     </x:row>
     <x:row r="197">
       <x:c r="A197" t="str">
-        <x:v>BC173</x:v>
+        <x:v>BC107</x:v>
       </x:c>
       <x:c r="B197" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C197" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D197" t="n">
-        <x:v>200</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E197" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F197" t="n">
-        <x:v>3400.000</x:v>
+        <x:v>2947.000</x:v>
       </x:c>
       <x:c r="G197" t="n">
-        <x:v>19</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H197" t="str">
-        <x:v>73.05</x:v>
+        <x:v>42.03</x:v>
       </x:c>
     </x:row>
     <x:row r="198">
       <x:c r="A198" t="str">
-        <x:v>C001</x:v>
+        <x:v>BC108</x:v>
       </x:c>
       <x:c r="B198" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C198" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D198" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E198" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F198" t="n">
-        <x:v>6000.000</x:v>
+        <x:v>8465.296</x:v>
       </x:c>
       <x:c r="G198" t="n">
-        <x:v>35</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H198" t="str">
-        <x:v>77.72</x:v>
+        <x:v>58.80</x:v>
       </x:c>
     </x:row>
     <x:row r="199">
       <x:c r="A199" t="str">
-        <x:v>C002</x:v>
+        <x:v>BC109</x:v>
       </x:c>
       <x:c r="B199" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C199" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D199" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E199" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F199" t="n">
-        <x:v>6000.000</x:v>
+        <x:v>3212.544</x:v>
       </x:c>
       <x:c r="G199" t="n">
-        <x:v>40</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H199" t="str">
-        <x:v>54.95</x:v>
+        <x:v>70.15</x:v>
       </x:c>
     </x:row>
     <x:row r="200">
       <x:c r="A200" t="str">
-        <x:v>C004</x:v>
+        <x:v>BC113</x:v>
       </x:c>
       <x:c r="B200" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C200" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D200" t="n">
-        <x:v>300</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E200" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F200" t="n">
-        <x:v>4043.000</x:v>
+        <x:v>1328.360</x:v>
       </x:c>
       <x:c r="G200" t="n">
-        <x:v>99</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H200" t="str">
-        <x:v>52.30</x:v>
+        <x:v>67.25</x:v>
       </x:c>
     </x:row>
     <x:row r="201">
       <x:c r="A201" t="str">
-        <x:v>C005</x:v>
+        <x:v>BC114</x:v>
       </x:c>
       <x:c r="B201" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C201" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D201" t="n">
-        <x:v>300</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E201" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F201" t="n">
-        <x:v>11850.000</x:v>
+        <x:v>7555.360</x:v>
       </x:c>
       <x:c r="G201" t="n">
-        <x:v>89</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H201" t="str">
-        <x:v>58.90</x:v>
+        <x:v>30.85</x:v>
       </x:c>
     </x:row>
     <x:row r="202">
       <x:c r="A202" t="str">
-        <x:v>C006</x:v>
+        <x:v>BC159</x:v>
       </x:c>
       <x:c r="B202" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C202" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D202" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E202" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F202" t="n">
-        <x:v>11447.317</x:v>
+        <x:v>6000.000</x:v>
       </x:c>
       <x:c r="G202" t="n">
-        <x:v>29</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H202" t="str">
-        <x:v>81.57</x:v>
+        <x:v>62.92</x:v>
       </x:c>
     </x:row>
     <x:row r="203">
       <x:c r="A203" t="str">
-        <x:v>C008</x:v>
+        <x:v>BC127</x:v>
       </x:c>
       <x:c r="B203" t="str">
-        <x:v>WSL 105.300 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C203" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D203" t="n">
-        <x:v>300</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E203" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F203" t="n">
-        <x:v>7159.229</x:v>
+        <x:v>1328.360</x:v>
       </x:c>
       <x:c r="G203" t="n">
-        <x:v>5</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H203" t="str">
-        <x:v>93.37</x:v>
+        <x:v>67.25</x:v>
       </x:c>
     </x:row>
     <x:row r="204">
       <x:c r="A204" t="str">
-        <x:v>C106</x:v>
+        <x:v>BC121</x:v>
       </x:c>
       <x:c r="B204" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C204" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D204" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E204" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F204" t="n">
-        <x:v>18778.629</x:v>
+        <x:v>2947.000</x:v>
       </x:c>
       <x:c r="G204" t="n">
-        <x:v>21</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H204" t="str">
-        <x:v>91.18</x:v>
+        <x:v>41.45</x:v>
       </x:c>
     </x:row>
     <x:row r="205">
       <x:c r="A205" t="str">
-        <x:v>C009</x:v>
+        <x:v>BC122</x:v>
       </x:c>
       <x:c r="B205" t="str">
         <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C205" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D205" t="n">
         <x:v>400</x:v>
@@ -5348,24 +5348,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F205" t="n">
-        <x:v>3100.000</x:v>
+        <x:v>8465.297</x:v>
       </x:c>
       <x:c r="G205" t="n">
-        <x:v>57</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H205" t="str">
-        <x:v>78.00</x:v>
+        <x:v>59.75</x:v>
       </x:c>
     </x:row>
     <x:row r="206">
       <x:c r="A206" t="str">
-        <x:v>C010</x:v>
+        <x:v>BC124</x:v>
       </x:c>
       <x:c r="B206" t="str">
         <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C206" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D206" t="n">
         <x:v>400</x:v>
@@ -5374,154 +5374,154 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F206" t="n">
-        <x:v>2100.000</x:v>
+        <x:v>6974.644</x:v>
       </x:c>
       <x:c r="G206" t="n">
-        <x:v>55</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H206" t="str">
-        <x:v>79.68</x:v>
+        <x:v>68.72</x:v>
       </x:c>
     </x:row>
     <x:row r="207">
       <x:c r="A207" t="str">
-        <x:v>C011</x:v>
+        <x:v>BC128</x:v>
       </x:c>
       <x:c r="B207" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C207" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D207" t="n">
-        <x:v>300</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E207" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F207" t="n">
-        <x:v>4135.930</x:v>
+        <x:v>7555.360</x:v>
       </x:c>
       <x:c r="G207" t="n">
-        <x:v>83</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H207" t="str">
-        <x:v>63.63</x:v>
+        <x:v>30.85</x:v>
       </x:c>
     </x:row>
     <x:row r="208">
       <x:c r="A208" t="str">
-        <x:v>C101</x:v>
+        <x:v>BC171</x:v>
       </x:c>
       <x:c r="B208" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C208" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D208" t="n">
-        <x:v>600</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E208" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F208" t="n">
-        <x:v>3606.000</x:v>
+        <x:v>3400.000</x:v>
       </x:c>
       <x:c r="G208" t="n">
-        <x:v>43</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H208" t="str">
-        <x:v>75.05</x:v>
+        <x:v>58.35</x:v>
       </x:c>
     </x:row>
     <x:row r="209">
       <x:c r="A209" t="str">
-        <x:v>C102</x:v>
+        <x:v>BC123</x:v>
       </x:c>
       <x:c r="B209" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C209" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D209" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E209" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F209" t="n">
-        <x:v>11228.319</x:v>
+        <x:v>3212.544</x:v>
       </x:c>
       <x:c r="G209" t="n">
         <x:v>30</x:v>
       </x:c>
       <x:c r="H209" t="str">
-        <x:v>77.78</x:v>
+        <x:v>66.92</x:v>
       </x:c>
     </x:row>
     <x:row r="210">
       <x:c r="A210" t="str">
-        <x:v>C104</x:v>
+        <x:v>BC141</x:v>
       </x:c>
       <x:c r="B210" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C210" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D210" t="n">
-        <x:v>300</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E210" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F210" t="n">
-        <x:v>8266.000</x:v>
+        <x:v>1328.360</x:v>
       </x:c>
       <x:c r="G210" t="n">
-        <x:v>22</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H210" t="str">
-        <x:v>79.33</x:v>
+        <x:v>67.25</x:v>
       </x:c>
     </x:row>
     <x:row r="211">
       <x:c r="A211" t="str">
-        <x:v>C105</x:v>
+        <x:v>BC135</x:v>
       </x:c>
       <x:c r="B211" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C211" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D211" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E211" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F211" t="n">
-        <x:v>9577.269</x:v>
+        <x:v>2947.000</x:v>
       </x:c>
       <x:c r="G211" t="n">
-        <x:v>23</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H211" t="str">
-        <x:v>78.90</x:v>
+        <x:v>41.45</x:v>
       </x:c>
     </x:row>
     <x:row r="212">
       <x:c r="A212" t="str">
-        <x:v>C128</x:v>
+        <x:v>BC136</x:v>
       </x:c>
       <x:c r="B212" t="str">
         <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C212" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D212" t="n">
         <x:v>400</x:v>
@@ -5530,336 +5530,336 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F212" t="n">
-        <x:v>3400.000</x:v>
+        <x:v>8465.296</x:v>
       </x:c>
       <x:c r="G212" t="n">
-        <x:v>16</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H212" t="str">
-        <x:v>72.50</x:v>
+        <x:v>59.75</x:v>
       </x:c>
     </x:row>
     <x:row r="213">
       <x:c r="A213" t="str">
-        <x:v>C107-1</x:v>
+        <x:v>BC137</x:v>
       </x:c>
       <x:c r="B213" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C213" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D213" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E213" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F213" t="n">
-        <x:v>3032.809</x:v>
+        <x:v>3212.544</x:v>
       </x:c>
       <x:c r="G213" t="n">
-        <x:v>59</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H213" t="str">
-        <x:v>48.28</x:v>
+        <x:v>66.92</x:v>
       </x:c>
     </x:row>
     <x:row r="214">
       <x:c r="A214" t="str">
-        <x:v>C107-2</x:v>
+        <x:v>BC138</x:v>
       </x:c>
       <x:c r="B214" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C214" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D214" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E214" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F214" t="n">
-        <x:v>6013.366</x:v>
+        <x:v>6974.645</x:v>
       </x:c>
       <x:c r="G214" t="n">
-        <x:v>49</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H214" t="str">
-        <x:v>57.85</x:v>
+        <x:v>68.72</x:v>
       </x:c>
     </x:row>
     <x:row r="215">
       <x:c r="A215" t="str">
-        <x:v>C107-3</x:v>
+        <x:v>BC142</x:v>
       </x:c>
       <x:c r="B215" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C215" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D215" t="n">
-        <x:v>600</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E215" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F215" t="n">
-        <x:v>1999.000</x:v>
+        <x:v>7555.360</x:v>
       </x:c>
       <x:c r="G215" t="n">
-        <x:v>90</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H215" t="str">
-        <x:v>50.33</x:v>
+        <x:v>30.85</x:v>
       </x:c>
     </x:row>
     <x:row r="216">
       <x:c r="A216" t="str">
-        <x:v>C107-4</x:v>
+        <x:v>BC172</x:v>
       </x:c>
       <x:c r="B216" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C216" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D216" t="n">
-        <x:v>600</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E216" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F216" t="n">
-        <x:v>7959.844</x:v>
+        <x:v>3400.000</x:v>
       </x:c>
       <x:c r="G216" t="n">
-        <x:v>118</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H216" t="str">
-        <x:v>49.57</x:v>
+        <x:v>66.35</x:v>
       </x:c>
     </x:row>
     <x:row r="217">
       <x:c r="A217" t="str">
-        <x:v>C107-5</x:v>
+        <x:v>BC155</x:v>
       </x:c>
       <x:c r="B217" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C217" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D217" t="n">
-        <x:v>600</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E217" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F217" t="n">
-        <x:v>1876.448</x:v>
+        <x:v>1328.360</x:v>
       </x:c>
       <x:c r="G217" t="n">
-        <x:v>88</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H217" t="str">
-        <x:v>55.58</x:v>
+        <x:v>67.25</x:v>
       </x:c>
     </x:row>
     <x:row r="218">
       <x:c r="A218" t="str">
-        <x:v>C129</x:v>
+        <x:v>BC157</x:v>
       </x:c>
       <x:c r="B218" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C218" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D218" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E218" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F218" t="n">
-        <x:v>6913.550</x:v>
+        <x:v>6000.000</x:v>
       </x:c>
       <x:c r="G218" t="n">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H218" t="str">
-        <x:v>72.50</x:v>
+        <x:v>50.62</x:v>
       </x:c>
     </x:row>
     <x:row r="219">
       <x:c r="A219" t="str">
-        <x:v>C107-6</x:v>
+        <x:v>BC150</x:v>
       </x:c>
       <x:c r="B219" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C219" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D219" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E219" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F219" t="n">
-        <x:v>1932.039</x:v>
+        <x:v>8465.296</x:v>
       </x:c>
       <x:c r="G219" t="n">
-        <x:v>31</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H219" t="str">
-        <x:v>65.22</x:v>
+        <x:v>59.75</x:v>
       </x:c>
     </x:row>
     <x:row r="220">
       <x:c r="A220" t="str">
-        <x:v>C107-7</x:v>
+        <x:v>BC151</x:v>
       </x:c>
       <x:c r="B220" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C220" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D220" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E220" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F220" t="n">
-        <x:v>4067.961</x:v>
+        <x:v>3212.544</x:v>
       </x:c>
       <x:c r="G220" t="n">
-        <x:v>15</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H220" t="str">
-        <x:v>71.78</x:v>
+        <x:v>66.92</x:v>
       </x:c>
     </x:row>
     <x:row r="221">
       <x:c r="A221" t="str">
-        <x:v>C108</x:v>
+        <x:v>BC152</x:v>
       </x:c>
       <x:c r="B221" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C221" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D221" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E221" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F221" t="n">
-        <x:v>8649.557</x:v>
+        <x:v>6974.645</x:v>
       </x:c>
       <x:c r="G221" t="n">
-        <x:v>8</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H221" t="str">
-        <x:v>67.80</x:v>
+        <x:v>68.72</x:v>
       </x:c>
     </x:row>
     <x:row r="222">
       <x:c r="A222" t="str">
-        <x:v>C111</x:v>
+        <x:v>BC156</x:v>
       </x:c>
       <x:c r="B222" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C222" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D222" t="n">
-        <x:v>600</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E222" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F222" t="n">
-        <x:v>8649.557</x:v>
+        <x:v>7555.360</x:v>
       </x:c>
       <x:c r="G222" t="n">
-        <x:v>17</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H222" t="str">
-        <x:v>70.63</x:v>
+        <x:v>30.85</x:v>
       </x:c>
     </x:row>
     <x:row r="223">
       <x:c r="A223" t="str">
-        <x:v>C114</x:v>
+        <x:v>BC149</x:v>
       </x:c>
       <x:c r="B223" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C223" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D223" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E223" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F223" t="n">
-        <x:v>23663.000</x:v>
+        <x:v>2947.000</x:v>
       </x:c>
       <x:c r="G223" t="n">
-        <x:v>9</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H223" t="str">
-        <x:v>68.13</x:v>
+        <x:v>41.45</x:v>
       </x:c>
     </x:row>
     <x:row r="224">
       <x:c r="A224" t="str">
-        <x:v>C116</x:v>
+        <x:v>BC169</x:v>
       </x:c>
       <x:c r="B224" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C224" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D224" t="n">
-        <x:v>400</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E224" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F224" t="n">
-        <x:v>5779.193</x:v>
+        <x:v>3500.000</x:v>
       </x:c>
       <x:c r="G224" t="n">
-        <x:v>65</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H224" t="str">
-        <x:v>77.42</x:v>
+        <x:v>69.85</x:v>
       </x:c>
     </x:row>
     <x:row r="225">
       <x:c r="A225" t="str">
-        <x:v>C118</x:v>
+        <x:v>BC161</x:v>
       </x:c>
       <x:c r="B225" t="str">
         <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C225" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D225" t="n">
         <x:v>400</x:v>
@@ -5868,24 +5868,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F225" t="n">
-        <x:v>3400.000</x:v>
+        <x:v>5853.750</x:v>
       </x:c>
       <x:c r="G225" t="n">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H225" t="str">
-        <x:v>67.45</x:v>
+        <x:v>58.45</x:v>
       </x:c>
     </x:row>
     <x:row r="226">
       <x:c r="A226" t="str">
-        <x:v>C119</x:v>
+        <x:v>BC162</x:v>
       </x:c>
       <x:c r="B226" t="str">
         <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C226" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D226" t="n">
         <x:v>400</x:v>
@@ -5894,278 +5894,278 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F226" t="n">
-        <x:v>6913.550</x:v>
+        <x:v>4956.000</x:v>
       </x:c>
       <x:c r="G226" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H226" t="str">
-        <x:v>70.32</x:v>
+        <x:v>73.15</x:v>
       </x:c>
     </x:row>
     <x:row r="227">
       <x:c r="A227" t="str">
-        <x:v>DFB010</x:v>
+        <x:v>BC170</x:v>
       </x:c>
       <x:c r="B227" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C227" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D227" t="n">
-        <x:v>600</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E227" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F227" t="n">
-        <x:v>1006.000</x:v>
+        <x:v>3500.000</x:v>
       </x:c>
       <x:c r="G227" t="n">
-        <x:v>38</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H227" t="str">
-        <x:v>54.05</x:v>
+        <x:v>69.55</x:v>
       </x:c>
     </x:row>
     <x:row r="228">
       <x:c r="A228" t="str">
-        <x:v>C120</x:v>
+        <x:v>BC167</x:v>
       </x:c>
       <x:c r="B228" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C228" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D228" t="n">
-        <x:v>400</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E228" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F228" t="n">
-        <x:v>3103.004</x:v>
+        <x:v>4500.000</x:v>
       </x:c>
       <x:c r="G228" t="n">
-        <x:v>59</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H228" t="str">
-        <x:v>62.68</x:v>
+        <x:v>51.15</x:v>
       </x:c>
     </x:row>
     <x:row r="229">
       <x:c r="A229" t="str">
-        <x:v>C121</x:v>
+        <x:v>BC168</x:v>
       </x:c>
       <x:c r="B229" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C229" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D229" t="n">
-        <x:v>400</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E229" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F229" t="n">
-        <x:v>5703.603</x:v>
+        <x:v>4500.000</x:v>
       </x:c>
       <x:c r="G229" t="n">
-        <x:v>31</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H229" t="str">
-        <x:v>68.75</x:v>
+        <x:v>57.40</x:v>
       </x:c>
     </x:row>
     <x:row r="230">
       <x:c r="A230" t="str">
-        <x:v>C122</x:v>
+        <x:v>C002</x:v>
       </x:c>
       <x:c r="B230" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C230" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D230" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E230" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F230" t="n">
-        <x:v>3278.000</x:v>
+        <x:v>6000.000</x:v>
       </x:c>
       <x:c r="G230" t="n">
-        <x:v>57</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H230" t="str">
-        <x:v>61.28</x:v>
+        <x:v>38.97</x:v>
       </x:c>
     </x:row>
     <x:row r="231">
       <x:c r="A231" t="str">
-        <x:v>C123</x:v>
+        <x:v>C008</x:v>
       </x:c>
       <x:c r="B231" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>WSL 105.200 F</x:v>
       </x:c>
       <x:c r="C231" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D231" t="n">
-        <x:v>400</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E231" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F231" t="n">
-        <x:v>3400.000</x:v>
+        <x:v>7159.229</x:v>
       </x:c>
       <x:c r="G231" t="n">
-        <x:v>16</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H231" t="str">
-        <x:v>72.50</x:v>
+        <x:v>85.40</x:v>
       </x:c>
     </x:row>
     <x:row r="232">
       <x:c r="A232" t="str">
-        <x:v>C124</x:v>
+        <x:v>C001</x:v>
       </x:c>
       <x:c r="B232" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C232" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D232" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E232" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F232" t="n">
-        <x:v>6913.550</x:v>
+        <x:v>6000.000</x:v>
       </x:c>
       <x:c r="G232" t="n">
-        <x:v>16</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H232" t="str">
-        <x:v>72.50</x:v>
+        <x:v>62.95</x:v>
       </x:c>
     </x:row>
     <x:row r="233">
       <x:c r="A233" t="str">
-        <x:v>C125</x:v>
+        <x:v>C106</x:v>
       </x:c>
       <x:c r="B233" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C233" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D233" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E233" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F233" t="n">
-        <x:v>3103.004</x:v>
+        <x:v>18778.629</x:v>
       </x:c>
       <x:c r="G233" t="n">
-        <x:v>57</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H233" t="str">
-        <x:v>62.83</x:v>
+        <x:v>83.95</x:v>
       </x:c>
     </x:row>
     <x:row r="234">
       <x:c r="A234" t="str">
-        <x:v>C126</x:v>
+        <x:v>C006</x:v>
       </x:c>
       <x:c r="B234" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C234" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D234" t="n">
-        <x:v>400</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E234" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F234" t="n">
-        <x:v>5703.603</x:v>
+        <x:v>11447.317</x:v>
       </x:c>
       <x:c r="G234" t="n">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H234" t="str">
-        <x:v>68.75</x:v>
+        <x:v>61.97</x:v>
       </x:c>
     </x:row>
     <x:row r="235">
       <x:c r="A235" t="str">
-        <x:v>C127</x:v>
+        <x:v>C101</x:v>
       </x:c>
       <x:c r="B235" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C235" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D235" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E235" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F235" t="n">
-        <x:v>3278.000</x:v>
+        <x:v>3606.000</x:v>
       </x:c>
       <x:c r="G235" t="n">
-        <x:v>57</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H235" t="str">
-        <x:v>61.28</x:v>
+        <x:v>57.38</x:v>
       </x:c>
     </x:row>
     <x:row r="236">
       <x:c r="A236" t="str">
-        <x:v>C130</x:v>
+        <x:v>C102</x:v>
       </x:c>
       <x:c r="B236" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>WSL 105.300 F</x:v>
       </x:c>
       <x:c r="C236" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D236" t="n">
-        <x:v>400</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E236" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F236" t="n">
-        <x:v>3103.004</x:v>
+        <x:v>11228.319</x:v>
       </x:c>
       <x:c r="G236" t="n">
-        <x:v>57</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H236" t="str">
-        <x:v>62.83</x:v>
+        <x:v>33.47</x:v>
       </x:c>
     </x:row>
     <x:row r="237">
       <x:c r="A237" t="str">
-        <x:v>C131</x:v>
+        <x:v>C128</x:v>
       </x:c>
       <x:c r="B237" t="str">
         <x:v>KL 100.403 F</x:v>
@@ -6180,10 +6180,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F237" t="n">
-        <x:v>5703.603</x:v>
+        <x:v>3400.000</x:v>
       </x:c>
       <x:c r="G237" t="n">
-        <x:v>30</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H237" t="str">
         <x:v>68.75</x:v>
@@ -6191,33 +6191,33 @@
     </x:row>
     <x:row r="238">
       <x:c r="A238" t="str">
-        <x:v>C132</x:v>
+        <x:v>C105</x:v>
       </x:c>
       <x:c r="B238" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C238" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D238" t="n">
-        <x:v>400</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E238" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F238" t="n">
-        <x:v>3278.000</x:v>
+        <x:v>9577.269</x:v>
       </x:c>
       <x:c r="G238" t="n">
-        <x:v>57</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H238" t="str">
-        <x:v>61.28</x:v>
+        <x:v>64.23</x:v>
       </x:c>
     </x:row>
     <x:row r="239">
       <x:c r="A239" t="str">
-        <x:v>C133</x:v>
+        <x:v>C010</x:v>
       </x:c>
       <x:c r="B239" t="str">
         <x:v>KL 100.403 F</x:v>
@@ -6232,44 +6232,44 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F239" t="n">
-        <x:v>3400.000</x:v>
+        <x:v>2100.000</x:v>
       </x:c>
       <x:c r="G239" t="n">
-        <x:v>16</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H239" t="str">
-        <x:v>72.50</x:v>
+        <x:v>46.63</x:v>
       </x:c>
     </x:row>
     <x:row r="240">
       <x:c r="A240" t="str">
-        <x:v>C134</x:v>
+        <x:v>C104</x:v>
       </x:c>
       <x:c r="B240" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C240" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D240" t="n">
-        <x:v>400</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E240" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F240" t="n">
-        <x:v>6913.550</x:v>
+        <x:v>8266.000</x:v>
       </x:c>
       <x:c r="G240" t="n">
-        <x:v>16</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H240" t="str">
-        <x:v>72.50</x:v>
+        <x:v>64.67</x:v>
       </x:c>
     </x:row>
     <x:row r="241">
       <x:c r="A241" t="str">
-        <x:v>C135</x:v>
+        <x:v>C129</x:v>
       </x:c>
       <x:c r="B241" t="str">
         <x:v>KL 100.403 F</x:v>
@@ -6284,96 +6284,96 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F241" t="n">
-        <x:v>3103.004</x:v>
+        <x:v>6913.550</x:v>
       </x:c>
       <x:c r="G241" t="n">
-        <x:v>57</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H241" t="str">
-        <x:v>62.83</x:v>
+        <x:v>68.75</x:v>
       </x:c>
     </x:row>
     <x:row r="242">
       <x:c r="A242" t="str">
-        <x:v>C136</x:v>
+        <x:v>C107-2</x:v>
       </x:c>
       <x:c r="B242" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C242" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D242" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E242" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F242" t="n">
-        <x:v>5703.603</x:v>
+        <x:v>6013.366</x:v>
       </x:c>
       <x:c r="G242" t="n">
-        <x:v>30</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H242" t="str">
-        <x:v>68.75</x:v>
+        <x:v>40.73</x:v>
       </x:c>
     </x:row>
     <x:row r="243">
       <x:c r="A243" t="str">
-        <x:v>C137</x:v>
+        <x:v>C107-4</x:v>
       </x:c>
       <x:c r="B243" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C243" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D243" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E243" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F243" t="n">
-        <x:v>3278.000</x:v>
+        <x:v>7959.844</x:v>
       </x:c>
       <x:c r="G243" t="n">
-        <x:v>57</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H243" t="str">
-        <x:v>61.28</x:v>
+        <x:v>8.60</x:v>
       </x:c>
     </x:row>
     <x:row r="244">
       <x:c r="A244" t="str">
-        <x:v>C138-1</x:v>
+        <x:v>C119</x:v>
       </x:c>
       <x:c r="B244" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C244" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D244" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E244" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F244" t="n">
-        <x:v>1037.693</x:v>
+        <x:v>6913.550</x:v>
       </x:c>
       <x:c r="G244" t="n">
-        <x:v>93</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H244" t="str">
-        <x:v>61.67</x:v>
+        <x:v>63.08</x:v>
       </x:c>
     </x:row>
     <x:row r="245">
       <x:c r="A245" t="str">
-        <x:v>C138-2</x:v>
+        <x:v>C114</x:v>
       </x:c>
       <x:c r="B245" t="str">
         <x:v>KL 100.303 F</x:v>
@@ -6388,356 +6388,356 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F245" t="n">
-        <x:v>7243.000</x:v>
+        <x:v>23663.000</x:v>
       </x:c>
       <x:c r="G245" t="n">
-        <x:v>24</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H245" t="str">
-        <x:v>77.87</x:v>
+        <x:v>65.03</x:v>
       </x:c>
     </x:row>
     <x:row r="246">
       <x:c r="A246" t="str">
-        <x:v>C139</x:v>
+        <x:v>C107-7</x:v>
       </x:c>
       <x:c r="B246" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C246" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D246" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E246" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F246" t="n">
-        <x:v>13334.725</x:v>
+        <x:v>4067.961</x:v>
       </x:c>
       <x:c r="G246" t="n">
-        <x:v>25</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H246" t="str">
-        <x:v>77.87</x:v>
+        <x:v>76.15</x:v>
       </x:c>
     </x:row>
     <x:row r="247">
       <x:c r="A247" t="str">
-        <x:v>C140</x:v>
+        <x:v>DFB010</x:v>
       </x:c>
       <x:c r="B247" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C247" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D247" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E247" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F247" t="n">
-        <x:v>14867.031</x:v>
+        <x:v>1006.000</x:v>
       </x:c>
       <x:c r="G247" t="n">
-        <x:v>6</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H247" t="str">
-        <x:v>90.17</x:v>
+        <x:v>39.75</x:v>
       </x:c>
     </x:row>
     <x:row r="248">
       <x:c r="A248" t="str">
-        <x:v>C141</x:v>
+        <x:v>C123</x:v>
       </x:c>
       <x:c r="B248" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C248" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D248" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E248" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F248" t="n">
-        <x:v>3479.273</x:v>
+        <x:v>3400.000</x:v>
       </x:c>
       <x:c r="G248" t="n">
-        <x:v>86</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H248" t="str">
-        <x:v>63.43</x:v>
+        <x:v>68.75</x:v>
       </x:c>
     </x:row>
     <x:row r="249">
       <x:c r="A249" t="str">
-        <x:v>C142</x:v>
+        <x:v>C124</x:v>
       </x:c>
       <x:c r="B249" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C249" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D249" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E249" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F249" t="n">
-        <x:v>2807.996</x:v>
+        <x:v>6913.550</x:v>
       </x:c>
       <x:c r="G249" t="n">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H249" t="str">
-        <x:v>92.03</x:v>
+        <x:v>68.75</x:v>
       </x:c>
     </x:row>
     <x:row r="250">
       <x:c r="A250" t="str">
-        <x:v>DFB001</x:v>
+        <x:v>C126</x:v>
       </x:c>
       <x:c r="B250" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C250" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D250" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E250" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F250" t="n">
-        <x:v>1706.000</x:v>
+        <x:v>5703.603</x:v>
       </x:c>
       <x:c r="G250" t="n">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H250" t="str">
-        <x:v>48.78</x:v>
+        <x:v>56.38</x:v>
       </x:c>
     </x:row>
     <x:row r="251">
       <x:c r="A251" t="str">
-        <x:v>DFB002</x:v>
+        <x:v>C121</x:v>
       </x:c>
       <x:c r="B251" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C251" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D251" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E251" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F251" t="n">
-        <x:v>1206.000</x:v>
+        <x:v>5703.603</x:v>
       </x:c>
       <x:c r="G251" t="n">
-        <x:v>45</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H251" t="str">
-        <x:v>40.02</x:v>
+        <x:v>56.38</x:v>
       </x:c>
     </x:row>
     <x:row r="252">
       <x:c r="A252" t="str">
-        <x:v>DFB003</x:v>
+        <x:v>C125</x:v>
       </x:c>
       <x:c r="B252" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C252" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D252" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E252" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F252" t="n">
-        <x:v>1206.000</x:v>
+        <x:v>3103.004</x:v>
       </x:c>
       <x:c r="G252" t="n">
-        <x:v>48</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H252" t="str">
-        <x:v>28.45</x:v>
+        <x:v>31.90</x:v>
       </x:c>
     </x:row>
     <x:row r="253">
       <x:c r="A253" t="str">
-        <x:v>DFB004</x:v>
+        <x:v>C134</x:v>
       </x:c>
       <x:c r="B253" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C253" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D253" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E253" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F253" t="n">
-        <x:v>1206.000</x:v>
+        <x:v>6913.550</x:v>
       </x:c>
       <x:c r="G253" t="n">
-        <x:v>49</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H253" t="str">
-        <x:v>28.45</x:v>
+        <x:v>68.75</x:v>
       </x:c>
     </x:row>
     <x:row r="254">
       <x:c r="A254" t="str">
-        <x:v>DFB005</x:v>
+        <x:v>C136</x:v>
       </x:c>
       <x:c r="B254" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C254" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D254" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E254" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F254" t="n">
-        <x:v>1206.000</x:v>
+        <x:v>5703.603</x:v>
       </x:c>
       <x:c r="G254" t="n">
-        <x:v>49</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H254" t="str">
-        <x:v>28.45</x:v>
+        <x:v>56.38</x:v>
       </x:c>
     </x:row>
     <x:row r="255">
       <x:c r="A255" t="str">
-        <x:v>DFB006</x:v>
+        <x:v>C131</x:v>
       </x:c>
       <x:c r="B255" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C255" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D255" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E255" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F255" t="n">
-        <x:v>1206.000</x:v>
+        <x:v>5703.603</x:v>
       </x:c>
       <x:c r="G255" t="n">
-        <x:v>45</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H255" t="str">
-        <x:v>33.33</x:v>
+        <x:v>56.38</x:v>
       </x:c>
     </x:row>
     <x:row r="256">
       <x:c r="A256" t="str">
-        <x:v>DFB007</x:v>
+        <x:v>C132</x:v>
       </x:c>
       <x:c r="B256" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C256" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D256" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E256" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F256" t="n">
-        <x:v>2006.000</x:v>
+        <x:v>3278.000</x:v>
       </x:c>
       <x:c r="G256" t="n">
-        <x:v>47</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H256" t="str">
-        <x:v>33.33</x:v>
+        <x:v>27.53</x:v>
       </x:c>
     </x:row>
     <x:row r="257">
       <x:c r="A257" t="str">
-        <x:v>DFB008</x:v>
+        <x:v>C133</x:v>
       </x:c>
       <x:c r="B257" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C257" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D257" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E257" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F257" t="n">
-        <x:v>906.000</x:v>
+        <x:v>3400.000</x:v>
       </x:c>
       <x:c r="G257" t="n">
-        <x:v>51</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H257" t="str">
-        <x:v>28.60</x:v>
+        <x:v>68.75</x:v>
       </x:c>
     </x:row>
     <x:row r="258">
       <x:c r="A258" t="str">
-        <x:v>DFB009</x:v>
+        <x:v>C138-2</x:v>
       </x:c>
       <x:c r="B258" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C258" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D258" t="n">
-        <x:v>600</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E258" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F258" t="n">
-        <x:v>1206.000</x:v>
+        <x:v>7243.000</x:v>
       </x:c>
       <x:c r="G258" t="n">
-        <x:v>41</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H258" t="str">
-        <x:v>37.68</x:v>
+        <x:v>42.75</x:v>
       </x:c>
     </x:row>
     <x:row r="259">
       <x:c r="A259" t="str">
-        <x:v>DFB011</x:v>
+        <x:v>DFB001</x:v>
       </x:c>
       <x:c r="B259" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -6752,44 +6752,44 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F259" t="n">
-        <x:v>1556.000</x:v>
+        <x:v>1706.000</x:v>
       </x:c>
       <x:c r="G259" t="n">
-        <x:v>37</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H259" t="str">
-        <x:v>54.53</x:v>
+        <x:v>37.20</x:v>
       </x:c>
     </x:row>
     <x:row r="260">
       <x:c r="A260" t="str">
-        <x:v>DFB012</x:v>
+        <x:v>C139</x:v>
       </x:c>
       <x:c r="B260" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C260" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D260" t="n">
-        <x:v>600</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E260" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F260" t="n">
-        <x:v>1917.000</x:v>
+        <x:v>13334.725</x:v>
       </x:c>
       <x:c r="G260" t="n">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H260" t="str">
-        <x:v>50.92</x:v>
+        <x:v>39.40</x:v>
       </x:c>
     </x:row>
     <x:row r="261">
       <x:c r="A261" t="str">
-        <x:v>DFB013</x:v>
+        <x:v>DFB002</x:v>
       </x:c>
       <x:c r="B261" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -6804,44 +6804,44 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F261" t="n">
-        <x:v>6726.984</x:v>
+        <x:v>1206.000</x:v>
       </x:c>
       <x:c r="G261" t="n">
-        <x:v>24</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H261" t="str">
-        <x:v>61.32</x:v>
+        <x:v>29.07</x:v>
       </x:c>
     </x:row>
     <x:row r="262">
       <x:c r="A262" t="str">
-        <x:v>DFB014</x:v>
+        <x:v>C140</x:v>
       </x:c>
       <x:c r="B262" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C262" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D262" t="n">
-        <x:v>600</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E262" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F262" t="n">
-        <x:v>3147.000</x:v>
+        <x:v>14867.031</x:v>
       </x:c>
       <x:c r="G262" t="n">
-        <x:v>27</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H262" t="str">
-        <x:v>53.27</x:v>
+        <x:v>85.25</x:v>
       </x:c>
     </x:row>
     <x:row r="263">
       <x:c r="A263" t="str">
-        <x:v>DFB015</x:v>
+        <x:v>DFB004</x:v>
       </x:c>
       <x:c r="B263" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -6856,278 +6856,278 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F263" t="n">
-        <x:v>3518.192</x:v>
+        <x:v>1206.000</x:v>
       </x:c>
       <x:c r="G263" t="n">
-        <x:v>25</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H263" t="str">
-        <x:v>55.25</x:v>
+        <x:v>10.08</x:v>
       </x:c>
     </x:row>
     <x:row r="264">
       <x:c r="A264" t="str">
-        <x:v>DFB015-1</x:v>
+        <x:v>DFB005</x:v>
       </x:c>
       <x:c r="B264" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C264" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D264" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E264" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F264" t="n">
-        <x:v>3800.000</x:v>
+        <x:v>1206.000</x:v>
       </x:c>
       <x:c r="G264" t="n">
-        <x:v>42</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H264" t="str">
-        <x:v>53.37</x:v>
+        <x:v>10.08</x:v>
       </x:c>
     </x:row>
     <x:row r="265">
       <x:c r="A265" t="str">
-        <x:v>DFB015-2</x:v>
+        <x:v>DFB006</x:v>
       </x:c>
       <x:c r="B265" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C265" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D265" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E265" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F265" t="n">
-        <x:v>3800.000</x:v>
+        <x:v>1206.000</x:v>
       </x:c>
       <x:c r="G265" t="n">
-        <x:v>2</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H265" t="str">
-        <x:v>96.03</x:v>
+        <x:v>21.43</x:v>
       </x:c>
     </x:row>
     <x:row r="266">
       <x:c r="A266" t="str">
-        <x:v>DFB016-1</x:v>
+        <x:v>DFB007</x:v>
       </x:c>
       <x:c r="B266" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C266" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D266" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E266" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F266" t="n">
-        <x:v>3800.000</x:v>
+        <x:v>2006.000</x:v>
       </x:c>
       <x:c r="G266" t="n">
-        <x:v>2</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H266" t="str">
-        <x:v>96.03</x:v>
+        <x:v>19.45</x:v>
       </x:c>
     </x:row>
     <x:row r="267">
       <x:c r="A267" t="str">
-        <x:v>DFB016-2</x:v>
+        <x:v>DFB009</x:v>
       </x:c>
       <x:c r="B267" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C267" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D267" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E267" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F267" t="n">
-        <x:v>3800.000</x:v>
+        <x:v>1206.000</x:v>
       </x:c>
       <x:c r="G267" t="n">
-        <x:v>2</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H267" t="str">
-        <x:v>96.03</x:v>
+        <x:v>26.17</x:v>
       </x:c>
     </x:row>
     <x:row r="268">
       <x:c r="A268" t="str">
-        <x:v>DFB017-1</x:v>
+        <x:v>DFB008</x:v>
       </x:c>
       <x:c r="B268" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C268" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D268" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E268" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F268" t="n">
-        <x:v>3800.000</x:v>
+        <x:v>906.000</x:v>
       </x:c>
       <x:c r="G268" t="n">
-        <x:v>2</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H268" t="str">
-        <x:v>96.03</x:v>
+        <x:v>14.33</x:v>
       </x:c>
     </x:row>
     <x:row r="269">
       <x:c r="A269" t="str">
-        <x:v>DFB017-2</x:v>
+        <x:v>DFB012</x:v>
       </x:c>
       <x:c r="B269" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C269" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D269" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E269" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F269" t="n">
-        <x:v>3800.000</x:v>
+        <x:v>1917.000</x:v>
       </x:c>
       <x:c r="G269" t="n">
-        <x:v>2</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H269" t="str">
-        <x:v>96.03</x:v>
+        <x:v>42.43</x:v>
       </x:c>
     </x:row>
     <x:row r="270">
       <x:c r="A270" t="str">
-        <x:v>DFB018-1</x:v>
+        <x:v>DFB013</x:v>
       </x:c>
       <x:c r="B270" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C270" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D270" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E270" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F270" t="n">
-        <x:v>2350.000</x:v>
+        <x:v>6726.984</x:v>
       </x:c>
       <x:c r="G270" t="n">
-        <x:v>5</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H270" t="str">
-        <x:v>94.37</x:v>
+        <x:v>56.97</x:v>
       </x:c>
     </x:row>
     <x:row r="271">
       <x:c r="A271" t="str">
-        <x:v>DFB018-2</x:v>
+        <x:v>DFB015-1</x:v>
       </x:c>
       <x:c r="B271" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C271" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D271" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E271" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F271" t="n">
-        <x:v>2350.000</x:v>
+        <x:v>3800.000</x:v>
       </x:c>
       <x:c r="G271" t="n">
-        <x:v>5</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H271" t="str">
-        <x:v>94.37</x:v>
+        <x:v>29.82</x:v>
       </x:c>
     </x:row>
     <x:row r="272">
       <x:c r="A272" t="str">
-        <x:v>DFB019</x:v>
+        <x:v>DFB014</x:v>
       </x:c>
       <x:c r="B272" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C272" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D272" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E272" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F272" t="n">
-        <x:v>3000.000</x:v>
+        <x:v>3147.000</x:v>
       </x:c>
       <x:c r="G272" t="n">
-        <x:v>2</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H272" t="str">
-        <x:v>96.03</x:v>
+        <x:v>46.17</x:v>
       </x:c>
     </x:row>
     <x:row r="273">
       <x:c r="A273" t="str">
-        <x:v>DFB020</x:v>
+        <x:v>DFB015</x:v>
       </x:c>
       <x:c r="B273" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C273" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D273" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E273" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F273" t="n">
-        <x:v>3956.000</x:v>
+        <x:v>3518.192</x:v>
       </x:c>
       <x:c r="G273" t="n">
-        <x:v>30</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H273" t="str">
-        <x:v>65.27</x:v>
+        <x:v>48.15</x:v>
       </x:c>
     </x:row>
     <x:row r="274">
       <x:c r="A274" t="str">
-        <x:v>DFB021</x:v>
+        <x:v>DFB015-2</x:v>
       </x:c>
       <x:c r="B274" t="str">
         <x:v>KL 100.303 F</x:v>
@@ -7142,336 +7142,336 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F274" t="n">
-        <x:v>1600.000</x:v>
+        <x:v>3800.000</x:v>
       </x:c>
       <x:c r="G274" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H274" t="str">
-        <x:v>88.10</x:v>
+        <x:v>96.03</x:v>
       </x:c>
     </x:row>
     <x:row r="275">
       <x:c r="A275" t="str">
-        <x:v>DFB022</x:v>
+        <x:v>DFB016-1</x:v>
       </x:c>
       <x:c r="B275" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C275" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D275" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E275" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F275" t="n">
-        <x:v>2200.000</x:v>
+        <x:v>3800.000</x:v>
       </x:c>
       <x:c r="G275" t="n">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H275" t="str">
-        <x:v>81.20</x:v>
+        <x:v>96.03</x:v>
       </x:c>
     </x:row>
     <x:row r="276">
       <x:c r="A276" t="str">
-        <x:v>DFB023</x:v>
+        <x:v>DFB016-2</x:v>
       </x:c>
       <x:c r="B276" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C276" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D276" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E276" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F276" t="n">
-        <x:v>2200.000</x:v>
+        <x:v>3800.000</x:v>
       </x:c>
       <x:c r="G276" t="n">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H276" t="str">
-        <x:v>66.37</x:v>
+        <x:v>96.03</x:v>
       </x:c>
     </x:row>
     <x:row r="277">
       <x:c r="A277" t="str">
-        <x:v>DFB024</x:v>
+        <x:v>DFB017-1</x:v>
       </x:c>
       <x:c r="B277" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C277" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D277" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E277" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F277" t="n">
-        <x:v>2413.000</x:v>
+        <x:v>3800.000</x:v>
       </x:c>
       <x:c r="G277" t="n">
-        <x:v>12</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H277" t="str">
-        <x:v>58.95</x:v>
+        <x:v>96.03</x:v>
       </x:c>
     </x:row>
     <x:row r="278">
       <x:c r="A278" t="str">
-        <x:v>DFB025</x:v>
+        <x:v>DFB018-1</x:v>
       </x:c>
       <x:c r="B278" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C278" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D278" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E278" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F278" t="n">
-        <x:v>6102.344</x:v>
+        <x:v>2350.000</x:v>
       </x:c>
       <x:c r="G278" t="n">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H278" t="str">
-        <x:v>60.93</x:v>
+        <x:v>79.23</x:v>
       </x:c>
     </x:row>
     <x:row r="279">
       <x:c r="A279" t="str">
-        <x:v>DFB026</x:v>
+        <x:v>DFB018-2</x:v>
       </x:c>
       <x:c r="B279" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C279" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D279" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E279" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F279" t="n">
-        <x:v>3150.000</x:v>
+        <x:v>2350.000</x:v>
       </x:c>
       <x:c r="G279" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H279" t="str">
-        <x:v>97.85</x:v>
+        <x:v>79.23</x:v>
       </x:c>
     </x:row>
     <x:row r="280">
       <x:c r="A280" t="str">
-        <x:v>DFB027</x:v>
+        <x:v>DFB021</x:v>
       </x:c>
       <x:c r="B280" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C280" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D280" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E280" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F280" t="n">
-        <x:v>2870.619</x:v>
+        <x:v>1600.000</x:v>
       </x:c>
       <x:c r="G280" t="n">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H280" t="str">
-        <x:v>100.00</x:v>
+        <x:v>84.13</x:v>
       </x:c>
     </x:row>
     <x:row r="281">
       <x:c r="A281" t="str">
-        <x:v>DFC001</x:v>
+        <x:v>DFB019</x:v>
       </x:c>
       <x:c r="B281" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C281" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D281" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E281" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F281" t="n">
-        <x:v>3603.210</x:v>
+        <x:v>3000.000</x:v>
       </x:c>
       <x:c r="G281" t="n">
-        <x:v>50</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H281" t="str">
-        <x:v>68.88</x:v>
+        <x:v>96.03</x:v>
       </x:c>
     </x:row>
     <x:row r="282">
       <x:c r="A282" t="str">
-        <x:v>DFC001-1</x:v>
+        <x:v>DFB022</x:v>
       </x:c>
       <x:c r="B282" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C282" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D282" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E282" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F282" t="n">
-        <x:v>900.000</x:v>
+        <x:v>2200.000</x:v>
       </x:c>
       <x:c r="G282" t="n">
-        <x:v>16</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H282" t="str">
-        <x:v>84.17</x:v>
+        <x:v>79.22</x:v>
       </x:c>
     </x:row>
     <x:row r="283">
       <x:c r="A283" t="str">
-        <x:v>DFC001-2</x:v>
+        <x:v>DFB023</x:v>
       </x:c>
       <x:c r="B283" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C283" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D283" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E283" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F283" t="n">
-        <x:v>900.000</x:v>
+        <x:v>2200.000</x:v>
       </x:c>
       <x:c r="G283" t="n">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H283" t="str">
-        <x:v>84.17</x:v>
+        <x:v>64.38</x:v>
       </x:c>
     </x:row>
     <x:row r="284">
       <x:c r="A284" t="str">
-        <x:v>DFC002</x:v>
+        <x:v>DFB027</x:v>
       </x:c>
       <x:c r="B284" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C284" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D284" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E284" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F284" t="n">
-        <x:v>4953.210</x:v>
+        <x:v>2870.619</x:v>
       </x:c>
       <x:c r="G284" t="n">
-        <x:v>57</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H284" t="str">
-        <x:v>65.77</x:v>
+        <x:v>65.95</x:v>
       </x:c>
     </x:row>
     <x:row r="285">
       <x:c r="A285" t="str">
-        <x:v>DFC002-1</x:v>
+        <x:v>DFB024</x:v>
       </x:c>
       <x:c r="B285" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C285" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D285" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E285" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F285" t="n">
-        <x:v>900.000</x:v>
+        <x:v>2413.000</x:v>
       </x:c>
       <x:c r="G285" t="n">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H285" t="str">
-        <x:v>84.17</x:v>
+        <x:v>58.95</x:v>
       </x:c>
     </x:row>
     <x:row r="286">
       <x:c r="A286" t="str">
-        <x:v>DFC002-2</x:v>
+        <x:v>DFB025</x:v>
       </x:c>
       <x:c r="B286" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C286" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D286" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E286" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F286" t="n">
-        <x:v>900.000</x:v>
+        <x:v>6102.344</x:v>
       </x:c>
       <x:c r="G286" t="n">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H286" t="str">
-        <x:v>84.17</x:v>
+        <x:v>60.93</x:v>
       </x:c>
     </x:row>
     <x:row r="287">
       <x:c r="A287" t="str">
-        <x:v>DFC003</x:v>
+        <x:v>DFB026</x:v>
       </x:c>
       <x:c r="B287" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C287" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D287" t="n">
         <x:v>600</x:v>
@@ -7480,18 +7480,18 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F287" t="n">
-        <x:v>3753.210</x:v>
+        <x:v>3150.000</x:v>
       </x:c>
       <x:c r="G287" t="n">
-        <x:v>51</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H287" t="str">
-        <x:v>41.15</x:v>
+        <x:v>97.85</x:v>
       </x:c>
     </x:row>
     <x:row r="288">
       <x:c r="A288" t="str">
-        <x:v>DFC003-1</x:v>
+        <x:v>DFC001-1</x:v>
       </x:c>
       <x:c r="B288" t="str">
         <x:v>KL 100.303 F</x:v>
@@ -7506,18 +7506,18 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F288" t="n">
-        <x:v>1700.000</x:v>
+        <x:v>900.000</x:v>
       </x:c>
       <x:c r="G288" t="n">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H288" t="str">
-        <x:v>64.83</x:v>
+        <x:v>66.33</x:v>
       </x:c>
     </x:row>
     <x:row r="289">
       <x:c r="A289" t="str">
-        <x:v>DFC011</x:v>
+        <x:v>DFC002-1</x:v>
       </x:c>
       <x:c r="B289" t="str">
         <x:v>KL 100.303 F</x:v>
@@ -7532,18 +7532,18 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F289" t="n">
-        <x:v>1650.000</x:v>
+        <x:v>900.000</x:v>
       </x:c>
       <x:c r="G289" t="n">
-        <x:v>5</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H289" t="str">
-        <x:v>91.90</x:v>
+        <x:v>66.33</x:v>
       </x:c>
     </x:row>
     <x:row r="290">
       <x:c r="A290" t="str">
-        <x:v>DFC004-1</x:v>
+        <x:v>DFC001-2</x:v>
       </x:c>
       <x:c r="B290" t="str">
         <x:v>KL 100.303 F</x:v>
@@ -7558,21 +7558,21 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F290" t="n">
-        <x:v>3000.000</x:v>
+        <x:v>900.000</x:v>
       </x:c>
       <x:c r="G290" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H290" t="str">
-        <x:v>58.23</x:v>
+        <x:v>66.33</x:v>
       </x:c>
     </x:row>
     <x:row r="291">
       <x:c r="A291" t="str">
-        <x:v>DFC004-2</x:v>
+        <x:v>DFC002-2</x:v>
       </x:c>
       <x:c r="B291" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C291" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
@@ -7584,44 +7584,44 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F291" t="n">
-        <x:v>1750.000</x:v>
+        <x:v>900.000</x:v>
       </x:c>
       <x:c r="G291" t="n">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H291" t="str">
-        <x:v>84.00</x:v>
+        <x:v>66.33</x:v>
       </x:c>
     </x:row>
     <x:row r="292">
       <x:c r="A292" t="str">
-        <x:v>DFC005</x:v>
+        <x:v>DFC011</x:v>
       </x:c>
       <x:c r="B292" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C292" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D292" t="n">
-        <x:v>600</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E292" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F292" t="n">
-        <x:v>2153.210</x:v>
+        <x:v>1650.000</x:v>
       </x:c>
       <x:c r="G292" t="n">
-        <x:v>32</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H292" t="str">
-        <x:v>77.33</x:v>
+        <x:v>87.85</x:v>
       </x:c>
     </x:row>
     <x:row r="293">
       <x:c r="A293" t="str">
-        <x:v>DFC006</x:v>
+        <x:v>DFC003</x:v>
       </x:c>
       <x:c r="B293" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -7636,18 +7636,18 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F293" t="n">
-        <x:v>6600.000</x:v>
+        <x:v>3753.210</x:v>
       </x:c>
       <x:c r="G293" t="n">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H293" t="str">
-        <x:v>73.52</x:v>
+        <x:v>31.10</x:v>
       </x:c>
     </x:row>
     <x:row r="294">
       <x:c r="A294" t="str">
-        <x:v>DFC006-1</x:v>
+        <x:v>DFC003-1</x:v>
       </x:c>
       <x:c r="B294" t="str">
         <x:v>KL 100.303 F</x:v>
@@ -7662,18 +7662,18 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F294" t="n">
-        <x:v>1530.000</x:v>
+        <x:v>1700.000</x:v>
       </x:c>
       <x:c r="G294" t="n">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H294" t="str">
-        <x:v>96.77</x:v>
+        <x:v>60.93</x:v>
       </x:c>
     </x:row>
     <x:row r="295">
       <x:c r="A295" t="str">
-        <x:v>DFC006-2</x:v>
+        <x:v>DFC004-1</x:v>
       </x:c>
       <x:c r="B295" t="str">
         <x:v>KL 100.303 F</x:v>
@@ -7688,18 +7688,18 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F295" t="n">
-        <x:v>930.000</x:v>
+        <x:v>3000.000</x:v>
       </x:c>
       <x:c r="G295" t="n">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H295" t="str">
-        <x:v>88.07</x:v>
+        <x:v>46.40</x:v>
       </x:c>
     </x:row>
     <x:row r="296">
       <x:c r="A296" t="str">
-        <x:v>DFC007</x:v>
+        <x:v>DFC006-1</x:v>
       </x:c>
       <x:c r="B296" t="str">
         <x:v>KL 100.303 F</x:v>
@@ -7714,18 +7714,18 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F296" t="n">
-        <x:v>6000.000</x:v>
+        <x:v>1530.000</x:v>
       </x:c>
       <x:c r="G296" t="n">
-        <x:v>14</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H296" t="str">
-        <x:v>84.13</x:v>
+        <x:v>96.77</x:v>
       </x:c>
     </x:row>
     <x:row r="297">
       <x:c r="A297" t="str">
-        <x:v>DFC008</x:v>
+        <x:v>DFC006-2</x:v>
       </x:c>
       <x:c r="B297" t="str">
         <x:v>KL 100.303 F</x:v>
@@ -7740,70 +7740,70 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F297" t="n">
-        <x:v>3560.000</x:v>
+        <x:v>930.000</x:v>
       </x:c>
       <x:c r="G297" t="n">
-        <x:v>18</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H297" t="str">
-        <x:v>80.90</x:v>
+        <x:v>78.17</x:v>
       </x:c>
     </x:row>
     <x:row r="298">
       <x:c r="A298" t="str">
-        <x:v>DFC009</x:v>
+        <x:v>DFC007</x:v>
       </x:c>
       <x:c r="B298" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C298" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D298" t="n">
-        <x:v>300</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E298" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F298" t="n">
-        <x:v>2403.772</x:v>
+        <x:v>6000.000</x:v>
       </x:c>
       <x:c r="G298" t="n">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H298" t="str">
-        <x:v>77.00</x:v>
+        <x:v>58.95</x:v>
       </x:c>
     </x:row>
     <x:row r="299">
       <x:c r="A299" t="str">
-        <x:v>DFC010</x:v>
+        <x:v>DFC008</x:v>
       </x:c>
       <x:c r="B299" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C299" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D299" t="n">
-        <x:v>300</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E299" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F299" t="n">
-        <x:v>4394.246</x:v>
+        <x:v>3560.000</x:v>
       </x:c>
       <x:c r="G299" t="n">
-        <x:v>23</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H299" t="str">
-        <x:v>77.00</x:v>
+        <x:v>40.50</x:v>
       </x:c>
     </x:row>
     <x:row r="300">
       <x:c r="A300" t="str">
-        <x:v>DFC012</x:v>
+        <x:v>DFC010</x:v>
       </x:c>
       <x:c r="B300" t="str">
         <x:v>KL 100.303 F</x:v>
@@ -7818,70 +7818,70 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F300" t="n">
-        <x:v>3855.754</x:v>
+        <x:v>4394.246</x:v>
       </x:c>
       <x:c r="G300" t="n">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H300" t="str">
-        <x:v>91.60</x:v>
+        <x:v>51.13</x:v>
       </x:c>
     </x:row>
     <x:row r="301">
       <x:c r="A301" t="str">
-        <x:v>DFC013</x:v>
+        <x:v>DFV001</x:v>
       </x:c>
       <x:c r="B301" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C301" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
       </x:c>
       <x:c r="D301" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E301" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F301" t="n">
-        <x:v>2800.000</x:v>
+        <x:v>1687.000</x:v>
       </x:c>
       <x:c r="G301" t="n">
-        <x:v>35</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H301" t="str">
-        <x:v>73.27</x:v>
+        <x:v>84.73</x:v>
       </x:c>
     </x:row>
     <x:row r="302">
       <x:c r="A302" t="str">
-        <x:v>DFC014</x:v>
+        <x:v>DFV002</x:v>
       </x:c>
       <x:c r="B302" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C302" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
       </x:c>
       <x:c r="D302" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E302" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F302" t="n">
-        <x:v>3744.215</x:v>
+        <x:v>2200.000</x:v>
       </x:c>
       <x:c r="G302" t="n">
-        <x:v>31</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H302" t="str">
-        <x:v>77.17</x:v>
+        <x:v>69.47</x:v>
       </x:c>
     </x:row>
     <x:row r="303">
       <x:c r="A303" t="str">
-        <x:v>DFV001</x:v>
+        <x:v>DFV007</x:v>
       </x:c>
       <x:c r="B303" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -7896,18 +7896,18 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F303" t="n">
-        <x:v>1687.000</x:v>
+        <x:v>5101.000</x:v>
       </x:c>
       <x:c r="G303" t="n">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H303" t="str">
-        <x:v>84.73</x:v>
+        <x:v>62.92</x:v>
       </x:c>
     </x:row>
     <x:row r="304">
       <x:c r="A304" t="str">
-        <x:v>DFV002</x:v>
+        <x:v>DFV008</x:v>
       </x:c>
       <x:c r="B304" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -7922,13 +7922,13 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F304" t="n">
-        <x:v>2200.000</x:v>
+        <x:v>6665.979</x:v>
       </x:c>
       <x:c r="G304" t="n">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H304" t="str">
-        <x:v>69.47</x:v>
+        <x:v>62.92</x:v>
       </x:c>
     </x:row>
     <x:row r="305">
@@ -7951,10 +7951,10 @@
         <x:v>8151.985</x:v>
       </x:c>
       <x:c r="G305" t="n">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H305" t="str">
-        <x:v>57.18</x:v>
+        <x:v>61.83</x:v>
       </x:c>
     </x:row>
     <x:row r="306">
@@ -7985,106 +7985,106 @@
     </x:row>
     <x:row r="307">
       <x:c r="A307" t="str">
-        <x:v>DFV005</x:v>
+        <x:v>DFC012</x:v>
       </x:c>
       <x:c r="B307" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C307" t="str">
-        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D307" t="n">
-        <x:v>300</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E307" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F307" t="n">
-        <x:v>14620.000</x:v>
+        <x:v>3855.754</x:v>
       </x:c>
       <x:c r="G307" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H307" t="str">
-        <x:v>82.83</x:v>
+        <x:v>82.55</x:v>
       </x:c>
     </x:row>
     <x:row r="308">
       <x:c r="A308" t="str">
-        <x:v>DFV006</x:v>
+        <x:v>DFV005</x:v>
       </x:c>
       <x:c r="B308" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C308" t="str">
         <x:v>Type VFD (Yellow color) for VFD cables</x:v>
       </x:c>
       <x:c r="D308" t="n">
-        <x:v>300</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E308" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F308" t="n">
-        <x:v>2150.000</x:v>
+        <x:v>14620.000</x:v>
       </x:c>
       <x:c r="G308" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H308" t="str">
-        <x:v>82.83</x:v>
+        <x:v>74.25</x:v>
       </x:c>
     </x:row>
     <x:row r="309">
       <x:c r="A309" t="str">
-        <x:v>DFV007</x:v>
+        <x:v>DFV006</x:v>
       </x:c>
       <x:c r="B309" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.203 F</x:v>
       </x:c>
       <x:c r="C309" t="str">
         <x:v>Type VFD (Yellow color) for VFD cables</x:v>
       </x:c>
       <x:c r="D309" t="n">
-        <x:v>600</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E309" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F309" t="n">
-        <x:v>5101.000</x:v>
+        <x:v>2150.000</x:v>
       </x:c>
       <x:c r="G309" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H309" t="str">
-        <x:v>62.92</x:v>
+        <x:v>74.25</x:v>
       </x:c>
     </x:row>
     <x:row r="310">
       <x:c r="A310" t="str">
-        <x:v>DFV008</x:v>
+        <x:v>DFC014</x:v>
       </x:c>
       <x:c r="B310" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C310" t="str">
-        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D310" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E310" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F310" t="n">
-        <x:v>6665.979</x:v>
+        <x:v>3744.215</x:v>
       </x:c>
       <x:c r="G310" t="n">
-        <x:v>9</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H310" t="str">
-        <x:v>62.92</x:v>
+        <x:v>49.60</x:v>
       </x:c>
     </x:row>
     <x:row r="311">
@@ -8219,10 +8219,10 @@
     </x:row>
     <x:row r="316">
       <x:c r="A316" t="str">
-        <x:v>VFD101</x:v>
+        <x:v>VFD105</x:v>
       </x:c>
       <x:c r="B316" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.600 F</x:v>
       </x:c>
       <x:c r="C316" t="str">
         <x:v>Type VFD (Yellow color) for VFD cables</x:v>
@@ -8234,21 +8234,21 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F316" t="n">
-        <x:v>4500.000</x:v>
+        <x:v>6997.239</x:v>
       </x:c>
       <x:c r="G316" t="n">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H316" t="str">
-        <x:v>53.25</x:v>
+        <x:v>61.83</x:v>
       </x:c>
     </x:row>
     <x:row r="317">
       <x:c r="A317" t="str">
-        <x:v>VFD102</x:v>
+        <x:v>VFD101</x:v>
       </x:c>
       <x:c r="B317" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C317" t="str">
         <x:v>Type VFD (Yellow color) for VFD cables</x:v>
@@ -8260,7 +8260,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F317" t="n">
-        <x:v>8462.000</x:v>
+        <x:v>4500.000</x:v>
       </x:c>
       <x:c r="G317" t="n">
         <x:v>13</x:v>
@@ -8271,10 +8271,10 @@
     </x:row>
     <x:row r="318">
       <x:c r="A318" t="str">
-        <x:v>VFD103</x:v>
+        <x:v>VFD102</x:v>
       </x:c>
       <x:c r="B318" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.600 F</x:v>
       </x:c>
       <x:c r="C318" t="str">
         <x:v>Type VFD (Yellow color) for VFD cables</x:v>
@@ -8286,7 +8286,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F318" t="n">
-        <x:v>8196.993</x:v>
+        <x:v>8462.000</x:v>
       </x:c>
       <x:c r="G318" t="n">
         <x:v>13</x:v>
@@ -8297,7 +8297,7 @@
     </x:row>
     <x:row r="319">
       <x:c r="A319" t="str">
-        <x:v>VFD104</x:v>
+        <x:v>VFD103</x:v>
       </x:c>
       <x:c r="B319" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -8312,7 +8312,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F319" t="n">
-        <x:v>6511.970</x:v>
+        <x:v>8196.993</x:v>
       </x:c>
       <x:c r="G319" t="n">
         <x:v>13</x:v>
@@ -8323,10 +8323,10 @@
     </x:row>
     <x:row r="320">
       <x:c r="A320" t="str">
-        <x:v>VFD105</x:v>
+        <x:v>VFD104</x:v>
       </x:c>
       <x:c r="B320" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C320" t="str">
         <x:v>Type VFD (Yellow color) for VFD cables</x:v>
@@ -8338,18 +8338,18 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F320" t="n">
-        <x:v>6997.239</x:v>
+        <x:v>6511.970</x:v>
       </x:c>
       <x:c r="G320" t="n">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H320" t="str">
-        <x:v>61.83</x:v>
+        <x:v>53.25</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:tableParts>
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf34cc0f2e7104504"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra21e0b597fa54344"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/TraysFastUpdate/wwwroot/Trays.xlsx
+++ b/TraysFastUpdate/wwwroot/Trays.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Trays" sheetId="1" r:id="R561c715b561c4943"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Trays" sheetId="1" r:id="Rb9230cd907e94bdc"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -55,65 +55,65 @@
     </x:row>
     <x:row r="2">
       <x:c r="A2" t="str">
-        <x:v>C122</x:v>
+        <x:v>C141</x:v>
       </x:c>
       <x:c r="B2" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 60.503 F</x:v>
       </x:c>
       <x:c r="C2" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D2" t="n">
-        <x:v>400</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="E2" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F2" t="n">
-        <x:v>3278.000</x:v>
+        <x:v>3479.273</x:v>
       </x:c>
       <x:c r="G2" t="n">
-        <x:v>57</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H2" t="str">
-        <x:v>27.53</x:v>
+        <x:v>35.84</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
       <x:c r="A3" t="str">
-        <x:v>B104-2</x:v>
+        <x:v>B114</x:v>
       </x:c>
       <x:c r="B3" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 60.303 F</x:v>
       </x:c>
       <x:c r="C3" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D3" t="n">
-        <x:v>400</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E3" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F3" t="n">
-        <x:v>7838.070</x:v>
+        <x:v>23600.619</x:v>
       </x:c>
       <x:c r="G3" t="n">
-        <x:v>18</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H3" t="str">
-        <x:v>56.40</x:v>
+        <x:v>58.33</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
       <x:c r="A4" t="str">
-        <x:v>C135</x:v>
+        <x:v>B104-2</x:v>
       </x:c>
       <x:c r="B4" t="str">
         <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C4" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D4" t="n">
         <x:v>400</x:v>
@@ -122,76 +122,76 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F4" t="n">
-        <x:v>3103.004</x:v>
+        <x:v>7838.070</x:v>
       </x:c>
       <x:c r="G4" t="n">
-        <x:v>57</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H4" t="str">
-        <x:v>31.90</x:v>
+        <x:v>56.40</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
       <x:c r="A5" t="str">
-        <x:v>C138-1</x:v>
+        <x:v>C135</x:v>
       </x:c>
       <x:c r="B5" t="str">
-        <x:v>KL 100.503 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C5" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D5" t="n">
-        <x:v>500</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E5" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F5" t="n">
-        <x:v>1037.693</x:v>
+        <x:v>3103.004</x:v>
       </x:c>
       <x:c r="G5" t="n">
-        <x:v>93</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H5" t="str">
-        <x:v>31.46</x:v>
+        <x:v>25.05</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
       <x:c r="A6" t="str">
-        <x:v>B114</x:v>
+        <x:v>C122</x:v>
       </x:c>
       <x:c r="B6" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C6" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D6" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E6" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F6" t="n">
-        <x:v>23600.619</x:v>
+        <x:v>3278.000</x:v>
       </x:c>
       <x:c r="G6" t="n">
-        <x:v>11</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H6" t="str">
-        <x:v>58.33</x:v>
+        <x:v>20.68</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
       <x:c r="A7" t="str">
-        <x:v>B001</x:v>
+        <x:v>DFC002</x:v>
       </x:c>
       <x:c r="B7" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C7" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D7" t="n">
         <x:v>600</x:v>
@@ -200,128 +200,128 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F7" t="n">
-        <x:v>6000.000</x:v>
+        <x:v>4953.210</x:v>
       </x:c>
       <x:c r="G7" t="n">
-        <x:v>46</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H7" t="str">
-        <x:v>22.18</x:v>
+        <x:v>31.22</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
       <x:c r="A8" t="str">
-        <x:v>C141</x:v>
+        <x:v>B107-2</x:v>
       </x:c>
       <x:c r="B8" t="str">
-        <x:v>KL 100.503 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C8" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D8" t="n">
-        <x:v>500</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E8" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F8" t="n">
-        <x:v>3479.273</x:v>
+        <x:v>6013.366</x:v>
       </x:c>
       <x:c r="G8" t="n">
-        <x:v>86</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H8" t="str">
-        <x:v>35.84</x:v>
+        <x:v>33.08</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
       <x:c r="A9" t="str">
-        <x:v>B101</x:v>
+        <x:v>B125</x:v>
       </x:c>
       <x:c r="B9" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.303 F</x:v>
       </x:c>
       <x:c r="C9" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D9" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E9" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F9" t="n">
-        <x:v>3606.000</x:v>
+        <x:v>12056.603</x:v>
       </x:c>
       <x:c r="G9" t="n">
-        <x:v>49</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H9" t="str">
-        <x:v>18.40</x:v>
+        <x:v>68.33</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
       <x:c r="A10" t="str">
-        <x:v>C142</x:v>
+        <x:v>B143</x:v>
       </x:c>
       <x:c r="B10" t="str">
-        <x:v>KL 100.503 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C10" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D10" t="n">
-        <x:v>500</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E10" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F10" t="n">
-        <x:v>2807.996</x:v>
+        <x:v>4919.273</x:v>
       </x:c>
       <x:c r="G10" t="n">
-        <x:v>37</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H10" t="str">
-        <x:v>71.06</x:v>
+        <x:v>48.50</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
       <x:c r="A11" t="str">
-        <x:v>B107-2</x:v>
+        <x:v>C142</x:v>
       </x:c>
       <x:c r="B11" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.503 F</x:v>
       </x:c>
       <x:c r="C11" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D11" t="n">
-        <x:v>600</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="E11" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F11" t="n">
-        <x:v>6013.366</x:v>
+        <x:v>2807.996</x:v>
       </x:c>
       <x:c r="G11" t="n">
-        <x:v>39</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H11" t="str">
-        <x:v>36.73</x:v>
+        <x:v>71.06</x:v>
       </x:c>
     </x:row>
     <x:row r="12">
       <x:c r="A12" t="str">
-        <x:v>BC166</x:v>
+        <x:v>A001</x:v>
       </x:c>
       <x:c r="B12" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C12" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D12" t="n">
         <x:v>600</x:v>
@@ -330,44 +330,44 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F12" t="n">
-        <x:v>5424.940</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G12" t="n">
-        <x:v>144</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H12" t="str">
-        <x:v>3.12</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
       <x:c r="A13" t="str">
-        <x:v>B125</x:v>
+        <x:v>BC012</x:v>
       </x:c>
       <x:c r="B13" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C13" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D13" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E13" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F13" t="n">
-        <x:v>12056.603</x:v>
+        <x:v>4375.000</x:v>
       </x:c>
       <x:c r="G13" t="n">
-        <x:v>8</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H13" t="str">
-        <x:v>68.33</x:v>
+        <x:v>16.88</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
       <x:c r="A14" t="str">
-        <x:v>DFC002</x:v>
+        <x:v>C107-6</x:v>
       </x:c>
       <x:c r="B14" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -382,307 +382,307 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F14" t="n">
-        <x:v>4953.210</x:v>
+        <x:v>1932.039</x:v>
       </x:c>
       <x:c r="G14" t="n">
-        <x:v>57</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H14" t="str">
-        <x:v>35.78</x:v>
+        <x:v>52.22</x:v>
       </x:c>
     </x:row>
     <x:row r="15">
       <x:c r="A15" t="str">
-        <x:v>B143</x:v>
+        <x:v>BC018</x:v>
       </x:c>
       <x:c r="B15" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>WSL 105.400 F</x:v>
       </x:c>
       <x:c r="C15" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D15" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E15" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F15" t="n">
-        <x:v>4919.273</x:v>
+        <x:v>4157.061</x:v>
       </x:c>
       <x:c r="G15" t="n">
-        <x:v>4</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H15" t="str">
-        <x:v>82.83</x:v>
+        <x:v>59.88</x:v>
       </x:c>
     </x:row>
     <x:row r="16">
       <x:c r="A16" t="str">
-        <x:v>A001</x:v>
+        <x:v>C127</x:v>
       </x:c>
       <x:c r="B16" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C16" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D16" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E16" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F16" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>3278.000</x:v>
       </x:c>
       <x:c r="G16" t="n">
-        <x:v>12</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H16" t="str">
-        <x:v>N/A</x:v>
+        <x:v>20.68</x:v>
       </x:c>
     </x:row>
     <x:row r="17">
       <x:c r="A17" t="str">
-        <x:v>BC001</x:v>
+        <x:v>A002</x:v>
       </x:c>
       <x:c r="B17" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C17" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D17" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E17" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F17" t="n">
-        <x:v>4100.000</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G17" t="n">
-        <x:v>43</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H17" t="str">
-        <x:v>41.45</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="18">
       <x:c r="A18" t="str">
-        <x:v>DFC009</x:v>
+        <x:v>A003</x:v>
       </x:c>
       <x:c r="B18" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C18" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D18" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E18" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F18" t="n">
-        <x:v>2403.772</x:v>
+        <x:v>1700.619</x:v>
       </x:c>
       <x:c r="G18" t="n">
-        <x:v>23</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H18" t="str">
-        <x:v>51.13</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="19">
       <x:c r="A19" t="str">
-        <x:v>BC018</x:v>
+        <x:v>A020</x:v>
       </x:c>
       <x:c r="B19" t="str">
-        <x:v>WSL 105.500 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C19" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D19" t="n">
-        <x:v>500</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E19" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F19" t="n">
-        <x:v>4157.061</x:v>
+        <x:v>11439.220</x:v>
       </x:c>
       <x:c r="G19" t="n">
-        <x:v>37</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H19" t="str">
-        <x:v>67.90</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="20">
       <x:c r="A20" t="str">
-        <x:v>BC012</x:v>
+        <x:v>BC028-1</x:v>
       </x:c>
       <x:c r="B20" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C20" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D20" t="n">
-        <x:v>400</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E20" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F20" t="n">
-        <x:v>4375.000</x:v>
+        <x:v>8464.870</x:v>
       </x:c>
       <x:c r="G20" t="n">
-        <x:v>74</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H20" t="str">
-        <x:v>16.88</x:v>
+        <x:v>46.70</x:v>
       </x:c>
     </x:row>
     <x:row r="21">
       <x:c r="A21" t="str">
-        <x:v>BC019</x:v>
+        <x:v>BC106</x:v>
       </x:c>
       <x:c r="B21" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C21" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D21" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E21" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F21" t="n">
-        <x:v>4768.319</x:v>
+        <x:v>5597.386</x:v>
       </x:c>
       <x:c r="G21" t="n">
-        <x:v>96</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H21" t="str">
-        <x:v>38.25</x:v>
+        <x:v>35.15</x:v>
       </x:c>
     </x:row>
     <x:row r="22">
       <x:c r="A22" t="str">
-        <x:v>C107-6</x:v>
+        <x:v>BC120</x:v>
       </x:c>
       <x:c r="B22" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C22" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D22" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E22" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F22" t="n">
-        <x:v>1932.039</x:v>
+        <x:v>5597.386</x:v>
       </x:c>
       <x:c r="G22" t="n">
-        <x:v>31</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H22" t="str">
-        <x:v>59.32</x:v>
+        <x:v>35.15</x:v>
       </x:c>
     </x:row>
     <x:row r="23">
       <x:c r="A23" t="str">
-        <x:v>C127</x:v>
+        <x:v>DFC009</x:v>
       </x:c>
       <x:c r="B23" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 60.303 F</x:v>
       </x:c>
       <x:c r="C23" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D23" t="n">
-        <x:v>400</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E23" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F23" t="n">
-        <x:v>3278.000</x:v>
+        <x:v>2403.772</x:v>
       </x:c>
       <x:c r="G23" t="n">
-        <x:v>57</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H23" t="str">
-        <x:v>27.53</x:v>
+        <x:v>26.70</x:v>
       </x:c>
     </x:row>
     <x:row r="24">
       <x:c r="A24" t="str">
-        <x:v>BC027</x:v>
+        <x:v>DFC010</x:v>
       </x:c>
       <x:c r="B24" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 60.303 F</x:v>
       </x:c>
       <x:c r="C24" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D24" t="n">
-        <x:v>300</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E24" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F24" t="n">
-        <x:v>11830.897</x:v>
+        <x:v>4394.246</x:v>
       </x:c>
       <x:c r="G24" t="n">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H24" t="str">
-        <x:v>53.83</x:v>
+        <x:v>26.70</x:v>
       </x:c>
     </x:row>
     <x:row r="25">
       <x:c r="A25" t="str">
-        <x:v>BC028-1</x:v>
+        <x:v>A004</x:v>
       </x:c>
       <x:c r="B25" t="str">
-        <x:v>WSL 105.200 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C25" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D25" t="n">
-        <x:v>200</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E25" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F25" t="n">
-        <x:v>8464.870</x:v>
+        <x:v>1700.619</x:v>
       </x:c>
       <x:c r="G25" t="n">
-        <x:v>21</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H25" t="str">
-        <x:v>46.70</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="26">
       <x:c r="A26" t="str">
-        <x:v>BC120</x:v>
+        <x:v>BC148</x:v>
       </x:c>
       <x:c r="B26" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C26" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
@@ -691,7 +691,7 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="E26" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F26" t="n">
         <x:v>5597.386</x:v>
@@ -705,10 +705,10 @@
     </x:row>
     <x:row r="27">
       <x:c r="A27" t="str">
-        <x:v>BC106</x:v>
+        <x:v>BC160</x:v>
       </x:c>
       <x:c r="B27" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C27" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
@@ -717,47 +717,47 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="E27" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F27" t="n">
-        <x:v>5597.386</x:v>
+        <x:v>4800.000</x:v>
       </x:c>
       <x:c r="G27" t="n">
-        <x:v>60</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H27" t="str">
-        <x:v>35.15</x:v>
+        <x:v>33.78</x:v>
       </x:c>
     </x:row>
     <x:row r="28">
       <x:c r="A28" t="str">
-        <x:v>A002</x:v>
+        <x:v>C009</x:v>
       </x:c>
       <x:c r="B28" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C28" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D28" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E28" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F28" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>3100.000</x:v>
       </x:c>
       <x:c r="G28" t="n">
-        <x:v>12</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H28" t="str">
-        <x:v>N/A</x:v>
+        <x:v>44.95</x:v>
       </x:c>
     </x:row>
     <x:row r="29">
       <x:c r="A29" t="str">
-        <x:v>A003</x:v>
+        <x:v>A005</x:v>
       </x:c>
       <x:c r="B29" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -772,10 +772,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F29" t="n">
-        <x:v>1700.619</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G29" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H29" t="str">
         <x:v>N/A</x:v>
@@ -783,163 +783,163 @@
     </x:row>
     <x:row r="30">
       <x:c r="A30" t="str">
-        <x:v>BC134</x:v>
+        <x:v>C107-1</x:v>
       </x:c>
       <x:c r="B30" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C30" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D30" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E30" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F30" t="n">
-        <x:v>5597.386</x:v>
+        <x:v>3032.809</x:v>
       </x:c>
       <x:c r="G30" t="n">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H30" t="str">
-        <x:v>35.15</x:v>
+        <x:v>24.48</x:v>
       </x:c>
     </x:row>
     <x:row r="31">
       <x:c r="A31" t="str">
-        <x:v>BC148</x:v>
+        <x:v>A006</x:v>
       </x:c>
       <x:c r="B31" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C31" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D31" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E31" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F31" t="n">
-        <x:v>5597.386</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G31" t="n">
-        <x:v>60</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H31" t="str">
-        <x:v>35.15</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="32">
       <x:c r="A32" t="str">
-        <x:v>BC160</x:v>
+        <x:v>A021</x:v>
       </x:c>
       <x:c r="B32" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C32" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D32" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E32" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F32" t="n">
-        <x:v>4800.000</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G32" t="n">
-        <x:v>63</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H32" t="str">
-        <x:v>33.78</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="33">
       <x:c r="A33" t="str">
-        <x:v>C005</x:v>
+        <x:v>C111</x:v>
       </x:c>
       <x:c r="B33" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.400 F</x:v>
       </x:c>
       <x:c r="C33" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D33" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E33" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F33" t="n">
-        <x:v>11850.000</x:v>
+        <x:v>8649.557</x:v>
       </x:c>
       <x:c r="G33" t="n">
-        <x:v>89</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H33" t="str">
-        <x:v>41.43</x:v>
+        <x:v>51.60</x:v>
       </x:c>
     </x:row>
     <x:row r="34">
       <x:c r="A34" t="str">
-        <x:v>BC173</x:v>
+        <x:v>C118</x:v>
       </x:c>
       <x:c r="B34" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C34" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D34" t="n">
-        <x:v>200</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E34" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F34" t="n">
         <x:v>3400.000</x:v>
       </x:c>
       <x:c r="G34" t="n">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H34" t="str">
-        <x:v>58.35</x:v>
+        <x:v>48.68</x:v>
       </x:c>
     </x:row>
     <x:row r="35">
       <x:c r="A35" t="str">
-        <x:v>C009</x:v>
+        <x:v>A007</x:v>
       </x:c>
       <x:c r="B35" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C35" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D35" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E35" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F35" t="n">
-        <x:v>3100.000</x:v>
+        <x:v>6325.284</x:v>
       </x:c>
       <x:c r="G35" t="n">
-        <x:v>57</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H35" t="str">
-        <x:v>44.95</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="36">
       <x:c r="A36" t="str">
-        <x:v>A004</x:v>
+        <x:v>A008</x:v>
       </x:c>
       <x:c r="B36" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -954,7 +954,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F36" t="n">
-        <x:v>1700.619</x:v>
+        <x:v>6325.284</x:v>
       </x:c>
       <x:c r="G36" t="n">
         <x:v>13</x:v>
@@ -965,85 +965,85 @@
     </x:row>
     <x:row r="37">
       <x:c r="A37" t="str">
-        <x:v>C108</x:v>
+        <x:v>A009</x:v>
       </x:c>
       <x:c r="B37" t="str">
-        <x:v>WSL 105.300 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C37" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D37" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E37" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F37" t="n">
-        <x:v>8649.557</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G37" t="n">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H37" t="str">
-        <x:v>67.27</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="38">
       <x:c r="A38" t="str">
-        <x:v>C111</x:v>
+        <x:v>C004</x:v>
       </x:c>
       <x:c r="B38" t="str">
-        <x:v>WSL 105.300 F</x:v>
+        <x:v>KL 60.603 F</x:v>
       </x:c>
       <x:c r="C38" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D38" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E38" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F38" t="n">
-        <x:v>8649.557</x:v>
+        <x:v>4043.000</x:v>
       </x:c>
       <x:c r="G38" t="n">
-        <x:v>17</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H38" t="str">
-        <x:v>49.67</x:v>
+        <x:v>32.27</x:v>
       </x:c>
     </x:row>
     <x:row r="39">
       <x:c r="A39" t="str">
-        <x:v>A005</x:v>
+        <x:v>BC034</x:v>
       </x:c>
       <x:c r="B39" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.303 F</x:v>
       </x:c>
       <x:c r="C39" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D39" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E39" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F39" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>5120.505</x:v>
       </x:c>
       <x:c r="G39" t="n">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H39" t="str">
-        <x:v>N/A</x:v>
+        <x:v>53.30</x:v>
       </x:c>
     </x:row>
     <x:row r="40">
       <x:c r="A40" t="str">
-        <x:v>C107-1</x:v>
+        <x:v>C107-5</x:v>
       </x:c>
       <x:c r="B40" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -1058,70 +1058,70 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F40" t="n">
-        <x:v>3032.809</x:v>
+        <x:v>1876.448</x:v>
       </x:c>
       <x:c r="G40" t="n">
-        <x:v>59</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H40" t="str">
-        <x:v>24.48</x:v>
+        <x:v>18.08</x:v>
       </x:c>
     </x:row>
     <x:row r="41">
       <x:c r="A41" t="str">
-        <x:v>C116</x:v>
+        <x:v>DFB011</x:v>
       </x:c>
       <x:c r="B41" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C41" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D41" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E41" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F41" t="n">
-        <x:v>5779.193</x:v>
+        <x:v>1556.000</x:v>
       </x:c>
       <x:c r="G41" t="n">
-        <x:v>65</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H41" t="str">
-        <x:v>37.35</x:v>
+        <x:v>42.92</x:v>
       </x:c>
     </x:row>
     <x:row r="42">
       <x:c r="A42" t="str">
-        <x:v>C118</x:v>
+        <x:v>DFB003</x:v>
       </x:c>
       <x:c r="B42" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C42" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D42" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E42" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F42" t="n">
-        <x:v>3400.000</x:v>
+        <x:v>1206.000</x:v>
       </x:c>
       <x:c r="G42" t="n">
-        <x:v>28</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H42" t="str">
-        <x:v>55.53</x:v>
+        <x:v>19.48</x:v>
       </x:c>
     </x:row>
     <x:row r="43">
       <x:c r="A43" t="str">
-        <x:v>A006</x:v>
+        <x:v>A010</x:v>
       </x:c>
       <x:c r="B43" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -1147,59 +1147,59 @@
     </x:row>
     <x:row r="44">
       <x:c r="A44" t="str">
-        <x:v>C130</x:v>
+        <x:v>DFC006</x:v>
       </x:c>
       <x:c r="B44" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C44" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D44" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E44" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F44" t="n">
-        <x:v>3103.004</x:v>
+        <x:v>6600.000</x:v>
       </x:c>
       <x:c r="G44" t="n">
-        <x:v>57</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H44" t="str">
-        <x:v>31.90</x:v>
+        <x:v>50.88</x:v>
       </x:c>
     </x:row>
     <x:row r="45">
       <x:c r="A45" t="str">
-        <x:v>BC034</x:v>
+        <x:v>C120</x:v>
       </x:c>
       <x:c r="B45" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C45" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D45" t="n">
-        <x:v>200</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E45" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F45" t="n">
-        <x:v>5120.505</x:v>
+        <x:v>3103.004</x:v>
       </x:c>
       <x:c r="G45" t="n">
-        <x:v>19</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H45" t="str">
-        <x:v>44.15</x:v>
+        <x:v>23.23</x:v>
       </x:c>
     </x:row>
     <x:row r="46">
       <x:c r="A46" t="str">
-        <x:v>A007</x:v>
+        <x:v>A041</x:v>
       </x:c>
       <x:c r="B46" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -1214,10 +1214,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F46" t="n">
-        <x:v>6325.284</x:v>
+        <x:v>5764.057</x:v>
       </x:c>
       <x:c r="G46" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H46" t="str">
         <x:v>N/A</x:v>
@@ -1225,13 +1225,13 @@
     </x:row>
     <x:row r="47">
       <x:c r="A47" t="str">
-        <x:v>A008</x:v>
+        <x:v>DFC005</x:v>
       </x:c>
       <x:c r="B47" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C47" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D47" t="n">
         <x:v>600</x:v>
@@ -1240,50 +1240,50 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F47" t="n">
-        <x:v>6325.284</x:v>
+        <x:v>2153.210</x:v>
       </x:c>
       <x:c r="G47" t="n">
-        <x:v>13</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H47" t="str">
-        <x:v>N/A</x:v>
+        <x:v>59.82</x:v>
       </x:c>
     </x:row>
     <x:row r="48">
       <x:c r="A48" t="str">
-        <x:v>C137</x:v>
+        <x:v>BC014</x:v>
       </x:c>
       <x:c r="B48" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C48" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D48" t="n">
         <x:v>400</x:v>
       </x:c>
       <x:c r="E48" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F48" t="n">
-        <x:v>3278.000</x:v>
+        <x:v>6719.875</x:v>
       </x:c>
       <x:c r="G48" t="n">
-        <x:v>57</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H48" t="str">
-        <x:v>27.53</x:v>
+        <x:v>28.10</x:v>
       </x:c>
     </x:row>
     <x:row r="49">
       <x:c r="A49" t="str">
-        <x:v>C004</x:v>
+        <x:v>A011</x:v>
       </x:c>
       <x:c r="B49" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C49" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D49" t="n">
         <x:v>600</x:v>
@@ -1292,50 +1292,50 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F49" t="n">
-        <x:v>4043.000</x:v>
+        <x:v>3000.000</x:v>
       </x:c>
       <x:c r="G49" t="n">
-        <x:v>99</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H49" t="str">
-        <x:v>32.27</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="50">
       <x:c r="A50" t="str">
-        <x:v>DFB020</x:v>
+        <x:v>A012</x:v>
       </x:c>
       <x:c r="B50" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C50" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D50" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E50" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F50" t="n">
-        <x:v>3956.000</x:v>
+        <x:v>3000.000</x:v>
       </x:c>
       <x:c r="G50" t="n">
-        <x:v>30</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H50" t="str">
-        <x:v>47.67</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="51">
       <x:c r="A51" t="str">
-        <x:v>C107-5</x:v>
+        <x:v>A013</x:v>
       </x:c>
       <x:c r="B51" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C51" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D51" t="n">
         <x:v>600</x:v>
@@ -1344,18 +1344,18 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F51" t="n">
-        <x:v>1876.448</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G51" t="n">
-        <x:v>88</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H51" t="str">
-        <x:v>25.18</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="52">
       <x:c r="A52" t="str">
-        <x:v>A009</x:v>
+        <x:v>A014</x:v>
       </x:c>
       <x:c r="B52" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -1381,39 +1381,39 @@
     </x:row>
     <x:row r="53">
       <x:c r="A53" t="str">
-        <x:v>C120</x:v>
+        <x:v>A015</x:v>
       </x:c>
       <x:c r="B53" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C53" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D53" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E53" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F53" t="n">
-        <x:v>3103.004</x:v>
+        <x:v>1300.619</x:v>
       </x:c>
       <x:c r="G53" t="n">
-        <x:v>59</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H53" t="str">
-        <x:v>30.08</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="54">
       <x:c r="A54" t="str">
-        <x:v>DFB011</x:v>
+        <x:v>A016</x:v>
       </x:c>
       <x:c r="B54" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C54" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D54" t="n">
         <x:v>600</x:v>
@@ -1422,24 +1422,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F54" t="n">
-        <x:v>1556.000</x:v>
+        <x:v>1300.619</x:v>
       </x:c>
       <x:c r="G54" t="n">
-        <x:v>37</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H54" t="str">
-        <x:v>42.92</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="55">
       <x:c r="A55" t="str">
-        <x:v>DFC006</x:v>
+        <x:v>A017</x:v>
       </x:c>
       <x:c r="B55" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C55" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D55" t="n">
         <x:v>600</x:v>
@@ -1448,24 +1448,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F55" t="n">
-        <x:v>6600.000</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G55" t="n">
-        <x:v>41</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H55" t="str">
-        <x:v>55.45</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="56">
       <x:c r="A56" t="str">
-        <x:v>DFB003</x:v>
+        <x:v>A018</x:v>
       </x:c>
       <x:c r="B56" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C56" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D56" t="n">
         <x:v>600</x:v>
@@ -1474,18 +1474,18 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F56" t="n">
-        <x:v>1206.000</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G56" t="n">
-        <x:v>47</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H56" t="str">
-        <x:v>19.48</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="57">
       <x:c r="A57" t="str">
-        <x:v>A010</x:v>
+        <x:v>A019</x:v>
       </x:c>
       <x:c r="B57" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -1500,10 +1500,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F57" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>11439.220</x:v>
       </x:c>
       <x:c r="G57" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H57" t="str">
         <x:v>N/A</x:v>
@@ -1511,65 +1511,65 @@
     </x:row>
     <x:row r="58">
       <x:c r="A58" t="str">
-        <x:v>DFB017-2</x:v>
+        <x:v>C107-3</x:v>
       </x:c>
       <x:c r="B58" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C58" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D58" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E58" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F58" t="n">
-        <x:v>3800.000</x:v>
+        <x:v>1999.000</x:v>
       </x:c>
       <x:c r="G58" t="n">
-        <x:v>2</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H58" t="str">
-        <x:v>96.03</x:v>
+        <x:v>10.43</x:v>
       </x:c>
     </x:row>
     <x:row r="59">
       <x:c r="A59" t="str">
-        <x:v>BC002</x:v>
+        <x:v>A022</x:v>
       </x:c>
       <x:c r="B59" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C59" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D59" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E59" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F59" t="n">
-        <x:v>6465.000</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G59" t="n">
-        <x:v>45</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H59" t="str">
-        <x:v>39.62</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="60">
       <x:c r="A60" t="str">
-        <x:v>DFC001</x:v>
+        <x:v>A023</x:v>
       </x:c>
       <x:c r="B60" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C60" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D60" t="n">
         <x:v>600</x:v>
@@ -1578,24 +1578,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F60" t="n">
-        <x:v>3603.210</x:v>
+        <x:v>5642.599</x:v>
       </x:c>
       <x:c r="G60" t="n">
-        <x:v>50</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H60" t="str">
-        <x:v>44.92</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="61">
       <x:c r="A61" t="str">
-        <x:v>BC004</x:v>
+        <x:v>A024</x:v>
       </x:c>
       <x:c r="B61" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C61" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D61" t="n">
         <x:v>600</x:v>
@@ -1604,18 +1604,18 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F61" t="n">
-        <x:v>4400.000</x:v>
+        <x:v>5643.821</x:v>
       </x:c>
       <x:c r="G61" t="n">
-        <x:v>102</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H61" t="str">
-        <x:v>28.55</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="62">
       <x:c r="A62" t="str">
-        <x:v>A041</x:v>
+        <x:v>A025</x:v>
       </x:c>
       <x:c r="B62" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -1630,10 +1630,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F62" t="n">
-        <x:v>5764.057</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G62" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H62" t="str">
         <x:v>N/A</x:v>
@@ -1641,39 +1641,39 @@
     </x:row>
     <x:row r="63">
       <x:c r="A63" t="str">
-        <x:v>DFC004-2</x:v>
+        <x:v>A026</x:v>
       </x:c>
       <x:c r="B63" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C63" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D63" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E63" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F63" t="n">
-        <x:v>1750.000</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G63" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H63" t="str">
-        <x:v>74.60</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="64">
       <x:c r="A64" t="str">
-        <x:v>BC003</x:v>
+        <x:v>A027</x:v>
       </x:c>
       <x:c r="B64" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C64" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D64" t="n">
         <x:v>600</x:v>
@@ -1682,24 +1682,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F64" t="n">
-        <x:v>9500.000</x:v>
+        <x:v>1800.000</x:v>
       </x:c>
       <x:c r="G64" t="n">
-        <x:v>102</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H64" t="str">
-        <x:v>28.55</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="65">
       <x:c r="A65" t="str">
-        <x:v>DFC005</x:v>
+        <x:v>A028</x:v>
       </x:c>
       <x:c r="B65" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C65" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D65" t="n">
         <x:v>600</x:v>
@@ -1708,70 +1708,70 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F65" t="n">
-        <x:v>2153.210</x:v>
+        <x:v>1800.000</x:v>
       </x:c>
       <x:c r="G65" t="n">
-        <x:v>32</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H65" t="str">
-        <x:v>64.38</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="66">
       <x:c r="A66" t="str">
-        <x:v>DFC013</x:v>
+        <x:v>A029</x:v>
       </x:c>
       <x:c r="B66" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C66" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D66" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E66" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F66" t="n">
-        <x:v>2800.000</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G66" t="n">
-        <x:v>35</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H66" t="str">
-        <x:v>39.27</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="67">
       <x:c r="A67" t="str">
-        <x:v>BC014</x:v>
+        <x:v>A030</x:v>
       </x:c>
       <x:c r="B67" t="str">
-        <x:v>KL 100.503 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C67" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D67" t="n">
-        <x:v>500</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E67" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F67" t="n">
-        <x:v>6719.875</x:v>
+        <x:v>1274.601</x:v>
       </x:c>
       <x:c r="G67" t="n">
-        <x:v>68</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H67" t="str">
-        <x:v>42.48</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="68">
       <x:c r="A68" t="str">
-        <x:v>A011</x:v>
+        <x:v>A031</x:v>
       </x:c>
       <x:c r="B68" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -1786,7 +1786,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F68" t="n">
-        <x:v>3000.000</x:v>
+        <x:v>5830.812</x:v>
       </x:c>
       <x:c r="G68" t="n">
         <x:v>12</x:v>
@@ -1797,7 +1797,7 @@
     </x:row>
     <x:row r="69">
       <x:c r="A69" t="str">
-        <x:v>A012</x:v>
+        <x:v>A032</x:v>
       </x:c>
       <x:c r="B69" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -1812,7 +1812,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F69" t="n">
-        <x:v>3000.000</x:v>
+        <x:v>5830.812</x:v>
       </x:c>
       <x:c r="G69" t="n">
         <x:v>13</x:v>
@@ -1823,13 +1823,13 @@
     </x:row>
     <x:row r="70">
       <x:c r="A70" t="str">
-        <x:v>C011</x:v>
+        <x:v>A033</x:v>
       </x:c>
       <x:c r="B70" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C70" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D70" t="n">
         <x:v>600</x:v>
@@ -1838,24 +1838,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F70" t="n">
-        <x:v>4135.930</x:v>
+        <x:v>4970.900</x:v>
       </x:c>
       <x:c r="G70" t="n">
-        <x:v>83</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H70" t="str">
-        <x:v>47.75</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="71">
       <x:c r="A71" t="str">
-        <x:v>C107-3</x:v>
+        <x:v>A034</x:v>
       </x:c>
       <x:c r="B71" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C71" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type A (Pink color) for MV cables</x:v>
       </x:c>
       <x:c r="D71" t="n">
         <x:v>600</x:v>
@@ -1864,18 +1864,18 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F71" t="n">
-        <x:v>1999.000</x:v>
+        <x:v>11174.950</x:v>
       </x:c>
       <x:c r="G71" t="n">
-        <x:v>90</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H71" t="str">
-        <x:v>17.53</x:v>
+        <x:v>N/A</x:v>
       </x:c>
     </x:row>
     <x:row r="72">
       <x:c r="A72" t="str">
-        <x:v>A013</x:v>
+        <x:v>A035</x:v>
       </x:c>
       <x:c r="B72" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -1890,10 +1890,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F72" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>10327.774</x:v>
       </x:c>
       <x:c r="G72" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H72" t="str">
         <x:v>N/A</x:v>
@@ -1901,7 +1901,7 @@
     </x:row>
     <x:row r="73">
       <x:c r="A73" t="str">
-        <x:v>A014</x:v>
+        <x:v>A036</x:v>
       </x:c>
       <x:c r="B73" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -1916,7 +1916,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F73" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>25905.369</x:v>
       </x:c>
       <x:c r="G73" t="n">
         <x:v>12</x:v>
@@ -1927,7 +1927,7 @@
     </x:row>
     <x:row r="74">
       <x:c r="A74" t="str">
-        <x:v>A015</x:v>
+        <x:v>A037</x:v>
       </x:c>
       <x:c r="B74" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -1942,7 +1942,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F74" t="n">
-        <x:v>1300.619</x:v>
+        <x:v>25105.369</x:v>
       </x:c>
       <x:c r="G74" t="n">
         <x:v>12</x:v>
@@ -1953,7 +1953,7 @@
     </x:row>
     <x:row r="75">
       <x:c r="A75" t="str">
-        <x:v>A016</x:v>
+        <x:v>A038</x:v>
       </x:c>
       <x:c r="B75" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -1968,10 +1968,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F75" t="n">
-        <x:v>1300.619</x:v>
+        <x:v>10326.481</x:v>
       </x:c>
       <x:c r="G75" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H75" t="str">
         <x:v>N/A</x:v>
@@ -1979,7 +1979,7 @@
     </x:row>
     <x:row r="76">
       <x:c r="A76" t="str">
-        <x:v>A017</x:v>
+        <x:v>A039</x:v>
       </x:c>
       <x:c r="B76" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -1994,7 +1994,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F76" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>11174.424</x:v>
       </x:c>
       <x:c r="G76" t="n">
         <x:v>12</x:v>
@@ -2005,7 +2005,7 @@
     </x:row>
     <x:row r="77">
       <x:c r="A77" t="str">
-        <x:v>A018</x:v>
+        <x:v>A040</x:v>
       </x:c>
       <x:c r="B77" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2020,7 +2020,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F77" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>4218.868</x:v>
       </x:c>
       <x:c r="G77" t="n">
         <x:v>12</x:v>
@@ -2031,7 +2031,7 @@
     </x:row>
     <x:row r="78">
       <x:c r="A78" t="str">
-        <x:v>A019</x:v>
+        <x:v>A042</x:v>
       </x:c>
       <x:c r="B78" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2046,10 +2046,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F78" t="n">
-        <x:v>11439.220</x:v>
+        <x:v>5764.057</x:v>
       </x:c>
       <x:c r="G78" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H78" t="str">
         <x:v>N/A</x:v>
@@ -2057,7 +2057,7 @@
     </x:row>
     <x:row r="79">
       <x:c r="A79" t="str">
-        <x:v>A020</x:v>
+        <x:v>A043</x:v>
       </x:c>
       <x:c r="B79" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2072,10 +2072,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F79" t="n">
-        <x:v>11439.220</x:v>
+        <x:v>5642.620</x:v>
       </x:c>
       <x:c r="G79" t="n">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H79" t="str">
         <x:v>N/A</x:v>
@@ -2083,7 +2083,7 @@
     </x:row>
     <x:row r="80">
       <x:c r="A80" t="str">
-        <x:v>A021</x:v>
+        <x:v>A044</x:v>
       </x:c>
       <x:c r="B80" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2098,10 +2098,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F80" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>5642.620</x:v>
       </x:c>
       <x:c r="G80" t="n">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H80" t="str">
         <x:v>N/A</x:v>
@@ -2109,7 +2109,7 @@
     </x:row>
     <x:row r="81">
       <x:c r="A81" t="str">
-        <x:v>A022</x:v>
+        <x:v>A045</x:v>
       </x:c>
       <x:c r="B81" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2124,10 +2124,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F81" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>7736.447</x:v>
       </x:c>
       <x:c r="G81" t="n">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H81" t="str">
         <x:v>N/A</x:v>
@@ -2135,7 +2135,7 @@
     </x:row>
     <x:row r="82">
       <x:c r="A82" t="str">
-        <x:v>A023</x:v>
+        <x:v>A046</x:v>
       </x:c>
       <x:c r="B82" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2150,10 +2150,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F82" t="n">
-        <x:v>5642.599</x:v>
+        <x:v>7736.447</x:v>
       </x:c>
       <x:c r="G82" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H82" t="str">
         <x:v>N/A</x:v>
@@ -2161,7 +2161,7 @@
     </x:row>
     <x:row r="83">
       <x:c r="A83" t="str">
-        <x:v>A024</x:v>
+        <x:v>A047</x:v>
       </x:c>
       <x:c r="B83" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2176,10 +2176,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F83" t="n">
-        <x:v>5643.821</x:v>
+        <x:v>10433.601</x:v>
       </x:c>
       <x:c r="G83" t="n">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H83" t="str">
         <x:v>N/A</x:v>
@@ -2187,7 +2187,7 @@
     </x:row>
     <x:row r="84">
       <x:c r="A84" t="str">
-        <x:v>A025</x:v>
+        <x:v>A048</x:v>
       </x:c>
       <x:c r="B84" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2202,10 +2202,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F84" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>10433.601</x:v>
       </x:c>
       <x:c r="G84" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H84" t="str">
         <x:v>N/A</x:v>
@@ -2213,10 +2213,10 @@
     </x:row>
     <x:row r="85">
       <x:c r="A85" t="str">
-        <x:v>A026</x:v>
+        <x:v>A101</x:v>
       </x:c>
       <x:c r="B85" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.600 F</x:v>
       </x:c>
       <x:c r="C85" t="str">
         <x:v>Type A (Pink color) for MV cables</x:v>
@@ -2225,10 +2225,10 @@
         <x:v>600</x:v>
       </x:c>
       <x:c r="E85" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F85" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>6912.929</x:v>
       </x:c>
       <x:c r="G85" t="n">
         <x:v>12</x:v>
@@ -2239,10 +2239,10 @@
     </x:row>
     <x:row r="86">
       <x:c r="A86" t="str">
-        <x:v>A027</x:v>
+        <x:v>A102</x:v>
       </x:c>
       <x:c r="B86" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.600 F</x:v>
       </x:c>
       <x:c r="C86" t="str">
         <x:v>Type A (Pink color) for MV cables</x:v>
@@ -2251,10 +2251,10 @@
         <x:v>600</x:v>
       </x:c>
       <x:c r="E86" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F86" t="n">
-        <x:v>1800.000</x:v>
+        <x:v>7062.451</x:v>
       </x:c>
       <x:c r="G86" t="n">
         <x:v>12</x:v>
@@ -2265,10 +2265,10 @@
     </x:row>
     <x:row r="87">
       <x:c r="A87" t="str">
-        <x:v>A028</x:v>
+        <x:v>A103</x:v>
       </x:c>
       <x:c r="B87" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.600 F</x:v>
       </x:c>
       <x:c r="C87" t="str">
         <x:v>Type A (Pink color) for MV cables</x:v>
@@ -2277,13 +2277,13 @@
         <x:v>600</x:v>
       </x:c>
       <x:c r="E87" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F87" t="n">
-        <x:v>1800.000</x:v>
+        <x:v>6912.929</x:v>
       </x:c>
       <x:c r="G87" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H87" t="str">
         <x:v>N/A</x:v>
@@ -2291,10 +2291,10 @@
     </x:row>
     <x:row r="88">
       <x:c r="A88" t="str">
-        <x:v>A029</x:v>
+        <x:v>A104</x:v>
       </x:c>
       <x:c r="B88" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.600 F</x:v>
       </x:c>
       <x:c r="C88" t="str">
         <x:v>Type A (Pink color) for MV cables</x:v>
@@ -2303,13 +2303,13 @@
         <x:v>600</x:v>
       </x:c>
       <x:c r="E88" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F88" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>6968.311</x:v>
       </x:c>
       <x:c r="G88" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H88" t="str">
         <x:v>N/A</x:v>
@@ -2317,7 +2317,7 @@
     </x:row>
     <x:row r="89">
       <x:c r="A89" t="str">
-        <x:v>A030</x:v>
+        <x:v>A105</x:v>
       </x:c>
       <x:c r="B89" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2332,10 +2332,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F89" t="n">
-        <x:v>1274.601</x:v>
+        <x:v>5725.000</x:v>
       </x:c>
       <x:c r="G89" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H89" t="str">
         <x:v>N/A</x:v>
@@ -2343,7 +2343,7 @@
     </x:row>
     <x:row r="90">
       <x:c r="A90" t="str">
-        <x:v>A031</x:v>
+        <x:v>A106</x:v>
       </x:c>
       <x:c r="B90" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2358,7 +2358,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F90" t="n">
-        <x:v>5830.812</x:v>
+        <x:v>4725.000</x:v>
       </x:c>
       <x:c r="G90" t="n">
         <x:v>12</x:v>
@@ -2369,7 +2369,7 @@
     </x:row>
     <x:row r="91">
       <x:c r="A91" t="str">
-        <x:v>A032</x:v>
+        <x:v>A107</x:v>
       </x:c>
       <x:c r="B91" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2384,10 +2384,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F91" t="n">
-        <x:v>5830.812</x:v>
+        <x:v>3600.000</x:v>
       </x:c>
       <x:c r="G91" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H91" t="str">
         <x:v>N/A</x:v>
@@ -2395,7 +2395,7 @@
     </x:row>
     <x:row r="92">
       <x:c r="A92" t="str">
-        <x:v>A033</x:v>
+        <x:v>A108</x:v>
       </x:c>
       <x:c r="B92" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2410,7 +2410,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F92" t="n">
-        <x:v>4970.900</x:v>
+        <x:v>3600.000</x:v>
       </x:c>
       <x:c r="G92" t="n">
         <x:v>12</x:v>
@@ -2421,7 +2421,7 @@
     </x:row>
     <x:row r="93">
       <x:c r="A93" t="str">
-        <x:v>A034</x:v>
+        <x:v>A111</x:v>
       </x:c>
       <x:c r="B93" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2436,7 +2436,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F93" t="n">
-        <x:v>11174.950</x:v>
+        <x:v>5725.000</x:v>
       </x:c>
       <x:c r="G93" t="n">
         <x:v>12</x:v>
@@ -2447,7 +2447,7 @@
     </x:row>
     <x:row r="94">
       <x:c r="A94" t="str">
-        <x:v>A035</x:v>
+        <x:v>A112</x:v>
       </x:c>
       <x:c r="B94" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2462,7 +2462,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F94" t="n">
-        <x:v>10327.774</x:v>
+        <x:v>5025.000</x:v>
       </x:c>
       <x:c r="G94" t="n">
         <x:v>12</x:v>
@@ -2473,7 +2473,7 @@
     </x:row>
     <x:row r="95">
       <x:c r="A95" t="str">
-        <x:v>A036</x:v>
+        <x:v>A113</x:v>
       </x:c>
       <x:c r="B95" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2488,7 +2488,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F95" t="n">
-        <x:v>25905.369</x:v>
+        <x:v>3600.000</x:v>
       </x:c>
       <x:c r="G95" t="n">
         <x:v>12</x:v>
@@ -2499,7 +2499,7 @@
     </x:row>
     <x:row r="96">
       <x:c r="A96" t="str">
-        <x:v>A037</x:v>
+        <x:v>A114</x:v>
       </x:c>
       <x:c r="B96" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2514,7 +2514,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F96" t="n">
-        <x:v>25105.369</x:v>
+        <x:v>3600.000</x:v>
       </x:c>
       <x:c r="G96" t="n">
         <x:v>12</x:v>
@@ -2525,10 +2525,10 @@
     </x:row>
     <x:row r="97">
       <x:c r="A97" t="str">
-        <x:v>A038</x:v>
+        <x:v>A115</x:v>
       </x:c>
       <x:c r="B97" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.600 F</x:v>
       </x:c>
       <x:c r="C97" t="str">
         <x:v>Type A (Pink color) for MV cables</x:v>
@@ -2537,10 +2537,10 @@
         <x:v>600</x:v>
       </x:c>
       <x:c r="E97" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F97" t="n">
-        <x:v>10326.481</x:v>
+        <x:v>6894.960</x:v>
       </x:c>
       <x:c r="G97" t="n">
         <x:v>12</x:v>
@@ -2551,10 +2551,10 @@
     </x:row>
     <x:row r="98">
       <x:c r="A98" t="str">
-        <x:v>A039</x:v>
+        <x:v>A116</x:v>
       </x:c>
       <x:c r="B98" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.600 F</x:v>
       </x:c>
       <x:c r="C98" t="str">
         <x:v>Type A (Pink color) for MV cables</x:v>
@@ -2563,10 +2563,10 @@
         <x:v>600</x:v>
       </x:c>
       <x:c r="E98" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F98" t="n">
-        <x:v>11174.424</x:v>
+        <x:v>7084.929</x:v>
       </x:c>
       <x:c r="G98" t="n">
         <x:v>12</x:v>
@@ -2577,10 +2577,10 @@
     </x:row>
     <x:row r="99">
       <x:c r="A99" t="str">
-        <x:v>A040</x:v>
+        <x:v>A117</x:v>
       </x:c>
       <x:c r="B99" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.600 F</x:v>
       </x:c>
       <x:c r="C99" t="str">
         <x:v>Type A (Pink color) for MV cables</x:v>
@@ -2589,10 +2589,10 @@
         <x:v>600</x:v>
       </x:c>
       <x:c r="E99" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F99" t="n">
-        <x:v>4218.868</x:v>
+        <x:v>6962.449</x:v>
       </x:c>
       <x:c r="G99" t="n">
         <x:v>12</x:v>
@@ -2603,10 +2603,10 @@
     </x:row>
     <x:row r="100">
       <x:c r="A100" t="str">
-        <x:v>A042</x:v>
+        <x:v>A118</x:v>
       </x:c>
       <x:c r="B100" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.600 F</x:v>
       </x:c>
       <x:c r="C100" t="str">
         <x:v>Type A (Pink color) for MV cables</x:v>
@@ -2615,13 +2615,13 @@
         <x:v>600</x:v>
       </x:c>
       <x:c r="E100" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F100" t="n">
-        <x:v>5764.057</x:v>
+        <x:v>7084.929</x:v>
       </x:c>
       <x:c r="G100" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H100" t="str">
         <x:v>N/A</x:v>
@@ -2629,7 +2629,7 @@
     </x:row>
     <x:row r="101">
       <x:c r="A101" t="str">
-        <x:v>A043</x:v>
+        <x:v>A119</x:v>
       </x:c>
       <x:c r="B101" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2644,10 +2644,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F101" t="n">
-        <x:v>5642.620</x:v>
+        <x:v>5725.000</x:v>
       </x:c>
       <x:c r="G101" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H101" t="str">
         <x:v>N/A</x:v>
@@ -2655,7 +2655,7 @@
     </x:row>
     <x:row r="102">
       <x:c r="A102" t="str">
-        <x:v>A044</x:v>
+        <x:v>A120</x:v>
       </x:c>
       <x:c r="B102" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2670,10 +2670,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F102" t="n">
-        <x:v>5642.620</x:v>
+        <x:v>5025.000</x:v>
       </x:c>
       <x:c r="G102" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H102" t="str">
         <x:v>N/A</x:v>
@@ -2681,7 +2681,7 @@
     </x:row>
     <x:row r="103">
       <x:c r="A103" t="str">
-        <x:v>A045</x:v>
+        <x:v>A121</x:v>
       </x:c>
       <x:c r="B103" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2696,10 +2696,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F103" t="n">
-        <x:v>7736.447</x:v>
+        <x:v>3600.000</x:v>
       </x:c>
       <x:c r="G103" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H103" t="str">
         <x:v>N/A</x:v>
@@ -2707,7 +2707,7 @@
     </x:row>
     <x:row r="104">
       <x:c r="A104" t="str">
-        <x:v>A046</x:v>
+        <x:v>A122</x:v>
       </x:c>
       <x:c r="B104" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2722,10 +2722,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F104" t="n">
-        <x:v>7736.447</x:v>
+        <x:v>3600.000</x:v>
       </x:c>
       <x:c r="G104" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H104" t="str">
         <x:v>N/A</x:v>
@@ -2733,7 +2733,7 @@
     </x:row>
     <x:row r="105">
       <x:c r="A105" t="str">
-        <x:v>A047</x:v>
+        <x:v>A123</x:v>
       </x:c>
       <x:c r="B105" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2748,10 +2748,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F105" t="n">
-        <x:v>10433.601</x:v>
+        <x:v>5725.000</x:v>
       </x:c>
       <x:c r="G105" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H105" t="str">
         <x:v>N/A</x:v>
@@ -2759,7 +2759,7 @@
     </x:row>
     <x:row r="106">
       <x:c r="A106" t="str">
-        <x:v>A048</x:v>
+        <x:v>A124</x:v>
       </x:c>
       <x:c r="B106" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2774,10 +2774,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F106" t="n">
-        <x:v>10433.601</x:v>
+        <x:v>5125.000</x:v>
       </x:c>
       <x:c r="G106" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H106" t="str">
         <x:v>N/A</x:v>
@@ -2785,10 +2785,10 @@
     </x:row>
     <x:row r="107">
       <x:c r="A107" t="str">
-        <x:v>A101</x:v>
+        <x:v>A125</x:v>
       </x:c>
       <x:c r="B107" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C107" t="str">
         <x:v>Type A (Pink color) for MV cables</x:v>
@@ -2797,10 +2797,10 @@
         <x:v>600</x:v>
       </x:c>
       <x:c r="E107" t="n">
-        <x:v>105</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F107" t="n">
-        <x:v>6912.929</x:v>
+        <x:v>2700.000</x:v>
       </x:c>
       <x:c r="G107" t="n">
         <x:v>12</x:v>
@@ -2811,10 +2811,10 @@
     </x:row>
     <x:row r="108">
       <x:c r="A108" t="str">
-        <x:v>A102</x:v>
+        <x:v>A126</x:v>
       </x:c>
       <x:c r="B108" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C108" t="str">
         <x:v>Type A (Pink color) for MV cables</x:v>
@@ -2823,10 +2823,10 @@
         <x:v>600</x:v>
       </x:c>
       <x:c r="E108" t="n">
-        <x:v>105</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F108" t="n">
-        <x:v>7062.451</x:v>
+        <x:v>2700.000</x:v>
       </x:c>
       <x:c r="G108" t="n">
         <x:v>12</x:v>
@@ -2837,10 +2837,10 @@
     </x:row>
     <x:row r="109">
       <x:c r="A109" t="str">
-        <x:v>A103</x:v>
+        <x:v>A127</x:v>
       </x:c>
       <x:c r="B109" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C109" t="str">
         <x:v>Type A (Pink color) for MV cables</x:v>
@@ -2849,10 +2849,10 @@
         <x:v>600</x:v>
       </x:c>
       <x:c r="E109" t="n">
-        <x:v>105</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F109" t="n">
-        <x:v>6912.929</x:v>
+        <x:v>21256.580</x:v>
       </x:c>
       <x:c r="G109" t="n">
         <x:v>12</x:v>
@@ -2863,10 +2863,10 @@
     </x:row>
     <x:row r="110">
       <x:c r="A110" t="str">
-        <x:v>A104</x:v>
+        <x:v>A128</x:v>
       </x:c>
       <x:c r="B110" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C110" t="str">
         <x:v>Type A (Pink color) for MV cables</x:v>
@@ -2875,10 +2875,10 @@
         <x:v>600</x:v>
       </x:c>
       <x:c r="E110" t="n">
-        <x:v>105</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F110" t="n">
-        <x:v>6968.311</x:v>
+        <x:v>20637.837</x:v>
       </x:c>
       <x:c r="G110" t="n">
         <x:v>12</x:v>
@@ -2889,7 +2889,7 @@
     </x:row>
     <x:row r="111">
       <x:c r="A111" t="str">
-        <x:v>A105</x:v>
+        <x:v>A129</x:v>
       </x:c>
       <x:c r="B111" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2904,7 +2904,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F111" t="n">
-        <x:v>5725.000</x:v>
+        <x:v>22200.718</x:v>
       </x:c>
       <x:c r="G111" t="n">
         <x:v>12</x:v>
@@ -2915,7 +2915,7 @@
     </x:row>
     <x:row r="112">
       <x:c r="A112" t="str">
-        <x:v>A106</x:v>
+        <x:v>A130</x:v>
       </x:c>
       <x:c r="B112" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -2930,7 +2930,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F112" t="n">
-        <x:v>4725.000</x:v>
+        <x:v>21286.580</x:v>
       </x:c>
       <x:c r="G112" t="n">
         <x:v>12</x:v>
@@ -2941,13 +2941,13 @@
     </x:row>
     <x:row r="113">
       <x:c r="A113" t="str">
-        <x:v>A107</x:v>
+        <x:v>B002</x:v>
       </x:c>
       <x:c r="B113" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C113" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D113" t="n">
         <x:v>600</x:v>
@@ -2956,50 +2956,50 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F113" t="n">
-        <x:v>3600.000</x:v>
+        <x:v>6000.000</x:v>
       </x:c>
       <x:c r="G113" t="n">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H113" t="str">
-        <x:v>N/A</x:v>
+        <x:v>59.12</x:v>
       </x:c>
     </x:row>
     <x:row r="114">
       <x:c r="A114" t="str">
-        <x:v>A108</x:v>
+        <x:v>B004</x:v>
       </x:c>
       <x:c r="B114" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.300 F</x:v>
       </x:c>
       <x:c r="C114" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D114" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E114" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F114" t="n">
-        <x:v>3600.000</x:v>
+        <x:v>7159.229</x:v>
       </x:c>
       <x:c r="G114" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H114" t="str">
-        <x:v>N/A</x:v>
+        <x:v>67.37</x:v>
       </x:c>
     </x:row>
     <x:row r="115">
       <x:c r="A115" t="str">
-        <x:v>A111</x:v>
+        <x:v>B007</x:v>
       </x:c>
       <x:c r="B115" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C115" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D115" t="n">
         <x:v>600</x:v>
@@ -3008,284 +3008,284 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F115" t="n">
-        <x:v>5725.000</x:v>
+        <x:v>6000.000</x:v>
       </x:c>
       <x:c r="G115" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H115" t="str">
-        <x:v>N/A</x:v>
+        <x:v>77.30</x:v>
       </x:c>
     </x:row>
     <x:row r="116">
       <x:c r="A116" t="str">
-        <x:v>A112</x:v>
+        <x:v>B102</x:v>
       </x:c>
       <x:c r="B116" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.400 F</x:v>
       </x:c>
       <x:c r="C116" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D116" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E116" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F116" t="n">
-        <x:v>5025.000</x:v>
+        <x:v>8778.319</x:v>
       </x:c>
       <x:c r="G116" t="n">
-        <x:v>12</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H116" t="str">
-        <x:v>N/A</x:v>
+        <x:v>32.28</x:v>
       </x:c>
     </x:row>
     <x:row r="117">
       <x:c r="A117" t="str">
-        <x:v>A113</x:v>
+        <x:v>B005</x:v>
       </x:c>
       <x:c r="B117" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C117" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D117" t="n">
-        <x:v>600</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E117" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F117" t="n">
-        <x:v>3600.000</x:v>
+        <x:v>3250.000</x:v>
       </x:c>
       <x:c r="G117" t="n">
-        <x:v>12</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H117" t="str">
-        <x:v>N/A</x:v>
+        <x:v>73.50</x:v>
       </x:c>
     </x:row>
     <x:row r="118">
       <x:c r="A118" t="str">
-        <x:v>A114</x:v>
+        <x:v>B006</x:v>
       </x:c>
       <x:c r="B118" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C118" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D118" t="n">
-        <x:v>600</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E118" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F118" t="n">
-        <x:v>3600.000</x:v>
+        <x:v>1900.000</x:v>
       </x:c>
       <x:c r="G118" t="n">
-        <x:v>12</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H118" t="str">
-        <x:v>N/A</x:v>
+        <x:v>73.50</x:v>
       </x:c>
     </x:row>
     <x:row r="119">
       <x:c r="A119" t="str">
-        <x:v>A115</x:v>
+        <x:v>B104-1</x:v>
       </x:c>
       <x:c r="B119" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 1000.403 F</x:v>
       </x:c>
       <x:c r="C119" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D119" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E119" t="n">
-        <x:v>105</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F119" t="n">
-        <x:v>6894.960</x:v>
+        <x:v>1300.619</x:v>
       </x:c>
       <x:c r="G119" t="n">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H119" t="str">
-        <x:v>N/A</x:v>
+        <x:v>81.55</x:v>
       </x:c>
     </x:row>
     <x:row r="120">
       <x:c r="A120" t="str">
-        <x:v>A116</x:v>
+        <x:v>B107-1</x:v>
       </x:c>
       <x:c r="B120" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C120" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D120" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="E120" t="n">
-        <x:v>105</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F120" t="n">
-        <x:v>7084.929</x:v>
+        <x:v>3032.809</x:v>
       </x:c>
       <x:c r="G120" t="n">
-        <x:v>12</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H120" t="str">
-        <x:v>N/A</x:v>
+        <x:v>33.08</x:v>
       </x:c>
     </x:row>
     <x:row r="121">
       <x:c r="A121" t="str">
-        <x:v>A117</x:v>
+        <x:v>B105-1</x:v>
       </x:c>
       <x:c r="B121" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C121" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D121" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E121" t="n">
-        <x:v>105</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F121" t="n">
-        <x:v>6962.449</x:v>
+        <x:v>6501.881</x:v>
       </x:c>
       <x:c r="G121" t="n">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H121" t="str">
-        <x:v>N/A</x:v>
+        <x:v>56.40</x:v>
       </x:c>
     </x:row>
     <x:row r="122">
       <x:c r="A122" t="str">
-        <x:v>A118</x:v>
+        <x:v>B105-2</x:v>
       </x:c>
       <x:c r="B122" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C122" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D122" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E122" t="n">
-        <x:v>105</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F122" t="n">
-        <x:v>7084.929</x:v>
+        <x:v>1196.290</x:v>
       </x:c>
       <x:c r="G122" t="n">
-        <x:v>12</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H122" t="str">
-        <x:v>N/A</x:v>
+        <x:v>43.53</x:v>
       </x:c>
     </x:row>
     <x:row r="123">
       <x:c r="A123" t="str">
-        <x:v>A119</x:v>
+        <x:v>B111</x:v>
       </x:c>
       <x:c r="B123" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.300 F</x:v>
       </x:c>
       <x:c r="C123" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D123" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E123" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F123" t="n">
-        <x:v>5725.000</x:v>
+        <x:v>8951.937</x:v>
       </x:c>
       <x:c r="G123" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H123" t="str">
-        <x:v>N/A</x:v>
+        <x:v>58.33</x:v>
       </x:c>
     </x:row>
     <x:row r="124">
       <x:c r="A124" t="str">
-        <x:v>A120</x:v>
+        <x:v>B108</x:v>
       </x:c>
       <x:c r="B124" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.300 F</x:v>
       </x:c>
       <x:c r="C124" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D124" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E124" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F124" t="n">
-        <x:v>5025.000</x:v>
+        <x:v>9001.937</x:v>
       </x:c>
       <x:c r="G124" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H124" t="str">
-        <x:v>N/A</x:v>
+        <x:v>58.33</x:v>
       </x:c>
     </x:row>
     <x:row r="125">
       <x:c r="A125" t="str">
-        <x:v>A121</x:v>
+        <x:v>B112</x:v>
       </x:c>
       <x:c r="B125" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.300 F</x:v>
       </x:c>
       <x:c r="C125" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D125" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E125" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F125" t="n">
-        <x:v>3600.000</x:v>
+        <x:v>7926.000</x:v>
       </x:c>
       <x:c r="G125" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H125" t="str">
-        <x:v>N/A</x:v>
+        <x:v>58.33</x:v>
       </x:c>
     </x:row>
     <x:row r="126">
       <x:c r="A126" t="str">
-        <x:v>A122</x:v>
+        <x:v>B107-4</x:v>
       </x:c>
       <x:c r="B126" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C126" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D126" t="n">
         <x:v>600</x:v>
@@ -3294,24 +3294,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F126" t="n">
-        <x:v>3600.000</x:v>
+        <x:v>7909.844</x:v>
       </x:c>
       <x:c r="G126" t="n">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H126" t="str">
-        <x:v>N/A</x:v>
+        <x:v>41.88</x:v>
       </x:c>
     </x:row>
     <x:row r="127">
       <x:c r="A127" t="str">
-        <x:v>A123</x:v>
+        <x:v>B107-5</x:v>
       </x:c>
       <x:c r="B127" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C127" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D127" t="n">
         <x:v>600</x:v>
@@ -3320,24 +3320,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F127" t="n">
-        <x:v>5725.000</x:v>
+        <x:v>1926.448</x:v>
       </x:c>
       <x:c r="G127" t="n">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H127" t="str">
-        <x:v>N/A</x:v>
+        <x:v>57.93</x:v>
       </x:c>
     </x:row>
     <x:row r="128">
       <x:c r="A128" t="str">
-        <x:v>A124</x:v>
+        <x:v>B107-6</x:v>
       </x:c>
       <x:c r="B128" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C128" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D128" t="n">
         <x:v>600</x:v>
@@ -3346,24 +3346,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F128" t="n">
-        <x:v>5125.000</x:v>
+        <x:v>1932.039</x:v>
       </x:c>
       <x:c r="G128" t="n">
-        <x:v>12</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H128" t="str">
-        <x:v>N/A</x:v>
+        <x:v>60.27</x:v>
       </x:c>
     </x:row>
     <x:row r="129">
       <x:c r="A129" t="str">
-        <x:v>A125</x:v>
+        <x:v>B107-7</x:v>
       </x:c>
       <x:c r="B129" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C129" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D129" t="n">
         <x:v>600</x:v>
@@ -3372,50 +3372,50 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F129" t="n">
-        <x:v>2700.000</x:v>
+        <x:v>4872.000</x:v>
       </x:c>
       <x:c r="G129" t="n">
-        <x:v>12</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H129" t="str">
-        <x:v>N/A</x:v>
+        <x:v>64.75</x:v>
       </x:c>
     </x:row>
     <x:row r="130">
       <x:c r="A130" t="str">
-        <x:v>A126</x:v>
+        <x:v>B120</x:v>
       </x:c>
       <x:c r="B130" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.303 F</x:v>
       </x:c>
       <x:c r="C130" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D130" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E130" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F130" t="n">
-        <x:v>2700.000</x:v>
+        <x:v>10013.554</x:v>
       </x:c>
       <x:c r="G130" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H130" t="str">
-        <x:v>N/A</x:v>
+        <x:v>58.33</x:v>
       </x:c>
     </x:row>
     <x:row r="131">
       <x:c r="A131" t="str">
-        <x:v>A127</x:v>
+        <x:v>B139-6</x:v>
       </x:c>
       <x:c r="B131" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C131" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D131" t="n">
         <x:v>600</x:v>
@@ -3424,24 +3424,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F131" t="n">
-        <x:v>21256.580</x:v>
+        <x:v>1932.039</x:v>
       </x:c>
       <x:c r="G131" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H131" t="str">
-        <x:v>N/A</x:v>
+        <x:v>100.00</x:v>
       </x:c>
     </x:row>
     <x:row r="132">
       <x:c r="A132" t="str">
-        <x:v>A128</x:v>
+        <x:v>B139-7</x:v>
       </x:c>
       <x:c r="B132" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C132" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D132" t="n">
         <x:v>600</x:v>
@@ -3450,99 +3450,99 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F132" t="n">
-        <x:v>20637.837</x:v>
+        <x:v>4067.961</x:v>
       </x:c>
       <x:c r="G132" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H132" t="str">
-        <x:v>N/A</x:v>
+        <x:v>100.00</x:v>
       </x:c>
     </x:row>
     <x:row r="133">
       <x:c r="A133" t="str">
-        <x:v>A129</x:v>
+        <x:v>B118</x:v>
       </x:c>
       <x:c r="B133" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.303 F</x:v>
       </x:c>
       <x:c r="C133" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D133" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E133" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F133" t="n">
-        <x:v>22200.718</x:v>
+        <x:v>10013.554</x:v>
       </x:c>
       <x:c r="G133" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H133" t="str">
-        <x:v>N/A</x:v>
+        <x:v>60.27</x:v>
       </x:c>
     </x:row>
     <x:row r="134">
       <x:c r="A134" t="str">
-        <x:v>A130</x:v>
+        <x:v>B116</x:v>
       </x:c>
       <x:c r="B134" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C134" t="str">
-        <x:v>Type A (Pink color) for MV cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D134" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E134" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F134" t="n">
-        <x:v>21286.580</x:v>
+        <x:v>12000.000</x:v>
       </x:c>
       <x:c r="G134" t="n">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H134" t="str">
-        <x:v>N/A</x:v>
+        <x:v>62.18</x:v>
       </x:c>
     </x:row>
     <x:row r="135">
       <x:c r="A135" t="str">
-        <x:v>B002</x:v>
+        <x:v>B117</x:v>
       </x:c>
       <x:c r="B135" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C135" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D135" t="n">
-        <x:v>600</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E135" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F135" t="n">
-        <x:v>6000.000</x:v>
+        <x:v>5638.090</x:v>
       </x:c>
       <x:c r="G135" t="n">
-        <x:v>23</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H135" t="str">
-        <x:v>59.12</x:v>
+        <x:v>67.05</x:v>
       </x:c>
     </x:row>
     <x:row r="136">
       <x:c r="A136" t="str">
-        <x:v>B004</x:v>
+        <x:v>B119</x:v>
       </x:c>
       <x:c r="B136" t="str">
-        <x:v>WSL 105.300 F</x:v>
+        <x:v>KL 60.303 F</x:v>
       </x:c>
       <x:c r="C136" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
@@ -3551,24 +3551,24 @@
         <x:v>300</x:v>
       </x:c>
       <x:c r="E136" t="n">
-        <x:v>105</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F136" t="n">
-        <x:v>7159.229</x:v>
+        <x:v>12056.603</x:v>
       </x:c>
       <x:c r="G136" t="n">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H136" t="str">
-        <x:v>67.37</x:v>
+        <x:v>69.30</x:v>
       </x:c>
     </x:row>
     <x:row r="137">
       <x:c r="A137" t="str">
-        <x:v>B005</x:v>
+        <x:v>B121</x:v>
       </x:c>
       <x:c r="B137" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 60.303 F</x:v>
       </x:c>
       <x:c r="C137" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
@@ -3577,24 +3577,24 @@
         <x:v>300</x:v>
       </x:c>
       <x:c r="E137" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F137" t="n">
-        <x:v>3250.000</x:v>
+        <x:v>12056.603</x:v>
       </x:c>
       <x:c r="G137" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H137" t="str">
-        <x:v>82.33</x:v>
+        <x:v>68.33</x:v>
       </x:c>
     </x:row>
     <x:row r="138">
       <x:c r="A138" t="str">
-        <x:v>B006</x:v>
+        <x:v>B122</x:v>
       </x:c>
       <x:c r="B138" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 60.303 F</x:v>
       </x:c>
       <x:c r="C138" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
@@ -3603,73 +3603,73 @@
         <x:v>300</x:v>
       </x:c>
       <x:c r="E138" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F138" t="n">
-        <x:v>1900.000</x:v>
+        <x:v>10013.554</x:v>
       </x:c>
       <x:c r="G138" t="n">
-        <x:v>5</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H138" t="str">
-        <x:v>82.33</x:v>
+        <x:v>58.33</x:v>
       </x:c>
     </x:row>
     <x:row r="139">
       <x:c r="A139" t="str">
-        <x:v>B105-2</x:v>
+        <x:v>B123</x:v>
       </x:c>
       <x:c r="B139" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 60.303 F</x:v>
       </x:c>
       <x:c r="C139" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D139" t="n">
-        <x:v>400</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E139" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F139" t="n">
-        <x:v>1196.290</x:v>
+        <x:v>12056.603</x:v>
       </x:c>
       <x:c r="G139" t="n">
-        <x:v>22</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H139" t="str">
-        <x:v>43.53</x:v>
+        <x:v>68.33</x:v>
       </x:c>
     </x:row>
     <x:row r="140">
       <x:c r="A140" t="str">
-        <x:v>B007</x:v>
+        <x:v>B124</x:v>
       </x:c>
       <x:c r="B140" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.303 F</x:v>
       </x:c>
       <x:c r="C140" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D140" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E140" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F140" t="n">
-        <x:v>6000.000</x:v>
+        <x:v>10013.554</x:v>
       </x:c>
       <x:c r="G140" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H140" t="str">
-        <x:v>77.30</x:v>
+        <x:v>58.33</x:v>
       </x:c>
     </x:row>
     <x:row r="141">
       <x:c r="A141" t="str">
-        <x:v>B107-1</x:v>
+        <x:v>B139-1</x:v>
       </x:c>
       <x:c r="B141" t="str">
         <x:v>KL 100.603 F</x:v>
@@ -3684,596 +3684,596 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F141" t="n">
-        <x:v>3032.809</x:v>
+        <x:v>3706.090</x:v>
       </x:c>
       <x:c r="G141" t="n">
-        <x:v>39</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H141" t="str">
-        <x:v>36.73</x:v>
+        <x:v>42.08</x:v>
       </x:c>
     </x:row>
     <x:row r="142">
       <x:c r="A142" t="str">
-        <x:v>B105-3</x:v>
+        <x:v>B139-2</x:v>
       </x:c>
       <x:c r="B142" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C142" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D142" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E142" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F142" t="n">
-        <x:v>1879.028</x:v>
+        <x:v>6013.366</x:v>
       </x:c>
       <x:c r="G142" t="n">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H142" t="str">
-        <x:v>67.95</x:v>
+        <x:v>62.92</x:v>
       </x:c>
     </x:row>
     <x:row r="143">
       <x:c r="A143" t="str">
-        <x:v>B102</x:v>
+        <x:v>B139-3</x:v>
       </x:c>
       <x:c r="B143" t="str">
-        <x:v>WSL 105.400 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C143" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D143" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E143" t="n">
-        <x:v>105</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F143" t="n">
-        <x:v>8778.319</x:v>
+        <x:v>1999.000</x:v>
       </x:c>
       <x:c r="G143" t="n">
-        <x:v>29</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H143" t="str">
-        <x:v>37.03</x:v>
+        <x:v>62.92</x:v>
       </x:c>
     </x:row>
     <x:row r="144">
       <x:c r="A144" t="str">
-        <x:v>B104-1</x:v>
+        <x:v>B139-4</x:v>
       </x:c>
       <x:c r="B144" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C144" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D144" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E144" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F144" t="n">
-        <x:v>1300.619</x:v>
+        <x:v>7909.844</x:v>
       </x:c>
       <x:c r="G144" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H144" t="str">
-        <x:v>81.55</x:v>
+        <x:v>62.92</x:v>
       </x:c>
     </x:row>
     <x:row r="145">
       <x:c r="A145" t="str">
-        <x:v>B105-1</x:v>
+        <x:v>B139-5</x:v>
       </x:c>
       <x:c r="B145" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C145" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D145" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E145" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F145" t="n">
-        <x:v>6501.881</x:v>
+        <x:v>1926.448</x:v>
       </x:c>
       <x:c r="G145" t="n">
-        <x:v>18</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H145" t="str">
-        <x:v>56.40</x:v>
+        <x:v>62.92</x:v>
       </x:c>
     </x:row>
     <x:row r="146">
       <x:c r="A146" t="str">
-        <x:v>B111</x:v>
+        <x:v>B141</x:v>
       </x:c>
       <x:c r="B146" t="str">
-        <x:v>WSL 105.300 F</x:v>
+        <x:v>KL 100.503 F</x:v>
       </x:c>
       <x:c r="C146" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D146" t="n">
-        <x:v>300</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="E146" t="n">
-        <x:v>105</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F146" t="n">
-        <x:v>8951.937</x:v>
+        <x:v>13117.566</x:v>
       </x:c>
       <x:c r="G146" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H146" t="str">
-        <x:v>58.33</x:v>
+        <x:v>41.62</x:v>
       </x:c>
     </x:row>
     <x:row r="147">
       <x:c r="A147" t="str">
-        <x:v>B107-4</x:v>
+        <x:v>B140-2</x:v>
       </x:c>
       <x:c r="B147" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.503 F</x:v>
       </x:c>
       <x:c r="C147" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D147" t="n">
-        <x:v>600</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="E147" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F147" t="n">
-        <x:v>7909.844</x:v>
+        <x:v>6678.620</x:v>
       </x:c>
       <x:c r="G147" t="n">
-        <x:v>31</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H147" t="str">
-        <x:v>51.32</x:v>
+        <x:v>55.50</x:v>
       </x:c>
     </x:row>
     <x:row r="148">
       <x:c r="A148" t="str">
-        <x:v>B107-5</x:v>
+        <x:v>B142</x:v>
       </x:c>
       <x:c r="B148" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C148" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D148" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E148" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F148" t="n">
-        <x:v>1926.448</x:v>
+        <x:v>14559.495</x:v>
       </x:c>
       <x:c r="G148" t="n">
-        <x:v>25</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H148" t="str">
-        <x:v>61.58</x:v>
+        <x:v>58.77</x:v>
       </x:c>
     </x:row>
     <x:row r="149">
       <x:c r="A149" t="str">
-        <x:v>B107-6</x:v>
+        <x:v>B144</x:v>
       </x:c>
       <x:c r="B149" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C149" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D149" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E149" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F149" t="n">
-        <x:v>1932.039</x:v>
+        <x:v>3890.930</x:v>
       </x:c>
       <x:c r="G149" t="n">
-        <x:v>24</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H149" t="str">
-        <x:v>63.92</x:v>
+        <x:v>74.25</x:v>
       </x:c>
     </x:row>
     <x:row r="150">
       <x:c r="A150" t="str">
-        <x:v>B107-7</x:v>
+        <x:v>B145</x:v>
       </x:c>
       <x:c r="B150" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C150" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D150" t="n">
-        <x:v>600</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E150" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F150" t="n">
-        <x:v>4872.000</x:v>
+        <x:v>2807.996</x:v>
       </x:c>
       <x:c r="G150" t="n">
-        <x:v>22</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H150" t="str">
-        <x:v>68.40</x:v>
+        <x:v>60.30</x:v>
       </x:c>
     </x:row>
     <x:row r="151">
       <x:c r="A151" t="str">
-        <x:v>B108</x:v>
+        <x:v>BC011</x:v>
       </x:c>
       <x:c r="B151" t="str">
-        <x:v>WSL 105.300 F</x:v>
+        <x:v>KL 60.303 F</x:v>
       </x:c>
       <x:c r="C151" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D151" t="n">
         <x:v>300</x:v>
       </x:c>
       <x:c r="E151" t="n">
-        <x:v>105</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F151" t="n">
-        <x:v>9001.937</x:v>
+        <x:v>4703.319</x:v>
       </x:c>
       <x:c r="G151" t="n">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H151" t="str">
-        <x:v>58.33</x:v>
+        <x:v>84.33</x:v>
       </x:c>
     </x:row>
     <x:row r="152">
       <x:c r="A152" t="str">
-        <x:v>B112</x:v>
+        <x:v>BC022-2</x:v>
       </x:c>
       <x:c r="B152" t="str">
-        <x:v>WSL 105.300 F</x:v>
+        <x:v>KL 60.303 F</x:v>
       </x:c>
       <x:c r="C152" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D152" t="n">
         <x:v>300</x:v>
       </x:c>
       <x:c r="E152" t="n">
-        <x:v>105</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F152" t="n">
-        <x:v>7926.000</x:v>
+        <x:v>4953.004</x:v>
       </x:c>
       <x:c r="G152" t="n">
-        <x:v>11</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H152" t="str">
-        <x:v>58.33</x:v>
+        <x:v>57.53</x:v>
       </x:c>
     </x:row>
     <x:row r="153">
       <x:c r="A153" t="str">
-        <x:v>B107-3</x:v>
+        <x:v>BC026</x:v>
       </x:c>
       <x:c r="B153" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C153" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D153" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E153" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F153" t="n">
-        <x:v>1999.000</x:v>
+        <x:v>2100.000</x:v>
       </x:c>
       <x:c r="G153" t="n">
-        <x:v>33</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H153" t="str">
-        <x:v>46.83</x:v>
+        <x:v>36.35</x:v>
       </x:c>
     </x:row>
     <x:row r="154">
       <x:c r="A154" t="str">
-        <x:v>B120</x:v>
+        <x:v>BC017</x:v>
       </x:c>
       <x:c r="B154" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>WSL 105.400 F</x:v>
       </x:c>
       <x:c r="C154" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D154" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E154" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F154" t="n">
-        <x:v>10013.554</x:v>
+        <x:v>3000.000</x:v>
       </x:c>
       <x:c r="G154" t="n">
-        <x:v>11</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H154" t="str">
-        <x:v>58.33</x:v>
+        <x:v>45.23</x:v>
       </x:c>
     </x:row>
     <x:row r="155">
       <x:c r="A155" t="str">
-        <x:v>B119</x:v>
+        <x:v>BC020</x:v>
       </x:c>
       <x:c r="B155" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 60.303 F</x:v>
       </x:c>
       <x:c r="C155" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D155" t="n">
         <x:v>300</x:v>
       </x:c>
       <x:c r="E155" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F155" t="n">
-        <x:v>12056.603</x:v>
+        <x:v>6897.001</x:v>
       </x:c>
       <x:c r="G155" t="n">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H155" t="str">
-        <x:v>69.30</x:v>
+        <x:v>69.77</x:v>
       </x:c>
     </x:row>
     <x:row r="156">
       <x:c r="A156" t="str">
-        <x:v>B116</x:v>
+        <x:v>BC021</x:v>
       </x:c>
       <x:c r="B156" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 60.303 F</x:v>
       </x:c>
       <x:c r="C156" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D156" t="n">
         <x:v>300</x:v>
       </x:c>
       <x:c r="E156" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F156" t="n">
-        <x:v>12000.000</x:v>
+        <x:v>6897.001</x:v>
       </x:c>
       <x:c r="G156" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H156" t="str">
-        <x:v>66.73</x:v>
+        <x:v>69.43</x:v>
       </x:c>
     </x:row>
     <x:row r="157">
       <x:c r="A157" t="str">
-        <x:v>B117</x:v>
+        <x:v>BC022-1</x:v>
       </x:c>
       <x:c r="B157" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C157" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D157" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E157" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F157" t="n">
-        <x:v>5638.090</x:v>
+        <x:v>5709.616</x:v>
       </x:c>
       <x:c r="G157" t="n">
-        <x:v>6</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H157" t="str">
-        <x:v>78.03</x:v>
+        <x:v>36.35</x:v>
       </x:c>
     </x:row>
     <x:row r="158">
       <x:c r="A158" t="str">
-        <x:v>B118</x:v>
+        <x:v>BC158</x:v>
       </x:c>
       <x:c r="B158" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C158" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D158" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E158" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F158" t="n">
-        <x:v>10013.554</x:v>
+        <x:v>18778.629</x:v>
       </x:c>
       <x:c r="G158" t="n">
-        <x:v>11</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H158" t="str">
-        <x:v>60.27</x:v>
+        <x:v>70.47</x:v>
       </x:c>
     </x:row>
     <x:row r="159">
       <x:c r="A159" t="str">
-        <x:v>B121</x:v>
+        <x:v>BC023-2</x:v>
       </x:c>
       <x:c r="B159" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 60.303 F</x:v>
       </x:c>
       <x:c r="C159" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D159" t="n">
         <x:v>300</x:v>
       </x:c>
       <x:c r="E159" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F159" t="n">
-        <x:v>12056.603</x:v>
+        <x:v>4953.004</x:v>
       </x:c>
       <x:c r="G159" t="n">
-        <x:v>8</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H159" t="str">
-        <x:v>68.33</x:v>
+        <x:v>57.53</x:v>
       </x:c>
     </x:row>
     <x:row r="160">
       <x:c r="A160" t="str">
-        <x:v>B122</x:v>
+        <x:v>BC033</x:v>
       </x:c>
       <x:c r="B160" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C160" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D160" t="n">
-        <x:v>300</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E160" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F160" t="n">
-        <x:v>10013.554</x:v>
+        <x:v>3007.715</x:v>
       </x:c>
       <x:c r="G160" t="n">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H160" t="str">
-        <x:v>58.33</x:v>
+        <x:v>72.60</x:v>
       </x:c>
     </x:row>
     <x:row r="161">
       <x:c r="A161" t="str">
-        <x:v>B123</x:v>
+        <x:v>BC031</x:v>
       </x:c>
       <x:c r="B161" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C161" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D161" t="n">
-        <x:v>300</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E161" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F161" t="n">
-        <x:v>12056.603</x:v>
+        <x:v>7241.491</x:v>
       </x:c>
       <x:c r="G161" t="n">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H161" t="str">
-        <x:v>68.33</x:v>
+        <x:v>62.40</x:v>
       </x:c>
     </x:row>
     <x:row r="162">
       <x:c r="A162" t="str">
-        <x:v>B124</x:v>
+        <x:v>BC028-2</x:v>
       </x:c>
       <x:c r="B162" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C162" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D162" t="n">
-        <x:v>300</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E162" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F162" t="n">
-        <x:v>10013.554</x:v>
+        <x:v>4750.000</x:v>
       </x:c>
       <x:c r="G162" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H162" t="str">
-        <x:v>58.33</x:v>
+        <x:v>67.20</x:v>
       </x:c>
     </x:row>
     <x:row r="163">
       <x:c r="A163" t="str">
-        <x:v>B115</x:v>
+        <x:v>BC029</x:v>
       </x:c>
       <x:c r="B163" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 60.303 F</x:v>
       </x:c>
       <x:c r="C163" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D163" t="n">
         <x:v>300</x:v>
       </x:c>
       <x:c r="E163" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F163" t="n">
-        <x:v>4251.206</x:v>
+        <x:v>3307.715</x:v>
       </x:c>
       <x:c r="G163" t="n">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H163" t="str">
-        <x:v>57.27</x:v>
+        <x:v>81.73</x:v>
       </x:c>
     </x:row>
     <x:row r="164">
       <x:c r="A164" t="str">
-        <x:v>B139-6</x:v>
+        <x:v>BC159</x:v>
       </x:c>
       <x:c r="B164" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C164" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D164" t="n">
         <x:v>600</x:v>
@@ -4282,385 +4282,385 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F164" t="n">
-        <x:v>1932.039</x:v>
+        <x:v>6000.000</x:v>
       </x:c>
       <x:c r="G164" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H164" t="str">
-        <x:v>100.00</x:v>
+        <x:v>62.92</x:v>
       </x:c>
     </x:row>
     <x:row r="165">
       <x:c r="A165" t="str">
-        <x:v>B139-7</x:v>
+        <x:v>BC107</x:v>
       </x:c>
       <x:c r="B165" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C165" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D165" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E165" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F165" t="n">
-        <x:v>4067.961</x:v>
+        <x:v>2947.000</x:v>
       </x:c>
       <x:c r="G165" t="n">
-        <x:v>0</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H165" t="str">
-        <x:v>100.00</x:v>
+        <x:v>42.03</x:v>
       </x:c>
     </x:row>
     <x:row r="166">
       <x:c r="A166" t="str">
-        <x:v>B139-1</x:v>
+        <x:v>BC108</x:v>
       </x:c>
       <x:c r="B166" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C166" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D166" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E166" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F166" t="n">
-        <x:v>3706.090</x:v>
+        <x:v>8465.296</x:v>
       </x:c>
       <x:c r="G166" t="n">
-        <x:v>20</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H166" t="str">
-        <x:v>42.08</x:v>
+        <x:v>58.80</x:v>
       </x:c>
     </x:row>
     <x:row r="167">
       <x:c r="A167" t="str">
-        <x:v>B139-2</x:v>
+        <x:v>BC110</x:v>
       </x:c>
       <x:c r="B167" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C167" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D167" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E167" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F167" t="n">
-        <x:v>6013.366</x:v>
+        <x:v>6974.645</x:v>
       </x:c>
       <x:c r="G167" t="n">
-        <x:v>9</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H167" t="str">
-        <x:v>62.92</x:v>
+        <x:v>67.28</x:v>
       </x:c>
     </x:row>
     <x:row r="168">
       <x:c r="A168" t="str">
-        <x:v>B139-3</x:v>
+        <x:v>BC109</x:v>
       </x:c>
       <x:c r="B168" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C168" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D168" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E168" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F168" t="n">
-        <x:v>1999.000</x:v>
+        <x:v>3212.544</x:v>
       </x:c>
       <x:c r="G168" t="n">
-        <x:v>9</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H168" t="str">
-        <x:v>62.92</x:v>
+        <x:v>66.60</x:v>
       </x:c>
     </x:row>
     <x:row r="169">
       <x:c r="A169" t="str">
-        <x:v>B139-4</x:v>
+        <x:v>BC113</x:v>
       </x:c>
       <x:c r="B169" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C169" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D169" t="n">
-        <x:v>600</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E169" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F169" t="n">
-        <x:v>7909.844</x:v>
+        <x:v>1328.360</x:v>
       </x:c>
       <x:c r="G169" t="n">
-        <x:v>9</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H169" t="str">
-        <x:v>62.92</x:v>
+        <x:v>67.25</x:v>
       </x:c>
     </x:row>
     <x:row r="170">
       <x:c r="A170" t="str">
-        <x:v>B139-5</x:v>
+        <x:v>BC114</x:v>
       </x:c>
       <x:c r="B170" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C170" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D170" t="n">
-        <x:v>600</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E170" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F170" t="n">
-        <x:v>1926.448</x:v>
+        <x:v>7555.360</x:v>
       </x:c>
       <x:c r="G170" t="n">
-        <x:v>9</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H170" t="str">
-        <x:v>62.92</x:v>
+        <x:v>30.85</x:v>
       </x:c>
     </x:row>
     <x:row r="171">
       <x:c r="A171" t="str">
-        <x:v>B140-1</x:v>
+        <x:v>BC122</x:v>
       </x:c>
       <x:c r="B171" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C171" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D171" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E171" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F171" t="n">
-        <x:v>1537.693</x:v>
+        <x:v>8465.297</x:v>
       </x:c>
       <x:c r="G171" t="n">
-        <x:v>10</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H171" t="str">
-        <x:v>60.58</x:v>
+        <x:v>59.75</x:v>
       </x:c>
     </x:row>
     <x:row r="172">
       <x:c r="A172" t="str">
-        <x:v>B140-2</x:v>
+        <x:v>BC123</x:v>
       </x:c>
       <x:c r="B172" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C172" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D172" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E172" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F172" t="n">
-        <x:v>6678.620</x:v>
+        <x:v>3212.544</x:v>
       </x:c>
       <x:c r="G172" t="n">
-        <x:v>9</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H172" t="str">
-        <x:v>62.92</x:v>
+        <x:v>66.92</x:v>
       </x:c>
     </x:row>
     <x:row r="173">
       <x:c r="A173" t="str">
-        <x:v>B141</x:v>
+        <x:v>BC124</x:v>
       </x:c>
       <x:c r="B173" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C173" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D173" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E173" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F173" t="n">
-        <x:v>13117.566</x:v>
+        <x:v>6974.644</x:v>
       </x:c>
       <x:c r="G173" t="n">
-        <x:v>11</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H173" t="str">
-        <x:v>57.13</x:v>
+        <x:v>68.72</x:v>
       </x:c>
     </x:row>
     <x:row r="174">
       <x:c r="A174" t="str">
-        <x:v>B142</x:v>
+        <x:v>BC127</x:v>
       </x:c>
       <x:c r="B174" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C174" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D174" t="n">
-        <x:v>400</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E174" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F174" t="n">
-        <x:v>14559.495</x:v>
+        <x:v>1328.360</x:v>
       </x:c>
       <x:c r="G174" t="n">
-        <x:v>4</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H174" t="str">
-        <x:v>69.07</x:v>
+        <x:v>67.25</x:v>
       </x:c>
     </x:row>
     <x:row r="175">
       <x:c r="A175" t="str">
-        <x:v>B144</x:v>
+        <x:v>BC141</x:v>
       </x:c>
       <x:c r="B175" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C175" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D175" t="n">
-        <x:v>300</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E175" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F175" t="n">
-        <x:v>3890.930</x:v>
+        <x:v>1328.360</x:v>
       </x:c>
       <x:c r="G175" t="n">
-        <x:v>4</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H175" t="str">
-        <x:v>82.83</x:v>
+        <x:v>67.25</x:v>
       </x:c>
     </x:row>
     <x:row r="176">
       <x:c r="A176" t="str">
-        <x:v>BC011</x:v>
+        <x:v>BC171</x:v>
       </x:c>
       <x:c r="B176" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C176" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D176" t="n">
-        <x:v>300</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E176" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F176" t="n">
-        <x:v>4703.319</x:v>
+        <x:v>3400.000</x:v>
       </x:c>
       <x:c r="G176" t="n">
-        <x:v>6</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H176" t="str">
-        <x:v>84.33</x:v>
+        <x:v>58.35</x:v>
       </x:c>
     </x:row>
     <x:row r="177">
       <x:c r="A177" t="str">
-        <x:v>B145</x:v>
+        <x:v>BC157</x:v>
       </x:c>
       <x:c r="B177" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C177" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D177" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E177" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F177" t="n">
-        <x:v>2807.996</x:v>
+        <x:v>6000.000</x:v>
       </x:c>
       <x:c r="G177" t="n">
-        <x:v>3</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H177" t="str">
-        <x:v>82.83</x:v>
+        <x:v>50.62</x:v>
       </x:c>
     </x:row>
     <x:row r="178">
       <x:c r="A178" t="str">
-        <x:v>BC016</x:v>
+        <x:v>BC136</x:v>
       </x:c>
       <x:c r="B178" t="str">
-        <x:v>WSL 105.500 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C178" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D178" t="n">
-        <x:v>500</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E178" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F178" t="n">
-        <x:v>2915.000</x:v>
+        <x:v>8465.296</x:v>
       </x:c>
       <x:c r="G178" t="n">
-        <x:v>66</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H178" t="str">
-        <x:v>42.48</x:v>
+        <x:v>59.75</x:v>
       </x:c>
     </x:row>
     <x:row r="179">
       <x:c r="A179" t="str">
-        <x:v>BC026</x:v>
+        <x:v>BC137</x:v>
       </x:c>
       <x:c r="B179" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C179" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
@@ -4669,102 +4669,102 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="E179" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F179" t="n">
-        <x:v>2100.000</x:v>
+        <x:v>3212.544</x:v>
       </x:c>
       <x:c r="G179" t="n">
-        <x:v>46</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H179" t="str">
-        <x:v>43.08</x:v>
+        <x:v>66.92</x:v>
       </x:c>
     </x:row>
     <x:row r="180">
       <x:c r="A180" t="str">
-        <x:v>BC013</x:v>
+        <x:v>BC138</x:v>
       </x:c>
       <x:c r="B180" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C180" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D180" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E180" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F180" t="n">
-        <x:v>12016.902</x:v>
+        <x:v>6974.645</x:v>
       </x:c>
       <x:c r="G180" t="n">
-        <x:v>9</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H180" t="str">
-        <x:v>88.83</x:v>
+        <x:v>68.72</x:v>
       </x:c>
     </x:row>
     <x:row r="181">
       <x:c r="A181" t="str">
-        <x:v>BC017</x:v>
+        <x:v>BC142</x:v>
       </x:c>
       <x:c r="B181" t="str">
-        <x:v>WSL 105.500 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C181" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D181" t="n">
-        <x:v>500</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E181" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F181" t="n">
-        <x:v>3000.000</x:v>
+        <x:v>7555.360</x:v>
       </x:c>
       <x:c r="G181" t="n">
-        <x:v>50</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H181" t="str">
-        <x:v>56.18</x:v>
+        <x:v>30.85</x:v>
       </x:c>
     </x:row>
     <x:row r="182">
       <x:c r="A182" t="str">
-        <x:v>BC022-1</x:v>
+        <x:v>BC155</x:v>
       </x:c>
       <x:c r="B182" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C182" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D182" t="n">
-        <x:v>400</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E182" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F182" t="n">
-        <x:v>5709.616</x:v>
+        <x:v>1328.360</x:v>
       </x:c>
       <x:c r="G182" t="n">
-        <x:v>46</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H182" t="str">
-        <x:v>43.08</x:v>
+        <x:v>67.25</x:v>
       </x:c>
     </x:row>
     <x:row r="183">
       <x:c r="A183" t="str">
-        <x:v>BC021</x:v>
+        <x:v>BC172</x:v>
       </x:c>
       <x:c r="B183" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C183" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
@@ -4773,76 +4773,76 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="E183" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F183" t="n">
-        <x:v>6897.001</x:v>
+        <x:v>3400.000</x:v>
       </x:c>
       <x:c r="G183" t="n">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H183" t="str">
-        <x:v>64.25</x:v>
+        <x:v>66.35</x:v>
       </x:c>
     </x:row>
     <x:row r="184">
       <x:c r="A184" t="str">
-        <x:v>BC020</x:v>
+        <x:v>BC150</x:v>
       </x:c>
       <x:c r="B184" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C184" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D184" t="n">
-        <x:v>200</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E184" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F184" t="n">
-        <x:v>6897.001</x:v>
+        <x:v>8465.296</x:v>
       </x:c>
       <x:c r="G184" t="n">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H184" t="str">
-        <x:v>64.25</x:v>
+        <x:v>59.75</x:v>
       </x:c>
     </x:row>
     <x:row r="185">
       <x:c r="A185" t="str">
-        <x:v>BC022-2</x:v>
+        <x:v>BC151</x:v>
       </x:c>
       <x:c r="B185" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C185" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D185" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E185" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F185" t="n">
-        <x:v>4953.004</x:v>
+        <x:v>3212.544</x:v>
       </x:c>
       <x:c r="G185" t="n">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H185" t="str">
-        <x:v>57.53</x:v>
+        <x:v>66.92</x:v>
       </x:c>
     </x:row>
     <x:row r="186">
       <x:c r="A186" t="str">
-        <x:v>BC023-1</x:v>
+        <x:v>BC152</x:v>
       </x:c>
       <x:c r="B186" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C186" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
@@ -4851,50 +4851,50 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="E186" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F186" t="n">
-        <x:v>6976.506</x:v>
+        <x:v>6974.645</x:v>
       </x:c>
       <x:c r="G186" t="n">
-        <x:v>46</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H186" t="str">
-        <x:v>43.08</x:v>
+        <x:v>68.72</x:v>
       </x:c>
     </x:row>
     <x:row r="187">
       <x:c r="A187" t="str">
-        <x:v>BC023-2</x:v>
+        <x:v>BC156</x:v>
       </x:c>
       <x:c r="B187" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C187" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D187" t="n">
-        <x:v>300</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E187" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F187" t="n">
-        <x:v>4953.004</x:v>
+        <x:v>7555.360</x:v>
       </x:c>
       <x:c r="G187" t="n">
-        <x:v>22</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H187" t="str">
-        <x:v>57.53</x:v>
+        <x:v>30.85</x:v>
       </x:c>
     </x:row>
     <x:row r="188">
       <x:c r="A188" t="str">
-        <x:v>BC025</x:v>
+        <x:v>BC162</x:v>
       </x:c>
       <x:c r="B188" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C188" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
@@ -4903,50 +4903,50 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="E188" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F188" t="n">
-        <x:v>2100.000</x:v>
+        <x:v>4956.000</x:v>
       </x:c>
       <x:c r="G188" t="n">
-        <x:v>46</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H188" t="str">
-        <x:v>43.08</x:v>
+        <x:v>73.15</x:v>
       </x:c>
     </x:row>
     <x:row r="189">
       <x:c r="A189" t="str">
-        <x:v>BC028-2</x:v>
+        <x:v>BC161</x:v>
       </x:c>
       <x:c r="B189" t="str">
-        <x:v>WSL 105.200 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C189" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D189" t="n">
-        <x:v>200</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E189" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F189" t="n">
-        <x:v>4750.000</x:v>
+        <x:v>5853.750</x:v>
       </x:c>
       <x:c r="G189" t="n">
-        <x:v>12</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H189" t="str">
-        <x:v>72.05</x:v>
+        <x:v>54.90</x:v>
       </x:c>
     </x:row>
     <x:row r="190">
       <x:c r="A190" t="str">
-        <x:v>BC029</x:v>
+        <x:v>BC169</x:v>
       </x:c>
       <x:c r="B190" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C190" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
@@ -4955,76 +4955,76 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="E190" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F190" t="n">
-        <x:v>3307.715</x:v>
+        <x:v>3500.000</x:v>
       </x:c>
       <x:c r="G190" t="n">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H190" t="str">
-        <x:v>72.60</x:v>
+        <x:v>65.20</x:v>
       </x:c>
     </x:row>
     <x:row r="191">
       <x:c r="A191" t="str">
-        <x:v>BC030</x:v>
+        <x:v>C002</x:v>
       </x:c>
       <x:c r="B191" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C191" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D191" t="n">
-        <x:v>200</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E191" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F191" t="n">
-        <x:v>5472.466</x:v>
+        <x:v>6000.000</x:v>
       </x:c>
       <x:c r="G191" t="n">
-        <x:v>19</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H191" t="str">
-        <x:v>44.15</x:v>
+        <x:v>38.97</x:v>
       </x:c>
     </x:row>
     <x:row r="192">
       <x:c r="A192" t="str">
-        <x:v>BC031</x:v>
+        <x:v>C106</x:v>
       </x:c>
       <x:c r="B192" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C192" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D192" t="n">
-        <x:v>200</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E192" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F192" t="n">
-        <x:v>7241.491</x:v>
+        <x:v>18778.629</x:v>
       </x:c>
       <x:c r="G192" t="n">
-        <x:v>5</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H192" t="str">
-        <x:v>72.00</x:v>
+        <x:v>83.95</x:v>
       </x:c>
     </x:row>
     <x:row r="193">
       <x:c r="A193" t="str">
-        <x:v>BC033</x:v>
+        <x:v>BC167</x:v>
       </x:c>
       <x:c r="B193" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C193" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
@@ -5033,1015 +5033,1015 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="E193" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F193" t="n">
-        <x:v>3007.715</x:v>
+        <x:v>4500.000</x:v>
       </x:c>
       <x:c r="G193" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H193" t="str">
-        <x:v>72.60</x:v>
+        <x:v>51.15</x:v>
       </x:c>
     </x:row>
     <x:row r="194">
       <x:c r="A194" t="str">
-        <x:v>BC158</x:v>
+        <x:v>BC168</x:v>
       </x:c>
       <x:c r="B194" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C194" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D194" t="n">
-        <x:v>600</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E194" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F194" t="n">
-        <x:v>18778.629</x:v>
+        <x:v>4500.000</x:v>
       </x:c>
       <x:c r="G194" t="n">
-        <x:v>21</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H194" t="str">
-        <x:v>70.47</x:v>
+        <x:v>57.40</x:v>
       </x:c>
     </x:row>
     <x:row r="195">
       <x:c r="A195" t="str">
-        <x:v>BC035</x:v>
+        <x:v>C006</x:v>
       </x:c>
       <x:c r="B195" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 60.303 F</x:v>
       </x:c>
       <x:c r="C195" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D195" t="n">
-        <x:v>200</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E195" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F195" t="n">
-        <x:v>7884.910</x:v>
+        <x:v>11447.317</x:v>
       </x:c>
       <x:c r="G195" t="n">
-        <x:v>5</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H195" t="str">
-        <x:v>72.00</x:v>
+        <x:v>61.97</x:v>
       </x:c>
     </x:row>
     <x:row r="196">
       <x:c r="A196" t="str">
-        <x:v>BC110</x:v>
+        <x:v>BC170</x:v>
       </x:c>
       <x:c r="B196" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C196" t="str">
         <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D196" t="n">
-        <x:v>400</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E196" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F196" t="n">
-        <x:v>6974.645</x:v>
+        <x:v>3500.000</x:v>
       </x:c>
       <x:c r="G196" t="n">
-        <x:v>28</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H196" t="str">
-        <x:v>67.28</x:v>
+        <x:v>64.90</x:v>
       </x:c>
     </x:row>
     <x:row r="197">
       <x:c r="A197" t="str">
-        <x:v>BC107</x:v>
+        <x:v>C008</x:v>
       </x:c>
       <x:c r="B197" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>WSL 105.200 F</x:v>
       </x:c>
       <x:c r="C197" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D197" t="n">
-        <x:v>400</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E197" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F197" t="n">
-        <x:v>2947.000</x:v>
+        <x:v>7159.229</x:v>
       </x:c>
       <x:c r="G197" t="n">
-        <x:v>55</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H197" t="str">
-        <x:v>42.03</x:v>
+        <x:v>85.40</x:v>
       </x:c>
     </x:row>
     <x:row r="198">
       <x:c r="A198" t="str">
-        <x:v>BC108</x:v>
+        <x:v>C101</x:v>
       </x:c>
       <x:c r="B198" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C198" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D198" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E198" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F198" t="n">
-        <x:v>8465.296</x:v>
+        <x:v>3606.000</x:v>
       </x:c>
       <x:c r="G198" t="n">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H198" t="str">
-        <x:v>58.80</x:v>
+        <x:v>52.82</x:v>
       </x:c>
     </x:row>
     <x:row r="199">
       <x:c r="A199" t="str">
-        <x:v>BC109</x:v>
+        <x:v>C010</x:v>
       </x:c>
       <x:c r="B199" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C199" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D199" t="n">
         <x:v>400</x:v>
       </x:c>
       <x:c r="E199" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F199" t="n">
-        <x:v>3212.544</x:v>
+        <x:v>2100.000</x:v>
       </x:c>
       <x:c r="G199" t="n">
-        <x:v>30</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H199" t="str">
-        <x:v>70.15</x:v>
+        <x:v>46.63</x:v>
       </x:c>
     </x:row>
     <x:row r="200">
       <x:c r="A200" t="str">
-        <x:v>BC113</x:v>
+        <x:v>C104</x:v>
       </x:c>
       <x:c r="B200" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 60.303 F</x:v>
       </x:c>
       <x:c r="C200" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D200" t="n">
-        <x:v>200</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E200" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F200" t="n">
-        <x:v>1328.360</x:v>
+        <x:v>8266.000</x:v>
       </x:c>
       <x:c r="G200" t="n">
-        <x:v>16</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H200" t="str">
-        <x:v>67.25</x:v>
+        <x:v>64.67</x:v>
       </x:c>
     </x:row>
     <x:row r="201">
       <x:c r="A201" t="str">
-        <x:v>BC114</x:v>
+        <x:v>C102</x:v>
       </x:c>
       <x:c r="B201" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>WSL 105.400 F</x:v>
       </x:c>
       <x:c r="C201" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D201" t="n">
-        <x:v>200</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E201" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F201" t="n">
-        <x:v>7555.360</x:v>
+        <x:v>11228.319</x:v>
       </x:c>
       <x:c r="G201" t="n">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H201" t="str">
-        <x:v>30.85</x:v>
+        <x:v>43.25</x:v>
       </x:c>
     </x:row>
     <x:row r="202">
       <x:c r="A202" t="str">
-        <x:v>BC159</x:v>
+        <x:v>C105</x:v>
       </x:c>
       <x:c r="B202" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.303 F</x:v>
       </x:c>
       <x:c r="C202" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D202" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E202" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F202" t="n">
-        <x:v>6000.000</x:v>
+        <x:v>9577.269</x:v>
       </x:c>
       <x:c r="G202" t="n">
-        <x:v>9</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H202" t="str">
-        <x:v>62.92</x:v>
+        <x:v>64.23</x:v>
       </x:c>
     </x:row>
     <x:row r="203">
       <x:c r="A203" t="str">
-        <x:v>BC127</x:v>
+        <x:v>C107-2</x:v>
       </x:c>
       <x:c r="B203" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C203" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D203" t="n">
-        <x:v>200</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E203" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F203" t="n">
-        <x:v>1328.360</x:v>
+        <x:v>6013.366</x:v>
       </x:c>
       <x:c r="G203" t="n">
-        <x:v>16</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H203" t="str">
-        <x:v>67.25</x:v>
+        <x:v>33.63</x:v>
       </x:c>
     </x:row>
     <x:row r="204">
       <x:c r="A204" t="str">
-        <x:v>BC121</x:v>
+        <x:v>C128</x:v>
       </x:c>
       <x:c r="B204" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C204" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D204" t="n">
         <x:v>400</x:v>
       </x:c>
       <x:c r="E204" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F204" t="n">
-        <x:v>2947.000</x:v>
+        <x:v>3400.000</x:v>
       </x:c>
       <x:c r="G204" t="n">
-        <x:v>54</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H204" t="str">
-        <x:v>41.45</x:v>
+        <x:v>61.90</x:v>
       </x:c>
     </x:row>
     <x:row r="205">
       <x:c r="A205" t="str">
-        <x:v>BC122</x:v>
+        <x:v>C129</x:v>
       </x:c>
       <x:c r="B205" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C205" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D205" t="n">
         <x:v>400</x:v>
       </x:c>
       <x:c r="E205" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F205" t="n">
-        <x:v>8465.297</x:v>
+        <x:v>6913.550</x:v>
       </x:c>
       <x:c r="G205" t="n">
-        <x:v>39</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H205" t="str">
-        <x:v>59.75</x:v>
+        <x:v>61.90</x:v>
       </x:c>
     </x:row>
     <x:row r="206">
       <x:c r="A206" t="str">
-        <x:v>BC124</x:v>
+        <x:v>DFB010</x:v>
       </x:c>
       <x:c r="B206" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C206" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D206" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E206" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F206" t="n">
-        <x:v>6974.644</x:v>
+        <x:v>1006.000</x:v>
       </x:c>
       <x:c r="G206" t="n">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H206" t="str">
-        <x:v>68.72</x:v>
+        <x:v>39.75</x:v>
       </x:c>
     </x:row>
     <x:row r="207">
       <x:c r="A207" t="str">
-        <x:v>BC128</x:v>
+        <x:v>C107-7</x:v>
       </x:c>
       <x:c r="B207" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C207" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D207" t="n">
-        <x:v>200</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E207" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F207" t="n">
-        <x:v>7555.360</x:v>
+        <x:v>4067.961</x:v>
       </x:c>
       <x:c r="G207" t="n">
-        <x:v>38</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H207" t="str">
-        <x:v>30.85</x:v>
+        <x:v>69.05</x:v>
       </x:c>
     </x:row>
     <x:row r="208">
       <x:c r="A208" t="str">
-        <x:v>BC171</x:v>
+        <x:v>C114</x:v>
       </x:c>
       <x:c r="B208" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 60.303 F</x:v>
       </x:c>
       <x:c r="C208" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D208" t="n">
-        <x:v>200</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E208" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F208" t="n">
-        <x:v>3400.000</x:v>
+        <x:v>23663.000</x:v>
       </x:c>
       <x:c r="G208" t="n">
-        <x:v>17</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H208" t="str">
-        <x:v>58.35</x:v>
+        <x:v>55.90</x:v>
       </x:c>
     </x:row>
     <x:row r="209">
       <x:c r="A209" t="str">
-        <x:v>BC123</x:v>
+        <x:v>C119</x:v>
       </x:c>
       <x:c r="B209" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C209" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D209" t="n">
         <x:v>400</x:v>
       </x:c>
       <x:c r="E209" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F209" t="n">
-        <x:v>3212.544</x:v>
+        <x:v>6913.550</x:v>
       </x:c>
       <x:c r="G209" t="n">
-        <x:v>30</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H209" t="str">
-        <x:v>66.92</x:v>
+        <x:v>56.23</x:v>
       </x:c>
     </x:row>
     <x:row r="210">
       <x:c r="A210" t="str">
-        <x:v>BC141</x:v>
+        <x:v>C123</x:v>
       </x:c>
       <x:c r="B210" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C210" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D210" t="n">
-        <x:v>200</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E210" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F210" t="n">
-        <x:v>1328.360</x:v>
+        <x:v>3400.000</x:v>
       </x:c>
       <x:c r="G210" t="n">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H210" t="str">
-        <x:v>67.25</x:v>
+        <x:v>61.90</x:v>
       </x:c>
     </x:row>
     <x:row r="211">
       <x:c r="A211" t="str">
-        <x:v>BC135</x:v>
+        <x:v>C124</x:v>
       </x:c>
       <x:c r="B211" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C211" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D211" t="n">
         <x:v>400</x:v>
       </x:c>
       <x:c r="E211" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F211" t="n">
-        <x:v>2947.000</x:v>
+        <x:v>6913.550</x:v>
       </x:c>
       <x:c r="G211" t="n">
-        <x:v>54</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H211" t="str">
-        <x:v>41.45</x:v>
+        <x:v>61.90</x:v>
       </x:c>
     </x:row>
     <x:row r="212">
       <x:c r="A212" t="str">
-        <x:v>BC136</x:v>
+        <x:v>C126</x:v>
       </x:c>
       <x:c r="B212" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C212" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D212" t="n">
         <x:v>400</x:v>
       </x:c>
       <x:c r="E212" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F212" t="n">
-        <x:v>8465.296</x:v>
+        <x:v>5703.603</x:v>
       </x:c>
       <x:c r="G212" t="n">
-        <x:v>39</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H212" t="str">
-        <x:v>59.75</x:v>
+        <x:v>49.53</x:v>
       </x:c>
     </x:row>
     <x:row r="213">
       <x:c r="A213" t="str">
-        <x:v>BC137</x:v>
+        <x:v>C134</x:v>
       </x:c>
       <x:c r="B213" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C213" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D213" t="n">
         <x:v>400</x:v>
       </x:c>
       <x:c r="E213" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F213" t="n">
-        <x:v>3212.544</x:v>
+        <x:v>6913.550</x:v>
       </x:c>
       <x:c r="G213" t="n">
-        <x:v>30</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H213" t="str">
-        <x:v>66.92</x:v>
+        <x:v>61.90</x:v>
       </x:c>
     </x:row>
     <x:row r="214">
       <x:c r="A214" t="str">
-        <x:v>BC138</x:v>
+        <x:v>C136</x:v>
       </x:c>
       <x:c r="B214" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C214" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D214" t="n">
         <x:v>400</x:v>
       </x:c>
       <x:c r="E214" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F214" t="n">
-        <x:v>6974.645</x:v>
+        <x:v>5703.603</x:v>
       </x:c>
       <x:c r="G214" t="n">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H214" t="str">
-        <x:v>68.72</x:v>
+        <x:v>49.53</x:v>
       </x:c>
     </x:row>
     <x:row r="215">
       <x:c r="A215" t="str">
-        <x:v>BC142</x:v>
+        <x:v>C138-2</x:v>
       </x:c>
       <x:c r="B215" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C215" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D215" t="n">
         <x:v>200</x:v>
       </x:c>
       <x:c r="E215" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F215" t="n">
-        <x:v>7555.360</x:v>
+        <x:v>7243.000</x:v>
       </x:c>
       <x:c r="G215" t="n">
-        <x:v>38</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H215" t="str">
-        <x:v>30.85</x:v>
+        <x:v>42.75</x:v>
       </x:c>
     </x:row>
     <x:row r="216">
       <x:c r="A216" t="str">
-        <x:v>BC172</x:v>
+        <x:v>C133</x:v>
       </x:c>
       <x:c r="B216" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C216" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D216" t="n">
-        <x:v>200</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E216" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F216" t="n">
         <x:v>3400.000</x:v>
       </x:c>
       <x:c r="G216" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H216" t="str">
-        <x:v>66.35</x:v>
+        <x:v>61.90</x:v>
       </x:c>
     </x:row>
     <x:row r="217">
       <x:c r="A217" t="str">
-        <x:v>BC155</x:v>
+        <x:v>C121</x:v>
       </x:c>
       <x:c r="B217" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C217" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D217" t="n">
-        <x:v>200</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E217" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F217" t="n">
-        <x:v>1328.360</x:v>
+        <x:v>5703.603</x:v>
       </x:c>
       <x:c r="G217" t="n">
-        <x:v>16</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H217" t="str">
-        <x:v>67.25</x:v>
+        <x:v>49.53</x:v>
       </x:c>
     </x:row>
     <x:row r="218">
       <x:c r="A218" t="str">
-        <x:v>BC157</x:v>
+        <x:v>C125</x:v>
       </x:c>
       <x:c r="B218" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C218" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D218" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E218" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F218" t="n">
-        <x:v>6000.000</x:v>
+        <x:v>3103.004</x:v>
       </x:c>
       <x:c r="G218" t="n">
-        <x:v>14</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H218" t="str">
-        <x:v>50.62</x:v>
+        <x:v>25.05</x:v>
       </x:c>
     </x:row>
     <x:row r="219">
       <x:c r="A219" t="str">
-        <x:v>BC150</x:v>
+        <x:v>C131</x:v>
       </x:c>
       <x:c r="B219" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C219" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D219" t="n">
         <x:v>400</x:v>
       </x:c>
       <x:c r="E219" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F219" t="n">
-        <x:v>8465.296</x:v>
+        <x:v>5703.603</x:v>
       </x:c>
       <x:c r="G219" t="n">
-        <x:v>39</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H219" t="str">
-        <x:v>59.75</x:v>
+        <x:v>49.53</x:v>
       </x:c>
     </x:row>
     <x:row r="220">
       <x:c r="A220" t="str">
-        <x:v>BC151</x:v>
+        <x:v>DFB004</x:v>
       </x:c>
       <x:c r="B220" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C220" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D220" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E220" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F220" t="n">
-        <x:v>3212.544</x:v>
+        <x:v>1206.000</x:v>
       </x:c>
       <x:c r="G220" t="n">
-        <x:v>30</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H220" t="str">
-        <x:v>66.92</x:v>
+        <x:v>17.50</x:v>
       </x:c>
     </x:row>
     <x:row r="221">
       <x:c r="A221" t="str">
-        <x:v>BC152</x:v>
+        <x:v>DFB005</x:v>
       </x:c>
       <x:c r="B221" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C221" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D221" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E221" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F221" t="n">
-        <x:v>6974.645</x:v>
+        <x:v>1206.000</x:v>
       </x:c>
       <x:c r="G221" t="n">
-        <x:v>26</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H221" t="str">
-        <x:v>68.72</x:v>
+        <x:v>17.50</x:v>
       </x:c>
     </x:row>
     <x:row r="222">
       <x:c r="A222" t="str">
-        <x:v>BC156</x:v>
+        <x:v>DFB006</x:v>
       </x:c>
       <x:c r="B222" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C222" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D222" t="n">
-        <x:v>200</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E222" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F222" t="n">
-        <x:v>7555.360</x:v>
+        <x:v>1206.000</x:v>
       </x:c>
       <x:c r="G222" t="n">
-        <x:v>38</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H222" t="str">
-        <x:v>30.85</x:v>
+        <x:v>28.85</x:v>
       </x:c>
     </x:row>
     <x:row r="223">
       <x:c r="A223" t="str">
-        <x:v>BC149</x:v>
+        <x:v>DFB007</x:v>
       </x:c>
       <x:c r="B223" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C223" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D223" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E223" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F223" t="n">
-        <x:v>2947.000</x:v>
+        <x:v>2006.000</x:v>
       </x:c>
       <x:c r="G223" t="n">
-        <x:v>54</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H223" t="str">
-        <x:v>41.45</x:v>
+        <x:v>26.87</x:v>
       </x:c>
     </x:row>
     <x:row r="224">
       <x:c r="A224" t="str">
-        <x:v>BC169</x:v>
+        <x:v>C139</x:v>
       </x:c>
       <x:c r="B224" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C224" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D224" t="n">
         <x:v>200</x:v>
       </x:c>
       <x:c r="E224" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F224" t="n">
-        <x:v>3500.000</x:v>
+        <x:v>13334.725</x:v>
       </x:c>
       <x:c r="G224" t="n">
-        <x:v>10</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H224" t="str">
-        <x:v>69.85</x:v>
+        <x:v>39.40</x:v>
       </x:c>
     </x:row>
     <x:row r="225">
       <x:c r="A225" t="str">
-        <x:v>BC161</x:v>
+        <x:v>DFB008</x:v>
       </x:c>
       <x:c r="B225" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C225" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D225" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E225" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F225" t="n">
-        <x:v>5853.750</x:v>
+        <x:v>906.000</x:v>
       </x:c>
       <x:c r="G225" t="n">
-        <x:v>41</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H225" t="str">
-        <x:v>58.45</x:v>
+        <x:v>21.75</x:v>
       </x:c>
     </x:row>
     <x:row r="226">
       <x:c r="A226" t="str">
-        <x:v>BC162</x:v>
+        <x:v>DFB009</x:v>
       </x:c>
       <x:c r="B226" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C226" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D226" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E226" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F226" t="n">
-        <x:v>4956.000</x:v>
+        <x:v>1206.000</x:v>
       </x:c>
       <x:c r="G226" t="n">
-        <x:v>24</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H226" t="str">
-        <x:v>73.15</x:v>
+        <x:v>33.58</x:v>
       </x:c>
     </x:row>
     <x:row r="227">
       <x:c r="A227" t="str">
-        <x:v>BC170</x:v>
+        <x:v>DFB012</x:v>
       </x:c>
       <x:c r="B227" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C227" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D227" t="n">
-        <x:v>200</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E227" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F227" t="n">
-        <x:v>3500.000</x:v>
+        <x:v>1917.000</x:v>
       </x:c>
       <x:c r="G227" t="n">
-        <x:v>11</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H227" t="str">
-        <x:v>69.55</x:v>
+        <x:v>42.43</x:v>
       </x:c>
     </x:row>
     <x:row r="228">
       <x:c r="A228" t="str">
-        <x:v>BC167</x:v>
+        <x:v>DFB013</x:v>
       </x:c>
       <x:c r="B228" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C228" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D228" t="n">
-        <x:v>200</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E228" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F228" t="n">
-        <x:v>4500.000</x:v>
+        <x:v>6726.984</x:v>
       </x:c>
       <x:c r="G228" t="n">
-        <x:v>15</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H228" t="str">
-        <x:v>51.15</x:v>
+        <x:v>56.97</x:v>
       </x:c>
     </x:row>
     <x:row r="229">
       <x:c r="A229" t="str">
-        <x:v>BC168</x:v>
+        <x:v>DFB015-1</x:v>
       </x:c>
       <x:c r="B229" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C229" t="str">
-        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D229" t="n">
-        <x:v>200</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E229" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F229" t="n">
-        <x:v>4500.000</x:v>
+        <x:v>3800.000</x:v>
       </x:c>
       <x:c r="G229" t="n">
-        <x:v>7</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H229" t="str">
-        <x:v>57.40</x:v>
+        <x:v>29.82</x:v>
       </x:c>
     </x:row>
     <x:row r="230">
       <x:c r="A230" t="str">
-        <x:v>C002</x:v>
+        <x:v>DFB015-2</x:v>
       </x:c>
       <x:c r="B230" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C230" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D230" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E230" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F230" t="n">
-        <x:v>6000.000</x:v>
+        <x:v>3800.000</x:v>
       </x:c>
       <x:c r="G230" t="n">
-        <x:v>40</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H230" t="str">
-        <x:v>38.97</x:v>
+        <x:v>92.07</x:v>
       </x:c>
     </x:row>
     <x:row r="231">
       <x:c r="A231" t="str">
-        <x:v>C008</x:v>
+        <x:v>DFB016-1</x:v>
       </x:c>
       <x:c r="B231" t="str">
-        <x:v>WSL 105.200 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C231" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D231" t="n">
-        <x:v>200</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E231" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F231" t="n">
-        <x:v>7159.229</x:v>
+        <x:v>3800.000</x:v>
       </x:c>
       <x:c r="G231" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H231" t="str">
-        <x:v>85.40</x:v>
+        <x:v>92.07</x:v>
       </x:c>
     </x:row>
     <x:row r="232">
       <x:c r="A232" t="str">
-        <x:v>C001</x:v>
+        <x:v>DFB015</x:v>
       </x:c>
       <x:c r="B232" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C232" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D232" t="n">
         <x:v>600</x:v>
@@ -6050,24 +6050,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F232" t="n">
-        <x:v>6000.000</x:v>
+        <x:v>3518.192</x:v>
       </x:c>
       <x:c r="G232" t="n">
-        <x:v>35</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H232" t="str">
-        <x:v>62.95</x:v>
+        <x:v>55.57</x:v>
       </x:c>
     </x:row>
     <x:row r="233">
       <x:c r="A233" t="str">
-        <x:v>C106</x:v>
+        <x:v>DFB022</x:v>
       </x:c>
       <x:c r="B233" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C233" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D233" t="n">
         <x:v>600</x:v>
@@ -6076,50 +6076,50 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F233" t="n">
-        <x:v>18778.629</x:v>
+        <x:v>2200.000</x:v>
       </x:c>
       <x:c r="G233" t="n">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H233" t="str">
-        <x:v>83.95</x:v>
+        <x:v>79.22</x:v>
       </x:c>
     </x:row>
     <x:row r="234">
       <x:c r="A234" t="str">
-        <x:v>C006</x:v>
+        <x:v>DFB023</x:v>
       </x:c>
       <x:c r="B234" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C234" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D234" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E234" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F234" t="n">
-        <x:v>11447.317</x:v>
+        <x:v>2200.000</x:v>
       </x:c>
       <x:c r="G234" t="n">
-        <x:v>29</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H234" t="str">
-        <x:v>61.97</x:v>
+        <x:v>64.38</x:v>
       </x:c>
     </x:row>
     <x:row r="235">
       <x:c r="A235" t="str">
-        <x:v>C101</x:v>
+        <x:v>DFB024</x:v>
       </x:c>
       <x:c r="B235" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C235" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D235" t="n">
         <x:v>600</x:v>
@@ -6128,76 +6128,76 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F235" t="n">
-        <x:v>3606.000</x:v>
+        <x:v>2413.000</x:v>
       </x:c>
       <x:c r="G235" t="n">
-        <x:v>43</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H235" t="str">
-        <x:v>57.38</x:v>
+        <x:v>58.95</x:v>
       </x:c>
     </x:row>
     <x:row r="236">
       <x:c r="A236" t="str">
-        <x:v>C102</x:v>
+        <x:v>DFB025</x:v>
       </x:c>
       <x:c r="B236" t="str">
-        <x:v>WSL 105.300 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C236" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D236" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E236" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F236" t="n">
-        <x:v>11228.319</x:v>
+        <x:v>6102.344</x:v>
       </x:c>
       <x:c r="G236" t="n">
-        <x:v>30</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H236" t="str">
-        <x:v>33.47</x:v>
+        <x:v>60.93</x:v>
       </x:c>
     </x:row>
     <x:row r="237">
       <x:c r="A237" t="str">
-        <x:v>C128</x:v>
+        <x:v>DFB026</x:v>
       </x:c>
       <x:c r="B237" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C237" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D237" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E237" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F237" t="n">
-        <x:v>3400.000</x:v>
+        <x:v>3150.000</x:v>
       </x:c>
       <x:c r="G237" t="n">
-        <x:v>16</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H237" t="str">
-        <x:v>68.75</x:v>
+        <x:v>97.85</x:v>
       </x:c>
     </x:row>
     <x:row r="238">
       <x:c r="A238" t="str">
-        <x:v>C105</x:v>
+        <x:v>DFB016-2</x:v>
       </x:c>
       <x:c r="B238" t="str">
         <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C238" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D238" t="n">
         <x:v>300</x:v>
@@ -6206,50 +6206,50 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F238" t="n">
-        <x:v>9577.269</x:v>
+        <x:v>3800.000</x:v>
       </x:c>
       <x:c r="G238" t="n">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H238" t="str">
-        <x:v>64.23</x:v>
+        <x:v>92.07</x:v>
       </x:c>
     </x:row>
     <x:row r="239">
       <x:c r="A239" t="str">
-        <x:v>C010</x:v>
+        <x:v>DFB017-1</x:v>
       </x:c>
       <x:c r="B239" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C239" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D239" t="n">
-        <x:v>400</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E239" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F239" t="n">
-        <x:v>2100.000</x:v>
+        <x:v>3800.000</x:v>
       </x:c>
       <x:c r="G239" t="n">
-        <x:v>55</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H239" t="str">
-        <x:v>46.63</x:v>
+        <x:v>92.07</x:v>
       </x:c>
     </x:row>
     <x:row r="240">
       <x:c r="A240" t="str">
-        <x:v>C104</x:v>
+        <x:v>DFB018-2</x:v>
       </x:c>
       <x:c r="B240" t="str">
         <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C240" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D240" t="n">
         <x:v>300</x:v>
@@ -6258,122 +6258,122 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F240" t="n">
-        <x:v>8266.000</x:v>
+        <x:v>2350.000</x:v>
       </x:c>
       <x:c r="G240" t="n">
-        <x:v>22</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H240" t="str">
-        <x:v>64.67</x:v>
+        <x:v>73.60</x:v>
       </x:c>
     </x:row>
     <x:row r="241">
       <x:c r="A241" t="str">
-        <x:v>C129</x:v>
+        <x:v>DFB019</x:v>
       </x:c>
       <x:c r="B241" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C241" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D241" t="n">
-        <x:v>400</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E241" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F241" t="n">
-        <x:v>6913.550</x:v>
+        <x:v>3000.000</x:v>
       </x:c>
       <x:c r="G241" t="n">
-        <x:v>16</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H241" t="str">
-        <x:v>68.75</x:v>
+        <x:v>92.07</x:v>
       </x:c>
     </x:row>
     <x:row r="242">
       <x:c r="A242" t="str">
-        <x:v>C107-2</x:v>
+        <x:v>DFB021</x:v>
       </x:c>
       <x:c r="B242" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C242" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D242" t="n">
-        <x:v>600</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E242" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F242" t="n">
-        <x:v>6013.366</x:v>
+        <x:v>1600.000</x:v>
       </x:c>
       <x:c r="G242" t="n">
-        <x:v>49</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H242" t="str">
-        <x:v>40.73</x:v>
+        <x:v>76.20</x:v>
       </x:c>
     </x:row>
     <x:row r="243">
       <x:c r="A243" t="str">
-        <x:v>C107-4</x:v>
+        <x:v>DFB027</x:v>
       </x:c>
       <x:c r="B243" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C243" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D243" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E243" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F243" t="n">
-        <x:v>7959.844</x:v>
+        <x:v>2870.619</x:v>
       </x:c>
       <x:c r="G243" t="n">
-        <x:v>118</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H243" t="str">
-        <x:v>8.60</x:v>
+        <x:v>65.95</x:v>
       </x:c>
     </x:row>
     <x:row r="244">
       <x:c r="A244" t="str">
-        <x:v>C119</x:v>
+        <x:v>DFC001-1</x:v>
       </x:c>
       <x:c r="B244" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C244" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D244" t="n">
-        <x:v>400</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E244" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F244" t="n">
-        <x:v>6913.550</x:v>
+        <x:v>900.000</x:v>
       </x:c>
       <x:c r="G244" t="n">
-        <x:v>23</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H244" t="str">
-        <x:v>63.08</x:v>
+        <x:v>66.33</x:v>
       </x:c>
     </x:row>
     <x:row r="245">
       <x:c r="A245" t="str">
-        <x:v>C114</x:v>
+        <x:v>DFC002-1</x:v>
       </x:c>
       <x:c r="B245" t="str">
         <x:v>KL 100.303 F</x:v>
@@ -6388,125 +6388,125 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F245" t="n">
-        <x:v>23663.000</x:v>
+        <x:v>900.000</x:v>
       </x:c>
       <x:c r="G245" t="n">
-        <x:v>9</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H245" t="str">
-        <x:v>65.03</x:v>
+        <x:v>66.33</x:v>
       </x:c>
     </x:row>
     <x:row r="246">
       <x:c r="A246" t="str">
-        <x:v>C107-7</x:v>
+        <x:v>DFC001-2</x:v>
       </x:c>
       <x:c r="B246" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C246" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D246" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E246" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F246" t="n">
-        <x:v>4067.961</x:v>
+        <x:v>900.000</x:v>
       </x:c>
       <x:c r="G246" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H246" t="str">
-        <x:v>76.15</x:v>
+        <x:v>66.33</x:v>
       </x:c>
     </x:row>
     <x:row r="247">
       <x:c r="A247" t="str">
-        <x:v>DFB010</x:v>
+        <x:v>DFC002-2</x:v>
       </x:c>
       <x:c r="B247" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C247" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D247" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E247" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F247" t="n">
-        <x:v>1006.000</x:v>
+        <x:v>900.000</x:v>
       </x:c>
       <x:c r="G247" t="n">
-        <x:v>38</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H247" t="str">
-        <x:v>39.75</x:v>
+        <x:v>66.33</x:v>
       </x:c>
     </x:row>
     <x:row r="248">
       <x:c r="A248" t="str">
-        <x:v>C123</x:v>
+        <x:v>DFC003</x:v>
       </x:c>
       <x:c r="B248" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C248" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D248" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E248" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F248" t="n">
-        <x:v>3400.000</x:v>
+        <x:v>3753.210</x:v>
       </x:c>
       <x:c r="G248" t="n">
-        <x:v>16</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H248" t="str">
-        <x:v>68.75</x:v>
+        <x:v>31.10</x:v>
       </x:c>
     </x:row>
     <x:row r="249">
       <x:c r="A249" t="str">
-        <x:v>C124</x:v>
+        <x:v>DFC006-2</x:v>
       </x:c>
       <x:c r="B249" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C249" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D249" t="n">
-        <x:v>400</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E249" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F249" t="n">
-        <x:v>6913.550</x:v>
+        <x:v>930.000</x:v>
       </x:c>
       <x:c r="G249" t="n">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H249" t="str">
-        <x:v>68.75</x:v>
+        <x:v>78.17</x:v>
       </x:c>
     </x:row>
     <x:row r="250">
       <x:c r="A250" t="str">
-        <x:v>C126</x:v>
+        <x:v>DFC004-1</x:v>
       </x:c>
       <x:c r="B250" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C250" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
@@ -6515,258 +6515,258 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="E250" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F250" t="n">
-        <x:v>5703.603</x:v>
+        <x:v>3000.000</x:v>
       </x:c>
       <x:c r="G250" t="n">
-        <x:v>30</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H250" t="str">
-        <x:v>56.38</x:v>
+        <x:v>52.95</x:v>
       </x:c>
     </x:row>
     <x:row r="251">
       <x:c r="A251" t="str">
-        <x:v>C121</x:v>
+        <x:v>DFC006-1</x:v>
       </x:c>
       <x:c r="B251" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C251" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D251" t="n">
-        <x:v>400</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E251" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F251" t="n">
-        <x:v>5703.603</x:v>
+        <x:v>1530.000</x:v>
       </x:c>
       <x:c r="G251" t="n">
-        <x:v>31</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H251" t="str">
-        <x:v>56.38</x:v>
+        <x:v>93.53</x:v>
       </x:c>
     </x:row>
     <x:row r="252">
       <x:c r="A252" t="str">
-        <x:v>C125</x:v>
+        <x:v>DFC011</x:v>
       </x:c>
       <x:c r="B252" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C252" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D252" t="n">
-        <x:v>400</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E252" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F252" t="n">
-        <x:v>3103.004</x:v>
+        <x:v>1650.000</x:v>
       </x:c>
       <x:c r="G252" t="n">
-        <x:v>57</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H252" t="str">
-        <x:v>31.90</x:v>
+        <x:v>87.85</x:v>
       </x:c>
     </x:row>
     <x:row r="253">
       <x:c r="A253" t="str">
-        <x:v>C134</x:v>
+        <x:v>DFV001</x:v>
       </x:c>
       <x:c r="B253" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C253" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
       </x:c>
       <x:c r="D253" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E253" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F253" t="n">
-        <x:v>6913.550</x:v>
+        <x:v>1687.000</x:v>
       </x:c>
       <x:c r="G253" t="n">
-        <x:v>16</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H253" t="str">
-        <x:v>68.75</x:v>
+        <x:v>84.73</x:v>
       </x:c>
     </x:row>
     <x:row r="254">
       <x:c r="A254" t="str">
-        <x:v>C136</x:v>
+        <x:v>DFV002</x:v>
       </x:c>
       <x:c r="B254" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C254" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
       </x:c>
       <x:c r="D254" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E254" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F254" t="n">
-        <x:v>5703.603</x:v>
+        <x:v>2200.000</x:v>
       </x:c>
       <x:c r="G254" t="n">
-        <x:v>30</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H254" t="str">
-        <x:v>56.38</x:v>
+        <x:v>69.47</x:v>
       </x:c>
     </x:row>
     <x:row r="255">
       <x:c r="A255" t="str">
-        <x:v>C131</x:v>
+        <x:v>DFV007</x:v>
       </x:c>
       <x:c r="B255" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C255" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
       </x:c>
       <x:c r="D255" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E255" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F255" t="n">
-        <x:v>5703.603</x:v>
+        <x:v>5101.000</x:v>
       </x:c>
       <x:c r="G255" t="n">
-        <x:v>30</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H255" t="str">
-        <x:v>56.38</x:v>
+        <x:v>62.92</x:v>
       </x:c>
     </x:row>
     <x:row r="256">
       <x:c r="A256" t="str">
-        <x:v>C132</x:v>
+        <x:v>DFV003</x:v>
       </x:c>
       <x:c r="B256" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C256" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
       </x:c>
       <x:c r="D256" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E256" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F256" t="n">
-        <x:v>3278.000</x:v>
+        <x:v>8151.985</x:v>
       </x:c>
       <x:c r="G256" t="n">
-        <x:v>57</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H256" t="str">
-        <x:v>27.53</x:v>
+        <x:v>61.83</x:v>
       </x:c>
     </x:row>
     <x:row r="257">
       <x:c r="A257" t="str">
-        <x:v>C133</x:v>
+        <x:v>DFV004</x:v>
       </x:c>
       <x:c r="B257" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C257" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
       </x:c>
       <x:c r="D257" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E257" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F257" t="n">
-        <x:v>3400.000</x:v>
+        <x:v>3475.911</x:v>
       </x:c>
       <x:c r="G257" t="n">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H257" t="str">
-        <x:v>68.75</x:v>
+        <x:v>53.25</x:v>
       </x:c>
     </x:row>
     <x:row r="258">
       <x:c r="A258" t="str">
-        <x:v>C138-2</x:v>
+        <x:v>DFV008</x:v>
       </x:c>
       <x:c r="B258" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C258" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
       </x:c>
       <x:c r="D258" t="n">
-        <x:v>200</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E258" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F258" t="n">
-        <x:v>7243.000</x:v>
+        <x:v>6665.979</x:v>
       </x:c>
       <x:c r="G258" t="n">
-        <x:v>24</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H258" t="str">
-        <x:v>42.75</x:v>
+        <x:v>62.92</x:v>
       </x:c>
     </x:row>
     <x:row r="259">
       <x:c r="A259" t="str">
-        <x:v>DFB001</x:v>
+        <x:v>DFC008</x:v>
       </x:c>
       <x:c r="B259" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C259" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D259" t="n">
-        <x:v>600</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E259" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F259" t="n">
-        <x:v>1706.000</x:v>
+        <x:v>3560.000</x:v>
       </x:c>
       <x:c r="G259" t="n">
-        <x:v>30</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H259" t="str">
-        <x:v>37.20</x:v>
+        <x:v>40.50</x:v>
       </x:c>
     </x:row>
     <x:row r="260">
       <x:c r="A260" t="str">
-        <x:v>C139</x:v>
+        <x:v>DFC007</x:v>
       </x:c>
       <x:c r="B260" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C260" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
@@ -6775,105 +6775,105 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="E260" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F260" t="n">
-        <x:v>13334.725</x:v>
+        <x:v>6000.000</x:v>
       </x:c>
       <x:c r="G260" t="n">
-        <x:v>25</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H260" t="str">
-        <x:v>39.40</x:v>
+        <x:v>55.30</x:v>
       </x:c>
     </x:row>
     <x:row r="261">
       <x:c r="A261" t="str">
-        <x:v>DFB002</x:v>
+        <x:v>DFC012</x:v>
       </x:c>
       <x:c r="B261" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C261" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D261" t="n">
-        <x:v>600</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E261" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F261" t="n">
-        <x:v>1206.000</x:v>
+        <x:v>3855.754</x:v>
       </x:c>
       <x:c r="G261" t="n">
-        <x:v>44</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H261" t="str">
-        <x:v>29.07</x:v>
+        <x:v>82.55</x:v>
       </x:c>
     </x:row>
     <x:row r="262">
       <x:c r="A262" t="str">
-        <x:v>C140</x:v>
+        <x:v>DFV005</x:v>
       </x:c>
       <x:c r="B262" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C262" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
       </x:c>
       <x:c r="D262" t="n">
         <x:v>200</x:v>
       </x:c>
       <x:c r="E262" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F262" t="n">
-        <x:v>14867.031</x:v>
+        <x:v>14620.000</x:v>
       </x:c>
       <x:c r="G262" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H262" t="str">
-        <x:v>85.25</x:v>
+        <x:v>48.50</x:v>
       </x:c>
     </x:row>
     <x:row r="263">
       <x:c r="A263" t="str">
-        <x:v>DFB004</x:v>
+        <x:v>DFV006</x:v>
       </x:c>
       <x:c r="B263" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C263" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
       </x:c>
       <x:c r="D263" t="n">
-        <x:v>600</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E263" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F263" t="n">
-        <x:v>1206.000</x:v>
+        <x:v>2150.000</x:v>
       </x:c>
       <x:c r="G263" t="n">
-        <x:v>48</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H263" t="str">
-        <x:v>10.08</x:v>
+        <x:v>48.50</x:v>
       </x:c>
     </x:row>
     <x:row r="264">
       <x:c r="A264" t="str">
-        <x:v>DFB005</x:v>
+        <x:v>VFD010</x:v>
       </x:c>
       <x:c r="B264" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C264" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
       </x:c>
       <x:c r="D264" t="n">
         <x:v>600</x:v>
@@ -6882,24 +6882,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F264" t="n">
-        <x:v>1206.000</x:v>
+        <x:v>5333.466</x:v>
       </x:c>
       <x:c r="G264" t="n">
-        <x:v>48</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H264" t="str">
-        <x:v>10.08</x:v>
+        <x:v>61.83</x:v>
       </x:c>
     </x:row>
     <x:row r="265">
       <x:c r="A265" t="str">
-        <x:v>DFB006</x:v>
+        <x:v>VFD011</x:v>
       </x:c>
       <x:c r="B265" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.600 F</x:v>
       </x:c>
       <x:c r="C265" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
       </x:c>
       <x:c r="D265" t="n">
         <x:v>600</x:v>
@@ -6908,24 +6908,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F265" t="n">
-        <x:v>1206.000</x:v>
+        <x:v>2787.000</x:v>
       </x:c>
       <x:c r="G265" t="n">
-        <x:v>44</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H265" t="str">
-        <x:v>21.43</x:v>
+        <x:v>61.83</x:v>
       </x:c>
     </x:row>
     <x:row r="266">
       <x:c r="A266" t="str">
-        <x:v>DFB007</x:v>
+        <x:v>VFD012</x:v>
       </x:c>
       <x:c r="B266" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.600 F</x:v>
       </x:c>
       <x:c r="C266" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
       </x:c>
       <x:c r="D266" t="n">
         <x:v>600</x:v>
@@ -6934,24 +6934,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F266" t="n">
-        <x:v>2006.000</x:v>
+        <x:v>3000.000</x:v>
       </x:c>
       <x:c r="G266" t="n">
-        <x:v>46</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H266" t="str">
-        <x:v>19.45</x:v>
+        <x:v>69.47</x:v>
       </x:c>
     </x:row>
     <x:row r="267">
       <x:c r="A267" t="str">
-        <x:v>DFB009</x:v>
+        <x:v>VFD013</x:v>
       </x:c>
       <x:c r="B267" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.600 F</x:v>
       </x:c>
       <x:c r="C267" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
       </x:c>
       <x:c r="D267" t="n">
         <x:v>600</x:v>
@@ -6960,24 +6960,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F267" t="n">
-        <x:v>1206.000</x:v>
+        <x:v>4384.000</x:v>
       </x:c>
       <x:c r="G267" t="n">
-        <x:v>40</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H267" t="str">
-        <x:v>26.17</x:v>
+        <x:v>84.73</x:v>
       </x:c>
     </x:row>
     <x:row r="268">
       <x:c r="A268" t="str">
-        <x:v>DFB008</x:v>
+        <x:v>VFD105</x:v>
       </x:c>
       <x:c r="B268" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.600 F</x:v>
       </x:c>
       <x:c r="C268" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
       </x:c>
       <x:c r="D268" t="n">
         <x:v>600</x:v>
@@ -6986,24 +6986,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F268" t="n">
-        <x:v>906.000</x:v>
+        <x:v>6997.239</x:v>
       </x:c>
       <x:c r="G268" t="n">
-        <x:v>50</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H268" t="str">
-        <x:v>14.33</x:v>
+        <x:v>61.83</x:v>
       </x:c>
     </x:row>
     <x:row r="269">
       <x:c r="A269" t="str">
-        <x:v>DFB012</x:v>
+        <x:v>VFD101</x:v>
       </x:c>
       <x:c r="B269" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C269" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
       </x:c>
       <x:c r="D269" t="n">
         <x:v>600</x:v>
@@ -7012,24 +7012,24 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F269" t="n">
-        <x:v>1917.000</x:v>
+        <x:v>4500.000</x:v>
       </x:c>
       <x:c r="G269" t="n">
-        <x:v>40</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H269" t="str">
-        <x:v>42.43</x:v>
+        <x:v>53.25</x:v>
       </x:c>
     </x:row>
     <x:row r="270">
       <x:c r="A270" t="str">
-        <x:v>DFB013</x:v>
+        <x:v>VFD102</x:v>
       </x:c>
       <x:c r="B270" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.600 F</x:v>
       </x:c>
       <x:c r="C270" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
       </x:c>
       <x:c r="D270" t="n">
         <x:v>600</x:v>
@@ -7038,50 +7038,50 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F270" t="n">
-        <x:v>6726.984</x:v>
+        <x:v>8462.000</x:v>
       </x:c>
       <x:c r="G270" t="n">
-        <x:v>24</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H270" t="str">
-        <x:v>56.97</x:v>
+        <x:v>53.25</x:v>
       </x:c>
     </x:row>
     <x:row r="271">
       <x:c r="A271" t="str">
-        <x:v>DFB015-1</x:v>
+        <x:v>VFD103</x:v>
       </x:c>
       <x:c r="B271" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C271" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
       </x:c>
       <x:c r="D271" t="n">
-        <x:v>400</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E271" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F271" t="n">
-        <x:v>3800.000</x:v>
+        <x:v>8196.993</x:v>
       </x:c>
       <x:c r="G271" t="n">
-        <x:v>42</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H271" t="str">
-        <x:v>29.82</x:v>
+        <x:v>53.25</x:v>
       </x:c>
     </x:row>
     <x:row r="272">
       <x:c r="A272" t="str">
-        <x:v>DFB014</x:v>
+        <x:v>VFD104</x:v>
       </x:c>
       <x:c r="B272" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C272" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
       </x:c>
       <x:c r="D272" t="n">
         <x:v>600</x:v>
@@ -7090,307 +7090,307 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F272" t="n">
-        <x:v>3147.000</x:v>
+        <x:v>6511.970</x:v>
       </x:c>
       <x:c r="G272" t="n">
-        <x:v>26</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H272" t="str">
-        <x:v>46.17</x:v>
+        <x:v>53.25</x:v>
       </x:c>
     </x:row>
     <x:row r="273">
       <x:c r="A273" t="str">
-        <x:v>DFB015</x:v>
+        <x:v>DFC014</x:v>
       </x:c>
       <x:c r="B273" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.303 F</x:v>
       </x:c>
       <x:c r="C273" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D273" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E273" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F273" t="n">
-        <x:v>3518.192</x:v>
+        <x:v>3744.215</x:v>
       </x:c>
       <x:c r="G273" t="n">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H273" t="str">
-        <x:v>48.15</x:v>
+        <x:v>49.60</x:v>
       </x:c>
     </x:row>
     <x:row r="274">
       <x:c r="A274" t="str">
-        <x:v>DFB015-2</x:v>
+        <x:v>B001</x:v>
       </x:c>
       <x:c r="B274" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C274" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D274" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E274" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F274" t="n">
-        <x:v>3800.000</x:v>
+        <x:v>6000.000</x:v>
       </x:c>
       <x:c r="G274" t="n">
-        <x:v>2</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H274" t="str">
-        <x:v>96.03</x:v>
+        <x:v>29.60</x:v>
       </x:c>
     </x:row>
     <x:row r="275">
       <x:c r="A275" t="str">
-        <x:v>DFB016-1</x:v>
+        <x:v>B105-3</x:v>
       </x:c>
       <x:c r="B275" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.403 F</x:v>
       </x:c>
       <x:c r="C275" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D275" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E275" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F275" t="n">
-        <x:v>3800.000</x:v>
+        <x:v>1879.028</x:v>
       </x:c>
       <x:c r="G275" t="n">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H275" t="str">
-        <x:v>96.03</x:v>
+        <x:v>67.95</x:v>
       </x:c>
     </x:row>
     <x:row r="276">
       <x:c r="A276" t="str">
-        <x:v>DFB016-2</x:v>
+        <x:v>B107-3</x:v>
       </x:c>
       <x:c r="B276" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C276" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D276" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E276" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F276" t="n">
-        <x:v>3800.000</x:v>
+        <x:v>1999.000</x:v>
       </x:c>
       <x:c r="G276" t="n">
-        <x:v>2</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H276" t="str">
-        <x:v>96.03</x:v>
+        <x:v>37.40</x:v>
       </x:c>
     </x:row>
     <x:row r="277">
       <x:c r="A277" t="str">
-        <x:v>DFB017-1</x:v>
+        <x:v>BC023-1</x:v>
       </x:c>
       <x:c r="B277" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C277" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D277" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E277" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F277" t="n">
-        <x:v>3800.000</x:v>
+        <x:v>6976.506</x:v>
       </x:c>
       <x:c r="G277" t="n">
-        <x:v>2</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H277" t="str">
-        <x:v>96.03</x:v>
+        <x:v>36.35</x:v>
       </x:c>
     </x:row>
     <x:row r="278">
       <x:c r="A278" t="str">
-        <x:v>DFB018-1</x:v>
+        <x:v>BC019</x:v>
       </x:c>
       <x:c r="B278" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 60.603 F</x:v>
       </x:c>
       <x:c r="C278" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D278" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E278" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F278" t="n">
-        <x:v>2350.000</x:v>
+        <x:v>4768.319</x:v>
       </x:c>
       <x:c r="G278" t="n">
-        <x:v>5</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H278" t="str">
-        <x:v>79.23</x:v>
+        <x:v>38.25</x:v>
       </x:c>
     </x:row>
     <x:row r="279">
       <x:c r="A279" t="str">
-        <x:v>DFB018-2</x:v>
+        <x:v>BC025</x:v>
       </x:c>
       <x:c r="B279" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C279" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D279" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E279" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F279" t="n">
-        <x:v>2350.000</x:v>
+        <x:v>2100.000</x:v>
       </x:c>
       <x:c r="G279" t="n">
-        <x:v>5</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H279" t="str">
-        <x:v>79.23</x:v>
+        <x:v>36.35</x:v>
       </x:c>
     </x:row>
     <x:row r="280">
       <x:c r="A280" t="str">
-        <x:v>DFB021</x:v>
+        <x:v>BC135</x:v>
       </x:c>
       <x:c r="B280" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C280" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D280" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E280" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F280" t="n">
-        <x:v>1600.000</x:v>
+        <x:v>2947.000</x:v>
       </x:c>
       <x:c r="G280" t="n">
-        <x:v>7</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H280" t="str">
-        <x:v>84.13</x:v>
+        <x:v>41.45</x:v>
       </x:c>
     </x:row>
     <x:row r="281">
       <x:c r="A281" t="str">
-        <x:v>DFB019</x:v>
+        <x:v>B101</x:v>
       </x:c>
       <x:c r="B281" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C281" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D281" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E281" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F281" t="n">
-        <x:v>3000.000</x:v>
+        <x:v>3606.000</x:v>
       </x:c>
       <x:c r="G281" t="n">
-        <x:v>2</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H281" t="str">
-        <x:v>96.03</x:v>
+        <x:v>25.82</x:v>
       </x:c>
     </x:row>
     <x:row r="282">
       <x:c r="A282" t="str">
-        <x:v>DFB022</x:v>
+        <x:v>BC128</x:v>
       </x:c>
       <x:c r="B282" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C282" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D282" t="n">
-        <x:v>600</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E282" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F282" t="n">
-        <x:v>2200.000</x:v>
+        <x:v>7555.360</x:v>
       </x:c>
       <x:c r="G282" t="n">
-        <x:v>8</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H282" t="str">
-        <x:v>79.22</x:v>
+        <x:v>30.85</x:v>
       </x:c>
     </x:row>
     <x:row r="283">
       <x:c r="A283" t="str">
-        <x:v>DFB023</x:v>
+        <x:v>BC027</x:v>
       </x:c>
       <x:c r="B283" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.303 F</x:v>
       </x:c>
       <x:c r="C283" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D283" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E283" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F283" t="n">
-        <x:v>2200.000</x:v>
+        <x:v>11830.897</x:v>
       </x:c>
       <x:c r="G283" t="n">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H283" t="str">
-        <x:v>64.38</x:v>
+        <x:v>37.60</x:v>
       </x:c>
     </x:row>
     <x:row r="284">
       <x:c r="A284" t="str">
-        <x:v>DFB027</x:v>
+        <x:v>B115</x:v>
       </x:c>
       <x:c r="B284" t="str">
-        <x:v>KL 100.403 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C284" t="str">
         <x:v>Type B (Green color) for LV cables</x:v>
@@ -7399,128 +7399,128 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="E284" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F284" t="n">
-        <x:v>2870.619</x:v>
+        <x:v>4251.206</x:v>
       </x:c>
       <x:c r="G284" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H284" t="str">
-        <x:v>65.95</x:v>
+        <x:v>47.75</x:v>
       </x:c>
     </x:row>
     <x:row r="285">
       <x:c r="A285" t="str">
-        <x:v>DFB024</x:v>
+        <x:v>BC121</x:v>
       </x:c>
       <x:c r="B285" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C285" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D285" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E285" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F285" t="n">
-        <x:v>2413.000</x:v>
+        <x:v>2947.000</x:v>
       </x:c>
       <x:c r="G285" t="n">
-        <x:v>12</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H285" t="str">
-        <x:v>58.95</x:v>
+        <x:v>41.45</x:v>
       </x:c>
     </x:row>
     <x:row r="286">
       <x:c r="A286" t="str">
-        <x:v>DFB025</x:v>
+        <x:v>BC030</x:v>
       </x:c>
       <x:c r="B286" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.303 F</x:v>
       </x:c>
       <x:c r="C286" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D286" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E286" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F286" t="n">
-        <x:v>6102.344</x:v>
+        <x:v>5472.466</x:v>
       </x:c>
       <x:c r="G286" t="n">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H286" t="str">
-        <x:v>60.93</x:v>
+        <x:v>53.63</x:v>
       </x:c>
     </x:row>
     <x:row r="287">
       <x:c r="A287" t="str">
-        <x:v>DFB026</x:v>
+        <x:v>BC134</x:v>
       </x:c>
       <x:c r="B287" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C287" t="str">
-        <x:v>Type B (Green color) for LV cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D287" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E287" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F287" t="n">
-        <x:v>3150.000</x:v>
+        <x:v>5597.386</x:v>
       </x:c>
       <x:c r="G287" t="n">
-        <x:v>1</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H287" t="str">
-        <x:v>97.85</x:v>
+        <x:v>35.15</x:v>
       </x:c>
     </x:row>
     <x:row r="288">
       <x:c r="A288" t="str">
-        <x:v>DFC001-1</x:v>
+        <x:v>B140-1</x:v>
       </x:c>
       <x:c r="B288" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.503 F</x:v>
       </x:c>
       <x:c r="C288" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D288" t="n">
-        <x:v>300</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="E288" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F288" t="n">
-        <x:v>900.000</x:v>
+        <x:v>1537.693</x:v>
       </x:c>
       <x:c r="G288" t="n">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H288" t="str">
-        <x:v>66.33</x:v>
+        <x:v>52.70</x:v>
       </x:c>
     </x:row>
     <x:row r="289">
       <x:c r="A289" t="str">
-        <x:v>DFC002-1</x:v>
+        <x:v>C108</x:v>
       </x:c>
       <x:c r="B289" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>WSL 105.300 F</x:v>
       </x:c>
       <x:c r="C289" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
@@ -7529,157 +7529,157 @@
         <x:v>300</x:v>
       </x:c>
       <x:c r="E289" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F289" t="n">
-        <x:v>900.000</x:v>
+        <x:v>8649.557</x:v>
       </x:c>
       <x:c r="G289" t="n">
-        <x:v>16</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H289" t="str">
-        <x:v>66.33</x:v>
+        <x:v>55.90</x:v>
       </x:c>
     </x:row>
     <x:row r="290">
       <x:c r="A290" t="str">
-        <x:v>DFC001-2</x:v>
+        <x:v>BC035</x:v>
       </x:c>
       <x:c r="B290" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 60.303 F</x:v>
       </x:c>
       <x:c r="C290" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D290" t="n">
         <x:v>300</x:v>
       </x:c>
       <x:c r="E290" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F290" t="n">
-        <x:v>900.000</x:v>
+        <x:v>7884.910</x:v>
       </x:c>
       <x:c r="G290" t="n">
-        <x:v>16</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H290" t="str">
-        <x:v>66.33</x:v>
+        <x:v>74.60</x:v>
       </x:c>
     </x:row>
     <x:row r="291">
       <x:c r="A291" t="str">
-        <x:v>DFC002-2</x:v>
+        <x:v>C116</x:v>
       </x:c>
       <x:c r="B291" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C291" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D291" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E291" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F291" t="n">
-        <x:v>900.000</x:v>
+        <x:v>5779.193</x:v>
       </x:c>
       <x:c r="G291" t="n">
-        <x:v>16</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H291" t="str">
-        <x:v>66.33</x:v>
+        <x:v>37.35</x:v>
       </x:c>
     </x:row>
     <x:row r="292">
       <x:c r="A292" t="str">
-        <x:v>DFC011</x:v>
+        <x:v>C130</x:v>
       </x:c>
       <x:c r="B292" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C292" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D292" t="n">
-        <x:v>200</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E292" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F292" t="n">
-        <x:v>1650.000</x:v>
+        <x:v>3103.004</x:v>
       </x:c>
       <x:c r="G292" t="n">
-        <x:v>5</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H292" t="str">
-        <x:v>87.85</x:v>
+        <x:v>25.05</x:v>
       </x:c>
     </x:row>
     <x:row r="293">
       <x:c r="A293" t="str">
-        <x:v>DFC003</x:v>
+        <x:v>DFB018-1</x:v>
       </x:c>
       <x:c r="B293" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C293" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D293" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E293" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F293" t="n">
-        <x:v>3753.210</x:v>
+        <x:v>2350.000</x:v>
       </x:c>
       <x:c r="G293" t="n">
-        <x:v>48</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H293" t="str">
-        <x:v>31.10</x:v>
+        <x:v>73.60</x:v>
       </x:c>
     </x:row>
     <x:row r="294">
       <x:c r="A294" t="str">
-        <x:v>DFC003-1</x:v>
+        <x:v>DFB014</x:v>
       </x:c>
       <x:c r="B294" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C294" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D294" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E294" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F294" t="n">
-        <x:v>1700.000</x:v>
+        <x:v>3147.000</x:v>
       </x:c>
       <x:c r="G294" t="n">
-        <x:v>11</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H294" t="str">
-        <x:v>60.93</x:v>
+        <x:v>53.58</x:v>
       </x:c>
     </x:row>
     <x:row r="295">
       <x:c r="A295" t="str">
-        <x:v>DFC004-1</x:v>
+        <x:v>DFB017-2</x:v>
       </x:c>
       <x:c r="B295" t="str">
         <x:v>KL 100.303 F</x:v>
       </x:c>
       <x:c r="C295" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D295" t="n">
         <x:v>300</x:v>
@@ -7688,73 +7688,73 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F295" t="n">
-        <x:v>3000.000</x:v>
+        <x:v>3800.000</x:v>
       </x:c>
       <x:c r="G295" t="n">
-        <x:v>17</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H295" t="str">
-        <x:v>46.40</x:v>
+        <x:v>92.07</x:v>
       </x:c>
     </x:row>
     <x:row r="296">
       <x:c r="A296" t="str">
-        <x:v>DFC006-1</x:v>
+        <x:v>DFC001</x:v>
       </x:c>
       <x:c r="B296" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C296" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D296" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E296" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F296" t="n">
-        <x:v>1530.000</x:v>
+        <x:v>3603.210</x:v>
       </x:c>
       <x:c r="G296" t="n">
-        <x:v>2</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H296" t="str">
-        <x:v>96.77</x:v>
+        <x:v>40.35</x:v>
       </x:c>
     </x:row>
     <x:row r="297">
       <x:c r="A297" t="str">
-        <x:v>DFC006-2</x:v>
+        <x:v>C137</x:v>
       </x:c>
       <x:c r="B297" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C297" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D297" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E297" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F297" t="n">
-        <x:v>930.000</x:v>
+        <x:v>3278.000</x:v>
       </x:c>
       <x:c r="G297" t="n">
-        <x:v>11</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H297" t="str">
-        <x:v>78.17</x:v>
+        <x:v>20.68</x:v>
       </x:c>
     </x:row>
     <x:row r="298">
       <x:c r="A298" t="str">
-        <x:v>DFC007</x:v>
+        <x:v>C140</x:v>
       </x:c>
       <x:c r="B298" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C298" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
@@ -7763,469 +7763,469 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="E298" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F298" t="n">
-        <x:v>6000.000</x:v>
+        <x:v>14867.031</x:v>
       </x:c>
       <x:c r="G298" t="n">
-        <x:v>14</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H298" t="str">
-        <x:v>58.95</x:v>
+        <x:v>80.40</x:v>
       </x:c>
     </x:row>
     <x:row r="299">
       <x:c r="A299" t="str">
-        <x:v>DFC008</x:v>
+        <x:v>DFB001</x:v>
       </x:c>
       <x:c r="B299" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C299" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D299" t="n">
-        <x:v>200</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E299" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F299" t="n">
-        <x:v>3560.000</x:v>
+        <x:v>1706.000</x:v>
       </x:c>
       <x:c r="G299" t="n">
-        <x:v>18</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H299" t="str">
-        <x:v>40.50</x:v>
+        <x:v>44.62</x:v>
       </x:c>
     </x:row>
     <x:row r="300">
       <x:c r="A300" t="str">
-        <x:v>DFC010</x:v>
+        <x:v>DFC003-1</x:v>
       </x:c>
       <x:c r="B300" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C300" t="str">
         <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D300" t="n">
-        <x:v>300</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E300" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F300" t="n">
-        <x:v>4394.246</x:v>
+        <x:v>1700.000</x:v>
       </x:c>
       <x:c r="G300" t="n">
-        <x:v>23</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H300" t="str">
-        <x:v>51.13</x:v>
+        <x:v>61.77</x:v>
       </x:c>
     </x:row>
     <x:row r="301">
       <x:c r="A301" t="str">
-        <x:v>DFV001</x:v>
+        <x:v>BC001</x:v>
       </x:c>
       <x:c r="B301" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C301" t="str">
-        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D301" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E301" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F301" t="n">
-        <x:v>1687.000</x:v>
+        <x:v>4100.000</x:v>
       </x:c>
       <x:c r="G301" t="n">
-        <x:v>3</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H301" t="str">
-        <x:v>84.73</x:v>
+        <x:v>41.45</x:v>
       </x:c>
     </x:row>
     <x:row r="302">
       <x:c r="A302" t="str">
-        <x:v>DFV002</x:v>
+        <x:v>BC002</x:v>
       </x:c>
       <x:c r="B302" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C302" t="str">
-        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D302" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E302" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F302" t="n">
-        <x:v>2200.000</x:v>
+        <x:v>6465.000</x:v>
       </x:c>
       <x:c r="G302" t="n">
-        <x:v>6</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H302" t="str">
-        <x:v>69.47</x:v>
+        <x:v>39.62</x:v>
       </x:c>
     </x:row>
     <x:row r="303">
       <x:c r="A303" t="str">
-        <x:v>DFV007</x:v>
+        <x:v>BC003</x:v>
       </x:c>
       <x:c r="B303" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.603 F</x:v>
       </x:c>
       <x:c r="C303" t="str">
-        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D303" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="E303" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F303" t="n">
-        <x:v>5101.000</x:v>
+        <x:v>9500.000</x:v>
       </x:c>
       <x:c r="G303" t="n">
-        <x:v>9</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H303" t="str">
-        <x:v>62.92</x:v>
+        <x:v>28.55</x:v>
       </x:c>
     </x:row>
     <x:row r="304">
       <x:c r="A304" t="str">
-        <x:v>DFV008</x:v>
+        <x:v>BC004</x:v>
       </x:c>
       <x:c r="B304" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.603 F</x:v>
       </x:c>
       <x:c r="C304" t="str">
-        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D304" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="E304" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F304" t="n">
-        <x:v>6665.979</x:v>
+        <x:v>4400.000</x:v>
       </x:c>
       <x:c r="G304" t="n">
-        <x:v>9</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H304" t="str">
-        <x:v>62.92</x:v>
+        <x:v>28.55</x:v>
       </x:c>
     </x:row>
     <x:row r="305">
       <x:c r="A305" t="str">
-        <x:v>DFV003</x:v>
+        <x:v>DFC004-2</x:v>
       </x:c>
       <x:c r="B305" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C305" t="str">
-        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D305" t="n">
-        <x:v>600</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E305" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F305" t="n">
-        <x:v>8151.985</x:v>
+        <x:v>1750.000</x:v>
       </x:c>
       <x:c r="G305" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H305" t="str">
-        <x:v>61.83</x:v>
+        <x:v>58.25</x:v>
       </x:c>
     </x:row>
     <x:row r="306">
       <x:c r="A306" t="str">
-        <x:v>DFV004</x:v>
+        <x:v>BC016</x:v>
       </x:c>
       <x:c r="B306" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>WSL 105.400 F</x:v>
       </x:c>
       <x:c r="C306" t="str">
-        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D306" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E306" t="n">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F306" t="n">
-        <x:v>3475.911</x:v>
+        <x:v>2915.000</x:v>
       </x:c>
       <x:c r="G306" t="n">
-        <x:v>13</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H306" t="str">
-        <x:v>53.25</x:v>
+        <x:v>28.10</x:v>
       </x:c>
     </x:row>
     <x:row r="307">
       <x:c r="A307" t="str">
-        <x:v>DFC012</x:v>
+        <x:v>DFV009</x:v>
       </x:c>
       <x:c r="B307" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C307" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
       </x:c>
       <x:c r="D307" t="n">
-        <x:v>200</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E307" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F307" t="n">
-        <x:v>3855.754</x:v>
+        <x:v>1000.000</x:v>
       </x:c>
       <x:c r="G307" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H307" t="str">
-        <x:v>82.55</x:v>
+        <x:v>100.00</x:v>
       </x:c>
     </x:row>
     <x:row r="308">
       <x:c r="A308" t="str">
-        <x:v>DFV005</x:v>
+        <x:v>C001</x:v>
       </x:c>
       <x:c r="B308" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C308" t="str">
-        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D308" t="n">
-        <x:v>200</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="E308" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="F308" t="n">
-        <x:v>14620.000</x:v>
+        <x:v>6000.000</x:v>
       </x:c>
       <x:c r="G308" t="n">
-        <x:v>4</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H308" t="str">
-        <x:v>74.25</x:v>
+        <x:v>58.38</x:v>
       </x:c>
     </x:row>
     <x:row r="309">
       <x:c r="A309" t="str">
-        <x:v>DFV006</x:v>
+        <x:v>DFB020</x:v>
       </x:c>
       <x:c r="B309" t="str">
-        <x:v>KL 100.203 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C309" t="str">
-        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D309" t="n">
-        <x:v>200</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E309" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F309" t="n">
-        <x:v>2150.000</x:v>
+        <x:v>3956.000</x:v>
       </x:c>
       <x:c r="G309" t="n">
-        <x:v>4</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H309" t="str">
-        <x:v>74.25</x:v>
+        <x:v>47.67</x:v>
       </x:c>
     </x:row>
     <x:row r="310">
       <x:c r="A310" t="str">
-        <x:v>DFC014</x:v>
+        <x:v>BC013</x:v>
       </x:c>
       <x:c r="B310" t="str">
-        <x:v>KL 100.303 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C310" t="str">
-        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D310" t="n">
-        <x:v>300</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E310" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F310" t="n">
-        <x:v>3744.215</x:v>
+        <x:v>12016.902</x:v>
       </x:c>
       <x:c r="G310" t="n">
-        <x:v>31</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H310" t="str">
-        <x:v>49.60</x:v>
+        <x:v>83.25</x:v>
       </x:c>
     </x:row>
     <x:row r="311">
       <x:c r="A311" t="str">
-        <x:v>DFV009</x:v>
+        <x:v>BC149</x:v>
       </x:c>
       <x:c r="B311" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C311" t="str">
-        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D311" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E311" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F311" t="n">
-        <x:v>5305.587</x:v>
+        <x:v>2947.000</x:v>
       </x:c>
       <x:c r="G311" t="n">
-        <x:v>0</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H311" t="str">
-        <x:v>100.00</x:v>
+        <x:v>41.45</x:v>
       </x:c>
     </x:row>
     <x:row r="312">
       <x:c r="A312" t="str">
-        <x:v>VFD010</x:v>
+        <x:v>BC166</x:v>
       </x:c>
       <x:c r="B312" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.603 F</x:v>
       </x:c>
       <x:c r="C312" t="str">
-        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D312" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="E312" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F312" t="n">
-        <x:v>5333.466</x:v>
+        <x:v>5424.940</x:v>
       </x:c>
       <x:c r="G312" t="n">
-        <x:v>9</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="H312" t="str">
-        <x:v>61.83</x:v>
+        <x:v>3.12</x:v>
       </x:c>
     </x:row>
     <x:row r="313">
       <x:c r="A313" t="str">
-        <x:v>VFD011</x:v>
+        <x:v>BC173</x:v>
       </x:c>
       <x:c r="B313" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 60.203 F</x:v>
       </x:c>
       <x:c r="C313" t="str">
-        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
+        <x:v>Type BC (Teal color) for LV and Instrumentation and  Control cables, divided by separator</x:v>
       </x:c>
       <x:c r="D313" t="n">
-        <x:v>600</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E313" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F313" t="n">
-        <x:v>2787.000</x:v>
+        <x:v>3400.000</x:v>
       </x:c>
       <x:c r="G313" t="n">
-        <x:v>9</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H313" t="str">
-        <x:v>61.83</x:v>
+        <x:v>58.35</x:v>
       </x:c>
     </x:row>
     <x:row r="314">
       <x:c r="A314" t="str">
-        <x:v>VFD012</x:v>
+        <x:v>C005</x:v>
       </x:c>
       <x:c r="B314" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 60.603 F</x:v>
       </x:c>
       <x:c r="C314" t="str">
-        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D314" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="E314" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F314" t="n">
-        <x:v>3000.000</x:v>
+        <x:v>11850.000</x:v>
       </x:c>
       <x:c r="G314" t="n">
-        <x:v>6</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H314" t="str">
-        <x:v>69.47</x:v>
+        <x:v>41.43</x:v>
       </x:c>
     </x:row>
     <x:row r="315">
       <x:c r="A315" t="str">
-        <x:v>VFD013</x:v>
+        <x:v>C011</x:v>
       </x:c>
       <x:c r="B315" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 60.603 F</x:v>
       </x:c>
       <x:c r="C315" t="str">
-        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D315" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="E315" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F315" t="n">
-        <x:v>4384.000</x:v>
+        <x:v>4135.930</x:v>
       </x:c>
       <x:c r="G315" t="n">
-        <x:v>3</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H315" t="str">
-        <x:v>84.73</x:v>
+        <x:v>47.75</x:v>
       </x:c>
     </x:row>
     <x:row r="316">
       <x:c r="A316" t="str">
-        <x:v>VFD105</x:v>
+        <x:v>C107-4</x:v>
       </x:c>
       <x:c r="B316" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C316" t="str">
-        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D316" t="n">
         <x:v>600</x:v>
@@ -8234,76 +8234,76 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F316" t="n">
-        <x:v>6997.239</x:v>
+        <x:v>7959.844</x:v>
       </x:c>
       <x:c r="G316" t="n">
-        <x:v>9</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H316" t="str">
-        <x:v>61.83</x:v>
+        <x:v>1.50</x:v>
       </x:c>
     </x:row>
     <x:row r="317">
       <x:c r="A317" t="str">
-        <x:v>VFD101</x:v>
+        <x:v>C132</x:v>
       </x:c>
       <x:c r="B317" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.403 F</x:v>
       </x:c>
       <x:c r="C317" t="str">
-        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D317" t="n">
-        <x:v>600</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="E317" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F317" t="n">
-        <x:v>4500.000</x:v>
+        <x:v>3278.000</x:v>
       </x:c>
       <x:c r="G317" t="n">
-        <x:v>13</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H317" t="str">
-        <x:v>53.25</x:v>
+        <x:v>20.68</x:v>
       </x:c>
     </x:row>
     <x:row r="318">
       <x:c r="A318" t="str">
-        <x:v>VFD102</x:v>
+        <x:v>C138-1</x:v>
       </x:c>
       <x:c r="B318" t="str">
-        <x:v>WSL 105.600 F</x:v>
+        <x:v>KL 60.503 F</x:v>
       </x:c>
       <x:c r="C318" t="str">
-        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D318" t="n">
-        <x:v>600</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="E318" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F318" t="n">
-        <x:v>8462.000</x:v>
+        <x:v>1037.693</x:v>
       </x:c>
       <x:c r="G318" t="n">
-        <x:v>13</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="H318" t="str">
-        <x:v>53.25</x:v>
+        <x:v>31.46</x:v>
       </x:c>
     </x:row>
     <x:row r="319">
       <x:c r="A319" t="str">
-        <x:v>VFD103</x:v>
+        <x:v>DFB002</x:v>
       </x:c>
       <x:c r="B319" t="str">
         <x:v>KL 100.603 F</x:v>
       </x:c>
       <x:c r="C319" t="str">
-        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
+        <x:v>Type B (Green color) for LV cables</x:v>
       </x:c>
       <x:c r="D319" t="n">
         <x:v>600</x:v>
@@ -8312,44 +8312,44 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F319" t="n">
-        <x:v>8196.993</x:v>
+        <x:v>1206.000</x:v>
       </x:c>
       <x:c r="G319" t="n">
-        <x:v>13</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H319" t="str">
-        <x:v>53.25</x:v>
+        <x:v>29.07</x:v>
       </x:c>
     </x:row>
     <x:row r="320">
       <x:c r="A320" t="str">
-        <x:v>VFD104</x:v>
+        <x:v>DFC013</x:v>
       </x:c>
       <x:c r="B320" t="str">
-        <x:v>KL 100.603 F</x:v>
+        <x:v>KL 60.303 F</x:v>
       </x:c>
       <x:c r="C320" t="str">
-        <x:v>Type VFD (Yellow color) for VFD cables</x:v>
+        <x:v>Type C (Red color) for Instrumentation and Control cables</x:v>
       </x:c>
       <x:c r="D320" t="n">
-        <x:v>600</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E320" t="n">
-        <x:v>100</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F320" t="n">
-        <x:v>6511.970</x:v>
+        <x:v>2800.000</x:v>
       </x:c>
       <x:c r="G320" t="n">
-        <x:v>13</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H320" t="str">
-        <x:v>53.25</x:v>
+        <x:v>39.27</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:tableParts>
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra21e0b597fa54344"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R70eaff2cbe3a4b70"/>
   </x:tableParts>
 </x:worksheet>
 </file>